--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="21" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="MPNVbT-motorbikes-psgr" sheetId="17" r:id="rId19"/>
     <sheet name="MPNVbT-motorbikes-frgt" sheetId="18" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2574,7 +2574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
@@ -4643,135 +4643,135 @@
       </c>
       <c r="E3" s="14">
         <f>Data!J23</f>
-        <v>9.9246334655016352E-2</v>
+        <v>9.793829616877181E-2</v>
       </c>
       <c r="F3" s="14">
         <f>Data!K23</f>
-        <v>9.9322181029181764E-2</v>
+        <v>9.7563274780050432E-2</v>
       </c>
       <c r="G3" s="14">
         <f>Data!L23</f>
-        <v>9.9423646431807233E-2</v>
+        <v>9.706158044570036E-2</v>
       </c>
       <c r="H3" s="14">
         <f>Data!M23</f>
-        <v>9.9558966796805551E-2</v>
+        <v>9.63924906999825E-2</v>
       </c>
       <c r="I3" s="14">
         <f>Data!N23</f>
-        <v>9.9738698562631345E-2</v>
+        <v>9.5503809373300497E-2</v>
       </c>
       <c r="J3" s="14">
         <f>Data!O23</f>
-        <v>9.9976119646789763E-2</v>
+        <v>9.4329883979073256E-2</v>
       </c>
       <c r="K3" s="14">
         <f>Data!P23</f>
-        <v>0.10028749869921928</v>
+        <v>9.2790274393963645E-2</v>
       </c>
       <c r="L3" s="14">
         <f>Data!Q23</f>
-        <v>0.10069204337913483</v>
+        <v>9.0790008602339642E-2</v>
       </c>
       <c r="M3" s="14">
         <f>Data!R23</f>
-        <v>0.10121124185307927</v>
+        <v>8.8222838650404409E-2</v>
       </c>
       <c r="N3" s="14">
         <f>Data!S23</f>
-        <v>0.10186723134327279</v>
+        <v>8.4979307337193458E-2</v>
       </c>
       <c r="O3" s="14">
         <f>Data!T23</f>
-        <v>0.10267984111843231</v>
+        <v>8.096136910715615E-2</v>
       </c>
       <c r="P3" s="14">
         <f>Data!U23</f>
-        <v>0.10366218964080433</v>
+        <v>7.610415989811814E-2</v>
       </c>
       <c r="Q3" s="14">
         <f>Data!V23</f>
-        <v>0.10481528538890343</v>
+        <v>7.0402693301471156E-2</v>
       </c>
       <c r="R3" s="14">
         <f>Data!W23</f>
-        <v>0.10612295260311078</v>
+        <v>6.3936950145602009E-2</v>
       </c>
       <c r="S3" s="14">
         <f>Data!X23</f>
-        <v>0.10754919519425249</v>
+        <v>5.6884912614880941E-2</v>
       </c>
       <c r="T3" s="14">
         <f>Data!Y23</f>
-        <v>0.10904010150526387</v>
+        <v>4.9513146180936024E-2</v>
       </c>
       <c r="U3" s="14">
         <f>Data!Z23</f>
-        <v>0.11053100781627526</v>
+        <v>4.2141379746991101E-2</v>
       </c>
       <c r="V3" s="14">
         <f>Data!AA23</f>
-        <v>0.11195725040741697</v>
+        <v>3.5089342216270039E-2</v>
       </c>
       <c r="W3" s="14">
         <f>Data!AB23</f>
-        <v>0.11326491762162431</v>
+        <v>2.8623599060400892E-2</v>
       </c>
       <c r="X3" s="14">
         <f>Data!AC23</f>
-        <v>0.11441801336972342</v>
+        <v>2.2922132463753908E-2</v>
       </c>
       <c r="Y3" s="14">
         <f>Data!AD23</f>
-        <v>0.11540036189209543</v>
+        <v>1.8064923254715898E-2</v>
       </c>
       <c r="Z3" s="14">
         <f>Data!AE23</f>
-        <v>0.11621297166725496</v>
+        <v>1.404698502467859E-2</v>
       </c>
       <c r="AA3" s="14">
         <f>Data!AF23</f>
-        <v>0.11686896115744848</v>
+        <v>1.0803453711467639E-2</v>
       </c>
       <c r="AB3" s="14">
         <f>Data!AG23</f>
-        <v>0.11738815963139292</v>
+        <v>8.2362837595324062E-3</v>
       </c>
       <c r="AC3" s="14">
         <f>Data!AH23</f>
-        <v>0.11779270431130845</v>
+        <v>6.2360179679084027E-3</v>
       </c>
       <c r="AD3" s="14">
         <f>Data!AI23</f>
-        <v>0.11810408336373798</v>
+        <v>4.6964083827987779E-3</v>
       </c>
       <c r="AE3" s="14">
         <f>Data!AJ23</f>
-        <v>0.1183415044478964</v>
+        <v>3.5224829885715514E-3</v>
       </c>
       <c r="AF3" s="14">
         <f>Data!AK23</f>
-        <v>0.11852123621372219</v>
+        <v>2.6338016618895621E-3</v>
       </c>
       <c r="AG3" s="14">
         <f>Data!AL23</f>
-        <v>0.11865655657872051</v>
+        <v>1.9647119161716742E-3</v>
       </c>
       <c r="AH3" s="14">
         <f>Data!AM23</f>
-        <v>0.11875802198134598</v>
+        <v>1.4630175818216157E-3</v>
       </c>
       <c r="AI3" s="14">
         <f>Data!AN23</f>
-        <v>0.11883386835551138</v>
+        <v>1.087996193100238E-3</v>
       </c>
       <c r="AJ3" s="14">
         <f>Data!AO23</f>
-        <v>0.1188904337893615</v>
+        <v>8.0830915743738962E-4</v>
       </c>
       <c r="AK3" s="14">
         <f>Data!AP23</f>
-        <v>0.11893254725748857</v>
+        <v>6.0007967416052244E-4</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.45">
@@ -5856,135 +5856,135 @@
       </c>
       <c r="E3" s="14">
         <f>Data!J30</f>
-        <v>7.9853890774704474E-3</v>
+        <v>6.677350591225901E-3</v>
       </c>
       <c r="F3" s="14">
         <f>Data!K30</f>
-        <v>8.4106881977561269E-3</v>
+        <v>6.6517819486247905E-3</v>
       </c>
       <c r="G3" s="14">
         <f>Data!L30</f>
-        <v>8.979642837327129E-3</v>
+        <v>6.6175768512202549E-3</v>
       </c>
       <c r="H3" s="14">
         <f>Data!M30</f>
-        <v>9.738434972400227E-3</v>
+        <v>6.5719588755771682E-3</v>
       </c>
       <c r="I3" s="14">
         <f>Data!N30</f>
-        <v>1.0746258520120493E-2</v>
+        <v>6.5113693307896452E-3</v>
       </c>
       <c r="J3" s="14">
         <f>Data!O30</f>
-        <v>1.2077567753303421E-2</v>
+        <v>6.4313320855869079E-3</v>
       </c>
       <c r="K3" s="14">
         <f>Data!P30</f>
-        <v>1.3823587105327589E-2</v>
+        <v>6.3263628000719456E-3</v>
       </c>
       <c r="L3" s="14">
         <f>Data!Q30</f>
-        <v>1.6092021138958794E-2</v>
+        <v>6.1899863621636018E-3</v>
       </c>
       <c r="M3" s="14">
         <f>Data!R30</f>
-        <v>1.9003362078483261E-2</v>
+        <v>6.0149588758083928E-3</v>
       </c>
       <c r="N3" s="14">
         <f>Data!S30</f>
-        <v>2.2681741647261729E-2</v>
+        <v>5.7938176411823951E-3</v>
       </c>
       <c r="O3" s="14">
         <f>Data!T30</f>
-        <v>2.7238350006116178E-2</v>
+        <v>5.5198779948400136E-3</v>
       </c>
       <c r="P3" s="14">
         <f>Data!U30</f>
-        <v>3.2746747302309039E-2</v>
+        <v>5.1887175596228505E-3</v>
       </c>
       <c r="Q3" s="14">
         <f>Data!V30</f>
-        <v>3.9212588453821674E-2</v>
+        <v>4.7999963663894066E-3</v>
       </c>
       <c r="R3" s="14">
         <f>Data!W30</f>
-        <v>4.6545169898202364E-2</v>
+        <v>4.3591674406935968E-3</v>
       </c>
       <c r="S3" s="14">
         <f>Data!X30</f>
-        <v>5.45426480374172E-2</v>
+        <v>3.8783654580456478E-3</v>
       </c>
       <c r="T3" s="14">
         <f>Data!Y30</f>
-        <v>6.2902719952242073E-2</v>
+        <v>3.37576462791423E-3</v>
       </c>
       <c r="U3" s="14">
         <f>Data!Z30</f>
-        <v>7.1262791867066966E-2</v>
+        <v>2.8731637977828122E-3</v>
       </c>
       <c r="V3" s="14">
         <f>Data!AA30</f>
-        <v>7.9260270006281788E-2</v>
+        <v>2.3923618151348632E-3</v>
       </c>
       <c r="W3" s="14">
         <f>Data!AB30</f>
-        <v>8.6592851450662478E-2</v>
+        <v>1.9515328894390534E-3</v>
       </c>
       <c r="X3" s="14">
         <f>Data!AC30</f>
-        <v>9.3058692602175114E-2</v>
+        <v>1.5628116962056095E-3</v>
       </c>
       <c r="Y3" s="14">
         <f>Data!AD30</f>
-        <v>9.8567089898367974E-2</v>
+        <v>1.2316512609884464E-3</v>
       </c>
       <c r="Z3" s="14">
         <f>Data!AE30</f>
-        <v>0.10312369825722244</v>
+        <v>9.5771161464606406E-4</v>
       </c>
       <c r="AA3" s="14">
         <f>Data!AF30</f>
-        <v>0.1068020778260009</v>
+        <v>7.3657038002006726E-4</v>
       </c>
       <c r="AB3" s="14">
         <f>Data!AG30</f>
-        <v>0.10971341876552537</v>
+        <v>5.615428936648582E-4</v>
       </c>
       <c r="AC3" s="14">
         <f>Data!AH30</f>
-        <v>0.11198185279915658</v>
+        <v>4.2516645575651352E-4</v>
       </c>
       <c r="AD3" s="14">
         <f>Data!AI30</f>
-        <v>0.11372787215118074</v>
+        <v>3.2019717024155212E-4</v>
       </c>
       <c r="AE3" s="14">
         <f>Data!AJ30</f>
-        <v>0.11505918138436366</v>
+        <v>2.4015992503881485E-4</v>
       </c>
       <c r="AF3" s="14">
         <f>Data!AK30</f>
-        <v>0.11606700493208393</v>
+        <v>1.7957038025129182E-4</v>
       </c>
       <c r="AG3" s="14">
         <f>Data!AL30</f>
-        <v>0.11682579706715704</v>
+        <v>1.3395240460820513E-4</v>
       </c>
       <c r="AH3" s="14">
         <f>Data!AM30</f>
-        <v>0.11739475170672803</v>
+        <v>9.9747307203669477E-5</v>
       </c>
       <c r="AI3" s="14">
         <f>Data!AN30</f>
-        <v>0.11782005082701372</v>
+        <v>7.4178664602558148E-5</v>
       </c>
       <c r="AJ3" s="14">
         <f>Data!AO30</f>
-        <v>0.11813723446986744</v>
+        <v>5.5109837943340817E-5</v>
       </c>
       <c r="AK3" s="14">
         <f>Data!AP30</f>
-        <v>0.11837338051038299</v>
+        <v>4.0912927054943815E-5</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.45">
@@ -14198,135 +14198,135 @@
       </c>
       <c r="E2" s="14">
         <f>Data!J78</f>
-        <v>1.098694263059318E-2</v>
+        <v>0</v>
       </c>
       <c r="F2" s="14">
         <f>Data!K78</f>
-        <v>1.4774031693273055E-2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="14">
         <f>Data!L78</f>
-        <v>1.984030573407751E-2</v>
+        <v>0</v>
       </c>
       <c r="H2" s="14">
         <f>Data!M78</f>
-        <v>2.6596993576865863E-2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="14">
         <f>Data!N78</f>
-        <v>3.5571189272636181E-2</v>
+        <v>0</v>
       </c>
       <c r="J2" s="14">
         <f>Data!O78</f>
-        <v>4.7425873177566781E-2</v>
+        <v>0</v>
       </c>
       <c r="K2" s="14">
         <f>Data!P78</f>
-        <v>6.2973356056996513E-2</v>
+        <v>0</v>
       </c>
       <c r="L2" s="14">
         <f>Data!Q78</f>
-        <v>8.317269649392238E-2</v>
+        <v>0</v>
       </c>
       <c r="M2" s="14">
         <f>Data!R78</f>
-        <v>0.10909682119561293</v>
+        <v>0</v>
       </c>
       <c r="N2" s="14">
         <f>Data!S78</f>
-        <v>0.14185106490048782</v>
+        <v>0</v>
       </c>
       <c r="O2" s="14">
         <f>Data!T78</f>
-        <v>0.18242552380635635</v>
+        <v>0</v>
       </c>
       <c r="P2" s="14">
         <f>Data!U78</f>
-        <v>0.23147521650098238</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="14">
         <f>Data!V78</f>
-        <v>0.28905049737499605</v>
+        <v>0</v>
       </c>
       <c r="R2" s="14">
         <f>Data!W78</f>
-        <v>0.35434369377420455</v>
+        <v>0</v>
       </c>
       <c r="S2" s="14">
         <f>Data!X78</f>
-        <v>0.42555748318834102</v>
+        <v>0</v>
       </c>
       <c r="T2" s="14">
         <f>Data!Y78</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U2" s="14">
         <f>Data!Z78</f>
-        <v>0.57444251681165903</v>
+        <v>0</v>
       </c>
       <c r="V2" s="14">
         <f>Data!AA78</f>
-        <v>0.6456563062257954</v>
+        <v>0</v>
       </c>
       <c r="W2" s="14">
         <f>Data!AB78</f>
-        <v>0.71094950262500389</v>
+        <v>0</v>
       </c>
       <c r="X2" s="14">
         <f>Data!AC78</f>
-        <v>0.76852478349901754</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="14">
         <f>Data!AD78</f>
-        <v>0.81757447619364365</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="14">
         <f>Data!AE78</f>
-        <v>0.85814893509951229</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="14">
         <f>Data!AF78</f>
-        <v>0.89090317880438707</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="14">
         <f>Data!AG78</f>
-        <v>0.91682730350607766</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="14">
         <f>Data!AH78</f>
-        <v>0.9370266439430035</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="14">
         <f>Data!AI78</f>
-        <v>0.95257412682243336</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="14">
         <f>Data!AJ78</f>
-        <v>0.96442881072736386</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="14">
         <f>Data!AK78</f>
-        <v>0.97340300642313404</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="14">
         <f>Data!AL78</f>
-        <v>0.98015969426592253</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="14">
         <f>Data!AM78</f>
-        <v>0.98522596830672693</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="14">
         <f>Data!AN78</f>
-        <v>0.98901305736940681</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="14">
         <f>Data!AO78</f>
-        <v>0.99183742884684012</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="14">
         <f>Data!AP78</f>
-        <v>0.99394019850841575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.45">
@@ -55278,8 +55278,8 @@
   </sheetPr>
   <dimension ref="A1:AP91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -57845,7 +57845,7 @@
       </c>
       <c r="E23" s="41">
         <f>E30</f>
-        <v>0.1190539106486557</v>
+        <v>0</v>
       </c>
       <c r="F23" s="7" t="str">
         <f t="shared" si="1"/>
@@ -57858,135 +57858,135 @@
       </c>
       <c r="J23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,J$7))</f>
-        <v>9.9246334655016352E-2</v>
+        <v>9.793829616877181E-2</v>
       </c>
       <c r="K23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,K$7))</f>
-        <v>9.9322181029181764E-2</v>
+        <v>9.7563274780050432E-2</v>
       </c>
       <c r="L23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,L$7))</f>
-        <v>9.9423646431807233E-2</v>
+        <v>9.706158044570036E-2</v>
       </c>
       <c r="M23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,M$7))</f>
-        <v>9.9558966796805551E-2</v>
+        <v>9.63924906999825E-2</v>
       </c>
       <c r="N23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,N$7))</f>
-        <v>9.9738698562631345E-2</v>
+        <v>9.5503809373300497E-2</v>
       </c>
       <c r="O23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,O$7))</f>
-        <v>9.9976119646789763E-2</v>
+        <v>9.4329883979073256E-2</v>
       </c>
       <c r="P23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,P$7))</f>
-        <v>0.10028749869921928</v>
+        <v>9.2790274393963645E-2</v>
       </c>
       <c r="Q23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,Q$7))</f>
-        <v>0.10069204337913483</v>
+        <v>9.0790008602339642E-2</v>
       </c>
       <c r="R23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,R$7))</f>
-        <v>0.10121124185307927</v>
+        <v>8.8222838650404409E-2</v>
       </c>
       <c r="S23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,S$7))</f>
-        <v>0.10186723134327279</v>
+        <v>8.4979307337193458E-2</v>
       </c>
       <c r="T23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,T$7))</f>
-        <v>0.10267984111843231</v>
+        <v>8.096136910715615E-2</v>
       </c>
       <c r="U23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,U$7))</f>
-        <v>0.10366218964080433</v>
+        <v>7.610415989811814E-2</v>
       </c>
       <c r="V23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,V$7))</f>
-        <v>0.10481528538890343</v>
+        <v>7.0402693301471156E-2</v>
       </c>
       <c r="W23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,W$7))</f>
-        <v>0.10612295260311078</v>
+        <v>6.3936950145602009E-2</v>
       </c>
       <c r="X23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,X$7))</f>
-        <v>0.10754919519425249</v>
+        <v>5.6884912614880941E-2</v>
       </c>
       <c r="Y23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,Y$7))</f>
-        <v>0.10904010150526387</v>
+        <v>4.9513146180936024E-2</v>
       </c>
       <c r="Z23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,Z$7))</f>
-        <v>0.11053100781627526</v>
+        <v>4.2141379746991101E-2</v>
       </c>
       <c r="AA23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AA$7))</f>
-        <v>0.11195725040741697</v>
+        <v>3.5089342216270039E-2</v>
       </c>
       <c r="AB23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AB$7))</f>
-        <v>0.11326491762162431</v>
+        <v>2.8623599060400892E-2</v>
       </c>
       <c r="AC23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AC$7))</f>
-        <v>0.11441801336972342</v>
+        <v>2.2922132463753908E-2</v>
       </c>
       <c r="AD23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AD$7))</f>
-        <v>0.11540036189209543</v>
+        <v>1.8064923254715898E-2</v>
       </c>
       <c r="AE23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AE$7))</f>
-        <v>0.11621297166725496</v>
+        <v>1.404698502467859E-2</v>
       </c>
       <c r="AF23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AF$7))</f>
-        <v>0.11686896115744848</v>
+        <v>1.0803453711467639E-2</v>
       </c>
       <c r="AG23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AG$7))</f>
-        <v>0.11738815963139292</v>
+        <v>8.2362837595324062E-3</v>
       </c>
       <c r="AH23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AH$7))</f>
-        <v>0.11779270431130845</v>
+        <v>6.2360179679084027E-3</v>
       </c>
       <c r="AI23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AI$7))</f>
-        <v>0.11810408336373798</v>
+        <v>4.6964083827987779E-3</v>
       </c>
       <c r="AJ23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AJ$7))</f>
-        <v>0.1183415044478964</v>
+        <v>3.5224829885715514E-3</v>
       </c>
       <c r="AK23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AK$7))</f>
-        <v>0.11852123621372219</v>
+        <v>2.6338016618895621E-3</v>
       </c>
       <c r="AL23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AL$7))</f>
-        <v>0.11865655657872051</v>
+        <v>1.9647119161716742E-3</v>
       </c>
       <c r="AM23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AM$7))</f>
-        <v>0.11875802198134598</v>
+        <v>1.4630175818216157E-3</v>
       </c>
       <c r="AN23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AN$7))</f>
-        <v>0.11883386835551138</v>
+        <v>1.087996193100238E-3</v>
       </c>
       <c r="AO23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AO$7))</f>
-        <v>0.1188904337893615</v>
+        <v>8.0830915743738962E-4</v>
       </c>
       <c r="AP23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AP$7))</f>
-        <v>0.11893254725748857</v>
+        <v>6.0007967416052244E-4</v>
       </c>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.45">
@@ -58924,8 +58924,7 @@
         <v>6.75152925582846E-3</v>
       </c>
       <c r="E30" s="41">
-        <f>SUM(INDEX('AEO 50'!$214:$214,MATCH(E$7,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$225:$225,MATCH(E$7,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$236:$236,MATCH(E$7,'AEO 50'!$1:$1,0)))*Assumptions!A2/INDEX('AEO 50'!$243:$243,MATCH(E$7,'AEO 50'!$1:$1,0))</f>
-        <v>0.1190539106486557</v>
+        <v>0</v>
       </c>
       <c r="F30" s="7" t="str">
         <f t="shared" si="1"/>
@@ -58938,135 +58937,135 @@
       </c>
       <c r="J30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,J$7))</f>
-        <v>7.9853890774704474E-3</v>
+        <v>6.677350591225901E-3</v>
       </c>
       <c r="K30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,K$7))</f>
-        <v>8.4106881977561269E-3</v>
+        <v>6.6517819486247905E-3</v>
       </c>
       <c r="L30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,L$7))</f>
-        <v>8.979642837327129E-3</v>
+        <v>6.6175768512202549E-3</v>
       </c>
       <c r="M30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,M$7))</f>
-        <v>9.738434972400227E-3</v>
+        <v>6.5719588755771682E-3</v>
       </c>
       <c r="N30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,N$7))</f>
-        <v>1.0746258520120493E-2</v>
+        <v>6.5113693307896452E-3</v>
       </c>
       <c r="O30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,O$7))</f>
-        <v>1.2077567753303421E-2</v>
+        <v>6.4313320855869079E-3</v>
       </c>
       <c r="P30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,P$7))</f>
-        <v>1.3823587105327589E-2</v>
+        <v>6.3263628000719456E-3</v>
       </c>
       <c r="Q30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,Q$7))</f>
-        <v>1.6092021138958794E-2</v>
+        <v>6.1899863621636018E-3</v>
       </c>
       <c r="R30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,R$7))</f>
-        <v>1.9003362078483261E-2</v>
+        <v>6.0149588758083928E-3</v>
       </c>
       <c r="S30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,S$7))</f>
-        <v>2.2681741647261729E-2</v>
+        <v>5.7938176411823951E-3</v>
       </c>
       <c r="T30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,T$7))</f>
-        <v>2.7238350006116178E-2</v>
+        <v>5.5198779948400136E-3</v>
       </c>
       <c r="U30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,U$7))</f>
-        <v>3.2746747302309039E-2</v>
+        <v>5.1887175596228505E-3</v>
       </c>
       <c r="V30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,V$7))</f>
-        <v>3.9212588453821674E-2</v>
+        <v>4.7999963663894066E-3</v>
       </c>
       <c r="W30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,W$7))</f>
-        <v>4.6545169898202364E-2</v>
+        <v>4.3591674406935968E-3</v>
       </c>
       <c r="X30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,X$7))</f>
-        <v>5.45426480374172E-2</v>
+        <v>3.8783654580456478E-3</v>
       </c>
       <c r="Y30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,Y$7))</f>
-        <v>6.2902719952242073E-2</v>
+        <v>3.37576462791423E-3</v>
       </c>
       <c r="Z30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,Z$7))</f>
-        <v>7.1262791867066966E-2</v>
+        <v>2.8731637977828122E-3</v>
       </c>
       <c r="AA30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AA$7))</f>
-        <v>7.9260270006281788E-2</v>
+        <v>2.3923618151348632E-3</v>
       </c>
       <c r="AB30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AB$7))</f>
-        <v>8.6592851450662478E-2</v>
+        <v>1.9515328894390534E-3</v>
       </c>
       <c r="AC30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AC$7))</f>
-        <v>9.3058692602175114E-2</v>
+        <v>1.5628116962056095E-3</v>
       </c>
       <c r="AD30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AD$7))</f>
-        <v>9.8567089898367974E-2</v>
+        <v>1.2316512609884464E-3</v>
       </c>
       <c r="AE30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AE$7))</f>
-        <v>0.10312369825722244</v>
+        <v>9.5771161464606406E-4</v>
       </c>
       <c r="AF30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AF$7))</f>
-        <v>0.1068020778260009</v>
+        <v>7.3657038002006726E-4</v>
       </c>
       <c r="AG30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AG$7))</f>
-        <v>0.10971341876552537</v>
+        <v>5.615428936648582E-4</v>
       </c>
       <c r="AH30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AH$7))</f>
-        <v>0.11198185279915658</v>
+        <v>4.2516645575651352E-4</v>
       </c>
       <c r="AI30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AI$7))</f>
-        <v>0.11372787215118074</v>
+        <v>3.2019717024155212E-4</v>
       </c>
       <c r="AJ30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AJ$7))</f>
-        <v>0.11505918138436366</v>
+        <v>2.4015992503881485E-4</v>
       </c>
       <c r="AK30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AK$7))</f>
-        <v>0.11606700493208393</v>
+        <v>1.7957038025129182E-4</v>
       </c>
       <c r="AL30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AL$7))</f>
-        <v>0.11682579706715704</v>
+        <v>1.3395240460820513E-4</v>
       </c>
       <c r="AM30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AM$7))</f>
-        <v>0.11739475170672803</v>
+        <v>9.9747307203669477E-5</v>
       </c>
       <c r="AN30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AN$7))</f>
-        <v>0.11782005082701372</v>
+        <v>7.4178664602558148E-5</v>
       </c>
       <c r="AO30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AO$7))</f>
-        <v>0.11813723446986744</v>
+        <v>5.5109837943340817E-5</v>
       </c>
       <c r="AP30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AP$7))</f>
-        <v>0.11837338051038299</v>
+        <v>4.0912927054943815E-5</v>
       </c>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.45">
@@ -66295,11 +66294,11 @@
         <v>0</v>
       </c>
       <c r="E78" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H78" s="42"/>
       <c r="I78" s="41">
@@ -66308,135 +66307,135 @@
       </c>
       <c r="J78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,J$7))</f>
-        <v>1.098694263059318E-2</v>
+        <v>0</v>
       </c>
       <c r="K78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,K$7))</f>
-        <v>1.4774031693273055E-2</v>
+        <v>0</v>
       </c>
       <c r="L78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,L$7))</f>
-        <v>1.984030573407751E-2</v>
+        <v>0</v>
       </c>
       <c r="M78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,M$7))</f>
-        <v>2.6596993576865863E-2</v>
+        <v>0</v>
       </c>
       <c r="N78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,N$7))</f>
-        <v>3.5571189272636181E-2</v>
+        <v>0</v>
       </c>
       <c r="O78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,O$7))</f>
-        <v>4.7425873177566781E-2</v>
+        <v>0</v>
       </c>
       <c r="P78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,P$7))</f>
-        <v>6.2973356056996513E-2</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,Q$7))</f>
-        <v>8.317269649392238E-2</v>
+        <v>0</v>
       </c>
       <c r="R78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,R$7))</f>
-        <v>0.10909682119561293</v>
+        <v>0</v>
       </c>
       <c r="S78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,S$7))</f>
-        <v>0.14185106490048782</v>
+        <v>0</v>
       </c>
       <c r="T78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,T$7))</f>
-        <v>0.18242552380635635</v>
+        <v>0</v>
       </c>
       <c r="U78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,U$7))</f>
-        <v>0.23147521650098238</v>
+        <v>0</v>
       </c>
       <c r="V78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,V$7))</f>
-        <v>0.28905049737499605</v>
+        <v>0</v>
       </c>
       <c r="W78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,W$7))</f>
-        <v>0.35434369377420455</v>
+        <v>0</v>
       </c>
       <c r="X78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,X$7))</f>
-        <v>0.42555748318834102</v>
+        <v>0</v>
       </c>
       <c r="Y78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,Y$7))</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,Z$7))</f>
-        <v>0.57444251681165903</v>
+        <v>0</v>
       </c>
       <c r="AA78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AA$7))</f>
-        <v>0.6456563062257954</v>
+        <v>0</v>
       </c>
       <c r="AB78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AB$7))</f>
-        <v>0.71094950262500389</v>
+        <v>0</v>
       </c>
       <c r="AC78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AC$7))</f>
-        <v>0.76852478349901754</v>
+        <v>0</v>
       </c>
       <c r="AD78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AD$7))</f>
-        <v>0.81757447619364365</v>
+        <v>0</v>
       </c>
       <c r="AE78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AE$7))</f>
-        <v>0.85814893509951229</v>
+        <v>0</v>
       </c>
       <c r="AF78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AF$7))</f>
-        <v>0.89090317880438707</v>
+        <v>0</v>
       </c>
       <c r="AG78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AG$7))</f>
-        <v>0.91682730350607766</v>
+        <v>0</v>
       </c>
       <c r="AH78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AH$7))</f>
-        <v>0.9370266439430035</v>
+        <v>0</v>
       </c>
       <c r="AI78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AI$7))</f>
-        <v>0.95257412682243336</v>
+        <v>0</v>
       </c>
       <c r="AJ78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AJ$7))</f>
-        <v>0.96442881072736386</v>
+        <v>0</v>
       </c>
       <c r="AK78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AK$7))</f>
-        <v>0.97340300642313404</v>
+        <v>0</v>
       </c>
       <c r="AL78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AL$7))</f>
-        <v>0.98015969426592253</v>
+        <v>0</v>
       </c>
       <c r="AM78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AM$7))</f>
-        <v>0.98522596830672693</v>
+        <v>0</v>
       </c>
       <c r="AN78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AN$7))</f>
-        <v>0.98901305736940681</v>
+        <v>0</v>
       </c>
       <c r="AO78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AO$7))</f>
-        <v>0.99183742884684012</v>
+        <v>0</v>
       </c>
       <c r="AP78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AP$7))</f>
-        <v>0.99394019850841575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:42" x14ac:dyDescent="0.45">

--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -33,7 +33,7 @@
     <sheet name="MPNVbT-motorbikes-psgr" sheetId="17" r:id="rId19"/>
     <sheet name="MPNVbT-motorbikes-frgt" sheetId="18" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3429,135 +3429,135 @@
       </c>
       <c r="E3" s="14">
         <f>Data!J16</f>
-        <v>5.7952717988414559E-4</v>
+        <v>5.4103905031390592E-4</v>
       </c>
       <c r="F3" s="14">
         <f>Data!K16</f>
-        <v>6.0110783913206595E-4</v>
+        <v>5.2413157999160048E-4</v>
       </c>
       <c r="G3" s="14">
         <f>Data!L16</f>
-        <v>6.2268849837997936E-4</v>
+        <v>5.072241096692881E-4</v>
       </c>
       <c r="H3" s="14">
         <f>Data!M16</f>
-        <v>6.4426915762789971E-4</v>
+        <v>4.9031663934697572E-4</v>
       </c>
       <c r="I3" s="14">
         <f>Data!N16</f>
-        <v>6.6584981687582007E-4</v>
+        <v>4.7340916902467028E-4</v>
       </c>
       <c r="J3" s="14">
         <f>Data!O16</f>
-        <v>6.8743047612374042E-4</v>
+        <v>4.5650169870235791E-4</v>
       </c>
       <c r="K3" s="14">
         <f>Data!P16</f>
-        <v>7.0901113537166077E-4</v>
+        <v>4.3959422838005247E-4</v>
       </c>
       <c r="L3" s="14">
         <f>Data!Q16</f>
-        <v>7.3059179461958113E-4</v>
+        <v>4.2268675805774009E-4</v>
       </c>
       <c r="M3" s="14">
         <f>Data!R16</f>
-        <v>7.5217245386750148E-4</v>
+        <v>4.0577928773542771E-4</v>
       </c>
       <c r="N3" s="14">
         <f>Data!S16</f>
-        <v>7.7375311311542183E-4</v>
+        <v>3.8887181741312227E-4</v>
       </c>
       <c r="O3" s="14">
         <f>Data!T16</f>
-        <v>7.9533377236333525E-4</v>
+        <v>3.7196434709080989E-4</v>
       </c>
       <c r="P3" s="14">
         <f>Data!U16</f>
-        <v>8.169144316112556E-4</v>
+        <v>3.5505687676850445E-4</v>
       </c>
       <c r="Q3" s="14">
         <f>Data!V16</f>
-        <v>8.3849509085917595E-4</v>
+        <v>3.3814940644619207E-4</v>
       </c>
       <c r="R3" s="14">
         <f>Data!W16</f>
-        <v>8.600757501070963E-4</v>
+        <v>3.2124193612387969E-4</v>
       </c>
       <c r="S3" s="14">
         <f>Data!X16</f>
-        <v>8.8165640935501666E-4</v>
+        <v>3.0433446580157425E-4</v>
       </c>
       <c r="T3" s="14">
         <f>Data!Y16</f>
-        <v>9.0323706860293701E-4</v>
+        <v>2.8742699547926187E-4</v>
       </c>
       <c r="U3" s="14">
         <f>Data!Z16</f>
-        <v>9.2481772785085736E-4</v>
+        <v>2.7051952515695643E-4</v>
       </c>
       <c r="V3" s="14">
         <f>Data!AA16</f>
-        <v>9.4639838709877772E-4</v>
+        <v>2.5361205483464405E-4</v>
       </c>
       <c r="W3" s="14">
         <f>Data!AB16</f>
-        <v>9.6797904634669113E-4</v>
+        <v>2.3670458451233167E-4</v>
       </c>
       <c r="X3" s="14">
         <f>Data!AC16</f>
-        <v>9.8955970559461148E-4</v>
+        <v>2.1979711419002623E-4</v>
       </c>
       <c r="Y3" s="14">
         <f>Data!AD16</f>
-        <v>1.0111403648425318E-3</v>
+        <v>2.0288964386771385E-4</v>
       </c>
       <c r="Z3" s="14">
         <f>Data!AE16</f>
-        <v>1.0327210240904522E-3</v>
+        <v>1.8598217354540147E-4</v>
       </c>
       <c r="AA3" s="14">
         <f>Data!AF16</f>
-        <v>1.0543016833383725E-3</v>
+        <v>1.6907470322309603E-4</v>
       </c>
       <c r="AB3" s="14">
         <f>Data!AG16</f>
-        <v>1.0758823425862929E-3</v>
+        <v>1.5216723290078366E-4</v>
       </c>
       <c r="AC3" s="14">
         <f>Data!AH16</f>
-        <v>1.0974630018342132E-3</v>
+        <v>1.3525976257847822E-4</v>
       </c>
       <c r="AD3" s="14">
         <f>Data!AI16</f>
-        <v>1.1190436610821336E-3</v>
+        <v>1.1835229225616584E-4</v>
       </c>
       <c r="AE3" s="14">
         <f>Data!AJ16</f>
-        <v>1.140624320330047E-3</v>
+        <v>1.0144482193385346E-4</v>
       </c>
       <c r="AF3" s="14">
         <f>Data!AK16</f>
-        <v>1.1622049795779674E-3</v>
+        <v>8.4537351611548017E-5</v>
       </c>
       <c r="AG3" s="14">
         <f>Data!AL16</f>
-        <v>1.1837856388258877E-3</v>
+        <v>6.7629881289235638E-5</v>
       </c>
       <c r="AH3" s="14">
         <f>Data!AM16</f>
-        <v>1.2053662980738081E-3</v>
+        <v>5.0722410966930198E-5</v>
       </c>
       <c r="AI3" s="14">
         <f>Data!AN16</f>
-        <v>1.2269469573217284E-3</v>
+        <v>3.3814940644617819E-5</v>
       </c>
       <c r="AJ3" s="14">
         <f>Data!AO16</f>
-        <v>1.2485276165696488E-3</v>
+        <v>1.690747032230544E-5</v>
       </c>
       <c r="AK3" s="14">
         <f>Data!AP16</f>
-        <v>1.2701082758175691E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.45">
@@ -3715,143 +3715,143 @@
       </c>
       <c r="B5" s="57">
         <f t="shared" si="0"/>
-        <v>0.34388074989867007</v>
+        <v>1</v>
       </c>
       <c r="C5" s="57">
         <f t="shared" si="1"/>
-        <v>0.34388074989867007</v>
+        <v>1</v>
       </c>
       <c r="D5" s="14">
         <f>Data!I18</f>
-        <v>0.34388074989867007</v>
+        <v>1</v>
       </c>
       <c r="E5" s="14">
         <f>Data!J18</f>
-        <v>0.3637631514168973</v>
+        <v>1</v>
       </c>
       <c r="F5" s="14">
         <f>Data!K18</f>
-        <v>0.38364555293512126</v>
+        <v>1</v>
       </c>
       <c r="G5" s="14">
         <f>Data!L18</f>
-        <v>0.40352795445333811</v>
+        <v>1</v>
       </c>
       <c r="H5" s="14">
         <f>Data!M18</f>
-        <v>0.42341035597156207</v>
+        <v>1</v>
       </c>
       <c r="I5" s="14">
         <f>Data!N18</f>
-        <v>0.44329275748978603</v>
+        <v>1</v>
       </c>
       <c r="J5" s="14">
         <f>Data!O18</f>
-        <v>0.46317515900800288</v>
+        <v>1</v>
       </c>
       <c r="K5" s="14">
         <f>Data!P18</f>
-        <v>0.48305756052622684</v>
+        <v>1</v>
       </c>
       <c r="L5" s="14">
         <f>Data!Q18</f>
-        <v>0.50293996204445079</v>
+        <v>1</v>
       </c>
       <c r="M5" s="14">
         <f>Data!R18</f>
-        <v>0.52282236356267475</v>
+        <v>1</v>
       </c>
       <c r="N5" s="14">
         <f>Data!S18</f>
-        <v>0.5427047650808916</v>
+        <v>1</v>
       </c>
       <c r="O5" s="14">
         <f>Data!T18</f>
-        <v>0.56258716659911556</v>
+        <v>1</v>
       </c>
       <c r="P5" s="14">
         <f>Data!U18</f>
-        <v>0.58246956811733952</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="14">
         <f>Data!V18</f>
-        <v>0.60235196963556348</v>
+        <v>1</v>
       </c>
       <c r="R5" s="14">
         <f>Data!W18</f>
-        <v>0.62223437115378033</v>
+        <v>1</v>
       </c>
       <c r="S5" s="14">
         <f>Data!X18</f>
-        <v>0.64211677267200429</v>
+        <v>1</v>
       </c>
       <c r="T5" s="14">
         <f>Data!Y18</f>
-        <v>0.66199917419022825</v>
+        <v>1</v>
       </c>
       <c r="U5" s="14">
         <f>Data!Z18</f>
-        <v>0.6818815757084522</v>
+        <v>1</v>
       </c>
       <c r="V5" s="14">
         <f>Data!AA18</f>
-        <v>0.70176397722666906</v>
+        <v>1</v>
       </c>
       <c r="W5" s="14">
         <f>Data!AB18</f>
-        <v>0.72164637874489301</v>
+        <v>1</v>
       </c>
       <c r="X5" s="14">
         <f>Data!AC18</f>
-        <v>0.74152878026311697</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="14">
         <f>Data!AD18</f>
-        <v>0.76141118178134093</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="14">
         <f>Data!AE18</f>
-        <v>0.78129358329955778</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="14">
         <f>Data!AF18</f>
-        <v>0.80117598481778174</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="14">
         <f>Data!AG18</f>
-        <v>0.8210583863360057</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="14">
         <f>Data!AH18</f>
-        <v>0.84094078785422965</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="14">
         <f>Data!AI18</f>
-        <v>0.86082318937244651</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="14">
         <f>Data!AJ18</f>
-        <v>0.88070559089067046</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="14">
         <f>Data!AK18</f>
-        <v>0.90058799240889442</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="14">
         <f>Data!AL18</f>
-        <v>0.92047039392711838</v>
+        <v>1</v>
       </c>
       <c r="AH5" s="14">
         <f>Data!AM18</f>
-        <v>0.94035279544533523</v>
+        <v>1</v>
       </c>
       <c r="AI5" s="14">
         <f>Data!AN18</f>
-        <v>0.96023519696355919</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="14">
         <f>Data!AO18</f>
-        <v>0.98011759848178315</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="14">
         <f>Data!AP18</f>
@@ -3876,135 +3876,135 @@
       </c>
       <c r="E6" s="14">
         <f>Data!J19</f>
-        <v>2.4978407980884641E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="F6" s="14">
         <f>Data!K19</f>
-        <v>2.8729827765517297E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="G6" s="14">
         <f>Data!L19</f>
-        <v>3.3748384328746248E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="H6" s="14">
         <f>Data!M19</f>
-        <v>4.0441433272804259E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="I6" s="14">
         <f>Data!N19</f>
-        <v>4.9331104132684898E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="J6" s="14">
         <f>Data!O19</f>
-        <v>6.107413288259581E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="K6" s="14">
         <f>Data!P19</f>
-        <v>7.6475179414587664E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="L6" s="14">
         <f>Data!Q19</f>
-        <v>9.6484269271585182E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="M6" s="14">
         <f>Data!R19</f>
-        <v>1.2216422363642575E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="N6" s="14">
         <f>Data!S19</f>
-        <v>1.5460996648309563E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="O6" s="14">
         <f>Data!T19</f>
-        <v>1.9480226863680561E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="P6" s="14">
         <f>Data!U19</f>
-        <v>2.4338997929248343E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Q6" s="14">
         <f>Data!V19</f>
-        <v>3.004229785702231E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="R6" s="14">
         <f>Data!W19</f>
-        <v>3.6510120100436014E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="S6" s="14">
         <f>Data!X19</f>
-        <v>4.3564425244181658E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="T6" s="14">
         <f>Data!Y19</f>
-        <v>5.0938562101356305E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="U6" s="14">
         <f>Data!Z19</f>
-        <v>5.8312698958530959E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="V6" s="14">
         <f>Data!AA19</f>
-        <v>6.5367004102276582E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="W6" s="14">
         <f>Data!AB19</f>
-        <v>7.1834826345690286E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="X6" s="14">
         <f>Data!AC19</f>
-        <v>7.753812627346425E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Y6" s="14">
         <f>Data!AD19</f>
-        <v>8.2396897339032035E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Z6" s="14">
         <f>Data!AE19</f>
-        <v>8.6416127554403047E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AA6" s="14">
         <f>Data!AF19</f>
-        <v>8.9660701839070031E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AB6" s="14">
         <f>Data!AG19</f>
-        <v>9.2228697275554092E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AC6" s="14">
         <f>Data!AH19</f>
-        <v>9.4229606261253832E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AD6" s="14">
         <f>Data!AI19</f>
-        <v>9.5769710914453021E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AE6" s="14">
         <f>Data!AJ19</f>
-        <v>9.6944013789444117E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AF6" s="14">
         <f>Data!AK19</f>
-        <v>9.7832980875432171E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AG6" s="14">
         <f>Data!AL19</f>
-        <v>9.850228576983798E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AH6" s="14">
         <f>Data!AM19</f>
-        <v>9.9004141426160874E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AI6" s="14">
         <f>Data!AN19</f>
-        <v>9.9379283404624139E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AJ6" s="14">
         <f>Data!AO19</f>
-        <v>9.965906037485725E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AK6" s="14">
         <f>Data!AP19</f>
-        <v>9.9867356815220826E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.45">
@@ -4013,143 +4013,143 @@
       </c>
       <c r="B7" s="14">
         <f t="shared" si="0"/>
-        <v>3.0073756374842439E-6</v>
+        <v>0</v>
       </c>
       <c r="C7" s="14">
         <f t="shared" si="1"/>
-        <v>3.0073756374842439E-6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="14">
         <f>Data!I20</f>
-        <v>3.0073756374842439E-6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="14">
         <f>Data!J20</f>
-        <v>2.9162430424089765E-6</v>
+        <v>0</v>
       </c>
       <c r="F7" s="14">
         <f>Data!K20</f>
-        <v>2.8251104473336799E-6</v>
+        <v>0</v>
       </c>
       <c r="G7" s="14">
         <f>Data!L20</f>
-        <v>2.7339778522584104E-6</v>
+        <v>0</v>
       </c>
       <c r="H7" s="14">
         <f>Data!M20</f>
-        <v>2.6428452571831409E-6</v>
+        <v>0</v>
       </c>
       <c r="I7" s="14">
         <f>Data!N20</f>
-        <v>2.5517126621078443E-6</v>
+        <v>0</v>
       </c>
       <c r="J7" s="14">
         <f>Data!O20</f>
-        <v>2.4605800670325748E-6</v>
+        <v>0</v>
       </c>
       <c r="K7" s="14">
         <f>Data!P20</f>
-        <v>2.3694474719572782E-6</v>
+        <v>0</v>
       </c>
       <c r="L7" s="14">
         <f>Data!Q20</f>
-        <v>2.2783148768820087E-6</v>
+        <v>0</v>
       </c>
       <c r="M7" s="14">
         <f>Data!R20</f>
-        <v>2.1871822818067392E-6</v>
+        <v>0</v>
       </c>
       <c r="N7" s="14">
         <f>Data!S20</f>
-        <v>2.0960496867314425E-6</v>
+        <v>0</v>
       </c>
       <c r="O7" s="14">
         <f>Data!T20</f>
-        <v>2.004917091656173E-6</v>
+        <v>0</v>
       </c>
       <c r="P7" s="14">
         <f>Data!U20</f>
-        <v>1.9137844965808764E-6</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="14">
         <f>Data!V20</f>
-        <v>1.8226519015056069E-6</v>
+        <v>0</v>
       </c>
       <c r="R7" s="14">
         <f>Data!W20</f>
-        <v>1.7315193064303374E-6</v>
+        <v>0</v>
       </c>
       <c r="S7" s="14">
         <f>Data!X20</f>
-        <v>1.6403867113550408E-6</v>
+        <v>0</v>
       </c>
       <c r="T7" s="14">
         <f>Data!Y20</f>
-        <v>1.5492541162797713E-6</v>
+        <v>0</v>
       </c>
       <c r="U7" s="14">
         <f>Data!Z20</f>
-        <v>1.4581215212044747E-6</v>
+        <v>0</v>
       </c>
       <c r="V7" s="14">
         <f>Data!AA20</f>
-        <v>1.3669889261292052E-6</v>
+        <v>0</v>
       </c>
       <c r="W7" s="14">
         <f>Data!AB20</f>
-        <v>1.2758563310539357E-6</v>
+        <v>0</v>
       </c>
       <c r="X7" s="14">
         <f>Data!AC20</f>
-        <v>1.1847237359786391E-6</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="14">
         <f>Data!AD20</f>
-        <v>1.0935911409033696E-6</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="14">
         <f>Data!AE20</f>
-        <v>1.0024585458281001E-6</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="14">
         <f>Data!AF20</f>
-        <v>9.1132595075280346E-7</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="14">
         <f>Data!AG20</f>
-        <v>8.2019335567753396E-7</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="14">
         <f>Data!AH20</f>
-        <v>7.2906076060223735E-7</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="14">
         <f>Data!AI20</f>
-        <v>6.3792816552696785E-7</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="14">
         <f>Data!AJ20</f>
-        <v>5.4679557045169834E-7</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="14">
         <f>Data!AK20</f>
-        <v>4.5566297537640173E-7</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="14">
         <f>Data!AL20</f>
-        <v>3.6453038030113223E-7</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="14">
         <f>Data!AM20</f>
-        <v>2.7339778522583562E-7</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="14">
         <f>Data!AN20</f>
-        <v>1.8226519015056611E-7</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="14">
         <f>Data!AO20</f>
-        <v>9.1132595075296609E-8</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="14">
         <f>Data!AP20</f>
@@ -4482,147 +4482,147 @@
       </c>
       <c r="B2" s="57">
         <f>D2</f>
-        <v>3.010505804728952E-4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="57">
         <f>D2</f>
-        <v>3.010505804728952E-4</v>
+        <v>0</v>
       </c>
       <c r="D2" s="14">
         <f>Data!I22</f>
-        <v>3.010505804728952E-4</v>
+        <v>0</v>
       </c>
       <c r="E2" s="14">
         <f>Data!J22</f>
-        <v>1.1284685585609511E-2</v>
+        <v>1.098694263059318E-2</v>
       </c>
       <c r="F2" s="14">
         <f>Data!K22</f>
-        <v>1.5070634542928764E-2</v>
+        <v>1.4774031693273055E-2</v>
       </c>
       <c r="G2" s="14">
         <f>Data!L22</f>
-        <v>2.01353833789924E-2</v>
+        <v>1.984030573407751E-2</v>
       </c>
       <c r="H2" s="14">
         <f>Data!M22</f>
-        <v>2.6890037116983612E-2</v>
+        <v>2.6596993576865863E-2</v>
       </c>
       <c r="I2" s="14">
         <f>Data!N22</f>
-        <v>3.5861531125930435E-2</v>
+        <v>3.5571189272636181E-2</v>
       </c>
       <c r="J2" s="14">
         <f>Data!O22</f>
-        <v>4.7712646171390136E-2</v>
+        <v>4.7425873177566781E-2</v>
       </c>
       <c r="K2" s="14">
         <f>Data!P22</f>
-        <v>6.3255448472074108E-2</v>
+        <v>6.2973356056996513E-2</v>
       </c>
       <c r="L2" s="14">
         <f>Data!Q22</f>
-        <v>8.3448707885836276E-2</v>
+        <v>8.317269649392238E-2</v>
       </c>
       <c r="M2" s="14">
         <f>Data!R22</f>
-        <v>0.10936502811473713</v>
+        <v>0.10909682119561293</v>
       </c>
       <c r="N2" s="14">
         <f>Data!S22</f>
-        <v>0.14210941113553172</v>
+        <v>0.14185106490048782</v>
       </c>
       <c r="O2" s="14">
         <f>Data!T22</f>
-        <v>0.18267165507699426</v>
+        <v>0.18242552380635635</v>
       </c>
       <c r="P2" s="14">
         <f>Data!U22</f>
-        <v>0.23170658133316255</v>
+        <v>0.23147521650098238</v>
       </c>
       <c r="Q2" s="14">
         <f>Data!V22</f>
-        <v>0.28926452913544826</v>
+        <v>0.28905049737499605</v>
       </c>
       <c r="R2" s="14">
         <f>Data!W22</f>
-        <v>0.3545380689799798</v>
+        <v>0.35434369377420455</v>
       </c>
       <c r="S2" s="14">
         <f>Data!X22</f>
-        <v>0.42573041944147549</v>
+        <v>0.42555748318834102</v>
       </c>
       <c r="T2" s="14">
         <f>Data!Y22</f>
-        <v>0.5001505252902364</v>
+        <v>0.5</v>
       </c>
       <c r="U2" s="14">
         <f>Data!Z22</f>
-        <v>0.57457063113899742</v>
+        <v>0.57444251681165903</v>
       </c>
       <c r="V2" s="14">
         <f>Data!AA22</f>
-        <v>0.64576298160049306</v>
+        <v>0.6456563062257954</v>
       </c>
       <c r="W2" s="14">
         <f>Data!AB22</f>
-        <v>0.71103652144502461</v>
+        <v>0.71094950262500389</v>
       </c>
       <c r="X2" s="14">
         <f>Data!AC22</f>
-        <v>0.76859446924731034</v>
+        <v>0.76852478349901754</v>
       </c>
       <c r="Y2" s="14">
         <f>Data!AD22</f>
-        <v>0.81762939550347857</v>
+        <v>0.81757447619364365</v>
       </c>
       <c r="Z2" s="14">
         <f>Data!AE22</f>
-        <v>0.85819163944494126</v>
+        <v>0.85814893509951229</v>
       </c>
       <c r="AA2" s="14">
         <f>Data!AF22</f>
-        <v>0.89093602246573578</v>
+        <v>0.89090317880438707</v>
       </c>
       <c r="AB2" s="14">
         <f>Data!AG22</f>
-        <v>0.91685234269463667</v>
+        <v>0.91682730350607766</v>
       </c>
       <c r="AC2" s="14">
         <f>Data!AH22</f>
-        <v>0.93704560210839882</v>
+        <v>0.9370266439430035</v>
       </c>
       <c r="AD2" s="14">
         <f>Data!AI22</f>
-        <v>0.95258840440908288</v>
+        <v>0.95257412682243336</v>
       </c>
       <c r="AE2" s="14">
         <f>Data!AJ22</f>
-        <v>0.96443951945454254</v>
+        <v>0.96442881072736386</v>
       </c>
       <c r="AF2" s="14">
         <f>Data!AK22</f>
-        <v>0.97341101346348924</v>
+        <v>0.97340300642313404</v>
       </c>
       <c r="AG2" s="14">
         <f>Data!AL22</f>
-        <v>0.98016566720148057</v>
+        <v>0.98015969426592253</v>
       </c>
       <c r="AH2" s="14">
         <f>Data!AM22</f>
-        <v>0.98523041603754413</v>
+        <v>0.98522596830672693</v>
       </c>
       <c r="AI2" s="14">
         <f>Data!AN22</f>
-        <v>0.98901636499486345</v>
+        <v>0.98901305736940681</v>
       </c>
       <c r="AJ2" s="14">
         <f>Data!AO22</f>
-        <v>0.99183988619362395</v>
+        <v>0.99183742884684012</v>
       </c>
       <c r="AK2" s="14">
         <f>Data!AP22</f>
-        <v>0.99394202281517241</v>
+        <v>0.99394019850841575</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.45">
@@ -4631,147 +4631,147 @@
       </c>
       <c r="B3" s="57">
         <f t="shared" ref="B3:B8" si="0">D3</f>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="57">
         <f t="shared" ref="C3:C8" si="1">D3</f>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="14">
         <f>Data!I23</f>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="14">
         <f>Data!J23</f>
-        <v>9.793829616877181E-2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="14">
         <f>Data!K23</f>
-        <v>9.7563274780050432E-2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="14">
         <f>Data!L23</f>
-        <v>9.706158044570036E-2</v>
+        <v>0</v>
       </c>
       <c r="H3" s="14">
         <f>Data!M23</f>
-        <v>9.63924906999825E-2</v>
+        <v>0</v>
       </c>
       <c r="I3" s="14">
         <f>Data!N23</f>
-        <v>9.5503809373300497E-2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="14">
         <f>Data!O23</f>
-        <v>9.4329883979073256E-2</v>
+        <v>0</v>
       </c>
       <c r="K3" s="14">
         <f>Data!P23</f>
-        <v>9.2790274393963645E-2</v>
+        <v>0</v>
       </c>
       <c r="L3" s="14">
         <f>Data!Q23</f>
-        <v>9.0790008602339642E-2</v>
+        <v>0</v>
       </c>
       <c r="M3" s="14">
         <f>Data!R23</f>
-        <v>8.8222838650404409E-2</v>
+        <v>0</v>
       </c>
       <c r="N3" s="14">
         <f>Data!S23</f>
-        <v>8.4979307337193458E-2</v>
+        <v>0</v>
       </c>
       <c r="O3" s="14">
         <f>Data!T23</f>
-        <v>8.096136910715615E-2</v>
+        <v>0</v>
       </c>
       <c r="P3" s="14">
         <f>Data!U23</f>
-        <v>7.610415989811814E-2</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="14">
         <f>Data!V23</f>
-        <v>7.0402693301471156E-2</v>
+        <v>0</v>
       </c>
       <c r="R3" s="14">
         <f>Data!W23</f>
-        <v>6.3936950145602009E-2</v>
+        <v>0</v>
       </c>
       <c r="S3" s="14">
         <f>Data!X23</f>
-        <v>5.6884912614880941E-2</v>
+        <v>0</v>
       </c>
       <c r="T3" s="14">
         <f>Data!Y23</f>
-        <v>4.9513146180936024E-2</v>
+        <v>0</v>
       </c>
       <c r="U3" s="14">
         <f>Data!Z23</f>
-        <v>4.2141379746991101E-2</v>
+        <v>0</v>
       </c>
       <c r="V3" s="14">
         <f>Data!AA23</f>
-        <v>3.5089342216270039E-2</v>
+        <v>0</v>
       </c>
       <c r="W3" s="14">
         <f>Data!AB23</f>
-        <v>2.8623599060400892E-2</v>
+        <v>0</v>
       </c>
       <c r="X3" s="14">
         <f>Data!AC23</f>
-        <v>2.2922132463753908E-2</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="14">
         <f>Data!AD23</f>
-        <v>1.8064923254715898E-2</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="14">
         <f>Data!AE23</f>
-        <v>1.404698502467859E-2</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="14">
         <f>Data!AF23</f>
-        <v>1.0803453711467639E-2</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="14">
         <f>Data!AG23</f>
-        <v>8.2362837595324062E-3</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="14">
         <f>Data!AH23</f>
-        <v>6.2360179679084027E-3</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="14">
         <f>Data!AI23</f>
-        <v>4.6964083827987779E-3</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="14">
         <f>Data!AJ23</f>
-        <v>3.5224829885715514E-3</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="14">
         <f>Data!AK23</f>
-        <v>2.6338016618895621E-3</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="14">
         <f>Data!AL23</f>
-        <v>1.9647119161716742E-3</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="14">
         <f>Data!AM23</f>
-        <v>1.4630175818216157E-3</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="14">
         <f>Data!AN23</f>
-        <v>1.087996193100238E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="14">
         <f>Data!AO23</f>
-        <v>8.0830915743738962E-4</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="14">
         <f>Data!AP23</f>
-        <v>6.0007967416052244E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.45">
@@ -4780,147 +4780,147 @@
       </c>
       <c r="B4" s="57">
         <f t="shared" si="0"/>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="57">
         <f t="shared" si="1"/>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="14">
         <f>Data!I24</f>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="14">
         <f>Data!J24</f>
-        <v>0.10214288480576172</v>
+        <v>6.117389182128008E-3</v>
       </c>
       <c r="F4" s="14">
         <f>Data!K24</f>
-        <v>0.10525947724965157</v>
+        <v>1.2234778364256016E-2</v>
       </c>
       <c r="G4" s="14">
         <f>Data!L24</f>
-        <v>0.10837606969354141</v>
+        <v>1.8352167546384024E-2</v>
       </c>
       <c r="H4" s="14">
         <f>Data!M24</f>
-        <v>0.11149266213743037</v>
+        <v>2.4469556728512032E-2</v>
       </c>
       <c r="I4" s="14">
         <f>Data!N24</f>
-        <v>0.11460925458132021</v>
+        <v>3.0586945910641816E-2</v>
       </c>
       <c r="J4" s="14">
         <f>Data!O24</f>
-        <v>0.11772584702521005</v>
+        <v>3.6704335092769824E-2</v>
       </c>
       <c r="K4" s="14">
         <f>Data!P24</f>
-        <v>0.12084243946909989</v>
+        <v>4.2821724274897832E-2</v>
       </c>
       <c r="L4" s="14">
         <f>Data!Q24</f>
-        <v>0.12395903191298885</v>
+        <v>4.893911345702584E-2</v>
       </c>
       <c r="M4" s="14">
         <f>Data!R24</f>
-        <v>0.12707562435687869</v>
+        <v>5.5056502639153848E-2</v>
       </c>
       <c r="N4" s="14">
         <f>Data!S24</f>
-        <v>0.13019221680076853</v>
+        <v>6.1173891821281856E-2</v>
       </c>
       <c r="O4" s="14">
         <f>Data!T24</f>
-        <v>0.13330880924465838</v>
+        <v>6.7291281003409864E-2</v>
       </c>
       <c r="P4" s="14">
         <f>Data!U24</f>
-        <v>0.13642540168854822</v>
+        <v>7.3408670185537872E-2</v>
       </c>
       <c r="Q4" s="14">
         <f>Data!V24</f>
-        <v>0.13954199413243717</v>
+        <v>7.952605936766588E-2</v>
       </c>
       <c r="R4" s="14">
         <f>Data!W24</f>
-        <v>0.14265858657632702</v>
+        <v>8.5643448549793888E-2</v>
       </c>
       <c r="S4" s="14">
         <f>Data!X24</f>
-        <v>0.14577517902021686</v>
+        <v>9.1760837731921896E-2</v>
       </c>
       <c r="T4" s="14">
         <f>Data!Y24</f>
-        <v>0.1488917714641067</v>
+        <v>9.787822691405168E-2</v>
       </c>
       <c r="U4" s="14">
         <f>Data!Z24</f>
-        <v>0.15200836390799566</v>
+        <v>0.10399561609617969</v>
       </c>
       <c r="V4" s="14">
         <f>Data!AA24</f>
-        <v>0.1551249563518855</v>
+        <v>0.1101130052783077</v>
       </c>
       <c r="W4" s="14">
         <f>Data!AB24</f>
-        <v>0.15824154879577534</v>
+        <v>0.1162303944604357</v>
       </c>
       <c r="X4" s="14">
         <f>Data!AC24</f>
-        <v>0.16135814123966519</v>
+        <v>0.12234778364256371</v>
       </c>
       <c r="Y4" s="14">
         <f>Data!AD24</f>
-        <v>0.16447473368355414</v>
+        <v>0.12846517282469172</v>
       </c>
       <c r="Z4" s="14">
         <f>Data!AE24</f>
-        <v>0.16759132612744398</v>
+        <v>0.13458256200681973</v>
       </c>
       <c r="AA4" s="14">
         <f>Data!AF24</f>
-        <v>0.17070791857133383</v>
+        <v>0.14069995118894774</v>
       </c>
       <c r="AB4" s="14">
         <f>Data!AG24</f>
-        <v>0.17382451101522367</v>
+        <v>0.14681734037107574</v>
       </c>
       <c r="AC4" s="14">
         <f>Data!AH24</f>
-        <v>0.17694110345911263</v>
+        <v>0.15293472955320375</v>
       </c>
       <c r="AD4" s="14">
         <f>Data!AI24</f>
-        <v>0.18005769590300247</v>
+        <v>0.15905211873533354</v>
       </c>
       <c r="AE4" s="14">
         <f>Data!AJ24</f>
-        <v>0.18317428834689231</v>
+        <v>0.16516950791746154</v>
       </c>
       <c r="AF4" s="14">
         <f>Data!AK24</f>
-        <v>0.18629088079078215</v>
+        <v>0.17128689709958955</v>
       </c>
       <c r="AG4" s="14">
         <f>Data!AL24</f>
-        <v>0.18940747323467111</v>
+        <v>0.17740428628171756</v>
       </c>
       <c r="AH4" s="14">
         <f>Data!AM24</f>
-        <v>0.19252406567856095</v>
+        <v>0.18352167546384557</v>
       </c>
       <c r="AI4" s="14">
         <f>Data!AN24</f>
-        <v>0.19564065812245079</v>
+        <v>0.18963906464597358</v>
       </c>
       <c r="AJ4" s="14">
         <f>Data!AO24</f>
-        <v>0.19875725056634064</v>
+        <v>0.19575645382810158</v>
       </c>
       <c r="AK4" s="14">
         <f>Data!AP24</f>
-        <v>0.20187384301023048</v>
+        <v>0.20187384301022959</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.45">
@@ -9334,147 +9334,147 @@
       </c>
       <c r="B2" s="57">
         <f>D2</f>
-        <v>0.5118281341400337</v>
+        <v>1</v>
       </c>
       <c r="C2" s="57">
         <f>D2</f>
-        <v>0.5118281341400337</v>
+        <v>1</v>
       </c>
       <c r="D2" s="14">
         <f>Data!I50</f>
-        <v>0.5118281341400337</v>
+        <v>1</v>
       </c>
       <c r="E2" s="14">
         <f>Data!J50</f>
-        <v>0.51444491476645848</v>
+        <v>0.99725326434235173</v>
       </c>
       <c r="F2" s="14">
         <f>Data!K50</f>
-        <v>0.51534689283469481</v>
+        <v>0.99630649207668176</v>
       </c>
       <c r="G2" s="14">
         <f>Data!L50</f>
-        <v>0.51655353677595117</v>
+        <v>0.99503992356648063</v>
       </c>
       <c r="H2" s="14">
         <f>Data!M50</f>
-        <v>0.51816278972650143</v>
+        <v>0.99335075160578357</v>
       </c>
       <c r="I2" s="14">
         <f>Data!N50</f>
-        <v>0.52030019065995547</v>
+        <v>0.99110720268184094</v>
       </c>
       <c r="J2" s="14">
         <f>Data!O50</f>
-        <v>0.52312364284477286</v>
+        <v>0.98814353170560831</v>
       </c>
       <c r="K2" s="14">
         <f>Data!P50</f>
-        <v>0.52682661585159252</v>
+        <v>0.98425666098575082</v>
       </c>
       <c r="L2" s="14">
         <f>Data!Q50</f>
-        <v>0.53163753045259587</v>
+        <v>0.97920682587651942</v>
       </c>
       <c r="M2" s="14">
         <f>Data!R50</f>
-        <v>0.53781192760358398</v>
+        <v>0.97272579470109677</v>
       </c>
       <c r="N2" s="14">
         <f>Data!S50</f>
-        <v>0.54561306694160605</v>
+        <v>0.9645372337748781</v>
       </c>
       <c r="O2" s="14">
         <f>Data!T50</f>
-        <v>0.55527676152547534</v>
+        <v>0.95439361904841091</v>
       </c>
       <c r="P2" s="14">
         <f>Data!U50</f>
-        <v>0.56695901835441231</v>
+        <v>0.94213119587475436</v>
       </c>
       <c r="Q2" s="14">
         <f>Data!V50</f>
-        <v>0.58067183042758774</v>
+        <v>0.92773737565625103</v>
       </c>
       <c r="R2" s="14">
         <f>Data!W50</f>
-        <v>0.59622283284194855</v>
+        <v>0.9114140765564489</v>
       </c>
       <c r="S2" s="14">
         <f>Data!X50</f>
-        <v>0.61318395394167213</v>
+        <v>0.89361062920291479</v>
       </c>
       <c r="T2" s="14">
         <f>Data!Y50</f>
-        <v>0.63091406707001685</v>
+        <v>0.875</v>
       </c>
       <c r="U2" s="14">
         <f>Data!Z50</f>
-        <v>0.64864418019836156</v>
+        <v>0.85638937079708521</v>
       </c>
       <c r="V2" s="14">
         <f>Data!AA50</f>
-        <v>0.66560530129808515</v>
+        <v>0.8385859234435511</v>
       </c>
       <c r="W2" s="14">
         <f>Data!AB50</f>
-        <v>0.68115630371244595</v>
+        <v>0.82226262434374897</v>
       </c>
       <c r="X2" s="14">
         <f>Data!AC50</f>
-        <v>0.69486911578562138</v>
+        <v>0.80786880412524564</v>
       </c>
       <c r="Y2" s="14">
         <f>Data!AD50</f>
-        <v>0.70655137261455836</v>
+        <v>0.79560638095158909</v>
       </c>
       <c r="Z2" s="14">
         <f>Data!AE50</f>
-        <v>0.71621506719842765</v>
+        <v>0.7854627662251219</v>
       </c>
       <c r="AA2" s="14">
         <f>Data!AF50</f>
-        <v>0.72401620653644971</v>
+        <v>0.77727420529890323</v>
       </c>
       <c r="AB2" s="14">
         <f>Data!AG50</f>
-        <v>0.73019060368743782</v>
+        <v>0.77079317412348058</v>
       </c>
       <c r="AC2" s="14">
         <f>Data!AH50</f>
-        <v>0.73500151828844118</v>
+        <v>0.76574333901424918</v>
       </c>
       <c r="AD2" s="14">
         <f>Data!AI50</f>
-        <v>0.73870449129526083</v>
+        <v>0.76185646829439169</v>
       </c>
       <c r="AE2" s="14">
         <f>Data!AJ50</f>
-        <v>0.74152794348007822</v>
+        <v>0.75889279731815906</v>
       </c>
       <c r="AF2" s="14">
         <f>Data!AK50</f>
-        <v>0.74366534441353227</v>
+        <v>0.75664924839421643</v>
       </c>
       <c r="AG2" s="14">
         <f>Data!AL50</f>
-        <v>0.74527459736408264</v>
+        <v>0.75496007643351937</v>
       </c>
       <c r="AH2" s="14">
         <f>Data!AM50</f>
-        <v>0.74648124130533888</v>
+        <v>0.75369350792331824</v>
       </c>
       <c r="AI2" s="14">
         <f>Data!AN50</f>
-        <v>0.74738321937357521</v>
+        <v>0.75274673565764827</v>
       </c>
       <c r="AJ2" s="14">
         <f>Data!AO50</f>
-        <v>0.74805590519823717</v>
+        <v>0.75204064278828997</v>
       </c>
       <c r="AK2" s="14">
         <f>Data!AP50</f>
-        <v>0.74855672577200838</v>
+        <v>0.75151495037289606</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.45">
@@ -9781,147 +9781,147 @@
       </c>
       <c r="B5" s="57">
         <f t="shared" si="0"/>
-        <v>0.48817186585996641</v>
+        <v>0</v>
       </c>
       <c r="C5" s="57">
         <f t="shared" si="1"/>
-        <v>0.48817186585996641</v>
+        <v>0</v>
       </c>
       <c r="D5" s="14">
         <f>Data!I53</f>
-        <v>0.48817186585996641</v>
+        <v>0</v>
       </c>
       <c r="E5" s="14">
         <f>Data!J53</f>
-        <v>0.49610605174299849</v>
+        <v>2.2727272727273373E-2</v>
       </c>
       <c r="F5" s="14">
         <f>Data!K53</f>
-        <v>0.50404023762603245</v>
+        <v>4.5454545454546746E-2</v>
       </c>
       <c r="G5" s="14">
         <f>Data!L53</f>
-        <v>0.51197442350906286</v>
+        <v>6.818181818182012E-2</v>
       </c>
       <c r="H5" s="14">
         <f>Data!M53</f>
-        <v>0.51990860939209327</v>
+        <v>9.0909090909086387E-2</v>
       </c>
       <c r="I5" s="14">
         <f>Data!N53</f>
-        <v>0.52784279527512368</v>
+        <v>0.11363636363635976</v>
       </c>
       <c r="J5" s="14">
         <f>Data!O53</f>
-        <v>0.53577698115815764</v>
+        <v>0.13636363636363313</v>
       </c>
       <c r="K5" s="14">
         <f>Data!P53</f>
-        <v>0.54371116704118805</v>
+        <v>0.15909090909090651</v>
       </c>
       <c r="L5" s="14">
         <f>Data!Q53</f>
-        <v>0.55164535292421846</v>
+        <v>0.18181818181817988</v>
       </c>
       <c r="M5" s="14">
         <f>Data!R53</f>
-        <v>0.55957953880724887</v>
+        <v>0.20454545454545325</v>
       </c>
       <c r="N5" s="14">
         <f>Data!S53</f>
-        <v>0.56751372469028283</v>
+        <v>0.22727272727272663</v>
       </c>
       <c r="O5" s="14">
         <f>Data!T53</f>
-        <v>0.57544791057331324</v>
+        <v>0.25</v>
       </c>
       <c r="P5" s="14">
         <f>Data!U53</f>
-        <v>0.58338209645634365</v>
+        <v>0.27272727272727337</v>
       </c>
       <c r="Q5" s="14">
         <f>Data!V53</f>
-        <v>0.59131628233937406</v>
+        <v>0.29545454545454675</v>
       </c>
       <c r="R5" s="14">
         <f>Data!W53</f>
-        <v>0.59925046822240802</v>
+        <v>0.31818181818182012</v>
       </c>
       <c r="S5" s="14">
         <f>Data!X53</f>
-        <v>0.60718465410543843</v>
+        <v>0.34090909090908639</v>
       </c>
       <c r="T5" s="14">
         <f>Data!Y53</f>
-        <v>0.61511883998846884</v>
+        <v>0.36363636363635976</v>
       </c>
       <c r="U5" s="14">
         <f>Data!Z53</f>
-        <v>0.62305302587149924</v>
+        <v>0.38636363636363313</v>
       </c>
       <c r="V5" s="14">
         <f>Data!AA53</f>
-        <v>0.63098721175453321</v>
+        <v>0.40909090909090651</v>
       </c>
       <c r="W5" s="14">
         <f>Data!AB53</f>
-        <v>0.63892139763756362</v>
+        <v>0.43181818181817988</v>
       </c>
       <c r="X5" s="14">
         <f>Data!AC53</f>
-        <v>0.64685558352059402</v>
+        <v>0.45454545454545325</v>
       </c>
       <c r="Y5" s="14">
         <f>Data!AD53</f>
-        <v>0.65478976940362443</v>
+        <v>0.47727272727272663</v>
       </c>
       <c r="Z5" s="14">
         <f>Data!AE53</f>
-        <v>0.66272395528665839</v>
+        <v>0.5</v>
       </c>
       <c r="AA5" s="14">
         <f>Data!AF53</f>
-        <v>0.6706581411696888</v>
+        <v>0.52272727272727337</v>
       </c>
       <c r="AB5" s="14">
         <f>Data!AG53</f>
-        <v>0.67859232705271921</v>
+        <v>0.54545454545454675</v>
       </c>
       <c r="AC5" s="14">
         <f>Data!AH53</f>
-        <v>0.68652651293574962</v>
+        <v>0.56818181818182012</v>
       </c>
       <c r="AD5" s="14">
         <f>Data!AI53</f>
-        <v>0.69446069881878358</v>
+        <v>0.59090909090908639</v>
       </c>
       <c r="AE5" s="14">
         <f>Data!AJ53</f>
-        <v>0.70239488470181399</v>
+        <v>0.61363636363635976</v>
       </c>
       <c r="AF5" s="14">
         <f>Data!AK53</f>
-        <v>0.7103290705848444</v>
+        <v>0.63636363636363313</v>
       </c>
       <c r="AG5" s="14">
         <f>Data!AL53</f>
-        <v>0.71826325646787481</v>
+        <v>0.65909090909090651</v>
       </c>
       <c r="AH5" s="14">
         <f>Data!AM53</f>
-        <v>0.72619744235090877</v>
+        <v>0.68181818181817988</v>
       </c>
       <c r="AI5" s="14">
         <f>Data!AN53</f>
-        <v>0.73413162823393918</v>
+        <v>0.70454545454545325</v>
       </c>
       <c r="AJ5" s="14">
         <f>Data!AO53</f>
-        <v>0.74206581411696959</v>
+        <v>0.72727272727272663</v>
       </c>
       <c r="AK5" s="14">
         <f>Data!AP53</f>
-        <v>0.75000000000000355</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.45">
@@ -12058,143 +12058,143 @@
       </c>
       <c r="B4" s="57">
         <f t="shared" si="0"/>
-        <v>0.78794595848566396</v>
+        <v>0</v>
       </c>
       <c r="C4" s="57">
         <f t="shared" si="1"/>
-        <v>0.78794595848566396</v>
+        <v>0</v>
       </c>
       <c r="D4" s="14">
         <f>Data!I66</f>
-        <v>0.78794595848566396</v>
+        <v>0</v>
       </c>
       <c r="E4" s="14">
         <f>Data!J66</f>
-        <v>0.79437183853155346</v>
+        <v>3.0303030303031164E-2</v>
       </c>
       <c r="F4" s="14">
         <f>Data!K66</f>
-        <v>0.8007977185774422</v>
+        <v>6.0606060606055223E-2</v>
       </c>
       <c r="G4" s="14">
         <f>Data!L66</f>
-        <v>0.80722359862333093</v>
+        <v>9.0909090909086387E-2</v>
       </c>
       <c r="H4" s="14">
         <f>Data!M66</f>
-        <v>0.81364947866921966</v>
+        <v>0.12121212121211755</v>
       </c>
       <c r="I4" s="14">
         <f>Data!N66</f>
-        <v>0.82007535871511017</v>
+        <v>0.15151515151514872</v>
       </c>
       <c r="J4" s="14">
         <f>Data!O66</f>
-        <v>0.8265012387609989</v>
+        <v>0.18181818181817988</v>
       </c>
       <c r="K4" s="14">
         <f>Data!P66</f>
-        <v>0.83292711880688763</v>
+        <v>0.21212121212121104</v>
       </c>
       <c r="L4" s="14">
         <f>Data!Q66</f>
-        <v>0.83935299885277637</v>
+        <v>0.24242424242424221</v>
       </c>
       <c r="M4" s="14">
         <f>Data!R66</f>
-        <v>0.8457788788986651</v>
+        <v>0.27272727272727337</v>
       </c>
       <c r="N4" s="14">
         <f>Data!S66</f>
-        <v>0.85220475894455383</v>
+        <v>0.30303030303030454</v>
       </c>
       <c r="O4" s="14">
         <f>Data!T66</f>
-        <v>0.85863063899044256</v>
+        <v>0.3333333333333286</v>
       </c>
       <c r="P4" s="14">
         <f>Data!U66</f>
-        <v>0.8650565190363313</v>
+        <v>0.36363636363635976</v>
       </c>
       <c r="Q4" s="14">
         <f>Data!V66</f>
-        <v>0.8714823990822218</v>
+        <v>0.39393939393939092</v>
       </c>
       <c r="R4" s="14">
         <f>Data!W66</f>
-        <v>0.87790827912811054</v>
+        <v>0.42424242424242209</v>
       </c>
       <c r="S4" s="14">
         <f>Data!X66</f>
-        <v>0.88433415917399927</v>
+        <v>0.45454545454545325</v>
       </c>
       <c r="T4" s="14">
         <f>Data!Y66</f>
-        <v>0.890760039219888</v>
+        <v>0.48484848484848442</v>
       </c>
       <c r="U4" s="14">
         <f>Data!Z66</f>
-        <v>0.89718591926577673</v>
+        <v>0.51515151515151558</v>
       </c>
       <c r="V4" s="14">
         <f>Data!AA66</f>
-        <v>0.90361179931166546</v>
+        <v>0.54545454545454675</v>
       </c>
       <c r="W4" s="14">
         <f>Data!AB66</f>
-        <v>0.9100376793575542</v>
+        <v>0.57575757575757081</v>
       </c>
       <c r="X4" s="14">
         <f>Data!AC66</f>
-        <v>0.91646355940344471</v>
+        <v>0.60606060606060197</v>
       </c>
       <c r="Y4" s="14">
         <f>Data!AD66</f>
-        <v>0.92288943944933344</v>
+        <v>0.63636363636363313</v>
       </c>
       <c r="Z4" s="14">
         <f>Data!AE66</f>
-        <v>0.92931531949522217</v>
+        <v>0.6666666666666643</v>
       </c>
       <c r="AA4" s="14">
         <f>Data!AF66</f>
-        <v>0.9357411995411109</v>
+        <v>0.69696969696969546</v>
       </c>
       <c r="AB4" s="14">
         <f>Data!AG66</f>
-        <v>0.94216707958699963</v>
+        <v>0.72727272727272663</v>
       </c>
       <c r="AC4" s="14">
         <f>Data!AH66</f>
-        <v>0.94859295963288837</v>
+        <v>0.75757575757575779</v>
       </c>
       <c r="AD4" s="14">
         <f>Data!AI66</f>
-        <v>0.9550188396787771</v>
+        <v>0.78787878787878896</v>
       </c>
       <c r="AE4" s="14">
         <f>Data!AJ66</f>
-        <v>0.96144471972466583</v>
+        <v>0.81818181818181301</v>
       </c>
       <c r="AF4" s="14">
         <f>Data!AK66</f>
-        <v>0.96787059977055634</v>
+        <v>0.84848484848484418</v>
       </c>
       <c r="AG4" s="14">
         <f>Data!AL66</f>
-        <v>0.97429647981644507</v>
+        <v>0.87878787878787534</v>
       </c>
       <c r="AH4" s="14">
         <f>Data!AM66</f>
-        <v>0.9807223598623338</v>
+        <v>0.90909090909090651</v>
       </c>
       <c r="AI4" s="14">
         <f>Data!AN66</f>
-        <v>0.98714823990822254</v>
+        <v>0.93939393939393767</v>
       </c>
       <c r="AJ4" s="14">
         <f>Data!AO66</f>
-        <v>0.99357411995411127</v>
+        <v>0.96969696969696884</v>
       </c>
       <c r="AK4" s="14">
         <f>Data!AP66</f>
@@ -12207,143 +12207,143 @@
       </c>
       <c r="B5" s="57">
         <f t="shared" si="0"/>
-        <v>0.21205404151433599</v>
+        <v>1</v>
       </c>
       <c r="C5" s="57">
         <f t="shared" si="1"/>
-        <v>0.21205404151433599</v>
+        <v>1</v>
       </c>
       <c r="D5" s="14">
         <f>Data!I67</f>
-        <v>0.21205404151433599</v>
+        <v>1</v>
       </c>
       <c r="E5" s="14">
         <f>Data!J67</f>
-        <v>0.2359311917714777</v>
+        <v>1</v>
       </c>
       <c r="F5" s="14">
         <f>Data!K67</f>
-        <v>0.25980834202861303</v>
+        <v>1</v>
       </c>
       <c r="G5" s="14">
         <f>Data!L67</f>
-        <v>0.28368549228575546</v>
+        <v>1</v>
       </c>
       <c r="H5" s="14">
         <f>Data!M67</f>
-        <v>0.30756264254289789</v>
+        <v>1</v>
       </c>
       <c r="I5" s="14">
         <f>Data!N67</f>
-        <v>0.33143979280004032</v>
+        <v>1</v>
       </c>
       <c r="J5" s="14">
         <f>Data!O67</f>
-        <v>0.35531694305718275</v>
+        <v>1</v>
       </c>
       <c r="K5" s="14">
         <f>Data!P67</f>
-        <v>0.37919409331432519</v>
+        <v>1</v>
       </c>
       <c r="L5" s="14">
         <f>Data!Q67</f>
-        <v>0.40307124357146762</v>
+        <v>1</v>
       </c>
       <c r="M5" s="14">
         <f>Data!R67</f>
-        <v>0.42694839382860295</v>
+        <v>1</v>
       </c>
       <c r="N5" s="14">
         <f>Data!S67</f>
-        <v>0.45082554408574538</v>
+        <v>1</v>
       </c>
       <c r="O5" s="14">
         <f>Data!T67</f>
-        <v>0.47470269434288781</v>
+        <v>1</v>
       </c>
       <c r="P5" s="14">
         <f>Data!U67</f>
-        <v>0.49857984460003024</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="14">
         <f>Data!V67</f>
-        <v>0.52245699485717267</v>
+        <v>1</v>
       </c>
       <c r="R5" s="14">
         <f>Data!W67</f>
-        <v>0.54633414511431511</v>
+        <v>1</v>
       </c>
       <c r="S5" s="14">
         <f>Data!X67</f>
-        <v>0.57021129537145043</v>
+        <v>1</v>
       </c>
       <c r="T5" s="14">
         <f>Data!Y67</f>
-        <v>0.59408844562859286</v>
+        <v>1</v>
       </c>
       <c r="U5" s="14">
         <f>Data!Z67</f>
-        <v>0.6179655958857353</v>
+        <v>1</v>
       </c>
       <c r="V5" s="14">
         <f>Data!AA67</f>
-        <v>0.64184274614287773</v>
+        <v>1</v>
       </c>
       <c r="W5" s="14">
         <f>Data!AB67</f>
-        <v>0.66571989640002016</v>
+        <v>1</v>
       </c>
       <c r="X5" s="14">
         <f>Data!AC67</f>
-        <v>0.68959704665716259</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="14">
         <f>Data!AD67</f>
-        <v>0.71347419691430503</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="14">
         <f>Data!AE67</f>
-        <v>0.73735134717144035</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="14">
         <f>Data!AF67</f>
-        <v>0.76122849742858278</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="14">
         <f>Data!AG67</f>
-        <v>0.78510564768572522</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="14">
         <f>Data!AH67</f>
-        <v>0.80898279794286765</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="14">
         <f>Data!AI67</f>
-        <v>0.83285994820001008</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="14">
         <f>Data!AJ67</f>
-        <v>0.85673709845715251</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="14">
         <f>Data!AK67</f>
-        <v>0.88061424871428784</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="14">
         <f>Data!AL67</f>
-        <v>0.90449139897143027</v>
+        <v>1</v>
       </c>
       <c r="AH5" s="14">
         <f>Data!AM67</f>
-        <v>0.9283685492285727</v>
+        <v>1</v>
       </c>
       <c r="AI5" s="14">
         <f>Data!AN67</f>
-        <v>0.95224569948571514</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="14">
         <f>Data!AO67</f>
-        <v>0.97612284974285757</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="14">
         <f>Data!AP67</f>
@@ -54626,7 +54626,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -54671,25 +54671,25 @@
         <v>9</v>
       </c>
       <c r="B2" s="4">
-        <v>369177</v>
+        <v>6696</v>
       </c>
       <c r="C2" s="4">
-        <v>141561</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>251507362</v>
+        <v>42168415</v>
       </c>
       <c r="E2" s="4">
-        <v>1232880</v>
+        <v>2200328</v>
       </c>
       <c r="F2" s="4">
-        <v>357614</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>105105</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
-        <v>4172</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4"/>
     </row>
@@ -54698,25 +54698,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="5">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>90051.74602116608</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5">
-        <v>98680.718907420727</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>800794.19250958553</v>
+        <v>442558</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>6622.4539841735223</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
-        <v>61.174419837550886</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="47"/>
@@ -54735,7 +54735,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>6585.1777339999999</v>
+        <v>703.5</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -54752,7 +54752,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="5">
-        <v>1258.1247365296165</v>
+        <v>5444</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
@@ -54761,7 +54761,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>1199.9752634703832</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -54784,10 +54784,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="5">
-        <v>10010853.402560361</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>2694146.5974396388</v>
+        <v>641.80728445820591</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -54810,7 +54810,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="5">
-        <v>8705071.2002178878</v>
+        <v>18391502</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -54848,7 +54848,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -54897,19 +54897,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>11380.197</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>9022563.2320000008</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5">
-        <v>4734830.5659999996</v>
+        <v>418202.00599289918</v>
       </c>
       <c r="F2" s="5">
         <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>41.408000000000001</v>
+        <v>0</v>
       </c>
       <c r="H2" s="51">
         <v>0</v>
@@ -54922,22 +54922,22 @@
         <v>10</v>
       </c>
       <c r="B3" s="51">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="C3" s="51">
-        <v>32117</v>
+        <v>0</v>
       </c>
       <c r="D3" s="51">
-        <v>2587286</v>
+        <v>0</v>
       </c>
       <c r="E3" s="51">
-        <v>9312751</v>
+        <v>1877331.9589756895</v>
       </c>
       <c r="F3" s="51">
         <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>7434</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
@@ -54958,7 +54958,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="11">
-        <v>936.50335700000005</v>
+        <v>500</v>
       </c>
       <c r="F4" s="51">
         <v>0</v>
@@ -54984,7 +54984,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>28117.828402366868</v>
+        <v>88936.333333333328</v>
       </c>
       <c r="F5" s="51">
         <v>0</v>
@@ -55010,7 +55010,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>9587</v>
+        <v>1625.9125475047001</v>
       </c>
       <c r="F6" s="51">
         <v>0</v>
@@ -55279,7 +55279,7 @@
   <dimension ref="A1:AP91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -55678,153 +55678,151 @@
         <v>2</v>
       </c>
       <c r="D9" s="41">
-        <f>SUM(SUM(INDEX('AEO 40'!$30:$31,0,MATCH($D$7,'AEO 40'!$1:$1,0))),SUM(INDEX('AEO 40'!$55:$56,0,MATCH($D$7,'AEO 40'!$1:$1,0))))/INDEX('AEO 40'!$65:$65,MATCH($D$7,'AEO 40'!$1:$1,0))</f>
-        <v>5.5794652063621928E-4</v>
+        <v>0</v>
       </c>
       <c r="E9" s="41">
-        <f>SUM(SUM(INDEX('AEO 40'!$30:$31,0,MATCH($E$7,'AEO 40'!$1:$1,0))),SUM(INDEX('AEO 40'!$55:$56,0,MATCH($E$7,'AEO 40'!$1:$1,0))))/INDEX('AEO 40'!$65:$65,MATCH($E$7,'AEO 40'!$1:$1,0))*Assumptions!$A$11</f>
-        <v>1.2701082758175626E-3</v>
+        <v>0</v>
       </c>
       <c r="F9" s="7" t="str">
         <f t="shared" ref="F9:F82" si="1">IF(D9=E9,"n/a",IF(OR(C9="battery electric vehicle",C9="natural gas vehicle",C9="plugin hybrid vehicle"),"s-curve","linear"))</f>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H9" s="42"/>
       <c r="I9" s="41">
         <f t="shared" ref="I9:I12" si="2">D9</f>
-        <v>5.5794652063621928E-4</v>
+        <v>0</v>
       </c>
       <c r="J9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,J$7))</f>
-        <v>5.6577100098409926E-4</v>
+        <v>0</v>
       </c>
       <c r="K9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,K$7))</f>
-        <v>5.6846802097800539E-4</v>
+        <v>0</v>
       </c>
       <c r="L9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,L$7))</f>
-        <v>5.7207602759113438E-4</v>
+        <v>0</v>
       </c>
       <c r="M9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,M$7))</f>
-        <v>5.7688788226446699E-4</v>
+        <v>0</v>
       </c>
       <c r="N9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,N$7))</f>
-        <v>5.8327896122250763E-4</v>
+        <v>0</v>
       </c>
       <c r="O9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,O$7))</f>
-        <v>5.9172141371936304E-4</v>
+        <v>0</v>
       </c>
       <c r="P9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,P$7))</f>
-        <v>6.0279373641542963E-4</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,Q$7))</f>
-        <v>6.1717893415449618E-4</v>
+        <v>0</v>
       </c>
       <c r="R9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,R$7))</f>
-        <v>6.3564110430359218E-4</v>
+        <v>0</v>
       </c>
       <c r="S9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,S$7))</f>
-        <v>6.5896742399009335E-4</v>
+        <v>0</v>
       </c>
       <c r="T9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,T$7))</f>
-        <v>6.8786300186002996E-4</v>
+        <v>0</v>
       </c>
       <c r="U9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,U$7))</f>
-        <v>7.227943171005404E-4</v>
+        <v>0</v>
       </c>
       <c r="V9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,V$7))</f>
-        <v>7.6379723018283675E-4</v>
+        <v>0</v>
       </c>
       <c r="W9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,W$7))</f>
-        <v>8.1029654753189727E-4</v>
+        <v>0</v>
       </c>
       <c r="X9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,X$7))</f>
-        <v>8.6101228479418322E-4</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,Y$7))</f>
-        <v>9.140273982268909E-4</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,Z$7))</f>
-        <v>9.6704251165959868E-4</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AA$7))</f>
-        <v>1.0177582489218845E-3</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AB$7))</f>
-        <v>1.0642575662709452E-3</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AC$7))</f>
-        <v>1.1052604793532414E-3</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AD$7))</f>
-        <v>1.1401917945937519E-3</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AE$7))</f>
-        <v>1.1690873724636887E-3</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AF$7))</f>
-        <v>1.1924136921501898E-3</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AG$7))</f>
-        <v>1.2108758622992857E-3</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AH$7))</f>
-        <v>1.2252610600383524E-3</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AI$7))</f>
-        <v>1.2363333827344189E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AJ$7))</f>
-        <v>1.2447758352312744E-3</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AK$7))</f>
-        <v>1.2511669141893149E-3</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AL$7))</f>
-        <v>1.2559787688626476E-3</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AM$7))</f>
-        <v>1.2595867754757765E-3</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AN$7))</f>
-        <v>1.2622837954696826E-3</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AO$7))</f>
-        <v>1.2642952048183358E-3</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AP$7))</f>
-        <v>1.2657927169512655E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.45">
@@ -55984,153 +55982,153 @@
         <v>4</v>
       </c>
       <c r="D11" s="41">
-        <f>SUM(INDEX('AEO 40'!$18:$18,MATCH(D$7,'AEO 40'!$1:$1,0)),INDEX('AEO 40'!$28:$28,MATCH(D$7,'AEO 40'!$1:$1,0)),INDEX('AEO 40'!$43:$43,MATCH(D$7,'AEO 40'!$1:$1,0)),INDEX('AEO 40'!$53:$53,MATCH(D$7,'AEO 40'!$1:$1,0)))/INDEX('AEO 40'!$65:$65,MATCH(D$7,'AEO 40'!$1:$1,0))</f>
-        <v>4.8592557721546335E-3</v>
+        <f>'SYVbT-passenger'!E2/SUM('SYVbT-passenger'!B2:H2)</f>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="E11" s="41">
-        <f>SUM(INDEX('AEO 40'!$18:$18,MATCH(E$7,'AEO 40'!$1:$1,0)),INDEX('AEO 40'!$28:$28,MATCH(E$7,'AEO 40'!$1:$1,0)),INDEX('AEO 40'!$43:$43,MATCH(E$7,'AEO 40'!$1:$1,0)),INDEX('AEO 40'!$53:$53,MATCH(E$7,'AEO 40'!$1:$1,0)))/INDEX('AEO 40'!$65:$65,MATCH(E$7,'AEO 40'!$1:$1,0))*Assumptions!A11</f>
-        <v>7.3359922154128565E-2</v>
+        <f>D11</f>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="F11" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="H11" s="42"/>
       <c r="I11" s="41">
         <f t="shared" si="2"/>
-        <v>4.8592557721546335E-3</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="J11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,J$7))</f>
-        <v>6.935033541304314E-3</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="K11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,K$7))</f>
-        <v>9.0108113104552245E-3</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="L11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,L$7))</f>
-        <v>1.1086589079606135E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="M11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,M$7))</f>
-        <v>1.3162366848757046E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="N11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,N$7))</f>
-        <v>1.5238144617907068E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="O11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,O$7))</f>
-        <v>1.7313922387057978E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="P11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,P$7))</f>
-        <v>1.9389700156208889E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="Q11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,Q$7))</f>
-        <v>2.1465477925359799E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="R11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,R$7))</f>
-        <v>2.354125569451071E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="S11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,S$7))</f>
-        <v>2.5617033463660732E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="T11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,T$7))</f>
-        <v>2.7692811232811643E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="U11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,U$7))</f>
-        <v>2.9768589001962553E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="V11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,V$7))</f>
-        <v>3.1844366771113464E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="W11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,W$7))</f>
-        <v>3.3920144540264374E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="X11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,X$7))</f>
-        <v>3.5995922309414397E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="Y11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,Y$7))</f>
-        <v>3.8071700078565307E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="Z11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,Z$7))</f>
-        <v>4.0147477847716218E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AA11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AA$7))</f>
-        <v>4.2223255616867128E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AB11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AB$7))</f>
-        <v>4.4299033386018039E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AC11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AC$7))</f>
-        <v>4.6374811155168061E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AD11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AD$7))</f>
-        <v>4.8450588924318971E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AE11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AE$7))</f>
-        <v>5.0526366693469882E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AF11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AF$7))</f>
-        <v>5.2602144462620792E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AG11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AG$7))</f>
-        <v>5.4677922231770815E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AH11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AH$7))</f>
-        <v>5.6753700000921725E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AI11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AI$7))</f>
-        <v>5.8829477770072636E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AJ11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AJ$7))</f>
-        <v>6.0905255539223546E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AK11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AK$7))</f>
-        <v>6.2981033308374457E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AL11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AL$7))</f>
-        <v>6.5056811077524479E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AM11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AM$7))</f>
-        <v>6.713258884667539E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AN11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AN$7))</f>
-        <v>6.92083666158263E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AO11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AO$7))</f>
-        <v>7.1284144384977211E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AP11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AP$7))</f>
-        <v>7.3359922154128121E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.45">
@@ -56142,12 +56140,12 @@
         <v>1.4094947551288909E-3</v>
       </c>
       <c r="E12" s="41">
-        <f>SUM(SUM(INDEX('AEO 40'!26:27,0,MATCH(E$7,'AEO 40'!$1:$1,0))),SUM(INDEX('AEO 40'!51:52,0,MATCH(E$7,'AEO 40'!$1:$1,0))))/INDEX('AEO 40'!$65:$65,MATCH(E$7,'AEO 40'!$1:$1,0))*Assumptions!A11</f>
-        <v>0.10046762944758371</v>
+        <f>D12</f>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="F12" s="7" t="str">
         <f>IF(D12=E12,"n/a",IF(OR(C12="battery electric vehicle",C12="natural gas vehicle",C12="plugin hybrid vehicle",C12="hydrogen vehicle"),"s-curve","linear"))</f>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="41">
@@ -56156,135 +56154,135 @@
       </c>
       <c r="J12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,J$7))</f>
-        <v>2.4978407980884641E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="K12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,K$7))</f>
-        <v>2.8729827765517297E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="L12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,L$7))</f>
-        <v>3.3748384328746248E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="M12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,M$7))</f>
-        <v>4.0441433272804259E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="N12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,N$7))</f>
-        <v>4.9331104132684898E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="O12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,O$7))</f>
-        <v>6.107413288259581E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="P12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,P$7))</f>
-        <v>7.6475179414587664E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Q12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,Q$7))</f>
-        <v>9.6484269271585182E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="R12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,R$7))</f>
-        <v>1.2216422363642575E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="S12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,S$7))</f>
-        <v>1.5460996648309563E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="T12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,T$7))</f>
-        <v>1.9480226863680561E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="U12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,U$7))</f>
-        <v>2.4338997929248343E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="V12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,V$7))</f>
-        <v>3.004229785702231E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="W12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,W$7))</f>
-        <v>3.6510120100436014E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="X12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,X$7))</f>
-        <v>4.3564425244181658E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Y12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,Y$7))</f>
-        <v>5.0938562101356305E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Z12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,Z$7))</f>
-        <v>5.8312698958530959E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AA12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AA$7))</f>
-        <v>6.5367004102276582E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AB12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AB$7))</f>
-        <v>7.1834826345690286E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AC12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AC$7))</f>
-        <v>7.753812627346425E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AD12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AD$7))</f>
-        <v>8.2396897339032035E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AE12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AE$7))</f>
-        <v>8.6416127554403047E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AF12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AF$7))</f>
-        <v>8.9660701839070031E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AG12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AG$7))</f>
-        <v>9.2228697275554092E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AH12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AH$7))</f>
-        <v>9.4229606261253832E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AI12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AI$7))</f>
-        <v>9.5769710914453021E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AJ12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AJ$7))</f>
-        <v>9.6944013789444117E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AK12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AK$7))</f>
-        <v>9.7832980875432171E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AL12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AL$7))</f>
-        <v>9.850228576983798E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AM12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AM$7))</f>
-        <v>9.9004141426160874E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AN12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AN$7))</f>
-        <v>9.9379283404624139E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AO12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AO$7))</f>
-        <v>9.965906037485725E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AP12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AP$7))</f>
-        <v>9.9867356815220826E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.45">
@@ -56763,7 +56761,7 @@
       </c>
       <c r="E16" s="41">
         <f>E9</f>
-        <v>1.2701082758175626E-3</v>
+        <v>0</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>480</v>
@@ -56775,135 +56773,135 @@
       </c>
       <c r="J16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,J$7))</f>
-        <v>5.7952717988414559E-4</v>
+        <v>5.4103905031390592E-4</v>
       </c>
       <c r="K16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,K$7))</f>
-        <v>6.0110783913206595E-4</v>
+        <v>5.2413157999160048E-4</v>
       </c>
       <c r="L16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,L$7))</f>
-        <v>6.2268849837997936E-4</v>
+        <v>5.072241096692881E-4</v>
       </c>
       <c r="M16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,M$7))</f>
-        <v>6.4426915762789971E-4</v>
+        <v>4.9031663934697572E-4</v>
       </c>
       <c r="N16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,N$7))</f>
-        <v>6.6584981687582007E-4</v>
+        <v>4.7340916902467028E-4</v>
       </c>
       <c r="O16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,O$7))</f>
-        <v>6.8743047612374042E-4</v>
+        <v>4.5650169870235791E-4</v>
       </c>
       <c r="P16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,P$7))</f>
-        <v>7.0901113537166077E-4</v>
+        <v>4.3959422838005247E-4</v>
       </c>
       <c r="Q16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,Q$7))</f>
-        <v>7.3059179461958113E-4</v>
+        <v>4.2268675805774009E-4</v>
       </c>
       <c r="R16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,R$7))</f>
-        <v>7.5217245386750148E-4</v>
+        <v>4.0577928773542771E-4</v>
       </c>
       <c r="S16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,S$7))</f>
-        <v>7.7375311311542183E-4</v>
+        <v>3.8887181741312227E-4</v>
       </c>
       <c r="T16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,T$7))</f>
-        <v>7.9533377236333525E-4</v>
+        <v>3.7196434709080989E-4</v>
       </c>
       <c r="U16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,U$7))</f>
-        <v>8.169144316112556E-4</v>
+        <v>3.5505687676850445E-4</v>
       </c>
       <c r="V16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,V$7))</f>
-        <v>8.3849509085917595E-4</v>
+        <v>3.3814940644619207E-4</v>
       </c>
       <c r="W16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,W$7))</f>
-        <v>8.600757501070963E-4</v>
+        <v>3.2124193612387969E-4</v>
       </c>
       <c r="X16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,X$7))</f>
-        <v>8.8165640935501666E-4</v>
+        <v>3.0433446580157425E-4</v>
       </c>
       <c r="Y16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,Y$7))</f>
-        <v>9.0323706860293701E-4</v>
+        <v>2.8742699547926187E-4</v>
       </c>
       <c r="Z16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,Z$7))</f>
-        <v>9.2481772785085736E-4</v>
+        <v>2.7051952515695643E-4</v>
       </c>
       <c r="AA16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AA$7))</f>
-        <v>9.4639838709877772E-4</v>
+        <v>2.5361205483464405E-4</v>
       </c>
       <c r="AB16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AB$7))</f>
-        <v>9.6797904634669113E-4</v>
+        <v>2.3670458451233167E-4</v>
       </c>
       <c r="AC16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AC$7))</f>
-        <v>9.8955970559461148E-4</v>
+        <v>2.1979711419002623E-4</v>
       </c>
       <c r="AD16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AD$7))</f>
-        <v>1.0111403648425318E-3</v>
+        <v>2.0288964386771385E-4</v>
       </c>
       <c r="AE16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AE$7))</f>
-        <v>1.0327210240904522E-3</v>
+        <v>1.8598217354540147E-4</v>
       </c>
       <c r="AF16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AF$7))</f>
-        <v>1.0543016833383725E-3</v>
+        <v>1.6907470322309603E-4</v>
       </c>
       <c r="AG16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AG$7))</f>
-        <v>1.0758823425862929E-3</v>
+        <v>1.5216723290078366E-4</v>
       </c>
       <c r="AH16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AH$7))</f>
-        <v>1.0974630018342132E-3</v>
+        <v>1.3525976257847822E-4</v>
       </c>
       <c r="AI16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AI$7))</f>
-        <v>1.1190436610821336E-3</v>
+        <v>1.1835229225616584E-4</v>
       </c>
       <c r="AJ16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AJ$7))</f>
-        <v>1.140624320330047E-3</v>
+        <v>1.0144482193385346E-4</v>
       </c>
       <c r="AK16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AK$7))</f>
-        <v>1.1622049795779674E-3</v>
+        <v>8.4537351611548017E-5</v>
       </c>
       <c r="AL16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AL$7))</f>
-        <v>1.1837856388258877E-3</v>
+        <v>6.7629881289235638E-5</v>
       </c>
       <c r="AM16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AM$7))</f>
-        <v>1.2053662980738081E-3</v>
+        <v>5.0722410966930198E-5</v>
       </c>
       <c r="AN16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AN$7))</f>
-        <v>1.2269469573217284E-3</v>
+        <v>3.3814940644617819E-5</v>
       </c>
       <c r="AO16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AO$7))</f>
-        <v>1.2485276165696488E-3</v>
+        <v>1.690747032230544E-5</v>
       </c>
       <c r="AP16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AP$7))</f>
-        <v>1.2701082758175691E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.45">
@@ -57064,147 +57062,147 @@
       </c>
       <c r="D18" s="41">
         <f>'SYVbT-freight'!E2/SUM('SYVbT-freight'!2:2)</f>
-        <v>0.34388074989867007</v>
+        <v>1</v>
       </c>
       <c r="E18" s="33">
         <v>1</v>
       </c>
       <c r="F18" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="41">
         <f t="shared" si="3"/>
-        <v>0.34388074989867007</v>
+        <v>1</v>
       </c>
       <c r="J18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,J$7))</f>
-        <v>0.3637631514168973</v>
+        <v>1</v>
       </c>
       <c r="K18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,K$7))</f>
-        <v>0.38364555293512126</v>
+        <v>1</v>
       </c>
       <c r="L18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,L$7))</f>
-        <v>0.40352795445333811</v>
+        <v>1</v>
       </c>
       <c r="M18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,M$7))</f>
-        <v>0.42341035597156207</v>
+        <v>1</v>
       </c>
       <c r="N18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,N$7))</f>
-        <v>0.44329275748978603</v>
+        <v>1</v>
       </c>
       <c r="O18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,O$7))</f>
-        <v>0.46317515900800288</v>
+        <v>1</v>
       </c>
       <c r="P18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,P$7))</f>
-        <v>0.48305756052622684</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,Q$7))</f>
-        <v>0.50293996204445079</v>
+        <v>1</v>
       </c>
       <c r="R18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,R$7))</f>
-        <v>0.52282236356267475</v>
+        <v>1</v>
       </c>
       <c r="S18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,S$7))</f>
-        <v>0.5427047650808916</v>
+        <v>1</v>
       </c>
       <c r="T18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,T$7))</f>
-        <v>0.56258716659911556</v>
+        <v>1</v>
       </c>
       <c r="U18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,U$7))</f>
-        <v>0.58246956811733952</v>
+        <v>1</v>
       </c>
       <c r="V18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,V$7))</f>
-        <v>0.60235196963556348</v>
+        <v>1</v>
       </c>
       <c r="W18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,W$7))</f>
-        <v>0.62223437115378033</v>
+        <v>1</v>
       </c>
       <c r="X18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,X$7))</f>
-        <v>0.64211677267200429</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,Y$7))</f>
-        <v>0.66199917419022825</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,Z$7))</f>
-        <v>0.6818815757084522</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AA$7))</f>
-        <v>0.70176397722666906</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AB$7))</f>
-        <v>0.72164637874489301</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AC$7))</f>
-        <v>0.74152878026311697</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AD$7))</f>
-        <v>0.76141118178134093</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AE$7))</f>
-        <v>0.78129358329955778</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AF$7))</f>
-        <v>0.80117598481778174</v>
+        <v>1</v>
       </c>
       <c r="AG18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AG$7))</f>
-        <v>0.8210583863360057</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AH$7))</f>
-        <v>0.84094078785422965</v>
+        <v>1</v>
       </c>
       <c r="AI18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AI$7))</f>
-        <v>0.86082318937244651</v>
+        <v>1</v>
       </c>
       <c r="AJ18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AJ$7))</f>
-        <v>0.88070559089067046</v>
+        <v>1</v>
       </c>
       <c r="AK18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AK$7))</f>
-        <v>0.90058799240889442</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AL$7))</f>
-        <v>0.92047039392711838</v>
+        <v>1</v>
       </c>
       <c r="AM18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AM$7))</f>
-        <v>0.94035279544533523</v>
+        <v>1</v>
       </c>
       <c r="AN18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AN$7))</f>
-        <v>0.96023519696355919</v>
+        <v>1</v>
       </c>
       <c r="AO18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AO$7))</f>
-        <v>0.98011759848178315</v>
+        <v>1</v>
       </c>
       <c r="AP18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AP$7))</f>
@@ -57221,11 +57219,11 @@
       </c>
       <c r="E19" s="41">
         <f>E12</f>
-        <v>0.10046762944758371</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="F19" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="41">
@@ -57234,135 +57232,135 @@
       </c>
       <c r="J19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,J$7))</f>
-        <v>2.4978407980884641E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="K19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,K$7))</f>
-        <v>2.8729827765517297E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="L19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,L$7))</f>
-        <v>3.3748384328746248E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="M19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,M$7))</f>
-        <v>4.0441433272804259E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="N19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,N$7))</f>
-        <v>4.9331104132684898E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="O19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,O$7))</f>
-        <v>6.107413288259581E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="P19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,P$7))</f>
-        <v>7.6475179414587664E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Q19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,Q$7))</f>
-        <v>9.6484269271585182E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="R19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,R$7))</f>
-        <v>1.2216422363642575E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="S19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,S$7))</f>
-        <v>1.5460996648309563E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="T19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,T$7))</f>
-        <v>1.9480226863680561E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="U19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,U$7))</f>
-        <v>2.4338997929248343E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="V19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,V$7))</f>
-        <v>3.004229785702231E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="W19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,W$7))</f>
-        <v>3.6510120100436014E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="X19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,X$7))</f>
-        <v>4.3564425244181658E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Y19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,Y$7))</f>
-        <v>5.0938562101356305E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Z19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,Z$7))</f>
-        <v>5.8312698958530959E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AA19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AA$7))</f>
-        <v>6.5367004102276582E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AB19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AB$7))</f>
-        <v>7.1834826345690286E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AC19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AC$7))</f>
-        <v>7.753812627346425E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AD19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AD$7))</f>
-        <v>8.2396897339032035E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AE19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AE$7))</f>
-        <v>8.6416127554403047E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AF19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AF$7))</f>
-        <v>8.9660701839070031E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AG19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AG$7))</f>
-        <v>9.2228697275554092E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AH19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AH$7))</f>
-        <v>9.4229606261253832E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AI19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AI$7))</f>
-        <v>9.5769710914453021E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AJ19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AJ$7))</f>
-        <v>9.6944013789444117E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AK19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AK$7))</f>
-        <v>9.7832980875432171E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AL19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AL$7))</f>
-        <v>9.850228576983798E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AM19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AM$7))</f>
-        <v>9.9004141426160874E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AN19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AN$7))</f>
-        <v>9.9379283404624139E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AO19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AO$7))</f>
-        <v>9.965906037485725E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AP19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AP$7))</f>
-        <v>9.9867356815220826E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.45">
@@ -57371,7 +57369,7 @@
       </c>
       <c r="D20" s="41">
         <f>'SYVbT-freight'!G2/SUM('SYVbT-freight'!2:2)</f>
-        <v>3.0073756374842439E-6</v>
+        <v>0</v>
       </c>
       <c r="E20" s="41">
         <f>E13</f>
@@ -57379,140 +57377,140 @@
       </c>
       <c r="F20" s="7" t="str">
         <f t="shared" ref="F20:F21" si="4">IF(D20=E20,"n/a",IF(OR(C20="battery electric vehicle",C20="natural gas vehicle",C20="plugin hybrid vehicle",C20="hydrogen vehicle"),"s-curve","linear"))</f>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="41">
         <f t="shared" si="3"/>
-        <v>3.0073756374842439E-6</v>
+        <v>0</v>
       </c>
       <c r="J20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,J$7))</f>
-        <v>2.9162430424089765E-6</v>
+        <v>0</v>
       </c>
       <c r="K20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,K$7))</f>
-        <v>2.8251104473336799E-6</v>
+        <v>0</v>
       </c>
       <c r="L20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,L$7))</f>
-        <v>2.7339778522584104E-6</v>
+        <v>0</v>
       </c>
       <c r="M20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,M$7))</f>
-        <v>2.6428452571831409E-6</v>
+        <v>0</v>
       </c>
       <c r="N20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,N$7))</f>
-        <v>2.5517126621078443E-6</v>
+        <v>0</v>
       </c>
       <c r="O20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,O$7))</f>
-        <v>2.4605800670325748E-6</v>
+        <v>0</v>
       </c>
       <c r="P20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,P$7))</f>
-        <v>2.3694474719572782E-6</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,Q$7))</f>
-        <v>2.2783148768820087E-6</v>
+        <v>0</v>
       </c>
       <c r="R20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,R$7))</f>
-        <v>2.1871822818067392E-6</v>
+        <v>0</v>
       </c>
       <c r="S20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,S$7))</f>
-        <v>2.0960496867314425E-6</v>
+        <v>0</v>
       </c>
       <c r="T20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,T$7))</f>
-        <v>2.004917091656173E-6</v>
+        <v>0</v>
       </c>
       <c r="U20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,U$7))</f>
-        <v>1.9137844965808764E-6</v>
+        <v>0</v>
       </c>
       <c r="V20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,V$7))</f>
-        <v>1.8226519015056069E-6</v>
+        <v>0</v>
       </c>
       <c r="W20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,W$7))</f>
-        <v>1.7315193064303374E-6</v>
+        <v>0</v>
       </c>
       <c r="X20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,X$7))</f>
-        <v>1.6403867113550408E-6</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,Y$7))</f>
-        <v>1.5492541162797713E-6</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,Z$7))</f>
-        <v>1.4581215212044747E-6</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AA$7))</f>
-        <v>1.3669889261292052E-6</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AB$7))</f>
-        <v>1.2758563310539357E-6</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AC$7))</f>
-        <v>1.1847237359786391E-6</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AD$7))</f>
-        <v>1.0935911409033696E-6</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AE$7))</f>
-        <v>1.0024585458281001E-6</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AF$7))</f>
-        <v>9.1132595075280346E-7</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AG$7))</f>
-        <v>8.2019335567753396E-7</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AH$7))</f>
-        <v>7.2906076060223735E-7</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AI$7))</f>
-        <v>6.3792816552696785E-7</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AJ$7))</f>
-        <v>5.4679557045169834E-7</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AK$7))</f>
-        <v>4.5566297537640173E-7</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AL$7))</f>
-        <v>3.6453038030113223E-7</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AM$7))</f>
-        <v>2.7339778522583562E-7</v>
+        <v>0</v>
       </c>
       <c r="AN20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AN$7))</f>
-        <v>1.8226519015056611E-7</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AO$7))</f>
-        <v>9.1132595075296609E-8</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AP$7))</f>
@@ -57687,7 +57685,7 @@
       </c>
       <c r="D22" s="41">
         <f>'SYVbT-passenger'!B3/SUM('SYVbT-passenger'!3:3)</f>
-        <v>3.010505804728952E-4</v>
+        <v>0</v>
       </c>
       <c r="E22" s="33">
         <f>E8</f>
@@ -57700,139 +57698,139 @@
       <c r="H22" s="42"/>
       <c r="I22" s="41">
         <f t="shared" ref="I22:I77" si="5">D22</f>
-        <v>3.010505804728952E-4</v>
+        <v>0</v>
       </c>
       <c r="J22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,J$7))</f>
-        <v>1.1284685585609511E-2</v>
+        <v>1.098694263059318E-2</v>
       </c>
       <c r="K22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,K$7))</f>
-        <v>1.5070634542928764E-2</v>
+        <v>1.4774031693273055E-2</v>
       </c>
       <c r="L22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,L$7))</f>
-        <v>2.01353833789924E-2</v>
+        <v>1.984030573407751E-2</v>
       </c>
       <c r="M22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,M$7))</f>
-        <v>2.6890037116983612E-2</v>
+        <v>2.6596993576865863E-2</v>
       </c>
       <c r="N22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,N$7))</f>
-        <v>3.5861531125930435E-2</v>
+        <v>3.5571189272636181E-2</v>
       </c>
       <c r="O22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,O$7))</f>
-        <v>4.7712646171390136E-2</v>
+        <v>4.7425873177566781E-2</v>
       </c>
       <c r="P22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,P$7))</f>
-        <v>6.3255448472074108E-2</v>
+        <v>6.2973356056996513E-2</v>
       </c>
       <c r="Q22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,Q$7))</f>
-        <v>8.3448707885836276E-2</v>
+        <v>8.317269649392238E-2</v>
       </c>
       <c r="R22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,R$7))</f>
-        <v>0.10936502811473713</v>
+        <v>0.10909682119561293</v>
       </c>
       <c r="S22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,S$7))</f>
-        <v>0.14210941113553172</v>
+        <v>0.14185106490048782</v>
       </c>
       <c r="T22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,T$7))</f>
-        <v>0.18267165507699426</v>
+        <v>0.18242552380635635</v>
       </c>
       <c r="U22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,U$7))</f>
-        <v>0.23170658133316255</v>
+        <v>0.23147521650098238</v>
       </c>
       <c r="V22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,V$7))</f>
-        <v>0.28926452913544826</v>
+        <v>0.28905049737499605</v>
       </c>
       <c r="W22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,W$7))</f>
-        <v>0.3545380689799798</v>
+        <v>0.35434369377420455</v>
       </c>
       <c r="X22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,X$7))</f>
-        <v>0.42573041944147549</v>
+        <v>0.42555748318834102</v>
       </c>
       <c r="Y22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,Y$7))</f>
-        <v>0.5001505252902364</v>
+        <v>0.5</v>
       </c>
       <c r="Z22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,Z$7))</f>
-        <v>0.57457063113899742</v>
+        <v>0.57444251681165903</v>
       </c>
       <c r="AA22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AA$7))</f>
-        <v>0.64576298160049306</v>
+        <v>0.6456563062257954</v>
       </c>
       <c r="AB22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AB$7))</f>
-        <v>0.71103652144502461</v>
+        <v>0.71094950262500389</v>
       </c>
       <c r="AC22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AC$7))</f>
-        <v>0.76859446924731034</v>
+        <v>0.76852478349901754</v>
       </c>
       <c r="AD22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AD$7))</f>
-        <v>0.81762939550347857</v>
+        <v>0.81757447619364365</v>
       </c>
       <c r="AE22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AE$7))</f>
-        <v>0.85819163944494126</v>
+        <v>0.85814893509951229</v>
       </c>
       <c r="AF22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AF$7))</f>
-        <v>0.89093602246573578</v>
+        <v>0.89090317880438707</v>
       </c>
       <c r="AG22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AG$7))</f>
-        <v>0.91685234269463667</v>
+        <v>0.91682730350607766</v>
       </c>
       <c r="AH22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AH$7))</f>
-        <v>0.93704560210839882</v>
+        <v>0.9370266439430035</v>
       </c>
       <c r="AI22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AI$7))</f>
-        <v>0.95258840440908288</v>
+        <v>0.95257412682243336</v>
       </c>
       <c r="AJ22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AJ$7))</f>
-        <v>0.96443951945454254</v>
+        <v>0.96442881072736386</v>
       </c>
       <c r="AK22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AK$7))</f>
-        <v>0.97341101346348924</v>
+        <v>0.97340300642313404</v>
       </c>
       <c r="AL22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AL$7))</f>
-        <v>0.98016566720148057</v>
+        <v>0.98015969426592253</v>
       </c>
       <c r="AM22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AM$7))</f>
-        <v>0.98523041603754413</v>
+        <v>0.98522596830672693</v>
       </c>
       <c r="AN22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AN$7))</f>
-        <v>0.98901636499486345</v>
+        <v>0.98901305736940681</v>
       </c>
       <c r="AO22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AO$7))</f>
-        <v>0.99183988619362395</v>
+        <v>0.99183742884684012</v>
       </c>
       <c r="AP22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AP$7))</f>
-        <v>0.99394202281517241</v>
+        <v>0.99394019850841575</v>
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.45">
@@ -57841,7 +57839,7 @@
       </c>
       <c r="D23" s="41">
         <f>'SYVbT-passenger'!D3/SUM('SYVbT-passenger'!3:3)</f>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="E23" s="41">
         <f>E30</f>
@@ -57849,144 +57847,144 @@
       </c>
       <c r="F23" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H23" s="42"/>
       <c r="I23" s="41">
         <f t="shared" si="5"/>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="J23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,J$7))</f>
-        <v>9.793829616877181E-2</v>
+        <v>0</v>
       </c>
       <c r="K23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,K$7))</f>
-        <v>9.7563274780050432E-2</v>
+        <v>0</v>
       </c>
       <c r="L23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,L$7))</f>
-        <v>9.706158044570036E-2</v>
+        <v>0</v>
       </c>
       <c r="M23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,M$7))</f>
-        <v>9.63924906999825E-2</v>
+        <v>0</v>
       </c>
       <c r="N23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,N$7))</f>
-        <v>9.5503809373300497E-2</v>
+        <v>0</v>
       </c>
       <c r="O23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,O$7))</f>
-        <v>9.4329883979073256E-2</v>
+        <v>0</v>
       </c>
       <c r="P23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,P$7))</f>
-        <v>9.2790274393963645E-2</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,Q$7))</f>
-        <v>9.0790008602339642E-2</v>
+        <v>0</v>
       </c>
       <c r="R23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,R$7))</f>
-        <v>8.8222838650404409E-2</v>
+        <v>0</v>
       </c>
       <c r="S23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,S$7))</f>
-        <v>8.4979307337193458E-2</v>
+        <v>0</v>
       </c>
       <c r="T23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,T$7))</f>
-        <v>8.096136910715615E-2</v>
+        <v>0</v>
       </c>
       <c r="U23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,U$7))</f>
-        <v>7.610415989811814E-2</v>
+        <v>0</v>
       </c>
       <c r="V23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,V$7))</f>
-        <v>7.0402693301471156E-2</v>
+        <v>0</v>
       </c>
       <c r="W23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,W$7))</f>
-        <v>6.3936950145602009E-2</v>
+        <v>0</v>
       </c>
       <c r="X23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,X$7))</f>
-        <v>5.6884912614880941E-2</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,Y$7))</f>
-        <v>4.9513146180936024E-2</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,Z$7))</f>
-        <v>4.2141379746991101E-2</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AA$7))</f>
-        <v>3.5089342216270039E-2</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AB$7))</f>
-        <v>2.8623599060400892E-2</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AC$7))</f>
-        <v>2.2922132463753908E-2</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AD$7))</f>
-        <v>1.8064923254715898E-2</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AE$7))</f>
-        <v>1.404698502467859E-2</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AF$7))</f>
-        <v>1.0803453711467639E-2</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AG$7))</f>
-        <v>8.2362837595324062E-3</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AH$7))</f>
-        <v>6.2360179679084027E-3</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AI$7))</f>
-        <v>4.6964083827987779E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AJ$7))</f>
-        <v>3.5224829885715514E-3</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AK$7))</f>
-        <v>2.6338016618895621E-3</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AL$7))</f>
-        <v>1.9647119161716742E-3</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AM$7))</f>
-        <v>1.4630175818216157E-3</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AN$7))</f>
-        <v>1.087996193100238E-3</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AO$7))</f>
-        <v>8.0830915743738962E-4</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AP$7))</f>
-        <v>6.0007967416052244E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.45">
@@ -57995,7 +57993,7 @@
       </c>
       <c r="D24" s="41">
         <f>'SYVbT-passenger'!D3/SUM('SYVbT-passenger'!3:3)</f>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="E24" s="41">
         <f>E31</f>
@@ -58008,139 +58006,139 @@
       <c r="H24" s="42"/>
       <c r="I24" s="41">
         <f t="shared" si="5"/>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="J24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,J$7))</f>
-        <v>0.10214288480576172</v>
+        <v>6.117389182128008E-3</v>
       </c>
       <c r="K24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,K$7))</f>
-        <v>0.10525947724965157</v>
+        <v>1.2234778364256016E-2</v>
       </c>
       <c r="L24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,L$7))</f>
-        <v>0.10837606969354141</v>
+        <v>1.8352167546384024E-2</v>
       </c>
       <c r="M24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,M$7))</f>
-        <v>0.11149266213743037</v>
+        <v>2.4469556728512032E-2</v>
       </c>
       <c r="N24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,N$7))</f>
-        <v>0.11460925458132021</v>
+        <v>3.0586945910641816E-2</v>
       </c>
       <c r="O24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,O$7))</f>
-        <v>0.11772584702521005</v>
+        <v>3.6704335092769824E-2</v>
       </c>
       <c r="P24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,P$7))</f>
-        <v>0.12084243946909989</v>
+        <v>4.2821724274897832E-2</v>
       </c>
       <c r="Q24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,Q$7))</f>
-        <v>0.12395903191298885</v>
+        <v>4.893911345702584E-2</v>
       </c>
       <c r="R24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,R$7))</f>
-        <v>0.12707562435687869</v>
+        <v>5.5056502639153848E-2</v>
       </c>
       <c r="S24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,S$7))</f>
-        <v>0.13019221680076853</v>
+        <v>6.1173891821281856E-2</v>
       </c>
       <c r="T24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,T$7))</f>
-        <v>0.13330880924465838</v>
+        <v>6.7291281003409864E-2</v>
       </c>
       <c r="U24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,U$7))</f>
-        <v>0.13642540168854822</v>
+        <v>7.3408670185537872E-2</v>
       </c>
       <c r="V24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,V$7))</f>
-        <v>0.13954199413243717</v>
+        <v>7.952605936766588E-2</v>
       </c>
       <c r="W24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,W$7))</f>
-        <v>0.14265858657632702</v>
+        <v>8.5643448549793888E-2</v>
       </c>
       <c r="X24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,X$7))</f>
-        <v>0.14577517902021686</v>
+        <v>9.1760837731921896E-2</v>
       </c>
       <c r="Y24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,Y$7))</f>
-        <v>0.1488917714641067</v>
+        <v>9.787822691405168E-2</v>
       </c>
       <c r="Z24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,Z$7))</f>
-        <v>0.15200836390799566</v>
+        <v>0.10399561609617969</v>
       </c>
       <c r="AA24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AA$7))</f>
-        <v>0.1551249563518855</v>
+        <v>0.1101130052783077</v>
       </c>
       <c r="AB24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AB$7))</f>
-        <v>0.15824154879577534</v>
+        <v>0.1162303944604357</v>
       </c>
       <c r="AC24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AC$7))</f>
-        <v>0.16135814123966519</v>
+        <v>0.12234778364256371</v>
       </c>
       <c r="AD24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AD$7))</f>
-        <v>0.16447473368355414</v>
+        <v>0.12846517282469172</v>
       </c>
       <c r="AE24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AE$7))</f>
-        <v>0.16759132612744398</v>
+        <v>0.13458256200681973</v>
       </c>
       <c r="AF24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AF$7))</f>
-        <v>0.17070791857133383</v>
+        <v>0.14069995118894774</v>
       </c>
       <c r="AG24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AG$7))</f>
-        <v>0.17382451101522367</v>
+        <v>0.14681734037107574</v>
       </c>
       <c r="AH24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AH$7))</f>
-        <v>0.17694110345911263</v>
+        <v>0.15293472955320375</v>
       </c>
       <c r="AI24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AI$7))</f>
-        <v>0.18005769590300247</v>
+        <v>0.15905211873533354</v>
       </c>
       <c r="AJ24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AJ$7))</f>
-        <v>0.18317428834689231</v>
+        <v>0.16516950791746154</v>
       </c>
       <c r="AK24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AK$7))</f>
-        <v>0.18629088079078215</v>
+        <v>0.17128689709958955</v>
       </c>
       <c r="AL24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AL$7))</f>
-        <v>0.18940747323467111</v>
+        <v>0.17740428628171756</v>
       </c>
       <c r="AM24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AM$7))</f>
-        <v>0.19252406567856095</v>
+        <v>0.18352167546384557</v>
       </c>
       <c r="AN24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AN$7))</f>
-        <v>0.19564065812245079</v>
+        <v>0.18963906464597358</v>
       </c>
       <c r="AO24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AO$7))</f>
-        <v>0.19875725056634064</v>
+        <v>0.19575645382810158</v>
       </c>
       <c r="AP24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AP$7))</f>
-        <v>0.20187384301023048</v>
+        <v>0.20187384301022959</v>
       </c>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.45">
@@ -61993,7 +61991,7 @@
       </c>
       <c r="D50" s="41">
         <f>'SYVbT-passenger'!B5/SUM('SYVbT-passenger'!B5:H5)</f>
-        <v>0.5118281341400337</v>
+        <v>1</v>
       </c>
       <c r="E50" s="14">
         <f>Assumptions!A28</f>
@@ -62006,139 +62004,139 @@
       <c r="H50" s="42"/>
       <c r="I50" s="41">
         <f t="shared" si="5"/>
-        <v>0.5118281341400337</v>
+        <v>1</v>
       </c>
       <c r="J50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,J$7))</f>
-        <v>0.51444491476645848</v>
+        <v>0.99725326434235173</v>
       </c>
       <c r="K50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,K$7))</f>
-        <v>0.51534689283469481</v>
+        <v>0.99630649207668176</v>
       </c>
       <c r="L50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,L$7))</f>
-        <v>0.51655353677595117</v>
+        <v>0.99503992356648063</v>
       </c>
       <c r="M50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,M$7))</f>
-        <v>0.51816278972650143</v>
+        <v>0.99335075160578357</v>
       </c>
       <c r="N50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,N$7))</f>
-        <v>0.52030019065995547</v>
+        <v>0.99110720268184094</v>
       </c>
       <c r="O50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,O$7))</f>
-        <v>0.52312364284477286</v>
+        <v>0.98814353170560831</v>
       </c>
       <c r="P50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,P$7))</f>
-        <v>0.52682661585159252</v>
+        <v>0.98425666098575082</v>
       </c>
       <c r="Q50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,Q$7))</f>
-        <v>0.53163753045259587</v>
+        <v>0.97920682587651942</v>
       </c>
       <c r="R50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,R$7))</f>
-        <v>0.53781192760358398</v>
+        <v>0.97272579470109677</v>
       </c>
       <c r="S50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,S$7))</f>
-        <v>0.54561306694160605</v>
+        <v>0.9645372337748781</v>
       </c>
       <c r="T50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,T$7))</f>
-        <v>0.55527676152547534</v>
+        <v>0.95439361904841091</v>
       </c>
       <c r="U50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,U$7))</f>
-        <v>0.56695901835441231</v>
+        <v>0.94213119587475436</v>
       </c>
       <c r="V50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,V$7))</f>
-        <v>0.58067183042758774</v>
+        <v>0.92773737565625103</v>
       </c>
       <c r="W50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,W$7))</f>
-        <v>0.59622283284194855</v>
+        <v>0.9114140765564489</v>
       </c>
       <c r="X50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,X$7))</f>
-        <v>0.61318395394167213</v>
+        <v>0.89361062920291479</v>
       </c>
       <c r="Y50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,Y$7))</f>
-        <v>0.63091406707001685</v>
+        <v>0.875</v>
       </c>
       <c r="Z50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,Z$7))</f>
-        <v>0.64864418019836156</v>
+        <v>0.85638937079708521</v>
       </c>
       <c r="AA50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AA$7))</f>
-        <v>0.66560530129808515</v>
+        <v>0.8385859234435511</v>
       </c>
       <c r="AB50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AB$7))</f>
-        <v>0.68115630371244595</v>
+        <v>0.82226262434374897</v>
       </c>
       <c r="AC50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AC$7))</f>
-        <v>0.69486911578562138</v>
+        <v>0.80786880412524564</v>
       </c>
       <c r="AD50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AD$7))</f>
-        <v>0.70655137261455836</v>
+        <v>0.79560638095158909</v>
       </c>
       <c r="AE50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AE$7))</f>
-        <v>0.71621506719842765</v>
+        <v>0.7854627662251219</v>
       </c>
       <c r="AF50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AF$7))</f>
-        <v>0.72401620653644971</v>
+        <v>0.77727420529890323</v>
       </c>
       <c r="AG50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AG$7))</f>
-        <v>0.73019060368743782</v>
+        <v>0.77079317412348058</v>
       </c>
       <c r="AH50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AH$7))</f>
-        <v>0.73500151828844118</v>
+        <v>0.76574333901424918</v>
       </c>
       <c r="AI50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AI$7))</f>
-        <v>0.73870449129526083</v>
+        <v>0.76185646829439169</v>
       </c>
       <c r="AJ50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AJ$7))</f>
-        <v>0.74152794348007822</v>
+        <v>0.75889279731815906</v>
       </c>
       <c r="AK50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AK$7))</f>
-        <v>0.74366534441353227</v>
+        <v>0.75664924839421643</v>
       </c>
       <c r="AL50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AL$7))</f>
-        <v>0.74527459736408264</v>
+        <v>0.75496007643351937</v>
       </c>
       <c r="AM50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AM$7))</f>
-        <v>0.74648124130533888</v>
+        <v>0.75369350792331824</v>
       </c>
       <c r="AN50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AN$7))</f>
-        <v>0.74738321937357521</v>
+        <v>0.75274673565764827</v>
       </c>
       <c r="AO50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AO$7))</f>
-        <v>0.74805590519823717</v>
+        <v>0.75204064278828997</v>
       </c>
       <c r="AP50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AP$7))</f>
-        <v>0.74855672577200838</v>
+        <v>0.75151495037289606</v>
       </c>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.45">
@@ -62451,7 +62449,7 @@
       </c>
       <c r="D53" s="41">
         <f>'SYVbT-passenger'!E5/SUM('SYVbT-passenger'!B5:H5)</f>
-        <v>0.48817186585996641</v>
+        <v>0</v>
       </c>
       <c r="E53" s="14">
         <f>Assumptions!A28</f>
@@ -62464,139 +62462,139 @@
       <c r="H53" s="42"/>
       <c r="I53" s="41">
         <f t="shared" si="5"/>
-        <v>0.48817186585996641</v>
+        <v>0</v>
       </c>
       <c r="J53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,J$7))</f>
-        <v>0.49610605174299849</v>
+        <v>2.2727272727273373E-2</v>
       </c>
       <c r="K53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,K$7))</f>
-        <v>0.50404023762603245</v>
+        <v>4.5454545454546746E-2</v>
       </c>
       <c r="L53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,L$7))</f>
-        <v>0.51197442350906286</v>
+        <v>6.818181818182012E-2</v>
       </c>
       <c r="M53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,M$7))</f>
-        <v>0.51990860939209327</v>
+        <v>9.0909090909086387E-2</v>
       </c>
       <c r="N53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,N$7))</f>
-        <v>0.52784279527512368</v>
+        <v>0.11363636363635976</v>
       </c>
       <c r="O53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,O$7))</f>
-        <v>0.53577698115815764</v>
+        <v>0.13636363636363313</v>
       </c>
       <c r="P53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,P$7))</f>
-        <v>0.54371116704118805</v>
+        <v>0.15909090909090651</v>
       </c>
       <c r="Q53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,Q$7))</f>
-        <v>0.55164535292421846</v>
+        <v>0.18181818181817988</v>
       </c>
       <c r="R53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,R$7))</f>
-        <v>0.55957953880724887</v>
+        <v>0.20454545454545325</v>
       </c>
       <c r="S53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,S$7))</f>
-        <v>0.56751372469028283</v>
+        <v>0.22727272727272663</v>
       </c>
       <c r="T53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,T$7))</f>
-        <v>0.57544791057331324</v>
+        <v>0.25</v>
       </c>
       <c r="U53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,U$7))</f>
-        <v>0.58338209645634365</v>
+        <v>0.27272727272727337</v>
       </c>
       <c r="V53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,V$7))</f>
-        <v>0.59131628233937406</v>
+        <v>0.29545454545454675</v>
       </c>
       <c r="W53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,W$7))</f>
-        <v>0.59925046822240802</v>
+        <v>0.31818181818182012</v>
       </c>
       <c r="X53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,X$7))</f>
-        <v>0.60718465410543843</v>
+        <v>0.34090909090908639</v>
       </c>
       <c r="Y53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,Y$7))</f>
-        <v>0.61511883998846884</v>
+        <v>0.36363636363635976</v>
       </c>
       <c r="Z53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,Z$7))</f>
-        <v>0.62305302587149924</v>
+        <v>0.38636363636363313</v>
       </c>
       <c r="AA53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AA$7))</f>
-        <v>0.63098721175453321</v>
+        <v>0.40909090909090651</v>
       </c>
       <c r="AB53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AB$7))</f>
-        <v>0.63892139763756362</v>
+        <v>0.43181818181817988</v>
       </c>
       <c r="AC53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AC$7))</f>
-        <v>0.64685558352059402</v>
+        <v>0.45454545454545325</v>
       </c>
       <c r="AD53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AD$7))</f>
-        <v>0.65478976940362443</v>
+        <v>0.47727272727272663</v>
       </c>
       <c r="AE53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AE$7))</f>
-        <v>0.66272395528665839</v>
+        <v>0.5</v>
       </c>
       <c r="AF53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AF$7))</f>
-        <v>0.6706581411696888</v>
+        <v>0.52272727272727337</v>
       </c>
       <c r="AG53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AG$7))</f>
-        <v>0.67859232705271921</v>
+        <v>0.54545454545454675</v>
       </c>
       <c r="AH53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AH$7))</f>
-        <v>0.68652651293574962</v>
+        <v>0.56818181818182012</v>
       </c>
       <c r="AI53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AI$7))</f>
-        <v>0.69446069881878358</v>
+        <v>0.59090909090908639</v>
       </c>
       <c r="AJ53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AJ$7))</f>
-        <v>0.70239488470181399</v>
+        <v>0.61363636363635976</v>
       </c>
       <c r="AK53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AK$7))</f>
-        <v>0.7103290705848444</v>
+        <v>0.63636363636363313</v>
       </c>
       <c r="AL53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AL$7))</f>
-        <v>0.71826325646787481</v>
+        <v>0.65909090909090651</v>
       </c>
       <c r="AM53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AM$7))</f>
-        <v>0.72619744235090877</v>
+        <v>0.68181818181817988</v>
       </c>
       <c r="AN53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AN$7))</f>
-        <v>0.73413162823393918</v>
+        <v>0.70454545454545325</v>
       </c>
       <c r="AO53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AO$7))</f>
-        <v>0.74206581411696959</v>
+        <v>0.72727272727272663</v>
       </c>
       <c r="AP53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AP$7))</f>
-        <v>0.75000000000000355</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.45">
@@ -64449,7 +64447,7 @@
       </c>
       <c r="D66" s="14">
         <f>'SYVbT-passenger'!D6/SUM('SYVbT-passenger'!B6:H6)</f>
-        <v>0.78794595848566396</v>
+        <v>0</v>
       </c>
       <c r="E66" s="14">
         <v>1</v>
@@ -64461,135 +64459,135 @@
       <c r="H66" s="42"/>
       <c r="I66" s="41">
         <f t="shared" si="5"/>
-        <v>0.78794595848566396</v>
+        <v>0</v>
       </c>
       <c r="J66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,J$7))</f>
-        <v>0.79437183853155346</v>
+        <v>3.0303030303031164E-2</v>
       </c>
       <c r="K66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,K$7))</f>
-        <v>0.8007977185774422</v>
+        <v>6.0606060606055223E-2</v>
       </c>
       <c r="L66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,L$7))</f>
-        <v>0.80722359862333093</v>
+        <v>9.0909090909086387E-2</v>
       </c>
       <c r="M66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,M$7))</f>
-        <v>0.81364947866921966</v>
+        <v>0.12121212121211755</v>
       </c>
       <c r="N66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,N$7))</f>
-        <v>0.82007535871511017</v>
+        <v>0.15151515151514872</v>
       </c>
       <c r="O66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,O$7))</f>
-        <v>0.8265012387609989</v>
+        <v>0.18181818181817988</v>
       </c>
       <c r="P66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,P$7))</f>
-        <v>0.83292711880688763</v>
+        <v>0.21212121212121104</v>
       </c>
       <c r="Q66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,Q$7))</f>
-        <v>0.83935299885277637</v>
+        <v>0.24242424242424221</v>
       </c>
       <c r="R66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,R$7))</f>
-        <v>0.8457788788986651</v>
+        <v>0.27272727272727337</v>
       </c>
       <c r="S66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,S$7))</f>
-        <v>0.85220475894455383</v>
+        <v>0.30303030303030454</v>
       </c>
       <c r="T66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,T$7))</f>
-        <v>0.85863063899044256</v>
+        <v>0.3333333333333286</v>
       </c>
       <c r="U66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,U$7))</f>
-        <v>0.8650565190363313</v>
+        <v>0.36363636363635976</v>
       </c>
       <c r="V66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,V$7))</f>
-        <v>0.8714823990822218</v>
+        <v>0.39393939393939092</v>
       </c>
       <c r="W66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,W$7))</f>
-        <v>0.87790827912811054</v>
+        <v>0.42424242424242209</v>
       </c>
       <c r="X66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,X$7))</f>
-        <v>0.88433415917399927</v>
+        <v>0.45454545454545325</v>
       </c>
       <c r="Y66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,Y$7))</f>
-        <v>0.890760039219888</v>
+        <v>0.48484848484848442</v>
       </c>
       <c r="Z66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,Z$7))</f>
-        <v>0.89718591926577673</v>
+        <v>0.51515151515151558</v>
       </c>
       <c r="AA66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AA$7))</f>
-        <v>0.90361179931166546</v>
+        <v>0.54545454545454675</v>
       </c>
       <c r="AB66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AB$7))</f>
-        <v>0.9100376793575542</v>
+        <v>0.57575757575757081</v>
       </c>
       <c r="AC66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AC$7))</f>
-        <v>0.91646355940344471</v>
+        <v>0.60606060606060197</v>
       </c>
       <c r="AD66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AD$7))</f>
-        <v>0.92288943944933344</v>
+        <v>0.63636363636363313</v>
       </c>
       <c r="AE66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AE$7))</f>
-        <v>0.92931531949522217</v>
+        <v>0.6666666666666643</v>
       </c>
       <c r="AF66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AF$7))</f>
-        <v>0.9357411995411109</v>
+        <v>0.69696969696969546</v>
       </c>
       <c r="AG66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AG$7))</f>
-        <v>0.94216707958699963</v>
+        <v>0.72727272727272663</v>
       </c>
       <c r="AH66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AH$7))</f>
-        <v>0.94859295963288837</v>
+        <v>0.75757575757575779</v>
       </c>
       <c r="AI66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AI$7))</f>
-        <v>0.9550188396787771</v>
+        <v>0.78787878787878896</v>
       </c>
       <c r="AJ66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AJ$7))</f>
-        <v>0.96144471972466583</v>
+        <v>0.81818181818181301</v>
       </c>
       <c r="AK66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AK$7))</f>
-        <v>0.96787059977055634</v>
+        <v>0.84848484848484418</v>
       </c>
       <c r="AL66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AL$7))</f>
-        <v>0.97429647981644507</v>
+        <v>0.87878787878787534</v>
       </c>
       <c r="AM66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AM$7))</f>
-        <v>0.9807223598623338</v>
+        <v>0.90909090909090651</v>
       </c>
       <c r="AN66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AN$7))</f>
-        <v>0.98714823990822254</v>
+        <v>0.93939393939393767</v>
       </c>
       <c r="AO66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AO$7))</f>
-        <v>0.99357411995411127</v>
+        <v>0.96969696969696884</v>
       </c>
       <c r="AP66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AP$7))</f>
@@ -64602,147 +64600,147 @@
       </c>
       <c r="D67" s="14">
         <f>'SYVbT-passenger'!E6/SUM('SYVbT-passenger'!B6:H6)</f>
-        <v>0.21205404151433599</v>
+        <v>1</v>
       </c>
       <c r="E67" s="14">
         <v>1</v>
       </c>
       <c r="F67" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="H67" s="42"/>
       <c r="I67" s="41">
         <f t="shared" si="5"/>
-        <v>0.21205404151433599</v>
+        <v>1</v>
       </c>
       <c r="J67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,J$7))</f>
-        <v>0.2359311917714777</v>
+        <v>1</v>
       </c>
       <c r="K67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,K$7))</f>
-        <v>0.25980834202861303</v>
+        <v>1</v>
       </c>
       <c r="L67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,L$7))</f>
-        <v>0.28368549228575546</v>
+        <v>1</v>
       </c>
       <c r="M67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,M$7))</f>
-        <v>0.30756264254289789</v>
+        <v>1</v>
       </c>
       <c r="N67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,N$7))</f>
-        <v>0.33143979280004032</v>
+        <v>1</v>
       </c>
       <c r="O67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,O$7))</f>
-        <v>0.35531694305718275</v>
+        <v>1</v>
       </c>
       <c r="P67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,P$7))</f>
-        <v>0.37919409331432519</v>
+        <v>1</v>
       </c>
       <c r="Q67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,Q$7))</f>
-        <v>0.40307124357146762</v>
+        <v>1</v>
       </c>
       <c r="R67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,R$7))</f>
-        <v>0.42694839382860295</v>
+        <v>1</v>
       </c>
       <c r="S67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,S$7))</f>
-        <v>0.45082554408574538</v>
+        <v>1</v>
       </c>
       <c r="T67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,T$7))</f>
-        <v>0.47470269434288781</v>
+        <v>1</v>
       </c>
       <c r="U67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,U$7))</f>
-        <v>0.49857984460003024</v>
+        <v>1</v>
       </c>
       <c r="V67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,V$7))</f>
-        <v>0.52245699485717267</v>
+        <v>1</v>
       </c>
       <c r="W67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,W$7))</f>
-        <v>0.54633414511431511</v>
+        <v>1</v>
       </c>
       <c r="X67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,X$7))</f>
-        <v>0.57021129537145043</v>
+        <v>1</v>
       </c>
       <c r="Y67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,Y$7))</f>
-        <v>0.59408844562859286</v>
+        <v>1</v>
       </c>
       <c r="Z67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,Z$7))</f>
-        <v>0.6179655958857353</v>
+        <v>1</v>
       </c>
       <c r="AA67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AA$7))</f>
-        <v>0.64184274614287773</v>
+        <v>1</v>
       </c>
       <c r="AB67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AB$7))</f>
-        <v>0.66571989640002016</v>
+        <v>1</v>
       </c>
       <c r="AC67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AC$7))</f>
-        <v>0.68959704665716259</v>
+        <v>1</v>
       </c>
       <c r="AD67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AD$7))</f>
-        <v>0.71347419691430503</v>
+        <v>1</v>
       </c>
       <c r="AE67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AE$7))</f>
-        <v>0.73735134717144035</v>
+        <v>1</v>
       </c>
       <c r="AF67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AF$7))</f>
-        <v>0.76122849742858278</v>
+        <v>1</v>
       </c>
       <c r="AG67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AG$7))</f>
-        <v>0.78510564768572522</v>
+        <v>1</v>
       </c>
       <c r="AH67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AH$7))</f>
-        <v>0.80898279794286765</v>
+        <v>1</v>
       </c>
       <c r="AI67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AI$7))</f>
-        <v>0.83285994820001008</v>
+        <v>1</v>
       </c>
       <c r="AJ67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AJ$7))</f>
-        <v>0.85673709845715251</v>
+        <v>1</v>
       </c>
       <c r="AK67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AK$7))</f>
-        <v>0.88061424871428784</v>
+        <v>1</v>
       </c>
       <c r="AL67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AL$7))</f>
-        <v>0.90449139897143027</v>
+        <v>1</v>
       </c>
       <c r="AM67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AM$7))</f>
-        <v>0.9283685492285727</v>
+        <v>1</v>
       </c>
       <c r="AN67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AN$7))</f>
-        <v>0.95224569948571514</v>
+        <v>1</v>
       </c>
       <c r="AO67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AO$7))</f>
-        <v>0.97612284974285757</v>
+        <v>1</v>
       </c>
       <c r="AP67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AP$7))</f>
@@ -68754,147 +68752,147 @@
       </c>
       <c r="B3" s="57">
         <f t="shared" ref="B3:B8" si="0">D3</f>
-        <v>5.5794652063621928E-4</v>
+        <v>0</v>
       </c>
       <c r="C3" s="57">
         <f t="shared" ref="C3:C8" si="1">D3</f>
-        <v>5.5794652063621928E-4</v>
+        <v>0</v>
       </c>
       <c r="D3" s="14">
         <f>Data!I9</f>
-        <v>5.5794652063621928E-4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="14">
         <f>Data!J9</f>
-        <v>5.6577100098409926E-4</v>
+        <v>0</v>
       </c>
       <c r="F3" s="14">
         <f>Data!K9</f>
-        <v>5.6846802097800539E-4</v>
+        <v>0</v>
       </c>
       <c r="G3" s="14">
         <f>Data!L9</f>
-        <v>5.7207602759113438E-4</v>
+        <v>0</v>
       </c>
       <c r="H3" s="14">
         <f>Data!M9</f>
-        <v>5.7688788226446699E-4</v>
+        <v>0</v>
       </c>
       <c r="I3" s="14">
         <f>Data!N9</f>
-        <v>5.8327896122250763E-4</v>
+        <v>0</v>
       </c>
       <c r="J3" s="14">
         <f>Data!O9</f>
-        <v>5.9172141371936304E-4</v>
+        <v>0</v>
       </c>
       <c r="K3" s="14">
         <f>Data!P9</f>
-        <v>6.0279373641542963E-4</v>
+        <v>0</v>
       </c>
       <c r="L3" s="14">
         <f>Data!Q9</f>
-        <v>6.1717893415449618E-4</v>
+        <v>0</v>
       </c>
       <c r="M3" s="14">
         <f>Data!R9</f>
-        <v>6.3564110430359218E-4</v>
+        <v>0</v>
       </c>
       <c r="N3" s="14">
         <f>Data!S9</f>
-        <v>6.5896742399009335E-4</v>
+        <v>0</v>
       </c>
       <c r="O3" s="14">
         <f>Data!T9</f>
-        <v>6.8786300186002996E-4</v>
+        <v>0</v>
       </c>
       <c r="P3" s="14">
         <f>Data!U9</f>
-        <v>7.227943171005404E-4</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="14">
         <f>Data!V9</f>
-        <v>7.6379723018283675E-4</v>
+        <v>0</v>
       </c>
       <c r="R3" s="14">
         <f>Data!W9</f>
-        <v>8.1029654753189727E-4</v>
+        <v>0</v>
       </c>
       <c r="S3" s="14">
         <f>Data!X9</f>
-        <v>8.6101228479418322E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="14">
         <f>Data!Y9</f>
-        <v>9.140273982268909E-4</v>
+        <v>0</v>
       </c>
       <c r="U3" s="14">
         <f>Data!Z9</f>
-        <v>9.6704251165959868E-4</v>
+        <v>0</v>
       </c>
       <c r="V3" s="14">
         <f>Data!AA9</f>
-        <v>1.0177582489218845E-3</v>
+        <v>0</v>
       </c>
       <c r="W3" s="14">
         <f>Data!AB9</f>
-        <v>1.0642575662709452E-3</v>
+        <v>0</v>
       </c>
       <c r="X3" s="14">
         <f>Data!AC9</f>
-        <v>1.1052604793532414E-3</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="14">
         <f>Data!AD9</f>
-        <v>1.1401917945937519E-3</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="14">
         <f>Data!AE9</f>
-        <v>1.1690873724636887E-3</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="14">
         <f>Data!AF9</f>
-        <v>1.1924136921501898E-3</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="14">
         <f>Data!AG9</f>
-        <v>1.2108758622992857E-3</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="14">
         <f>Data!AH9</f>
-        <v>1.2252610600383524E-3</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="14">
         <f>Data!AI9</f>
-        <v>1.2363333827344189E-3</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="14">
         <f>Data!AJ9</f>
-        <v>1.2447758352312744E-3</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="14">
         <f>Data!AK9</f>
-        <v>1.2511669141893149E-3</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="14">
         <f>Data!AL9</f>
-        <v>1.2559787688626476E-3</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="14">
         <f>Data!AM9</f>
-        <v>1.2595867754757765E-3</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="14">
         <f>Data!AN9</f>
-        <v>1.2622837954696826E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="14">
         <f>Data!AO9</f>
-        <v>1.2642952048183358E-3</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="14">
         <f>Data!AP9</f>
-        <v>1.2657927169512655E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.45">
@@ -69052,147 +69050,147 @@
       </c>
       <c r="B5" s="57">
         <f t="shared" si="0"/>
-        <v>4.8592557721546335E-3</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="C5" s="57">
         <f t="shared" si="1"/>
-        <v>4.8592557721546335E-3</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="D5" s="14">
         <f>Data!I11</f>
-        <v>4.8592557721546335E-3</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="E5" s="14">
         <f>Data!J11</f>
-        <v>6.935033541304314E-3</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="F5" s="14">
         <f>Data!K11</f>
-        <v>9.0108113104552245E-3</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="G5" s="14">
         <f>Data!L11</f>
-        <v>1.1086589079606135E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="H5" s="14">
         <f>Data!M11</f>
-        <v>1.3162366848757046E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="I5" s="14">
         <f>Data!N11</f>
-        <v>1.5238144617907068E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="J5" s="14">
         <f>Data!O11</f>
-        <v>1.7313922387057978E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="K5" s="14">
         <f>Data!P11</f>
-        <v>1.9389700156208889E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="L5" s="14">
         <f>Data!Q11</f>
-        <v>2.1465477925359799E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="M5" s="14">
         <f>Data!R11</f>
-        <v>2.354125569451071E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="N5" s="14">
         <f>Data!S11</f>
-        <v>2.5617033463660732E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="O5" s="14">
         <f>Data!T11</f>
-        <v>2.7692811232811643E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="P5" s="14">
         <f>Data!U11</f>
-        <v>2.9768589001962553E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="Q5" s="14">
         <f>Data!V11</f>
-        <v>3.1844366771113464E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="R5" s="14">
         <f>Data!W11</f>
-        <v>3.3920144540264374E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="S5" s="14">
         <f>Data!X11</f>
-        <v>3.5995922309414397E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="T5" s="14">
         <f>Data!Y11</f>
-        <v>3.8071700078565307E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="U5" s="14">
         <f>Data!Z11</f>
-        <v>4.0147477847716218E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="V5" s="14">
         <f>Data!AA11</f>
-        <v>4.2223255616867128E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="W5" s="14">
         <f>Data!AB11</f>
-        <v>4.4299033386018039E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="X5" s="14">
         <f>Data!AC11</f>
-        <v>4.6374811155168061E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="Y5" s="14">
         <f>Data!AD11</f>
-        <v>4.8450588924318971E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="Z5" s="14">
         <f>Data!AE11</f>
-        <v>5.0526366693469882E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AA5" s="14">
         <f>Data!AF11</f>
-        <v>5.2602144462620792E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AB5" s="14">
         <f>Data!AG11</f>
-        <v>5.4677922231770815E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AC5" s="14">
         <f>Data!AH11</f>
-        <v>5.6753700000921725E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AD5" s="14">
         <f>Data!AI11</f>
-        <v>5.8829477770072636E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AE5" s="14">
         <f>Data!AJ11</f>
-        <v>6.0905255539223546E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AF5" s="14">
         <f>Data!AK11</f>
-        <v>6.2981033308374457E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AG5" s="14">
         <f>Data!AL11</f>
-        <v>6.5056811077524479E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AH5" s="14">
         <f>Data!AM11</f>
-        <v>6.713258884667539E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AI5" s="14">
         <f>Data!AN11</f>
-        <v>6.92083666158263E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AJ5" s="14">
         <f>Data!AO11</f>
-        <v>7.1284144384977211E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AK5" s="14">
         <f>Data!AP11</f>
-        <v>7.3359922154128121E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.45">
@@ -69213,135 +69211,135 @@
       </c>
       <c r="E6" s="14">
         <f>Data!J12</f>
-        <v>2.4978407980884641E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="F6" s="14">
         <f>Data!K12</f>
-        <v>2.8729827765517297E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="G6" s="14">
         <f>Data!L12</f>
-        <v>3.3748384328746248E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="H6" s="14">
         <f>Data!M12</f>
-        <v>4.0441433272804259E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="I6" s="14">
         <f>Data!N12</f>
-        <v>4.9331104132684898E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="J6" s="14">
         <f>Data!O12</f>
-        <v>6.107413288259581E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="K6" s="14">
         <f>Data!P12</f>
-        <v>7.6475179414587664E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="L6" s="14">
         <f>Data!Q12</f>
-        <v>9.6484269271585182E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="M6" s="14">
         <f>Data!R12</f>
-        <v>1.2216422363642575E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="N6" s="14">
         <f>Data!S12</f>
-        <v>1.5460996648309563E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="O6" s="14">
         <f>Data!T12</f>
-        <v>1.9480226863680561E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="P6" s="14">
         <f>Data!U12</f>
-        <v>2.4338997929248343E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Q6" s="14">
         <f>Data!V12</f>
-        <v>3.004229785702231E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="R6" s="14">
         <f>Data!W12</f>
-        <v>3.6510120100436014E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="S6" s="14">
         <f>Data!X12</f>
-        <v>4.3564425244181658E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="T6" s="14">
         <f>Data!Y12</f>
-        <v>5.0938562101356305E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="U6" s="14">
         <f>Data!Z12</f>
-        <v>5.8312698958530959E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="V6" s="14">
         <f>Data!AA12</f>
-        <v>6.5367004102276582E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="W6" s="14">
         <f>Data!AB12</f>
-        <v>7.1834826345690286E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="X6" s="14">
         <f>Data!AC12</f>
-        <v>7.753812627346425E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Y6" s="14">
         <f>Data!AD12</f>
-        <v>8.2396897339032035E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Z6" s="14">
         <f>Data!AE12</f>
-        <v>8.6416127554403047E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AA6" s="14">
         <f>Data!AF12</f>
-        <v>8.9660701839070031E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AB6" s="14">
         <f>Data!AG12</f>
-        <v>9.2228697275554092E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AC6" s="14">
         <f>Data!AH12</f>
-        <v>9.4229606261253832E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AD6" s="14">
         <f>Data!AI12</f>
-        <v>9.5769710914453021E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AE6" s="14">
         <f>Data!AJ12</f>
-        <v>9.6944013789444117E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AF6" s="14">
         <f>Data!AK12</f>
-        <v>9.7832980875432171E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AG6" s="14">
         <f>Data!AL12</f>
-        <v>9.850228576983798E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AH6" s="14">
         <f>Data!AM12</f>
-        <v>9.9004141426160874E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AI6" s="14">
         <f>Data!AN12</f>
-        <v>9.9379283404624139E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AJ6" s="14">
         <f>Data!AO12</f>
-        <v>9.965906037485725E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AK6" s="14">
         <f>Data!AP12</f>
-        <v>9.9867356815220826E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.45">

--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="21" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="MPNVbT-motorbikes-psgr" sheetId="17" r:id="rId19"/>
     <sheet name="MPNVbT-motorbikes-frgt" sheetId="18" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2574,7 +2574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
@@ -3429,135 +3429,135 @@
       </c>
       <c r="E3" s="14">
         <f>Data!J16</f>
-        <v>5.7952717988414559E-4</v>
+        <v>5.4103905031390592E-4</v>
       </c>
       <c r="F3" s="14">
         <f>Data!K16</f>
-        <v>6.0110783913206595E-4</v>
+        <v>5.2413157999160048E-4</v>
       </c>
       <c r="G3" s="14">
         <f>Data!L16</f>
-        <v>6.2268849837997936E-4</v>
+        <v>5.072241096692881E-4</v>
       </c>
       <c r="H3" s="14">
         <f>Data!M16</f>
-        <v>6.4426915762789971E-4</v>
+        <v>4.9031663934697572E-4</v>
       </c>
       <c r="I3" s="14">
         <f>Data!N16</f>
-        <v>6.6584981687582007E-4</v>
+        <v>4.7340916902467028E-4</v>
       </c>
       <c r="J3" s="14">
         <f>Data!O16</f>
-        <v>6.8743047612374042E-4</v>
+        <v>4.5650169870235791E-4</v>
       </c>
       <c r="K3" s="14">
         <f>Data!P16</f>
-        <v>7.0901113537166077E-4</v>
+        <v>4.3959422838005247E-4</v>
       </c>
       <c r="L3" s="14">
         <f>Data!Q16</f>
-        <v>7.3059179461958113E-4</v>
+        <v>4.2268675805774009E-4</v>
       </c>
       <c r="M3" s="14">
         <f>Data!R16</f>
-        <v>7.5217245386750148E-4</v>
+        <v>4.0577928773542771E-4</v>
       </c>
       <c r="N3" s="14">
         <f>Data!S16</f>
-        <v>7.7375311311542183E-4</v>
+        <v>3.8887181741312227E-4</v>
       </c>
       <c r="O3" s="14">
         <f>Data!T16</f>
-        <v>7.9533377236333525E-4</v>
+        <v>3.7196434709080989E-4</v>
       </c>
       <c r="P3" s="14">
         <f>Data!U16</f>
-        <v>8.169144316112556E-4</v>
+        <v>3.5505687676850445E-4</v>
       </c>
       <c r="Q3" s="14">
         <f>Data!V16</f>
-        <v>8.3849509085917595E-4</v>
+        <v>3.3814940644619207E-4</v>
       </c>
       <c r="R3" s="14">
         <f>Data!W16</f>
-        <v>8.600757501070963E-4</v>
+        <v>3.2124193612387969E-4</v>
       </c>
       <c r="S3" s="14">
         <f>Data!X16</f>
-        <v>8.8165640935501666E-4</v>
+        <v>3.0433446580157425E-4</v>
       </c>
       <c r="T3" s="14">
         <f>Data!Y16</f>
-        <v>9.0323706860293701E-4</v>
+        <v>2.8742699547926187E-4</v>
       </c>
       <c r="U3" s="14">
         <f>Data!Z16</f>
-        <v>9.2481772785085736E-4</v>
+        <v>2.7051952515695643E-4</v>
       </c>
       <c r="V3" s="14">
         <f>Data!AA16</f>
-        <v>9.4639838709877772E-4</v>
+        <v>2.5361205483464405E-4</v>
       </c>
       <c r="W3" s="14">
         <f>Data!AB16</f>
-        <v>9.6797904634669113E-4</v>
+        <v>2.3670458451233167E-4</v>
       </c>
       <c r="X3" s="14">
         <f>Data!AC16</f>
-        <v>9.8955970559461148E-4</v>
+        <v>2.1979711419002623E-4</v>
       </c>
       <c r="Y3" s="14">
         <f>Data!AD16</f>
-        <v>1.0111403648425318E-3</v>
+        <v>2.0288964386771385E-4</v>
       </c>
       <c r="Z3" s="14">
         <f>Data!AE16</f>
-        <v>1.0327210240904522E-3</v>
+        <v>1.8598217354540147E-4</v>
       </c>
       <c r="AA3" s="14">
         <f>Data!AF16</f>
-        <v>1.0543016833383725E-3</v>
+        <v>1.6907470322309603E-4</v>
       </c>
       <c r="AB3" s="14">
         <f>Data!AG16</f>
-        <v>1.0758823425862929E-3</v>
+        <v>1.5216723290078366E-4</v>
       </c>
       <c r="AC3" s="14">
         <f>Data!AH16</f>
-        <v>1.0974630018342132E-3</v>
+        <v>1.3525976257847822E-4</v>
       </c>
       <c r="AD3" s="14">
         <f>Data!AI16</f>
-        <v>1.1190436610821336E-3</v>
+        <v>1.1835229225616584E-4</v>
       </c>
       <c r="AE3" s="14">
         <f>Data!AJ16</f>
-        <v>1.140624320330047E-3</v>
+        <v>1.0144482193385346E-4</v>
       </c>
       <c r="AF3" s="14">
         <f>Data!AK16</f>
-        <v>1.1622049795779674E-3</v>
+        <v>8.4537351611548017E-5</v>
       </c>
       <c r="AG3" s="14">
         <f>Data!AL16</f>
-        <v>1.1837856388258877E-3</v>
+        <v>6.7629881289235638E-5</v>
       </c>
       <c r="AH3" s="14">
         <f>Data!AM16</f>
-        <v>1.2053662980738081E-3</v>
+        <v>5.0722410966930198E-5</v>
       </c>
       <c r="AI3" s="14">
         <f>Data!AN16</f>
-        <v>1.2269469573217284E-3</v>
+        <v>3.3814940644617819E-5</v>
       </c>
       <c r="AJ3" s="14">
         <f>Data!AO16</f>
-        <v>1.2485276165696488E-3</v>
+        <v>1.690747032230544E-5</v>
       </c>
       <c r="AK3" s="14">
         <f>Data!AP16</f>
-        <v>1.2701082758175691E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.45">
@@ -3715,143 +3715,143 @@
       </c>
       <c r="B5" s="57">
         <f t="shared" si="0"/>
-        <v>0.34388074989867007</v>
+        <v>1</v>
       </c>
       <c r="C5" s="57">
         <f t="shared" si="1"/>
-        <v>0.34388074989867007</v>
+        <v>1</v>
       </c>
       <c r="D5" s="14">
         <f>Data!I18</f>
-        <v>0.34388074989867007</v>
+        <v>1</v>
       </c>
       <c r="E5" s="14">
         <f>Data!J18</f>
-        <v>0.3637631514168973</v>
+        <v>1</v>
       </c>
       <c r="F5" s="14">
         <f>Data!K18</f>
-        <v>0.38364555293512126</v>
+        <v>1</v>
       </c>
       <c r="G5" s="14">
         <f>Data!L18</f>
-        <v>0.40352795445333811</v>
+        <v>1</v>
       </c>
       <c r="H5" s="14">
         <f>Data!M18</f>
-        <v>0.42341035597156207</v>
+        <v>1</v>
       </c>
       <c r="I5" s="14">
         <f>Data!N18</f>
-        <v>0.44329275748978603</v>
+        <v>1</v>
       </c>
       <c r="J5" s="14">
         <f>Data!O18</f>
-        <v>0.46317515900800288</v>
+        <v>1</v>
       </c>
       <c r="K5" s="14">
         <f>Data!P18</f>
-        <v>0.48305756052622684</v>
+        <v>1</v>
       </c>
       <c r="L5" s="14">
         <f>Data!Q18</f>
-        <v>0.50293996204445079</v>
+        <v>1</v>
       </c>
       <c r="M5" s="14">
         <f>Data!R18</f>
-        <v>0.52282236356267475</v>
+        <v>1</v>
       </c>
       <c r="N5" s="14">
         <f>Data!S18</f>
-        <v>0.5427047650808916</v>
+        <v>1</v>
       </c>
       <c r="O5" s="14">
         <f>Data!T18</f>
-        <v>0.56258716659911556</v>
+        <v>1</v>
       </c>
       <c r="P5" s="14">
         <f>Data!U18</f>
-        <v>0.58246956811733952</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="14">
         <f>Data!V18</f>
-        <v>0.60235196963556348</v>
+        <v>1</v>
       </c>
       <c r="R5" s="14">
         <f>Data!W18</f>
-        <v>0.62223437115378033</v>
+        <v>1</v>
       </c>
       <c r="S5" s="14">
         <f>Data!X18</f>
-        <v>0.64211677267200429</v>
+        <v>1</v>
       </c>
       <c r="T5" s="14">
         <f>Data!Y18</f>
-        <v>0.66199917419022825</v>
+        <v>1</v>
       </c>
       <c r="U5" s="14">
         <f>Data!Z18</f>
-        <v>0.6818815757084522</v>
+        <v>1</v>
       </c>
       <c r="V5" s="14">
         <f>Data!AA18</f>
-        <v>0.70176397722666906</v>
+        <v>1</v>
       </c>
       <c r="W5" s="14">
         <f>Data!AB18</f>
-        <v>0.72164637874489301</v>
+        <v>1</v>
       </c>
       <c r="X5" s="14">
         <f>Data!AC18</f>
-        <v>0.74152878026311697</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="14">
         <f>Data!AD18</f>
-        <v>0.76141118178134093</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="14">
         <f>Data!AE18</f>
-        <v>0.78129358329955778</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="14">
         <f>Data!AF18</f>
-        <v>0.80117598481778174</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="14">
         <f>Data!AG18</f>
-        <v>0.8210583863360057</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="14">
         <f>Data!AH18</f>
-        <v>0.84094078785422965</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="14">
         <f>Data!AI18</f>
-        <v>0.86082318937244651</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="14">
         <f>Data!AJ18</f>
-        <v>0.88070559089067046</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="14">
         <f>Data!AK18</f>
-        <v>0.90058799240889442</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="14">
         <f>Data!AL18</f>
-        <v>0.92047039392711838</v>
+        <v>1</v>
       </c>
       <c r="AH5" s="14">
         <f>Data!AM18</f>
-        <v>0.94035279544533523</v>
+        <v>1</v>
       </c>
       <c r="AI5" s="14">
         <f>Data!AN18</f>
-        <v>0.96023519696355919</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="14">
         <f>Data!AO18</f>
-        <v>0.98011759848178315</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="14">
         <f>Data!AP18</f>
@@ -3876,135 +3876,135 @@
       </c>
       <c r="E6" s="14">
         <f>Data!J19</f>
-        <v>2.4978407980884641E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="F6" s="14">
         <f>Data!K19</f>
-        <v>2.8729827765517297E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="G6" s="14">
         <f>Data!L19</f>
-        <v>3.3748384328746248E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="H6" s="14">
         <f>Data!M19</f>
-        <v>4.0441433272804259E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="I6" s="14">
         <f>Data!N19</f>
-        <v>4.9331104132684898E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="J6" s="14">
         <f>Data!O19</f>
-        <v>6.107413288259581E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="K6" s="14">
         <f>Data!P19</f>
-        <v>7.6475179414587664E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="L6" s="14">
         <f>Data!Q19</f>
-        <v>9.6484269271585182E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="M6" s="14">
         <f>Data!R19</f>
-        <v>1.2216422363642575E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="N6" s="14">
         <f>Data!S19</f>
-        <v>1.5460996648309563E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="O6" s="14">
         <f>Data!T19</f>
-        <v>1.9480226863680561E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="P6" s="14">
         <f>Data!U19</f>
-        <v>2.4338997929248343E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Q6" s="14">
         <f>Data!V19</f>
-        <v>3.004229785702231E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="R6" s="14">
         <f>Data!W19</f>
-        <v>3.6510120100436014E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="S6" s="14">
         <f>Data!X19</f>
-        <v>4.3564425244181658E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="T6" s="14">
         <f>Data!Y19</f>
-        <v>5.0938562101356305E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="U6" s="14">
         <f>Data!Z19</f>
-        <v>5.8312698958530959E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="V6" s="14">
         <f>Data!AA19</f>
-        <v>6.5367004102276582E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="W6" s="14">
         <f>Data!AB19</f>
-        <v>7.1834826345690286E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="X6" s="14">
         <f>Data!AC19</f>
-        <v>7.753812627346425E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Y6" s="14">
         <f>Data!AD19</f>
-        <v>8.2396897339032035E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Z6" s="14">
         <f>Data!AE19</f>
-        <v>8.6416127554403047E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AA6" s="14">
         <f>Data!AF19</f>
-        <v>8.9660701839070031E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AB6" s="14">
         <f>Data!AG19</f>
-        <v>9.2228697275554092E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AC6" s="14">
         <f>Data!AH19</f>
-        <v>9.4229606261253832E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AD6" s="14">
         <f>Data!AI19</f>
-        <v>9.5769710914453021E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AE6" s="14">
         <f>Data!AJ19</f>
-        <v>9.6944013789444117E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AF6" s="14">
         <f>Data!AK19</f>
-        <v>9.7832980875432171E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AG6" s="14">
         <f>Data!AL19</f>
-        <v>9.850228576983798E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AH6" s="14">
         <f>Data!AM19</f>
-        <v>9.9004141426160874E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AI6" s="14">
         <f>Data!AN19</f>
-        <v>9.9379283404624139E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AJ6" s="14">
         <f>Data!AO19</f>
-        <v>9.965906037485725E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AK6" s="14">
         <f>Data!AP19</f>
-        <v>9.9867356815220826E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.45">
@@ -4013,143 +4013,143 @@
       </c>
       <c r="B7" s="14">
         <f t="shared" si="0"/>
-        <v>3.0073756374842439E-6</v>
+        <v>0</v>
       </c>
       <c r="C7" s="14">
         <f t="shared" si="1"/>
-        <v>3.0073756374842439E-6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="14">
         <f>Data!I20</f>
-        <v>3.0073756374842439E-6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="14">
         <f>Data!J20</f>
-        <v>2.9162430424089765E-6</v>
+        <v>0</v>
       </c>
       <c r="F7" s="14">
         <f>Data!K20</f>
-        <v>2.8251104473336799E-6</v>
+        <v>0</v>
       </c>
       <c r="G7" s="14">
         <f>Data!L20</f>
-        <v>2.7339778522584104E-6</v>
+        <v>0</v>
       </c>
       <c r="H7" s="14">
         <f>Data!M20</f>
-        <v>2.6428452571831409E-6</v>
+        <v>0</v>
       </c>
       <c r="I7" s="14">
         <f>Data!N20</f>
-        <v>2.5517126621078443E-6</v>
+        <v>0</v>
       </c>
       <c r="J7" s="14">
         <f>Data!O20</f>
-        <v>2.4605800670325748E-6</v>
+        <v>0</v>
       </c>
       <c r="K7" s="14">
         <f>Data!P20</f>
-        <v>2.3694474719572782E-6</v>
+        <v>0</v>
       </c>
       <c r="L7" s="14">
         <f>Data!Q20</f>
-        <v>2.2783148768820087E-6</v>
+        <v>0</v>
       </c>
       <c r="M7" s="14">
         <f>Data!R20</f>
-        <v>2.1871822818067392E-6</v>
+        <v>0</v>
       </c>
       <c r="N7" s="14">
         <f>Data!S20</f>
-        <v>2.0960496867314425E-6</v>
+        <v>0</v>
       </c>
       <c r="O7" s="14">
         <f>Data!T20</f>
-        <v>2.004917091656173E-6</v>
+        <v>0</v>
       </c>
       <c r="P7" s="14">
         <f>Data!U20</f>
-        <v>1.9137844965808764E-6</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="14">
         <f>Data!V20</f>
-        <v>1.8226519015056069E-6</v>
+        <v>0</v>
       </c>
       <c r="R7" s="14">
         <f>Data!W20</f>
-        <v>1.7315193064303374E-6</v>
+        <v>0</v>
       </c>
       <c r="S7" s="14">
         <f>Data!X20</f>
-        <v>1.6403867113550408E-6</v>
+        <v>0</v>
       </c>
       <c r="T7" s="14">
         <f>Data!Y20</f>
-        <v>1.5492541162797713E-6</v>
+        <v>0</v>
       </c>
       <c r="U7" s="14">
         <f>Data!Z20</f>
-        <v>1.4581215212044747E-6</v>
+        <v>0</v>
       </c>
       <c r="V7" s="14">
         <f>Data!AA20</f>
-        <v>1.3669889261292052E-6</v>
+        <v>0</v>
       </c>
       <c r="W7" s="14">
         <f>Data!AB20</f>
-        <v>1.2758563310539357E-6</v>
+        <v>0</v>
       </c>
       <c r="X7" s="14">
         <f>Data!AC20</f>
-        <v>1.1847237359786391E-6</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="14">
         <f>Data!AD20</f>
-        <v>1.0935911409033696E-6</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="14">
         <f>Data!AE20</f>
-        <v>1.0024585458281001E-6</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="14">
         <f>Data!AF20</f>
-        <v>9.1132595075280346E-7</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="14">
         <f>Data!AG20</f>
-        <v>8.2019335567753396E-7</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="14">
         <f>Data!AH20</f>
-        <v>7.2906076060223735E-7</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="14">
         <f>Data!AI20</f>
-        <v>6.3792816552696785E-7</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="14">
         <f>Data!AJ20</f>
-        <v>5.4679557045169834E-7</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="14">
         <f>Data!AK20</f>
-        <v>4.5566297537640173E-7</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="14">
         <f>Data!AL20</f>
-        <v>3.6453038030113223E-7</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="14">
         <f>Data!AM20</f>
-        <v>2.7339778522583562E-7</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="14">
         <f>Data!AN20</f>
-        <v>1.8226519015056611E-7</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="14">
         <f>Data!AO20</f>
-        <v>9.1132595075296609E-8</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="14">
         <f>Data!AP20</f>
@@ -4482,147 +4482,147 @@
       </c>
       <c r="B2" s="57">
         <f>D2</f>
-        <v>3.010505804728952E-4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="57">
         <f>D2</f>
-        <v>3.010505804728952E-4</v>
+        <v>0</v>
       </c>
       <c r="D2" s="14">
         <f>Data!I22</f>
-        <v>3.010505804728952E-4</v>
+        <v>0</v>
       </c>
       <c r="E2" s="14">
         <f>Data!J22</f>
-        <v>1.1284685585609511E-2</v>
+        <v>1.098694263059318E-2</v>
       </c>
       <c r="F2" s="14">
         <f>Data!K22</f>
-        <v>1.5070634542928764E-2</v>
+        <v>1.4774031693273055E-2</v>
       </c>
       <c r="G2" s="14">
         <f>Data!L22</f>
-        <v>2.01353833789924E-2</v>
+        <v>1.984030573407751E-2</v>
       </c>
       <c r="H2" s="14">
         <f>Data!M22</f>
-        <v>2.6890037116983612E-2</v>
+        <v>2.6596993576865863E-2</v>
       </c>
       <c r="I2" s="14">
         <f>Data!N22</f>
-        <v>3.5861531125930435E-2</v>
+        <v>3.5571189272636181E-2</v>
       </c>
       <c r="J2" s="14">
         <f>Data!O22</f>
-        <v>4.7712646171390136E-2</v>
+        <v>4.7425873177566781E-2</v>
       </c>
       <c r="K2" s="14">
         <f>Data!P22</f>
-        <v>6.3255448472074108E-2</v>
+        <v>6.2973356056996513E-2</v>
       </c>
       <c r="L2" s="14">
         <f>Data!Q22</f>
-        <v>8.3448707885836276E-2</v>
+        <v>8.317269649392238E-2</v>
       </c>
       <c r="M2" s="14">
         <f>Data!R22</f>
-        <v>0.10936502811473713</v>
+        <v>0.10909682119561293</v>
       </c>
       <c r="N2" s="14">
         <f>Data!S22</f>
-        <v>0.14210941113553172</v>
+        <v>0.14185106490048782</v>
       </c>
       <c r="O2" s="14">
         <f>Data!T22</f>
-        <v>0.18267165507699426</v>
+        <v>0.18242552380635635</v>
       </c>
       <c r="P2" s="14">
         <f>Data!U22</f>
-        <v>0.23170658133316255</v>
+        <v>0.23147521650098238</v>
       </c>
       <c r="Q2" s="14">
         <f>Data!V22</f>
-        <v>0.28926452913544826</v>
+        <v>0.28905049737499605</v>
       </c>
       <c r="R2" s="14">
         <f>Data!W22</f>
-        <v>0.3545380689799798</v>
+        <v>0.35434369377420455</v>
       </c>
       <c r="S2" s="14">
         <f>Data!X22</f>
-        <v>0.42573041944147549</v>
+        <v>0.42555748318834102</v>
       </c>
       <c r="T2" s="14">
         <f>Data!Y22</f>
-        <v>0.5001505252902364</v>
+        <v>0.5</v>
       </c>
       <c r="U2" s="14">
         <f>Data!Z22</f>
-        <v>0.57457063113899742</v>
+        <v>0.57444251681165903</v>
       </c>
       <c r="V2" s="14">
         <f>Data!AA22</f>
-        <v>0.64576298160049306</v>
+        <v>0.6456563062257954</v>
       </c>
       <c r="W2" s="14">
         <f>Data!AB22</f>
-        <v>0.71103652144502461</v>
+        <v>0.71094950262500389</v>
       </c>
       <c r="X2" s="14">
         <f>Data!AC22</f>
-        <v>0.76859446924731034</v>
+        <v>0.76852478349901754</v>
       </c>
       <c r="Y2" s="14">
         <f>Data!AD22</f>
-        <v>0.81762939550347857</v>
+        <v>0.81757447619364365</v>
       </c>
       <c r="Z2" s="14">
         <f>Data!AE22</f>
-        <v>0.85819163944494126</v>
+        <v>0.85814893509951229</v>
       </c>
       <c r="AA2" s="14">
         <f>Data!AF22</f>
-        <v>0.89093602246573578</v>
+        <v>0.89090317880438707</v>
       </c>
       <c r="AB2" s="14">
         <f>Data!AG22</f>
-        <v>0.91685234269463667</v>
+        <v>0.91682730350607766</v>
       </c>
       <c r="AC2" s="14">
         <f>Data!AH22</f>
-        <v>0.93704560210839882</v>
+        <v>0.9370266439430035</v>
       </c>
       <c r="AD2" s="14">
         <f>Data!AI22</f>
-        <v>0.95258840440908288</v>
+        <v>0.95257412682243336</v>
       </c>
       <c r="AE2" s="14">
         <f>Data!AJ22</f>
-        <v>0.96443951945454254</v>
+        <v>0.96442881072736386</v>
       </c>
       <c r="AF2" s="14">
         <f>Data!AK22</f>
-        <v>0.97341101346348924</v>
+        <v>0.97340300642313404</v>
       </c>
       <c r="AG2" s="14">
         <f>Data!AL22</f>
-        <v>0.98016566720148057</v>
+        <v>0.98015969426592253</v>
       </c>
       <c r="AH2" s="14">
         <f>Data!AM22</f>
-        <v>0.98523041603754413</v>
+        <v>0.98522596830672693</v>
       </c>
       <c r="AI2" s="14">
         <f>Data!AN22</f>
-        <v>0.98901636499486345</v>
+        <v>0.98901305736940681</v>
       </c>
       <c r="AJ2" s="14">
         <f>Data!AO22</f>
-        <v>0.99183988619362395</v>
+        <v>0.99183742884684012</v>
       </c>
       <c r="AK2" s="14">
         <f>Data!AP22</f>
-        <v>0.99394202281517241</v>
+        <v>0.99394019850841575</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.45">
@@ -4631,147 +4631,147 @@
       </c>
       <c r="B3" s="57">
         <f t="shared" ref="B3:B8" si="0">D3</f>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="57">
         <f t="shared" ref="C3:C8" si="1">D3</f>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="14">
         <f>Data!I23</f>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="14">
         <f>Data!J23</f>
-        <v>9.9246334655016352E-2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="14">
         <f>Data!K23</f>
-        <v>9.9322181029181764E-2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="14">
         <f>Data!L23</f>
-        <v>9.9423646431807233E-2</v>
+        <v>0</v>
       </c>
       <c r="H3" s="14">
         <f>Data!M23</f>
-        <v>9.9558966796805551E-2</v>
+        <v>0</v>
       </c>
       <c r="I3" s="14">
         <f>Data!N23</f>
-        <v>9.9738698562631345E-2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="14">
         <f>Data!O23</f>
-        <v>9.9976119646789763E-2</v>
+        <v>0</v>
       </c>
       <c r="K3" s="14">
         <f>Data!P23</f>
-        <v>0.10028749869921928</v>
+        <v>0</v>
       </c>
       <c r="L3" s="14">
         <f>Data!Q23</f>
-        <v>0.10069204337913483</v>
+        <v>0</v>
       </c>
       <c r="M3" s="14">
         <f>Data!R23</f>
-        <v>0.10121124185307927</v>
+        <v>0</v>
       </c>
       <c r="N3" s="14">
         <f>Data!S23</f>
-        <v>0.10186723134327279</v>
+        <v>0</v>
       </c>
       <c r="O3" s="14">
         <f>Data!T23</f>
-        <v>0.10267984111843231</v>
+        <v>0</v>
       </c>
       <c r="P3" s="14">
         <f>Data!U23</f>
-        <v>0.10366218964080433</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="14">
         <f>Data!V23</f>
-        <v>0.10481528538890343</v>
+        <v>0</v>
       </c>
       <c r="R3" s="14">
         <f>Data!W23</f>
-        <v>0.10612295260311078</v>
+        <v>0</v>
       </c>
       <c r="S3" s="14">
         <f>Data!X23</f>
-        <v>0.10754919519425249</v>
+        <v>0</v>
       </c>
       <c r="T3" s="14">
         <f>Data!Y23</f>
-        <v>0.10904010150526387</v>
+        <v>0</v>
       </c>
       <c r="U3" s="14">
         <f>Data!Z23</f>
-        <v>0.11053100781627526</v>
+        <v>0</v>
       </c>
       <c r="V3" s="14">
         <f>Data!AA23</f>
-        <v>0.11195725040741697</v>
+        <v>0</v>
       </c>
       <c r="W3" s="14">
         <f>Data!AB23</f>
-        <v>0.11326491762162431</v>
+        <v>0</v>
       </c>
       <c r="X3" s="14">
         <f>Data!AC23</f>
-        <v>0.11441801336972342</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="14">
         <f>Data!AD23</f>
-        <v>0.11540036189209543</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="14">
         <f>Data!AE23</f>
-        <v>0.11621297166725496</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="14">
         <f>Data!AF23</f>
-        <v>0.11686896115744848</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="14">
         <f>Data!AG23</f>
-        <v>0.11738815963139292</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="14">
         <f>Data!AH23</f>
-        <v>0.11779270431130845</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="14">
         <f>Data!AI23</f>
-        <v>0.11810408336373798</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="14">
         <f>Data!AJ23</f>
-        <v>0.1183415044478964</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="14">
         <f>Data!AK23</f>
-        <v>0.11852123621372219</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="14">
         <f>Data!AL23</f>
-        <v>0.11865655657872051</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="14">
         <f>Data!AM23</f>
-        <v>0.11875802198134598</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="14">
         <f>Data!AN23</f>
-        <v>0.11883386835551138</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="14">
         <f>Data!AO23</f>
-        <v>0.1188904337893615</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="14">
         <f>Data!AP23</f>
-        <v>0.11893254725748857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.45">
@@ -4780,147 +4780,147 @@
       </c>
       <c r="B4" s="57">
         <f t="shared" si="0"/>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="57">
         <f t="shared" si="1"/>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="14">
         <f>Data!I24</f>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="14">
         <f>Data!J24</f>
-        <v>0.10214288480576172</v>
+        <v>6.117389182128008E-3</v>
       </c>
       <c r="F4" s="14">
         <f>Data!K24</f>
-        <v>0.10525947724965157</v>
+        <v>1.2234778364256016E-2</v>
       </c>
       <c r="G4" s="14">
         <f>Data!L24</f>
-        <v>0.10837606969354141</v>
+        <v>1.8352167546384024E-2</v>
       </c>
       <c r="H4" s="14">
         <f>Data!M24</f>
-        <v>0.11149266213743037</v>
+        <v>2.4469556728512032E-2</v>
       </c>
       <c r="I4" s="14">
         <f>Data!N24</f>
-        <v>0.11460925458132021</v>
+        <v>3.0586945910641816E-2</v>
       </c>
       <c r="J4" s="14">
         <f>Data!O24</f>
-        <v>0.11772584702521005</v>
+        <v>3.6704335092769824E-2</v>
       </c>
       <c r="K4" s="14">
         <f>Data!P24</f>
-        <v>0.12084243946909989</v>
+        <v>4.2821724274897832E-2</v>
       </c>
       <c r="L4" s="14">
         <f>Data!Q24</f>
-        <v>0.12395903191298885</v>
+        <v>4.893911345702584E-2</v>
       </c>
       <c r="M4" s="14">
         <f>Data!R24</f>
-        <v>0.12707562435687869</v>
+        <v>5.5056502639153848E-2</v>
       </c>
       <c r="N4" s="14">
         <f>Data!S24</f>
-        <v>0.13019221680076853</v>
+        <v>6.1173891821281856E-2</v>
       </c>
       <c r="O4" s="14">
         <f>Data!T24</f>
-        <v>0.13330880924465838</v>
+        <v>6.7291281003409864E-2</v>
       </c>
       <c r="P4" s="14">
         <f>Data!U24</f>
-        <v>0.13642540168854822</v>
+        <v>7.3408670185537872E-2</v>
       </c>
       <c r="Q4" s="14">
         <f>Data!V24</f>
-        <v>0.13954199413243717</v>
+        <v>7.952605936766588E-2</v>
       </c>
       <c r="R4" s="14">
         <f>Data!W24</f>
-        <v>0.14265858657632702</v>
+        <v>8.5643448549793888E-2</v>
       </c>
       <c r="S4" s="14">
         <f>Data!X24</f>
-        <v>0.14577517902021686</v>
+        <v>9.1760837731921896E-2</v>
       </c>
       <c r="T4" s="14">
         <f>Data!Y24</f>
-        <v>0.1488917714641067</v>
+        <v>9.787822691405168E-2</v>
       </c>
       <c r="U4" s="14">
         <f>Data!Z24</f>
-        <v>0.15200836390799566</v>
+        <v>0.10399561609617969</v>
       </c>
       <c r="V4" s="14">
         <f>Data!AA24</f>
-        <v>0.1551249563518855</v>
+        <v>0.1101130052783077</v>
       </c>
       <c r="W4" s="14">
         <f>Data!AB24</f>
-        <v>0.15824154879577534</v>
+        <v>0.1162303944604357</v>
       </c>
       <c r="X4" s="14">
         <f>Data!AC24</f>
-        <v>0.16135814123966519</v>
+        <v>0.12234778364256371</v>
       </c>
       <c r="Y4" s="14">
         <f>Data!AD24</f>
-        <v>0.16447473368355414</v>
+        <v>0.12846517282469172</v>
       </c>
       <c r="Z4" s="14">
         <f>Data!AE24</f>
-        <v>0.16759132612744398</v>
+        <v>0.13458256200681973</v>
       </c>
       <c r="AA4" s="14">
         <f>Data!AF24</f>
-        <v>0.17070791857133383</v>
+        <v>0.14069995118894774</v>
       </c>
       <c r="AB4" s="14">
         <f>Data!AG24</f>
-        <v>0.17382451101522367</v>
+        <v>0.14681734037107574</v>
       </c>
       <c r="AC4" s="14">
         <f>Data!AH24</f>
-        <v>0.17694110345911263</v>
+        <v>0.15293472955320375</v>
       </c>
       <c r="AD4" s="14">
         <f>Data!AI24</f>
-        <v>0.18005769590300247</v>
+        <v>0.15905211873533354</v>
       </c>
       <c r="AE4" s="14">
         <f>Data!AJ24</f>
-        <v>0.18317428834689231</v>
+        <v>0.16516950791746154</v>
       </c>
       <c r="AF4" s="14">
         <f>Data!AK24</f>
-        <v>0.18629088079078215</v>
+        <v>0.17128689709958955</v>
       </c>
       <c r="AG4" s="14">
         <f>Data!AL24</f>
-        <v>0.18940747323467111</v>
+        <v>0.17740428628171756</v>
       </c>
       <c r="AH4" s="14">
         <f>Data!AM24</f>
-        <v>0.19252406567856095</v>
+        <v>0.18352167546384557</v>
       </c>
       <c r="AI4" s="14">
         <f>Data!AN24</f>
-        <v>0.19564065812245079</v>
+        <v>0.18963906464597358</v>
       </c>
       <c r="AJ4" s="14">
         <f>Data!AO24</f>
-        <v>0.19875725056634064</v>
+        <v>0.19575645382810158</v>
       </c>
       <c r="AK4" s="14">
         <f>Data!AP24</f>
-        <v>0.20187384301023048</v>
+        <v>0.20187384301022959</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.45">
@@ -5856,135 +5856,135 @@
       </c>
       <c r="E3" s="14">
         <f>Data!J30</f>
-        <v>7.9853890774704474E-3</v>
+        <v>6.677350591225901E-3</v>
       </c>
       <c r="F3" s="14">
         <f>Data!K30</f>
-        <v>8.4106881977561269E-3</v>
+        <v>6.6517819486247905E-3</v>
       </c>
       <c r="G3" s="14">
         <f>Data!L30</f>
-        <v>8.979642837327129E-3</v>
+        <v>6.6175768512202549E-3</v>
       </c>
       <c r="H3" s="14">
         <f>Data!M30</f>
-        <v>9.738434972400227E-3</v>
+        <v>6.5719588755771682E-3</v>
       </c>
       <c r="I3" s="14">
         <f>Data!N30</f>
-        <v>1.0746258520120493E-2</v>
+        <v>6.5113693307896452E-3</v>
       </c>
       <c r="J3" s="14">
         <f>Data!O30</f>
-        <v>1.2077567753303421E-2</v>
+        <v>6.4313320855869079E-3</v>
       </c>
       <c r="K3" s="14">
         <f>Data!P30</f>
-        <v>1.3823587105327589E-2</v>
+        <v>6.3263628000719456E-3</v>
       </c>
       <c r="L3" s="14">
         <f>Data!Q30</f>
-        <v>1.6092021138958794E-2</v>
+        <v>6.1899863621636018E-3</v>
       </c>
       <c r="M3" s="14">
         <f>Data!R30</f>
-        <v>1.9003362078483261E-2</v>
+        <v>6.0149588758083928E-3</v>
       </c>
       <c r="N3" s="14">
         <f>Data!S30</f>
-        <v>2.2681741647261729E-2</v>
+        <v>5.7938176411823951E-3</v>
       </c>
       <c r="O3" s="14">
         <f>Data!T30</f>
-        <v>2.7238350006116178E-2</v>
+        <v>5.5198779948400136E-3</v>
       </c>
       <c r="P3" s="14">
         <f>Data!U30</f>
-        <v>3.2746747302309039E-2</v>
+        <v>5.1887175596228505E-3</v>
       </c>
       <c r="Q3" s="14">
         <f>Data!V30</f>
-        <v>3.9212588453821674E-2</v>
+        <v>4.7999963663894066E-3</v>
       </c>
       <c r="R3" s="14">
         <f>Data!W30</f>
-        <v>4.6545169898202364E-2</v>
+        <v>4.3591674406935968E-3</v>
       </c>
       <c r="S3" s="14">
         <f>Data!X30</f>
-        <v>5.45426480374172E-2</v>
+        <v>3.8783654580456478E-3</v>
       </c>
       <c r="T3" s="14">
         <f>Data!Y30</f>
-        <v>6.2902719952242073E-2</v>
+        <v>3.37576462791423E-3</v>
       </c>
       <c r="U3" s="14">
         <f>Data!Z30</f>
-        <v>7.1262791867066966E-2</v>
+        <v>2.8731637977828122E-3</v>
       </c>
       <c r="V3" s="14">
         <f>Data!AA30</f>
-        <v>7.9260270006281788E-2</v>
+        <v>2.3923618151348632E-3</v>
       </c>
       <c r="W3" s="14">
         <f>Data!AB30</f>
-        <v>8.6592851450662478E-2</v>
+        <v>1.9515328894390534E-3</v>
       </c>
       <c r="X3" s="14">
         <f>Data!AC30</f>
-        <v>9.3058692602175114E-2</v>
+        <v>1.5628116962056095E-3</v>
       </c>
       <c r="Y3" s="14">
         <f>Data!AD30</f>
-        <v>9.8567089898367974E-2</v>
+        <v>1.2316512609884464E-3</v>
       </c>
       <c r="Z3" s="14">
         <f>Data!AE30</f>
-        <v>0.10312369825722244</v>
+        <v>9.5771161464606406E-4</v>
       </c>
       <c r="AA3" s="14">
         <f>Data!AF30</f>
-        <v>0.1068020778260009</v>
+        <v>7.3657038002006726E-4</v>
       </c>
       <c r="AB3" s="14">
         <f>Data!AG30</f>
-        <v>0.10971341876552537</v>
+        <v>5.615428936648582E-4</v>
       </c>
       <c r="AC3" s="14">
         <f>Data!AH30</f>
-        <v>0.11198185279915658</v>
+        <v>4.2516645575651352E-4</v>
       </c>
       <c r="AD3" s="14">
         <f>Data!AI30</f>
-        <v>0.11372787215118074</v>
+        <v>3.2019717024155212E-4</v>
       </c>
       <c r="AE3" s="14">
         <f>Data!AJ30</f>
-        <v>0.11505918138436366</v>
+        <v>2.4015992503881485E-4</v>
       </c>
       <c r="AF3" s="14">
         <f>Data!AK30</f>
-        <v>0.11606700493208393</v>
+        <v>1.7957038025129182E-4</v>
       </c>
       <c r="AG3" s="14">
         <f>Data!AL30</f>
-        <v>0.11682579706715704</v>
+        <v>1.3395240460820513E-4</v>
       </c>
       <c r="AH3" s="14">
         <f>Data!AM30</f>
-        <v>0.11739475170672803</v>
+        <v>9.9747307203669477E-5</v>
       </c>
       <c r="AI3" s="14">
         <f>Data!AN30</f>
-        <v>0.11782005082701372</v>
+        <v>7.4178664602558148E-5</v>
       </c>
       <c r="AJ3" s="14">
         <f>Data!AO30</f>
-        <v>0.11813723446986744</v>
+        <v>5.5109837943340817E-5</v>
       </c>
       <c r="AK3" s="14">
         <f>Data!AP30</f>
-        <v>0.11837338051038299</v>
+        <v>4.0912927054943815E-5</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.45">
@@ -9334,147 +9334,147 @@
       </c>
       <c r="B2" s="57">
         <f>D2</f>
-        <v>0.5118281341400337</v>
+        <v>1</v>
       </c>
       <c r="C2" s="57">
         <f>D2</f>
-        <v>0.5118281341400337</v>
+        <v>1</v>
       </c>
       <c r="D2" s="14">
         <f>Data!I50</f>
-        <v>0.5118281341400337</v>
+        <v>1</v>
       </c>
       <c r="E2" s="14">
         <f>Data!J50</f>
-        <v>0.51444491476645848</v>
+        <v>0.99725326434235173</v>
       </c>
       <c r="F2" s="14">
         <f>Data!K50</f>
-        <v>0.51534689283469481</v>
+        <v>0.99630649207668176</v>
       </c>
       <c r="G2" s="14">
         <f>Data!L50</f>
-        <v>0.51655353677595117</v>
+        <v>0.99503992356648063</v>
       </c>
       <c r="H2" s="14">
         <f>Data!M50</f>
-        <v>0.51816278972650143</v>
+        <v>0.99335075160578357</v>
       </c>
       <c r="I2" s="14">
         <f>Data!N50</f>
-        <v>0.52030019065995547</v>
+        <v>0.99110720268184094</v>
       </c>
       <c r="J2" s="14">
         <f>Data!O50</f>
-        <v>0.52312364284477286</v>
+        <v>0.98814353170560831</v>
       </c>
       <c r="K2" s="14">
         <f>Data!P50</f>
-        <v>0.52682661585159252</v>
+        <v>0.98425666098575082</v>
       </c>
       <c r="L2" s="14">
         <f>Data!Q50</f>
-        <v>0.53163753045259587</v>
+        <v>0.97920682587651942</v>
       </c>
       <c r="M2" s="14">
         <f>Data!R50</f>
-        <v>0.53781192760358398</v>
+        <v>0.97272579470109677</v>
       </c>
       <c r="N2" s="14">
         <f>Data!S50</f>
-        <v>0.54561306694160605</v>
+        <v>0.9645372337748781</v>
       </c>
       <c r="O2" s="14">
         <f>Data!T50</f>
-        <v>0.55527676152547534</v>
+        <v>0.95439361904841091</v>
       </c>
       <c r="P2" s="14">
         <f>Data!U50</f>
-        <v>0.56695901835441231</v>
+        <v>0.94213119587475436</v>
       </c>
       <c r="Q2" s="14">
         <f>Data!V50</f>
-        <v>0.58067183042758774</v>
+        <v>0.92773737565625103</v>
       </c>
       <c r="R2" s="14">
         <f>Data!W50</f>
-        <v>0.59622283284194855</v>
+        <v>0.9114140765564489</v>
       </c>
       <c r="S2" s="14">
         <f>Data!X50</f>
-        <v>0.61318395394167213</v>
+        <v>0.89361062920291479</v>
       </c>
       <c r="T2" s="14">
         <f>Data!Y50</f>
-        <v>0.63091406707001685</v>
+        <v>0.875</v>
       </c>
       <c r="U2" s="14">
         <f>Data!Z50</f>
-        <v>0.64864418019836156</v>
+        <v>0.85638937079708521</v>
       </c>
       <c r="V2" s="14">
         <f>Data!AA50</f>
-        <v>0.66560530129808515</v>
+        <v>0.8385859234435511</v>
       </c>
       <c r="W2" s="14">
         <f>Data!AB50</f>
-        <v>0.68115630371244595</v>
+        <v>0.82226262434374897</v>
       </c>
       <c r="X2" s="14">
         <f>Data!AC50</f>
-        <v>0.69486911578562138</v>
+        <v>0.80786880412524564</v>
       </c>
       <c r="Y2" s="14">
         <f>Data!AD50</f>
-        <v>0.70655137261455836</v>
+        <v>0.79560638095158909</v>
       </c>
       <c r="Z2" s="14">
         <f>Data!AE50</f>
-        <v>0.71621506719842765</v>
+        <v>0.7854627662251219</v>
       </c>
       <c r="AA2" s="14">
         <f>Data!AF50</f>
-        <v>0.72401620653644971</v>
+        <v>0.77727420529890323</v>
       </c>
       <c r="AB2" s="14">
         <f>Data!AG50</f>
-        <v>0.73019060368743782</v>
+        <v>0.77079317412348058</v>
       </c>
       <c r="AC2" s="14">
         <f>Data!AH50</f>
-        <v>0.73500151828844118</v>
+        <v>0.76574333901424918</v>
       </c>
       <c r="AD2" s="14">
         <f>Data!AI50</f>
-        <v>0.73870449129526083</v>
+        <v>0.76185646829439169</v>
       </c>
       <c r="AE2" s="14">
         <f>Data!AJ50</f>
-        <v>0.74152794348007822</v>
+        <v>0.75889279731815906</v>
       </c>
       <c r="AF2" s="14">
         <f>Data!AK50</f>
-        <v>0.74366534441353227</v>
+        <v>0.75664924839421643</v>
       </c>
       <c r="AG2" s="14">
         <f>Data!AL50</f>
-        <v>0.74527459736408264</v>
+        <v>0.75496007643351937</v>
       </c>
       <c r="AH2" s="14">
         <f>Data!AM50</f>
-        <v>0.74648124130533888</v>
+        <v>0.75369350792331824</v>
       </c>
       <c r="AI2" s="14">
         <f>Data!AN50</f>
-        <v>0.74738321937357521</v>
+        <v>0.75274673565764827</v>
       </c>
       <c r="AJ2" s="14">
         <f>Data!AO50</f>
-        <v>0.74805590519823717</v>
+        <v>0.75204064278828997</v>
       </c>
       <c r="AK2" s="14">
         <f>Data!AP50</f>
-        <v>0.74855672577200838</v>
+        <v>0.75151495037289606</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.45">
@@ -9781,147 +9781,147 @@
       </c>
       <c r="B5" s="57">
         <f t="shared" si="0"/>
-        <v>0.48817186585996641</v>
+        <v>0</v>
       </c>
       <c r="C5" s="57">
         <f t="shared" si="1"/>
-        <v>0.48817186585996641</v>
+        <v>0</v>
       </c>
       <c r="D5" s="14">
         <f>Data!I53</f>
-        <v>0.48817186585996641</v>
+        <v>0</v>
       </c>
       <c r="E5" s="14">
         <f>Data!J53</f>
-        <v>0.49610605174299849</v>
+        <v>2.2727272727273373E-2</v>
       </c>
       <c r="F5" s="14">
         <f>Data!K53</f>
-        <v>0.50404023762603245</v>
+        <v>4.5454545454546746E-2</v>
       </c>
       <c r="G5" s="14">
         <f>Data!L53</f>
-        <v>0.51197442350906286</v>
+        <v>6.818181818182012E-2</v>
       </c>
       <c r="H5" s="14">
         <f>Data!M53</f>
-        <v>0.51990860939209327</v>
+        <v>9.0909090909086387E-2</v>
       </c>
       <c r="I5" s="14">
         <f>Data!N53</f>
-        <v>0.52784279527512368</v>
+        <v>0.11363636363635976</v>
       </c>
       <c r="J5" s="14">
         <f>Data!O53</f>
-        <v>0.53577698115815764</v>
+        <v>0.13636363636363313</v>
       </c>
       <c r="K5" s="14">
         <f>Data!P53</f>
-        <v>0.54371116704118805</v>
+        <v>0.15909090909090651</v>
       </c>
       <c r="L5" s="14">
         <f>Data!Q53</f>
-        <v>0.55164535292421846</v>
+        <v>0.18181818181817988</v>
       </c>
       <c r="M5" s="14">
         <f>Data!R53</f>
-        <v>0.55957953880724887</v>
+        <v>0.20454545454545325</v>
       </c>
       <c r="N5" s="14">
         <f>Data!S53</f>
-        <v>0.56751372469028283</v>
+        <v>0.22727272727272663</v>
       </c>
       <c r="O5" s="14">
         <f>Data!T53</f>
-        <v>0.57544791057331324</v>
+        <v>0.25</v>
       </c>
       <c r="P5" s="14">
         <f>Data!U53</f>
-        <v>0.58338209645634365</v>
+        <v>0.27272727272727337</v>
       </c>
       <c r="Q5" s="14">
         <f>Data!V53</f>
-        <v>0.59131628233937406</v>
+        <v>0.29545454545454675</v>
       </c>
       <c r="R5" s="14">
         <f>Data!W53</f>
-        <v>0.59925046822240802</v>
+        <v>0.31818181818182012</v>
       </c>
       <c r="S5" s="14">
         <f>Data!X53</f>
-        <v>0.60718465410543843</v>
+        <v>0.34090909090908639</v>
       </c>
       <c r="T5" s="14">
         <f>Data!Y53</f>
-        <v>0.61511883998846884</v>
+        <v>0.36363636363635976</v>
       </c>
       <c r="U5" s="14">
         <f>Data!Z53</f>
-        <v>0.62305302587149924</v>
+        <v>0.38636363636363313</v>
       </c>
       <c r="V5" s="14">
         <f>Data!AA53</f>
-        <v>0.63098721175453321</v>
+        <v>0.40909090909090651</v>
       </c>
       <c r="W5" s="14">
         <f>Data!AB53</f>
-        <v>0.63892139763756362</v>
+        <v>0.43181818181817988</v>
       </c>
       <c r="X5" s="14">
         <f>Data!AC53</f>
-        <v>0.64685558352059402</v>
+        <v>0.45454545454545325</v>
       </c>
       <c r="Y5" s="14">
         <f>Data!AD53</f>
-        <v>0.65478976940362443</v>
+        <v>0.47727272727272663</v>
       </c>
       <c r="Z5" s="14">
         <f>Data!AE53</f>
-        <v>0.66272395528665839</v>
+        <v>0.5</v>
       </c>
       <c r="AA5" s="14">
         <f>Data!AF53</f>
-        <v>0.6706581411696888</v>
+        <v>0.52272727272727337</v>
       </c>
       <c r="AB5" s="14">
         <f>Data!AG53</f>
-        <v>0.67859232705271921</v>
+        <v>0.54545454545454675</v>
       </c>
       <c r="AC5" s="14">
         <f>Data!AH53</f>
-        <v>0.68652651293574962</v>
+        <v>0.56818181818182012</v>
       </c>
       <c r="AD5" s="14">
         <f>Data!AI53</f>
-        <v>0.69446069881878358</v>
+        <v>0.59090909090908639</v>
       </c>
       <c r="AE5" s="14">
         <f>Data!AJ53</f>
-        <v>0.70239488470181399</v>
+        <v>0.61363636363635976</v>
       </c>
       <c r="AF5" s="14">
         <f>Data!AK53</f>
-        <v>0.7103290705848444</v>
+        <v>0.63636363636363313</v>
       </c>
       <c r="AG5" s="14">
         <f>Data!AL53</f>
-        <v>0.71826325646787481</v>
+        <v>0.65909090909090651</v>
       </c>
       <c r="AH5" s="14">
         <f>Data!AM53</f>
-        <v>0.72619744235090877</v>
+        <v>0.68181818181817988</v>
       </c>
       <c r="AI5" s="14">
         <f>Data!AN53</f>
-        <v>0.73413162823393918</v>
+        <v>0.70454545454545325</v>
       </c>
       <c r="AJ5" s="14">
         <f>Data!AO53</f>
-        <v>0.74206581411696959</v>
+        <v>0.72727272727272663</v>
       </c>
       <c r="AK5" s="14">
         <f>Data!AP53</f>
-        <v>0.75000000000000355</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.45">
@@ -12058,143 +12058,143 @@
       </c>
       <c r="B4" s="57">
         <f t="shared" si="0"/>
-        <v>0.78794595848566396</v>
+        <v>0</v>
       </c>
       <c r="C4" s="57">
         <f t="shared" si="1"/>
-        <v>0.78794595848566396</v>
+        <v>0</v>
       </c>
       <c r="D4" s="14">
         <f>Data!I66</f>
-        <v>0.78794595848566396</v>
+        <v>0</v>
       </c>
       <c r="E4" s="14">
         <f>Data!J66</f>
-        <v>0.79437183853155346</v>
+        <v>3.0303030303031164E-2</v>
       </c>
       <c r="F4" s="14">
         <f>Data!K66</f>
-        <v>0.8007977185774422</v>
+        <v>6.0606060606055223E-2</v>
       </c>
       <c r="G4" s="14">
         <f>Data!L66</f>
-        <v>0.80722359862333093</v>
+        <v>9.0909090909086387E-2</v>
       </c>
       <c r="H4" s="14">
         <f>Data!M66</f>
-        <v>0.81364947866921966</v>
+        <v>0.12121212121211755</v>
       </c>
       <c r="I4" s="14">
         <f>Data!N66</f>
-        <v>0.82007535871511017</v>
+        <v>0.15151515151514872</v>
       </c>
       <c r="J4" s="14">
         <f>Data!O66</f>
-        <v>0.8265012387609989</v>
+        <v>0.18181818181817988</v>
       </c>
       <c r="K4" s="14">
         <f>Data!P66</f>
-        <v>0.83292711880688763</v>
+        <v>0.21212121212121104</v>
       </c>
       <c r="L4" s="14">
         <f>Data!Q66</f>
-        <v>0.83935299885277637</v>
+        <v>0.24242424242424221</v>
       </c>
       <c r="M4" s="14">
         <f>Data!R66</f>
-        <v>0.8457788788986651</v>
+        <v>0.27272727272727337</v>
       </c>
       <c r="N4" s="14">
         <f>Data!S66</f>
-        <v>0.85220475894455383</v>
+        <v>0.30303030303030454</v>
       </c>
       <c r="O4" s="14">
         <f>Data!T66</f>
-        <v>0.85863063899044256</v>
+        <v>0.3333333333333286</v>
       </c>
       <c r="P4" s="14">
         <f>Data!U66</f>
-        <v>0.8650565190363313</v>
+        <v>0.36363636363635976</v>
       </c>
       <c r="Q4" s="14">
         <f>Data!V66</f>
-        <v>0.8714823990822218</v>
+        <v>0.39393939393939092</v>
       </c>
       <c r="R4" s="14">
         <f>Data!W66</f>
-        <v>0.87790827912811054</v>
+        <v>0.42424242424242209</v>
       </c>
       <c r="S4" s="14">
         <f>Data!X66</f>
-        <v>0.88433415917399927</v>
+        <v>0.45454545454545325</v>
       </c>
       <c r="T4" s="14">
         <f>Data!Y66</f>
-        <v>0.890760039219888</v>
+        <v>0.48484848484848442</v>
       </c>
       <c r="U4" s="14">
         <f>Data!Z66</f>
-        <v>0.89718591926577673</v>
+        <v>0.51515151515151558</v>
       </c>
       <c r="V4" s="14">
         <f>Data!AA66</f>
-        <v>0.90361179931166546</v>
+        <v>0.54545454545454675</v>
       </c>
       <c r="W4" s="14">
         <f>Data!AB66</f>
-        <v>0.9100376793575542</v>
+        <v>0.57575757575757081</v>
       </c>
       <c r="X4" s="14">
         <f>Data!AC66</f>
-        <v>0.91646355940344471</v>
+        <v>0.60606060606060197</v>
       </c>
       <c r="Y4" s="14">
         <f>Data!AD66</f>
-        <v>0.92288943944933344</v>
+        <v>0.63636363636363313</v>
       </c>
       <c r="Z4" s="14">
         <f>Data!AE66</f>
-        <v>0.92931531949522217</v>
+        <v>0.6666666666666643</v>
       </c>
       <c r="AA4" s="14">
         <f>Data!AF66</f>
-        <v>0.9357411995411109</v>
+        <v>0.69696969696969546</v>
       </c>
       <c r="AB4" s="14">
         <f>Data!AG66</f>
-        <v>0.94216707958699963</v>
+        <v>0.72727272727272663</v>
       </c>
       <c r="AC4" s="14">
         <f>Data!AH66</f>
-        <v>0.94859295963288837</v>
+        <v>0.75757575757575779</v>
       </c>
       <c r="AD4" s="14">
         <f>Data!AI66</f>
-        <v>0.9550188396787771</v>
+        <v>0.78787878787878896</v>
       </c>
       <c r="AE4" s="14">
         <f>Data!AJ66</f>
-        <v>0.96144471972466583</v>
+        <v>0.81818181818181301</v>
       </c>
       <c r="AF4" s="14">
         <f>Data!AK66</f>
-        <v>0.96787059977055634</v>
+        <v>0.84848484848484418</v>
       </c>
       <c r="AG4" s="14">
         <f>Data!AL66</f>
-        <v>0.97429647981644507</v>
+        <v>0.87878787878787534</v>
       </c>
       <c r="AH4" s="14">
         <f>Data!AM66</f>
-        <v>0.9807223598623338</v>
+        <v>0.90909090909090651</v>
       </c>
       <c r="AI4" s="14">
         <f>Data!AN66</f>
-        <v>0.98714823990822254</v>
+        <v>0.93939393939393767</v>
       </c>
       <c r="AJ4" s="14">
         <f>Data!AO66</f>
-        <v>0.99357411995411127</v>
+        <v>0.96969696969696884</v>
       </c>
       <c r="AK4" s="14">
         <f>Data!AP66</f>
@@ -12207,143 +12207,143 @@
       </c>
       <c r="B5" s="57">
         <f t="shared" si="0"/>
-        <v>0.21205404151433599</v>
+        <v>1</v>
       </c>
       <c r="C5" s="57">
         <f t="shared" si="1"/>
-        <v>0.21205404151433599</v>
+        <v>1</v>
       </c>
       <c r="D5" s="14">
         <f>Data!I67</f>
-        <v>0.21205404151433599</v>
+        <v>1</v>
       </c>
       <c r="E5" s="14">
         <f>Data!J67</f>
-        <v>0.2359311917714777</v>
+        <v>1</v>
       </c>
       <c r="F5" s="14">
         <f>Data!K67</f>
-        <v>0.25980834202861303</v>
+        <v>1</v>
       </c>
       <c r="G5" s="14">
         <f>Data!L67</f>
-        <v>0.28368549228575546</v>
+        <v>1</v>
       </c>
       <c r="H5" s="14">
         <f>Data!M67</f>
-        <v>0.30756264254289789</v>
+        <v>1</v>
       </c>
       <c r="I5" s="14">
         <f>Data!N67</f>
-        <v>0.33143979280004032</v>
+        <v>1</v>
       </c>
       <c r="J5" s="14">
         <f>Data!O67</f>
-        <v>0.35531694305718275</v>
+        <v>1</v>
       </c>
       <c r="K5" s="14">
         <f>Data!P67</f>
-        <v>0.37919409331432519</v>
+        <v>1</v>
       </c>
       <c r="L5" s="14">
         <f>Data!Q67</f>
-        <v>0.40307124357146762</v>
+        <v>1</v>
       </c>
       <c r="M5" s="14">
         <f>Data!R67</f>
-        <v>0.42694839382860295</v>
+        <v>1</v>
       </c>
       <c r="N5" s="14">
         <f>Data!S67</f>
-        <v>0.45082554408574538</v>
+        <v>1</v>
       </c>
       <c r="O5" s="14">
         <f>Data!T67</f>
-        <v>0.47470269434288781</v>
+        <v>1</v>
       </c>
       <c r="P5" s="14">
         <f>Data!U67</f>
-        <v>0.49857984460003024</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="14">
         <f>Data!V67</f>
-        <v>0.52245699485717267</v>
+        <v>1</v>
       </c>
       <c r="R5" s="14">
         <f>Data!W67</f>
-        <v>0.54633414511431511</v>
+        <v>1</v>
       </c>
       <c r="S5" s="14">
         <f>Data!X67</f>
-        <v>0.57021129537145043</v>
+        <v>1</v>
       </c>
       <c r="T5" s="14">
         <f>Data!Y67</f>
-        <v>0.59408844562859286</v>
+        <v>1</v>
       </c>
       <c r="U5" s="14">
         <f>Data!Z67</f>
-        <v>0.6179655958857353</v>
+        <v>1</v>
       </c>
       <c r="V5" s="14">
         <f>Data!AA67</f>
-        <v>0.64184274614287773</v>
+        <v>1</v>
       </c>
       <c r="W5" s="14">
         <f>Data!AB67</f>
-        <v>0.66571989640002016</v>
+        <v>1</v>
       </c>
       <c r="X5" s="14">
         <f>Data!AC67</f>
-        <v>0.68959704665716259</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="14">
         <f>Data!AD67</f>
-        <v>0.71347419691430503</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="14">
         <f>Data!AE67</f>
-        <v>0.73735134717144035</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="14">
         <f>Data!AF67</f>
-        <v>0.76122849742858278</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="14">
         <f>Data!AG67</f>
-        <v>0.78510564768572522</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="14">
         <f>Data!AH67</f>
-        <v>0.80898279794286765</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="14">
         <f>Data!AI67</f>
-        <v>0.83285994820001008</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="14">
         <f>Data!AJ67</f>
-        <v>0.85673709845715251</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="14">
         <f>Data!AK67</f>
-        <v>0.88061424871428784</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="14">
         <f>Data!AL67</f>
-        <v>0.90449139897143027</v>
+        <v>1</v>
       </c>
       <c r="AH5" s="14">
         <f>Data!AM67</f>
-        <v>0.9283685492285727</v>
+        <v>1</v>
       </c>
       <c r="AI5" s="14">
         <f>Data!AN67</f>
-        <v>0.95224569948571514</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="14">
         <f>Data!AO67</f>
-        <v>0.97612284974285757</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="14">
         <f>Data!AP67</f>
@@ -14198,135 +14198,135 @@
       </c>
       <c r="E2" s="14">
         <f>Data!J78</f>
-        <v>1.098694263059318E-2</v>
+        <v>0</v>
       </c>
       <c r="F2" s="14">
         <f>Data!K78</f>
-        <v>1.4774031693273055E-2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="14">
         <f>Data!L78</f>
-        <v>1.984030573407751E-2</v>
+        <v>0</v>
       </c>
       <c r="H2" s="14">
         <f>Data!M78</f>
-        <v>2.6596993576865863E-2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="14">
         <f>Data!N78</f>
-        <v>3.5571189272636181E-2</v>
+        <v>0</v>
       </c>
       <c r="J2" s="14">
         <f>Data!O78</f>
-        <v>4.7425873177566781E-2</v>
+        <v>0</v>
       </c>
       <c r="K2" s="14">
         <f>Data!P78</f>
-        <v>6.2973356056996513E-2</v>
+        <v>0</v>
       </c>
       <c r="L2" s="14">
         <f>Data!Q78</f>
-        <v>8.317269649392238E-2</v>
+        <v>0</v>
       </c>
       <c r="M2" s="14">
         <f>Data!R78</f>
-        <v>0.10909682119561293</v>
+        <v>0</v>
       </c>
       <c r="N2" s="14">
         <f>Data!S78</f>
-        <v>0.14185106490048782</v>
+        <v>0</v>
       </c>
       <c r="O2" s="14">
         <f>Data!T78</f>
-        <v>0.18242552380635635</v>
+        <v>0</v>
       </c>
       <c r="P2" s="14">
         <f>Data!U78</f>
-        <v>0.23147521650098238</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="14">
         <f>Data!V78</f>
-        <v>0.28905049737499605</v>
+        <v>0</v>
       </c>
       <c r="R2" s="14">
         <f>Data!W78</f>
-        <v>0.35434369377420455</v>
+        <v>0</v>
       </c>
       <c r="S2" s="14">
         <f>Data!X78</f>
-        <v>0.42555748318834102</v>
+        <v>0</v>
       </c>
       <c r="T2" s="14">
         <f>Data!Y78</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U2" s="14">
         <f>Data!Z78</f>
-        <v>0.57444251681165903</v>
+        <v>0</v>
       </c>
       <c r="V2" s="14">
         <f>Data!AA78</f>
-        <v>0.6456563062257954</v>
+        <v>0</v>
       </c>
       <c r="W2" s="14">
         <f>Data!AB78</f>
-        <v>0.71094950262500389</v>
+        <v>0</v>
       </c>
       <c r="X2" s="14">
         <f>Data!AC78</f>
-        <v>0.76852478349901754</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="14">
         <f>Data!AD78</f>
-        <v>0.81757447619364365</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="14">
         <f>Data!AE78</f>
-        <v>0.85814893509951229</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="14">
         <f>Data!AF78</f>
-        <v>0.89090317880438707</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="14">
         <f>Data!AG78</f>
-        <v>0.91682730350607766</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="14">
         <f>Data!AH78</f>
-        <v>0.9370266439430035</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="14">
         <f>Data!AI78</f>
-        <v>0.95257412682243336</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="14">
         <f>Data!AJ78</f>
-        <v>0.96442881072736386</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="14">
         <f>Data!AK78</f>
-        <v>0.97340300642313404</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="14">
         <f>Data!AL78</f>
-        <v>0.98015969426592253</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="14">
         <f>Data!AM78</f>
-        <v>0.98522596830672693</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="14">
         <f>Data!AN78</f>
-        <v>0.98901305736940681</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="14">
         <f>Data!AO78</f>
-        <v>0.99183742884684012</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="14">
         <f>Data!AP78</f>
-        <v>0.99394019850841575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.45">
@@ -54626,7 +54626,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -54671,25 +54671,25 @@
         <v>9</v>
       </c>
       <c r="B2" s="4">
-        <v>369177</v>
+        <v>6696</v>
       </c>
       <c r="C2" s="4">
-        <v>141561</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>251507362</v>
+        <v>42168415</v>
       </c>
       <c r="E2" s="4">
-        <v>1232880</v>
+        <v>2200328</v>
       </c>
       <c r="F2" s="4">
-        <v>357614</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>105105</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
-        <v>4172</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4"/>
     </row>
@@ -54698,25 +54698,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="5">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>90051.74602116608</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5">
-        <v>98680.718907420727</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>800794.19250958553</v>
+        <v>442558</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>6622.4539841735223</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
-        <v>61.174419837550886</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="47"/>
@@ -54735,7 +54735,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>6585.1777339999999</v>
+        <v>703.5</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -54752,7 +54752,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="5">
-        <v>1258.1247365296165</v>
+        <v>5444</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
@@ -54761,7 +54761,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>1199.9752634703832</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -54784,10 +54784,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="5">
-        <v>10010853.402560361</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>2694146.5974396388</v>
+        <v>641.80728445820591</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -54810,7 +54810,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="5">
-        <v>8705071.2002178878</v>
+        <v>18391502</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -54848,7 +54848,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -54897,19 +54897,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>11380.197</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>9022563.2320000008</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5">
-        <v>4734830.5659999996</v>
+        <v>418202.00599289918</v>
       </c>
       <c r="F2" s="5">
         <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>41.408000000000001</v>
+        <v>0</v>
       </c>
       <c r="H2" s="51">
         <v>0</v>
@@ -54922,22 +54922,22 @@
         <v>10</v>
       </c>
       <c r="B3" s="51">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="C3" s="51">
-        <v>32117</v>
+        <v>0</v>
       </c>
       <c r="D3" s="51">
-        <v>2587286</v>
+        <v>0</v>
       </c>
       <c r="E3" s="51">
-        <v>9312751</v>
+        <v>1877331.9589756895</v>
       </c>
       <c r="F3" s="51">
         <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>7434</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
@@ -54958,7 +54958,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="11">
-        <v>936.50335700000005</v>
+        <v>500</v>
       </c>
       <c r="F4" s="51">
         <v>0</v>
@@ -54984,7 +54984,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>28117.828402366868</v>
+        <v>88936.333333333328</v>
       </c>
       <c r="F5" s="51">
         <v>0</v>
@@ -55010,7 +55010,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>9587</v>
+        <v>1625.9125475047001</v>
       </c>
       <c r="F6" s="51">
         <v>0</v>
@@ -55278,8 +55278,8 @@
   </sheetPr>
   <dimension ref="A1:AP91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -55678,153 +55678,151 @@
         <v>2</v>
       </c>
       <c r="D9" s="41">
-        <f>SUM(SUM(INDEX('AEO 40'!$30:$31,0,MATCH($D$7,'AEO 40'!$1:$1,0))),SUM(INDEX('AEO 40'!$55:$56,0,MATCH($D$7,'AEO 40'!$1:$1,0))))/INDEX('AEO 40'!$65:$65,MATCH($D$7,'AEO 40'!$1:$1,0))</f>
-        <v>5.5794652063621928E-4</v>
+        <v>0</v>
       </c>
       <c r="E9" s="41">
-        <f>SUM(SUM(INDEX('AEO 40'!$30:$31,0,MATCH($E$7,'AEO 40'!$1:$1,0))),SUM(INDEX('AEO 40'!$55:$56,0,MATCH($E$7,'AEO 40'!$1:$1,0))))/INDEX('AEO 40'!$65:$65,MATCH($E$7,'AEO 40'!$1:$1,0))*Assumptions!$A$11</f>
-        <v>1.2701082758175626E-3</v>
+        <v>0</v>
       </c>
       <c r="F9" s="7" t="str">
         <f t="shared" ref="F9:F82" si="1">IF(D9=E9,"n/a",IF(OR(C9="battery electric vehicle",C9="natural gas vehicle",C9="plugin hybrid vehicle"),"s-curve","linear"))</f>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H9" s="42"/>
       <c r="I9" s="41">
         <f t="shared" ref="I9:I12" si="2">D9</f>
-        <v>5.5794652063621928E-4</v>
+        <v>0</v>
       </c>
       <c r="J9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,J$7))</f>
-        <v>5.6577100098409926E-4</v>
+        <v>0</v>
       </c>
       <c r="K9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,K$7))</f>
-        <v>5.6846802097800539E-4</v>
+        <v>0</v>
       </c>
       <c r="L9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,L$7))</f>
-        <v>5.7207602759113438E-4</v>
+        <v>0</v>
       </c>
       <c r="M9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,M$7))</f>
-        <v>5.7688788226446699E-4</v>
+        <v>0</v>
       </c>
       <c r="N9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,N$7))</f>
-        <v>5.8327896122250763E-4</v>
+        <v>0</v>
       </c>
       <c r="O9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,O$7))</f>
-        <v>5.9172141371936304E-4</v>
+        <v>0</v>
       </c>
       <c r="P9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,P$7))</f>
-        <v>6.0279373641542963E-4</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,Q$7))</f>
-        <v>6.1717893415449618E-4</v>
+        <v>0</v>
       </c>
       <c r="R9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,R$7))</f>
-        <v>6.3564110430359218E-4</v>
+        <v>0</v>
       </c>
       <c r="S9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,S$7))</f>
-        <v>6.5896742399009335E-4</v>
+        <v>0</v>
       </c>
       <c r="T9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,T$7))</f>
-        <v>6.8786300186002996E-4</v>
+        <v>0</v>
       </c>
       <c r="U9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,U$7))</f>
-        <v>7.227943171005404E-4</v>
+        <v>0</v>
       </c>
       <c r="V9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,V$7))</f>
-        <v>7.6379723018283675E-4</v>
+        <v>0</v>
       </c>
       <c r="W9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,W$7))</f>
-        <v>8.1029654753189727E-4</v>
+        <v>0</v>
       </c>
       <c r="X9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,X$7))</f>
-        <v>8.6101228479418322E-4</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,Y$7))</f>
-        <v>9.140273982268909E-4</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,Z$7))</f>
-        <v>9.6704251165959868E-4</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AA$7))</f>
-        <v>1.0177582489218845E-3</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AB$7))</f>
-        <v>1.0642575662709452E-3</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AC$7))</f>
-        <v>1.1052604793532414E-3</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AD$7))</f>
-        <v>1.1401917945937519E-3</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AE$7))</f>
-        <v>1.1690873724636887E-3</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AF$7))</f>
-        <v>1.1924136921501898E-3</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AG$7))</f>
-        <v>1.2108758622992857E-3</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AH$7))</f>
-        <v>1.2252610600383524E-3</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AI$7))</f>
-        <v>1.2363333827344189E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AJ$7))</f>
-        <v>1.2447758352312744E-3</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AK$7))</f>
-        <v>1.2511669141893149E-3</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AL$7))</f>
-        <v>1.2559787688626476E-3</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AM$7))</f>
-        <v>1.2595867754757765E-3</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AN$7))</f>
-        <v>1.2622837954696826E-3</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AO$7))</f>
-        <v>1.2642952048183358E-3</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="14">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D9:$E9,$D$7:$E$7,AP$7))</f>
-        <v>1.2657927169512655E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.45">
@@ -55984,153 +55982,153 @@
         <v>4</v>
       </c>
       <c r="D11" s="41">
-        <f>SUM(INDEX('AEO 40'!$18:$18,MATCH(D$7,'AEO 40'!$1:$1,0)),INDEX('AEO 40'!$28:$28,MATCH(D$7,'AEO 40'!$1:$1,0)),INDEX('AEO 40'!$43:$43,MATCH(D$7,'AEO 40'!$1:$1,0)),INDEX('AEO 40'!$53:$53,MATCH(D$7,'AEO 40'!$1:$1,0)))/INDEX('AEO 40'!$65:$65,MATCH(D$7,'AEO 40'!$1:$1,0))</f>
-        <v>4.8592557721546335E-3</v>
+        <f>'SYVbT-passenger'!E2/SUM('SYVbT-passenger'!B2:H2)</f>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="E11" s="41">
-        <f>SUM(INDEX('AEO 40'!$18:$18,MATCH(E$7,'AEO 40'!$1:$1,0)),INDEX('AEO 40'!$28:$28,MATCH(E$7,'AEO 40'!$1:$1,0)),INDEX('AEO 40'!$43:$43,MATCH(E$7,'AEO 40'!$1:$1,0)),INDEX('AEO 40'!$53:$53,MATCH(E$7,'AEO 40'!$1:$1,0)))/INDEX('AEO 40'!$65:$65,MATCH(E$7,'AEO 40'!$1:$1,0))*Assumptions!A11</f>
-        <v>7.3359922154128565E-2</v>
+        <f>D11</f>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="F11" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="H11" s="42"/>
       <c r="I11" s="41">
         <f t="shared" si="2"/>
-        <v>4.8592557721546335E-3</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="J11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,J$7))</f>
-        <v>6.935033541304314E-3</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="K11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,K$7))</f>
-        <v>9.0108113104552245E-3</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="L11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,L$7))</f>
-        <v>1.1086589079606135E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="M11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,M$7))</f>
-        <v>1.3162366848757046E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="N11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,N$7))</f>
-        <v>1.5238144617907068E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="O11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,O$7))</f>
-        <v>1.7313922387057978E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="P11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,P$7))</f>
-        <v>1.9389700156208889E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="Q11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,Q$7))</f>
-        <v>2.1465477925359799E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="R11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,R$7))</f>
-        <v>2.354125569451071E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="S11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,S$7))</f>
-        <v>2.5617033463660732E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="T11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,T$7))</f>
-        <v>2.7692811232811643E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="U11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,U$7))</f>
-        <v>2.9768589001962553E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="V11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,V$7))</f>
-        <v>3.1844366771113464E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="W11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,W$7))</f>
-        <v>3.3920144540264374E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="X11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,X$7))</f>
-        <v>3.5995922309414397E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="Y11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,Y$7))</f>
-        <v>3.8071700078565307E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="Z11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,Z$7))</f>
-        <v>4.0147477847716218E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AA11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AA$7))</f>
-        <v>4.2223255616867128E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AB11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AB$7))</f>
-        <v>4.4299033386018039E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AC11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AC$7))</f>
-        <v>4.6374811155168061E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AD11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AD$7))</f>
-        <v>4.8450588924318971E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AE11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AE$7))</f>
-        <v>5.0526366693469882E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AF11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AF$7))</f>
-        <v>5.2602144462620792E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AG11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AG$7))</f>
-        <v>5.4677922231770815E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AH11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AH$7))</f>
-        <v>5.6753700000921725E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AI11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AI$7))</f>
-        <v>5.8829477770072636E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AJ11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AJ$7))</f>
-        <v>6.0905255539223546E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AK11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AK$7))</f>
-        <v>6.2981033308374457E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AL11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AL$7))</f>
-        <v>6.5056811077524479E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AM11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AM$7))</f>
-        <v>6.713258884667539E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AN11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AN$7))</f>
-        <v>6.92083666158263E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AO11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AO$7))</f>
-        <v>7.1284144384977211E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AP11" s="14">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D11:$E11,$D$7:$E$7,AP$7))</f>
-        <v>7.3359922154128121E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.45">
@@ -56142,12 +56140,12 @@
         <v>1.4094947551288909E-3</v>
       </c>
       <c r="E12" s="41">
-        <f>SUM(SUM(INDEX('AEO 40'!26:27,0,MATCH(E$7,'AEO 40'!$1:$1,0))),SUM(INDEX('AEO 40'!51:52,0,MATCH(E$7,'AEO 40'!$1:$1,0))))/INDEX('AEO 40'!$65:$65,MATCH(E$7,'AEO 40'!$1:$1,0))*Assumptions!A11</f>
-        <v>0.10046762944758371</v>
+        <f>D12</f>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="F12" s="7" t="str">
         <f>IF(D12=E12,"n/a",IF(OR(C12="battery electric vehicle",C12="natural gas vehicle",C12="plugin hybrid vehicle",C12="hydrogen vehicle"),"s-curve","linear"))</f>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="41">
@@ -56156,135 +56154,135 @@
       </c>
       <c r="J12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,J$7))</f>
-        <v>2.4978407980884641E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="K12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,K$7))</f>
-        <v>2.8729827765517297E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="L12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,L$7))</f>
-        <v>3.3748384328746248E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="M12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,M$7))</f>
-        <v>4.0441433272804259E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="N12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,N$7))</f>
-        <v>4.9331104132684898E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="O12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,O$7))</f>
-        <v>6.107413288259581E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="P12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,P$7))</f>
-        <v>7.6475179414587664E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Q12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,Q$7))</f>
-        <v>9.6484269271585182E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="R12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,R$7))</f>
-        <v>1.2216422363642575E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="S12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,S$7))</f>
-        <v>1.5460996648309563E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="T12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,T$7))</f>
-        <v>1.9480226863680561E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="U12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,U$7))</f>
-        <v>2.4338997929248343E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="V12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,V$7))</f>
-        <v>3.004229785702231E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="W12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,W$7))</f>
-        <v>3.6510120100436014E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="X12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,X$7))</f>
-        <v>4.3564425244181658E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Y12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,Y$7))</f>
-        <v>5.0938562101356305E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Z12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,Z$7))</f>
-        <v>5.8312698958530959E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AA12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AA$7))</f>
-        <v>6.5367004102276582E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AB12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AB$7))</f>
-        <v>7.1834826345690286E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AC12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AC$7))</f>
-        <v>7.753812627346425E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AD12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AD$7))</f>
-        <v>8.2396897339032035E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AE12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AE$7))</f>
-        <v>8.6416127554403047E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AF12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AF$7))</f>
-        <v>8.9660701839070031E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AG12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AG$7))</f>
-        <v>9.2228697275554092E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AH12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AH$7))</f>
-        <v>9.4229606261253832E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AI12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AI$7))</f>
-        <v>9.5769710914453021E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AJ12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AJ$7))</f>
-        <v>9.6944013789444117E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AK12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AK$7))</f>
-        <v>9.7832980875432171E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AL12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AL$7))</f>
-        <v>9.850228576983798E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AM12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AM$7))</f>
-        <v>9.9004141426160874E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AN12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AN$7))</f>
-        <v>9.9379283404624139E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AO12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AO$7))</f>
-        <v>9.965906037485725E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AP12" s="14">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D12:$E12,$D$7:$E$7,AP$7))</f>
-        <v>9.9867356815220826E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.45">
@@ -56763,7 +56761,7 @@
       </c>
       <c r="E16" s="41">
         <f>E9</f>
-        <v>1.2701082758175626E-3</v>
+        <v>0</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>480</v>
@@ -56775,135 +56773,135 @@
       </c>
       <c r="J16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,J$7))</f>
-        <v>5.7952717988414559E-4</v>
+        <v>5.4103905031390592E-4</v>
       </c>
       <c r="K16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,K$7))</f>
-        <v>6.0110783913206595E-4</v>
+        <v>5.2413157999160048E-4</v>
       </c>
       <c r="L16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,L$7))</f>
-        <v>6.2268849837997936E-4</v>
+        <v>5.072241096692881E-4</v>
       </c>
       <c r="M16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,M$7))</f>
-        <v>6.4426915762789971E-4</v>
+        <v>4.9031663934697572E-4</v>
       </c>
       <c r="N16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,N$7))</f>
-        <v>6.6584981687582007E-4</v>
+        <v>4.7340916902467028E-4</v>
       </c>
       <c r="O16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,O$7))</f>
-        <v>6.8743047612374042E-4</v>
+        <v>4.5650169870235791E-4</v>
       </c>
       <c r="P16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,P$7))</f>
-        <v>7.0901113537166077E-4</v>
+        <v>4.3959422838005247E-4</v>
       </c>
       <c r="Q16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,Q$7))</f>
-        <v>7.3059179461958113E-4</v>
+        <v>4.2268675805774009E-4</v>
       </c>
       <c r="R16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,R$7))</f>
-        <v>7.5217245386750148E-4</v>
+        <v>4.0577928773542771E-4</v>
       </c>
       <c r="S16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,S$7))</f>
-        <v>7.7375311311542183E-4</v>
+        <v>3.8887181741312227E-4</v>
       </c>
       <c r="T16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,T$7))</f>
-        <v>7.9533377236333525E-4</v>
+        <v>3.7196434709080989E-4</v>
       </c>
       <c r="U16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,U$7))</f>
-        <v>8.169144316112556E-4</v>
+        <v>3.5505687676850445E-4</v>
       </c>
       <c r="V16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,V$7))</f>
-        <v>8.3849509085917595E-4</v>
+        <v>3.3814940644619207E-4</v>
       </c>
       <c r="W16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,W$7))</f>
-        <v>8.600757501070963E-4</v>
+        <v>3.2124193612387969E-4</v>
       </c>
       <c r="X16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,X$7))</f>
-        <v>8.8165640935501666E-4</v>
+        <v>3.0433446580157425E-4</v>
       </c>
       <c r="Y16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,Y$7))</f>
-        <v>9.0323706860293701E-4</v>
+        <v>2.8742699547926187E-4</v>
       </c>
       <c r="Z16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,Z$7))</f>
-        <v>9.2481772785085736E-4</v>
+        <v>2.7051952515695643E-4</v>
       </c>
       <c r="AA16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AA$7))</f>
-        <v>9.4639838709877772E-4</v>
+        <v>2.5361205483464405E-4</v>
       </c>
       <c r="AB16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AB$7))</f>
-        <v>9.6797904634669113E-4</v>
+        <v>2.3670458451233167E-4</v>
       </c>
       <c r="AC16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AC$7))</f>
-        <v>9.8955970559461148E-4</v>
+        <v>2.1979711419002623E-4</v>
       </c>
       <c r="AD16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AD$7))</f>
-        <v>1.0111403648425318E-3</v>
+        <v>2.0288964386771385E-4</v>
       </c>
       <c r="AE16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AE$7))</f>
-        <v>1.0327210240904522E-3</v>
+        <v>1.8598217354540147E-4</v>
       </c>
       <c r="AF16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AF$7))</f>
-        <v>1.0543016833383725E-3</v>
+        <v>1.6907470322309603E-4</v>
       </c>
       <c r="AG16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AG$7))</f>
-        <v>1.0758823425862929E-3</v>
+        <v>1.5216723290078366E-4</v>
       </c>
       <c r="AH16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AH$7))</f>
-        <v>1.0974630018342132E-3</v>
+        <v>1.3525976257847822E-4</v>
       </c>
       <c r="AI16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AI$7))</f>
-        <v>1.1190436610821336E-3</v>
+        <v>1.1835229225616584E-4</v>
       </c>
       <c r="AJ16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AJ$7))</f>
-        <v>1.140624320330047E-3</v>
+        <v>1.0144482193385346E-4</v>
       </c>
       <c r="AK16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AK$7))</f>
-        <v>1.1622049795779674E-3</v>
+        <v>8.4537351611548017E-5</v>
       </c>
       <c r="AL16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AL$7))</f>
-        <v>1.1837856388258877E-3</v>
+        <v>6.7629881289235638E-5</v>
       </c>
       <c r="AM16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AM$7))</f>
-        <v>1.2053662980738081E-3</v>
+        <v>5.0722410966930198E-5</v>
       </c>
       <c r="AN16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AN$7))</f>
-        <v>1.2269469573217284E-3</v>
+        <v>3.3814940644617819E-5</v>
       </c>
       <c r="AO16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AO$7))</f>
-        <v>1.2485276165696488E-3</v>
+        <v>1.690747032230544E-5</v>
       </c>
       <c r="AP16" s="14">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D16:$E16,$D$7:$E$7,AP$7))</f>
-        <v>1.2701082758175691E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.45">
@@ -57064,147 +57062,147 @@
       </c>
       <c r="D18" s="41">
         <f>'SYVbT-freight'!E2/SUM('SYVbT-freight'!2:2)</f>
-        <v>0.34388074989867007</v>
+        <v>1</v>
       </c>
       <c r="E18" s="33">
         <v>1</v>
       </c>
       <c r="F18" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="41">
         <f t="shared" si="3"/>
-        <v>0.34388074989867007</v>
+        <v>1</v>
       </c>
       <c r="J18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,J$7))</f>
-        <v>0.3637631514168973</v>
+        <v>1</v>
       </c>
       <c r="K18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,K$7))</f>
-        <v>0.38364555293512126</v>
+        <v>1</v>
       </c>
       <c r="L18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,L$7))</f>
-        <v>0.40352795445333811</v>
+        <v>1</v>
       </c>
       <c r="M18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,M$7))</f>
-        <v>0.42341035597156207</v>
+        <v>1</v>
       </c>
       <c r="N18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,N$7))</f>
-        <v>0.44329275748978603</v>
+        <v>1</v>
       </c>
       <c r="O18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,O$7))</f>
-        <v>0.46317515900800288</v>
+        <v>1</v>
       </c>
       <c r="P18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,P$7))</f>
-        <v>0.48305756052622684</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,Q$7))</f>
-        <v>0.50293996204445079</v>
+        <v>1</v>
       </c>
       <c r="R18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,R$7))</f>
-        <v>0.52282236356267475</v>
+        <v>1</v>
       </c>
       <c r="S18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,S$7))</f>
-        <v>0.5427047650808916</v>
+        <v>1</v>
       </c>
       <c r="T18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,T$7))</f>
-        <v>0.56258716659911556</v>
+        <v>1</v>
       </c>
       <c r="U18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,U$7))</f>
-        <v>0.58246956811733952</v>
+        <v>1</v>
       </c>
       <c r="V18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,V$7))</f>
-        <v>0.60235196963556348</v>
+        <v>1</v>
       </c>
       <c r="W18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,W$7))</f>
-        <v>0.62223437115378033</v>
+        <v>1</v>
       </c>
       <c r="X18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,X$7))</f>
-        <v>0.64211677267200429</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,Y$7))</f>
-        <v>0.66199917419022825</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,Z$7))</f>
-        <v>0.6818815757084522</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AA$7))</f>
-        <v>0.70176397722666906</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AB$7))</f>
-        <v>0.72164637874489301</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AC$7))</f>
-        <v>0.74152878026311697</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AD$7))</f>
-        <v>0.76141118178134093</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AE$7))</f>
-        <v>0.78129358329955778</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AF$7))</f>
-        <v>0.80117598481778174</v>
+        <v>1</v>
       </c>
       <c r="AG18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AG$7))</f>
-        <v>0.8210583863360057</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AH$7))</f>
-        <v>0.84094078785422965</v>
+        <v>1</v>
       </c>
       <c r="AI18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AI$7))</f>
-        <v>0.86082318937244651</v>
+        <v>1</v>
       </c>
       <c r="AJ18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AJ$7))</f>
-        <v>0.88070559089067046</v>
+        <v>1</v>
       </c>
       <c r="AK18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AK$7))</f>
-        <v>0.90058799240889442</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AL$7))</f>
-        <v>0.92047039392711838</v>
+        <v>1</v>
       </c>
       <c r="AM18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AM$7))</f>
-        <v>0.94035279544533523</v>
+        <v>1</v>
       </c>
       <c r="AN18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AN$7))</f>
-        <v>0.96023519696355919</v>
+        <v>1</v>
       </c>
       <c r="AO18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AO$7))</f>
-        <v>0.98011759848178315</v>
+        <v>1</v>
       </c>
       <c r="AP18" s="14">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D18:$E18,$D$7:$E$7,AP$7))</f>
@@ -57221,11 +57219,11 @@
       </c>
       <c r="E19" s="41">
         <f>E12</f>
-        <v>0.10046762944758371</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="F19" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="41">
@@ -57234,135 +57232,135 @@
       </c>
       <c r="J19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,J$7))</f>
-        <v>2.4978407980884641E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="K19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,K$7))</f>
-        <v>2.8729827765517297E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="L19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,L$7))</f>
-        <v>3.3748384328746248E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="M19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,M$7))</f>
-        <v>4.0441433272804259E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="N19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,N$7))</f>
-        <v>4.9331104132684898E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="O19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,O$7))</f>
-        <v>6.107413288259581E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="P19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,P$7))</f>
-        <v>7.6475179414587664E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Q19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,Q$7))</f>
-        <v>9.6484269271585182E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="R19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,R$7))</f>
-        <v>1.2216422363642575E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="S19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,S$7))</f>
-        <v>1.5460996648309563E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="T19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,T$7))</f>
-        <v>1.9480226863680561E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="U19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,U$7))</f>
-        <v>2.4338997929248343E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="V19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,V$7))</f>
-        <v>3.004229785702231E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="W19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,W$7))</f>
-        <v>3.6510120100436014E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="X19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,X$7))</f>
-        <v>4.3564425244181658E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Y19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,Y$7))</f>
-        <v>5.0938562101356305E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Z19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,Z$7))</f>
-        <v>5.8312698958530959E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AA19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AA$7))</f>
-        <v>6.5367004102276582E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AB19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AB$7))</f>
-        <v>7.1834826345690286E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AC19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AC$7))</f>
-        <v>7.753812627346425E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AD19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AD$7))</f>
-        <v>8.2396897339032035E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AE19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AE$7))</f>
-        <v>8.6416127554403047E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AF19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AF$7))</f>
-        <v>8.9660701839070031E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AG19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AG$7))</f>
-        <v>9.2228697275554092E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AH19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AH$7))</f>
-        <v>9.4229606261253832E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AI19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AI$7))</f>
-        <v>9.5769710914453021E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AJ19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AJ$7))</f>
-        <v>9.6944013789444117E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AK19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AK$7))</f>
-        <v>9.7832980875432171E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AL19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AL$7))</f>
-        <v>9.850228576983798E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AM19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AM$7))</f>
-        <v>9.9004141426160874E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AN19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AN$7))</f>
-        <v>9.9379283404624139E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AO19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AO$7))</f>
-        <v>9.965906037485725E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AP19" s="14">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D19:$E19,$D$7:$E$7,AP$7))</f>
-        <v>9.9867356815220826E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.45">
@@ -57371,7 +57369,7 @@
       </c>
       <c r="D20" s="41">
         <f>'SYVbT-freight'!G2/SUM('SYVbT-freight'!2:2)</f>
-        <v>3.0073756374842439E-6</v>
+        <v>0</v>
       </c>
       <c r="E20" s="41">
         <f>E13</f>
@@ -57379,140 +57377,140 @@
       </c>
       <c r="F20" s="7" t="str">
         <f t="shared" ref="F20:F21" si="4">IF(D20=E20,"n/a",IF(OR(C20="battery electric vehicle",C20="natural gas vehicle",C20="plugin hybrid vehicle",C20="hydrogen vehicle"),"s-curve","linear"))</f>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="41">
         <f t="shared" si="3"/>
-        <v>3.0073756374842439E-6</v>
+        <v>0</v>
       </c>
       <c r="J20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,J$7))</f>
-        <v>2.9162430424089765E-6</v>
+        <v>0</v>
       </c>
       <c r="K20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,K$7))</f>
-        <v>2.8251104473336799E-6</v>
+        <v>0</v>
       </c>
       <c r="L20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,L$7))</f>
-        <v>2.7339778522584104E-6</v>
+        <v>0</v>
       </c>
       <c r="M20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,M$7))</f>
-        <v>2.6428452571831409E-6</v>
+        <v>0</v>
       </c>
       <c r="N20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,N$7))</f>
-        <v>2.5517126621078443E-6</v>
+        <v>0</v>
       </c>
       <c r="O20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,O$7))</f>
-        <v>2.4605800670325748E-6</v>
+        <v>0</v>
       </c>
       <c r="P20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,P$7))</f>
-        <v>2.3694474719572782E-6</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,Q$7))</f>
-        <v>2.2783148768820087E-6</v>
+        <v>0</v>
       </c>
       <c r="R20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,R$7))</f>
-        <v>2.1871822818067392E-6</v>
+        <v>0</v>
       </c>
       <c r="S20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,S$7))</f>
-        <v>2.0960496867314425E-6</v>
+        <v>0</v>
       </c>
       <c r="T20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,T$7))</f>
-        <v>2.004917091656173E-6</v>
+        <v>0</v>
       </c>
       <c r="U20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,U$7))</f>
-        <v>1.9137844965808764E-6</v>
+        <v>0</v>
       </c>
       <c r="V20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,V$7))</f>
-        <v>1.8226519015056069E-6</v>
+        <v>0</v>
       </c>
       <c r="W20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,W$7))</f>
-        <v>1.7315193064303374E-6</v>
+        <v>0</v>
       </c>
       <c r="X20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,X$7))</f>
-        <v>1.6403867113550408E-6</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,Y$7))</f>
-        <v>1.5492541162797713E-6</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,Z$7))</f>
-        <v>1.4581215212044747E-6</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AA$7))</f>
-        <v>1.3669889261292052E-6</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AB$7))</f>
-        <v>1.2758563310539357E-6</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AC$7))</f>
-        <v>1.1847237359786391E-6</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AD$7))</f>
-        <v>1.0935911409033696E-6</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AE$7))</f>
-        <v>1.0024585458281001E-6</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AF$7))</f>
-        <v>9.1132595075280346E-7</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AG$7))</f>
-        <v>8.2019335567753396E-7</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AH$7))</f>
-        <v>7.2906076060223735E-7</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AI$7))</f>
-        <v>6.3792816552696785E-7</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AJ$7))</f>
-        <v>5.4679557045169834E-7</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AK$7))</f>
-        <v>4.5566297537640173E-7</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AL$7))</f>
-        <v>3.6453038030113223E-7</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AM$7))</f>
-        <v>2.7339778522583562E-7</v>
+        <v>0</v>
       </c>
       <c r="AN20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AN$7))</f>
-        <v>1.8226519015056611E-7</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AO$7))</f>
-        <v>9.1132595075296609E-8</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="14">
         <f>IF($F20="s-curve",$D20+($E20-$D20)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D20:$E20,$D$7:$E$7,AP$7))</f>
@@ -57687,7 +57685,7 @@
       </c>
       <c r="D22" s="41">
         <f>'SYVbT-passenger'!B3/SUM('SYVbT-passenger'!3:3)</f>
-        <v>3.010505804728952E-4</v>
+        <v>0</v>
       </c>
       <c r="E22" s="33">
         <f>E8</f>
@@ -57700,139 +57698,139 @@
       <c r="H22" s="42"/>
       <c r="I22" s="41">
         <f t="shared" ref="I22:I77" si="5">D22</f>
-        <v>3.010505804728952E-4</v>
+        <v>0</v>
       </c>
       <c r="J22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,J$7))</f>
-        <v>1.1284685585609511E-2</v>
+        <v>1.098694263059318E-2</v>
       </c>
       <c r="K22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,K$7))</f>
-        <v>1.5070634542928764E-2</v>
+        <v>1.4774031693273055E-2</v>
       </c>
       <c r="L22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,L$7))</f>
-        <v>2.01353833789924E-2</v>
+        <v>1.984030573407751E-2</v>
       </c>
       <c r="M22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,M$7))</f>
-        <v>2.6890037116983612E-2</v>
+        <v>2.6596993576865863E-2</v>
       </c>
       <c r="N22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,N$7))</f>
-        <v>3.5861531125930435E-2</v>
+        <v>3.5571189272636181E-2</v>
       </c>
       <c r="O22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,O$7))</f>
-        <v>4.7712646171390136E-2</v>
+        <v>4.7425873177566781E-2</v>
       </c>
       <c r="P22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,P$7))</f>
-        <v>6.3255448472074108E-2</v>
+        <v>6.2973356056996513E-2</v>
       </c>
       <c r="Q22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,Q$7))</f>
-        <v>8.3448707885836276E-2</v>
+        <v>8.317269649392238E-2</v>
       </c>
       <c r="R22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,R$7))</f>
-        <v>0.10936502811473713</v>
+        <v>0.10909682119561293</v>
       </c>
       <c r="S22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,S$7))</f>
-        <v>0.14210941113553172</v>
+        <v>0.14185106490048782</v>
       </c>
       <c r="T22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,T$7))</f>
-        <v>0.18267165507699426</v>
+        <v>0.18242552380635635</v>
       </c>
       <c r="U22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,U$7))</f>
-        <v>0.23170658133316255</v>
+        <v>0.23147521650098238</v>
       </c>
       <c r="V22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,V$7))</f>
-        <v>0.28926452913544826</v>
+        <v>0.28905049737499605</v>
       </c>
       <c r="W22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,W$7))</f>
-        <v>0.3545380689799798</v>
+        <v>0.35434369377420455</v>
       </c>
       <c r="X22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,X$7))</f>
-        <v>0.42573041944147549</v>
+        <v>0.42555748318834102</v>
       </c>
       <c r="Y22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,Y$7))</f>
-        <v>0.5001505252902364</v>
+        <v>0.5</v>
       </c>
       <c r="Z22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,Z$7))</f>
-        <v>0.57457063113899742</v>
+        <v>0.57444251681165903</v>
       </c>
       <c r="AA22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AA$7))</f>
-        <v>0.64576298160049306</v>
+        <v>0.6456563062257954</v>
       </c>
       <c r="AB22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AB$7))</f>
-        <v>0.71103652144502461</v>
+        <v>0.71094950262500389</v>
       </c>
       <c r="AC22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AC$7))</f>
-        <v>0.76859446924731034</v>
+        <v>0.76852478349901754</v>
       </c>
       <c r="AD22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AD$7))</f>
-        <v>0.81762939550347857</v>
+        <v>0.81757447619364365</v>
       </c>
       <c r="AE22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AE$7))</f>
-        <v>0.85819163944494126</v>
+        <v>0.85814893509951229</v>
       </c>
       <c r="AF22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AF$7))</f>
-        <v>0.89093602246573578</v>
+        <v>0.89090317880438707</v>
       </c>
       <c r="AG22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AG$7))</f>
-        <v>0.91685234269463667</v>
+        <v>0.91682730350607766</v>
       </c>
       <c r="AH22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AH$7))</f>
-        <v>0.93704560210839882</v>
+        <v>0.9370266439430035</v>
       </c>
       <c r="AI22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AI$7))</f>
-        <v>0.95258840440908288</v>
+        <v>0.95257412682243336</v>
       </c>
       <c r="AJ22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AJ$7))</f>
-        <v>0.96443951945454254</v>
+        <v>0.96442881072736386</v>
       </c>
       <c r="AK22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AK$7))</f>
-        <v>0.97341101346348924</v>
+        <v>0.97340300642313404</v>
       </c>
       <c r="AL22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AL$7))</f>
-        <v>0.98016566720148057</v>
+        <v>0.98015969426592253</v>
       </c>
       <c r="AM22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AM$7))</f>
-        <v>0.98523041603754413</v>
+        <v>0.98522596830672693</v>
       </c>
       <c r="AN22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AN$7))</f>
-        <v>0.98901636499486345</v>
+        <v>0.98901305736940681</v>
       </c>
       <c r="AO22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AO$7))</f>
-        <v>0.99183988619362395</v>
+        <v>0.99183742884684012</v>
       </c>
       <c r="AP22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AP$7))</f>
-        <v>0.99394202281517241</v>
+        <v>0.99394019850841575</v>
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.45">
@@ -57841,152 +57839,152 @@
       </c>
       <c r="D23" s="41">
         <f>'SYVbT-passenger'!D3/SUM('SYVbT-passenger'!3:3)</f>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="E23" s="41">
         <f>E30</f>
-        <v>0.1190539106486557</v>
+        <v>0</v>
       </c>
       <c r="F23" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H23" s="42"/>
       <c r="I23" s="41">
         <f t="shared" si="5"/>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="J23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,J$7))</f>
-        <v>9.9246334655016352E-2</v>
+        <v>0</v>
       </c>
       <c r="K23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,K$7))</f>
-        <v>9.9322181029181764E-2</v>
+        <v>0</v>
       </c>
       <c r="L23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,L$7))</f>
-        <v>9.9423646431807233E-2</v>
+        <v>0</v>
       </c>
       <c r="M23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,M$7))</f>
-        <v>9.9558966796805551E-2</v>
+        <v>0</v>
       </c>
       <c r="N23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,N$7))</f>
-        <v>9.9738698562631345E-2</v>
+        <v>0</v>
       </c>
       <c r="O23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,O$7))</f>
-        <v>9.9976119646789763E-2</v>
+        <v>0</v>
       </c>
       <c r="P23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,P$7))</f>
-        <v>0.10028749869921928</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,Q$7))</f>
-        <v>0.10069204337913483</v>
+        <v>0</v>
       </c>
       <c r="R23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,R$7))</f>
-        <v>0.10121124185307927</v>
+        <v>0</v>
       </c>
       <c r="S23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,S$7))</f>
-        <v>0.10186723134327279</v>
+        <v>0</v>
       </c>
       <c r="T23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,T$7))</f>
-        <v>0.10267984111843231</v>
+        <v>0</v>
       </c>
       <c r="U23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,U$7))</f>
-        <v>0.10366218964080433</v>
+        <v>0</v>
       </c>
       <c r="V23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,V$7))</f>
-        <v>0.10481528538890343</v>
+        <v>0</v>
       </c>
       <c r="W23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,W$7))</f>
-        <v>0.10612295260311078</v>
+        <v>0</v>
       </c>
       <c r="X23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,X$7))</f>
-        <v>0.10754919519425249</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,Y$7))</f>
-        <v>0.10904010150526387</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,Z$7))</f>
-        <v>0.11053100781627526</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AA$7))</f>
-        <v>0.11195725040741697</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AB$7))</f>
-        <v>0.11326491762162431</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AC$7))</f>
-        <v>0.11441801336972342</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AD$7))</f>
-        <v>0.11540036189209543</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AE$7))</f>
-        <v>0.11621297166725496</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AF$7))</f>
-        <v>0.11686896115744848</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AG$7))</f>
-        <v>0.11738815963139292</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AH$7))</f>
-        <v>0.11779270431130845</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AI$7))</f>
-        <v>0.11810408336373798</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AJ$7))</f>
-        <v>0.1183415044478964</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AK$7))</f>
-        <v>0.11852123621372219</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AL$7))</f>
-        <v>0.11865655657872051</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AM$7))</f>
-        <v>0.11875802198134598</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AN$7))</f>
-        <v>0.11883386835551138</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AO$7))</f>
-        <v>0.1188904337893615</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="14">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D23:$E23,$D$7:$E$7,AP$7))</f>
-        <v>0.11893254725748857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.45">
@@ -57995,7 +57993,7 @@
       </c>
       <c r="D24" s="41">
         <f>'SYVbT-passenger'!D3/SUM('SYVbT-passenger'!3:3)</f>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="E24" s="41">
         <f>E31</f>
@@ -58008,139 +58006,139 @@
       <c r="H24" s="42"/>
       <c r="I24" s="41">
         <f t="shared" si="5"/>
-        <v>9.9026292361872048E-2</v>
+        <v>0</v>
       </c>
       <c r="J24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,J$7))</f>
-        <v>0.10214288480576172</v>
+        <v>6.117389182128008E-3</v>
       </c>
       <c r="K24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,K$7))</f>
-        <v>0.10525947724965157</v>
+        <v>1.2234778364256016E-2</v>
       </c>
       <c r="L24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,L$7))</f>
-        <v>0.10837606969354141</v>
+        <v>1.8352167546384024E-2</v>
       </c>
       <c r="M24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,M$7))</f>
-        <v>0.11149266213743037</v>
+        <v>2.4469556728512032E-2</v>
       </c>
       <c r="N24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,N$7))</f>
-        <v>0.11460925458132021</v>
+        <v>3.0586945910641816E-2</v>
       </c>
       <c r="O24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,O$7))</f>
-        <v>0.11772584702521005</v>
+        <v>3.6704335092769824E-2</v>
       </c>
       <c r="P24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,P$7))</f>
-        <v>0.12084243946909989</v>
+        <v>4.2821724274897832E-2</v>
       </c>
       <c r="Q24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,Q$7))</f>
-        <v>0.12395903191298885</v>
+        <v>4.893911345702584E-2</v>
       </c>
       <c r="R24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,R$7))</f>
-        <v>0.12707562435687869</v>
+        <v>5.5056502639153848E-2</v>
       </c>
       <c r="S24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,S$7))</f>
-        <v>0.13019221680076853</v>
+        <v>6.1173891821281856E-2</v>
       </c>
       <c r="T24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,T$7))</f>
-        <v>0.13330880924465838</v>
+        <v>6.7291281003409864E-2</v>
       </c>
       <c r="U24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,U$7))</f>
-        <v>0.13642540168854822</v>
+        <v>7.3408670185537872E-2</v>
       </c>
       <c r="V24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,V$7))</f>
-        <v>0.13954199413243717</v>
+        <v>7.952605936766588E-2</v>
       </c>
       <c r="W24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,W$7))</f>
-        <v>0.14265858657632702</v>
+        <v>8.5643448549793888E-2</v>
       </c>
       <c r="X24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,X$7))</f>
-        <v>0.14577517902021686</v>
+        <v>9.1760837731921896E-2</v>
       </c>
       <c r="Y24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,Y$7))</f>
-        <v>0.1488917714641067</v>
+        <v>9.787822691405168E-2</v>
       </c>
       <c r="Z24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,Z$7))</f>
-        <v>0.15200836390799566</v>
+        <v>0.10399561609617969</v>
       </c>
       <c r="AA24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AA$7))</f>
-        <v>0.1551249563518855</v>
+        <v>0.1101130052783077</v>
       </c>
       <c r="AB24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AB$7))</f>
-        <v>0.15824154879577534</v>
+        <v>0.1162303944604357</v>
       </c>
       <c r="AC24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AC$7))</f>
-        <v>0.16135814123966519</v>
+        <v>0.12234778364256371</v>
       </c>
       <c r="AD24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AD$7))</f>
-        <v>0.16447473368355414</v>
+        <v>0.12846517282469172</v>
       </c>
       <c r="AE24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AE$7))</f>
-        <v>0.16759132612744398</v>
+        <v>0.13458256200681973</v>
       </c>
       <c r="AF24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AF$7))</f>
-        <v>0.17070791857133383</v>
+        <v>0.14069995118894774</v>
       </c>
       <c r="AG24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AG$7))</f>
-        <v>0.17382451101522367</v>
+        <v>0.14681734037107574</v>
       </c>
       <c r="AH24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AH$7))</f>
-        <v>0.17694110345911263</v>
+        <v>0.15293472955320375</v>
       </c>
       <c r="AI24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AI$7))</f>
-        <v>0.18005769590300247</v>
+        <v>0.15905211873533354</v>
       </c>
       <c r="AJ24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AJ$7))</f>
-        <v>0.18317428834689231</v>
+        <v>0.16516950791746154</v>
       </c>
       <c r="AK24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AK$7))</f>
-        <v>0.18629088079078215</v>
+        <v>0.17128689709958955</v>
       </c>
       <c r="AL24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AL$7))</f>
-        <v>0.18940747323467111</v>
+        <v>0.17740428628171756</v>
       </c>
       <c r="AM24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AM$7))</f>
-        <v>0.19252406567856095</v>
+        <v>0.18352167546384557</v>
       </c>
       <c r="AN24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AN$7))</f>
-        <v>0.19564065812245079</v>
+        <v>0.18963906464597358</v>
       </c>
       <c r="AO24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AO$7))</f>
-        <v>0.19875725056634064</v>
+        <v>0.19575645382810158</v>
       </c>
       <c r="AP24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AP$7))</f>
-        <v>0.20187384301023048</v>
+        <v>0.20187384301022959</v>
       </c>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.45">
@@ -58924,8 +58922,7 @@
         <v>6.75152925582846E-3</v>
       </c>
       <c r="E30" s="41">
-        <f>SUM(INDEX('AEO 50'!$214:$214,MATCH(E$7,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$225:$225,MATCH(E$7,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$236:$236,MATCH(E$7,'AEO 50'!$1:$1,0)))*Assumptions!A2/INDEX('AEO 50'!$243:$243,MATCH(E$7,'AEO 50'!$1:$1,0))</f>
-        <v>0.1190539106486557</v>
+        <v>0</v>
       </c>
       <c r="F30" s="7" t="str">
         <f t="shared" si="1"/>
@@ -58938,135 +58935,135 @@
       </c>
       <c r="J30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,J$7))</f>
-        <v>7.9853890774704474E-3</v>
+        <v>6.677350591225901E-3</v>
       </c>
       <c r="K30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,K$7))</f>
-        <v>8.4106881977561269E-3</v>
+        <v>6.6517819486247905E-3</v>
       </c>
       <c r="L30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,L$7))</f>
-        <v>8.979642837327129E-3</v>
+        <v>6.6175768512202549E-3</v>
       </c>
       <c r="M30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,M$7))</f>
-        <v>9.738434972400227E-3</v>
+        <v>6.5719588755771682E-3</v>
       </c>
       <c r="N30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,N$7))</f>
-        <v>1.0746258520120493E-2</v>
+        <v>6.5113693307896452E-3</v>
       </c>
       <c r="O30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,O$7))</f>
-        <v>1.2077567753303421E-2</v>
+        <v>6.4313320855869079E-3</v>
       </c>
       <c r="P30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,P$7))</f>
-        <v>1.3823587105327589E-2</v>
+        <v>6.3263628000719456E-3</v>
       </c>
       <c r="Q30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,Q$7))</f>
-        <v>1.6092021138958794E-2</v>
+        <v>6.1899863621636018E-3</v>
       </c>
       <c r="R30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,R$7))</f>
-        <v>1.9003362078483261E-2</v>
+        <v>6.0149588758083928E-3</v>
       </c>
       <c r="S30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,S$7))</f>
-        <v>2.2681741647261729E-2</v>
+        <v>5.7938176411823951E-3</v>
       </c>
       <c r="T30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,T$7))</f>
-        <v>2.7238350006116178E-2</v>
+        <v>5.5198779948400136E-3</v>
       </c>
       <c r="U30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,U$7))</f>
-        <v>3.2746747302309039E-2</v>
+        <v>5.1887175596228505E-3</v>
       </c>
       <c r="V30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,V$7))</f>
-        <v>3.9212588453821674E-2</v>
+        <v>4.7999963663894066E-3</v>
       </c>
       <c r="W30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,W$7))</f>
-        <v>4.6545169898202364E-2</v>
+        <v>4.3591674406935968E-3</v>
       </c>
       <c r="X30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,X$7))</f>
-        <v>5.45426480374172E-2</v>
+        <v>3.8783654580456478E-3</v>
       </c>
       <c r="Y30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,Y$7))</f>
-        <v>6.2902719952242073E-2</v>
+        <v>3.37576462791423E-3</v>
       </c>
       <c r="Z30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,Z$7))</f>
-        <v>7.1262791867066966E-2</v>
+        <v>2.8731637977828122E-3</v>
       </c>
       <c r="AA30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AA$7))</f>
-        <v>7.9260270006281788E-2</v>
+        <v>2.3923618151348632E-3</v>
       </c>
       <c r="AB30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AB$7))</f>
-        <v>8.6592851450662478E-2</v>
+        <v>1.9515328894390534E-3</v>
       </c>
       <c r="AC30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AC$7))</f>
-        <v>9.3058692602175114E-2</v>
+        <v>1.5628116962056095E-3</v>
       </c>
       <c r="AD30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AD$7))</f>
-        <v>9.8567089898367974E-2</v>
+        <v>1.2316512609884464E-3</v>
       </c>
       <c r="AE30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AE$7))</f>
-        <v>0.10312369825722244</v>
+        <v>9.5771161464606406E-4</v>
       </c>
       <c r="AF30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AF$7))</f>
-        <v>0.1068020778260009</v>
+        <v>7.3657038002006726E-4</v>
       </c>
       <c r="AG30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AG$7))</f>
-        <v>0.10971341876552537</v>
+        <v>5.615428936648582E-4</v>
       </c>
       <c r="AH30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AH$7))</f>
-        <v>0.11198185279915658</v>
+        <v>4.2516645575651352E-4</v>
       </c>
       <c r="AI30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AI$7))</f>
-        <v>0.11372787215118074</v>
+        <v>3.2019717024155212E-4</v>
       </c>
       <c r="AJ30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AJ$7))</f>
-        <v>0.11505918138436366</v>
+        <v>2.4015992503881485E-4</v>
       </c>
       <c r="AK30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AK$7))</f>
-        <v>0.11606700493208393</v>
+        <v>1.7957038025129182E-4</v>
       </c>
       <c r="AL30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AL$7))</f>
-        <v>0.11682579706715704</v>
+        <v>1.3395240460820513E-4</v>
       </c>
       <c r="AM30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AM$7))</f>
-        <v>0.11739475170672803</v>
+        <v>9.9747307203669477E-5</v>
       </c>
       <c r="AN30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AN$7))</f>
-        <v>0.11782005082701372</v>
+        <v>7.4178664602558148E-5</v>
       </c>
       <c r="AO30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AO$7))</f>
-        <v>0.11813723446986744</v>
+        <v>5.5109837943340817E-5</v>
       </c>
       <c r="AP30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AP$7))</f>
-        <v>0.11837338051038299</v>
+        <v>4.0912927054943815E-5</v>
       </c>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.45">
@@ -61994,7 +61991,7 @@
       </c>
       <c r="D50" s="41">
         <f>'SYVbT-passenger'!B5/SUM('SYVbT-passenger'!B5:H5)</f>
-        <v>0.5118281341400337</v>
+        <v>1</v>
       </c>
       <c r="E50" s="14">
         <f>Assumptions!A28</f>
@@ -62007,139 +62004,139 @@
       <c r="H50" s="42"/>
       <c r="I50" s="41">
         <f t="shared" si="5"/>
-        <v>0.5118281341400337</v>
+        <v>1</v>
       </c>
       <c r="J50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,J$7))</f>
-        <v>0.51444491476645848</v>
+        <v>0.99725326434235173</v>
       </c>
       <c r="K50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,K$7))</f>
-        <v>0.51534689283469481</v>
+        <v>0.99630649207668176</v>
       </c>
       <c r="L50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,L$7))</f>
-        <v>0.51655353677595117</v>
+        <v>0.99503992356648063</v>
       </c>
       <c r="M50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,M$7))</f>
-        <v>0.51816278972650143</v>
+        <v>0.99335075160578357</v>
       </c>
       <c r="N50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,N$7))</f>
-        <v>0.52030019065995547</v>
+        <v>0.99110720268184094</v>
       </c>
       <c r="O50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,O$7))</f>
-        <v>0.52312364284477286</v>
+        <v>0.98814353170560831</v>
       </c>
       <c r="P50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,P$7))</f>
-        <v>0.52682661585159252</v>
+        <v>0.98425666098575082</v>
       </c>
       <c r="Q50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,Q$7))</f>
-        <v>0.53163753045259587</v>
+        <v>0.97920682587651942</v>
       </c>
       <c r="R50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,R$7))</f>
-        <v>0.53781192760358398</v>
+        <v>0.97272579470109677</v>
       </c>
       <c r="S50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,S$7))</f>
-        <v>0.54561306694160605</v>
+        <v>0.9645372337748781</v>
       </c>
       <c r="T50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,T$7))</f>
-        <v>0.55527676152547534</v>
+        <v>0.95439361904841091</v>
       </c>
       <c r="U50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,U$7))</f>
-        <v>0.56695901835441231</v>
+        <v>0.94213119587475436</v>
       </c>
       <c r="V50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,V$7))</f>
-        <v>0.58067183042758774</v>
+        <v>0.92773737565625103</v>
       </c>
       <c r="W50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,W$7))</f>
-        <v>0.59622283284194855</v>
+        <v>0.9114140765564489</v>
       </c>
       <c r="X50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,X$7))</f>
-        <v>0.61318395394167213</v>
+        <v>0.89361062920291479</v>
       </c>
       <c r="Y50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,Y$7))</f>
-        <v>0.63091406707001685</v>
+        <v>0.875</v>
       </c>
       <c r="Z50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,Z$7))</f>
-        <v>0.64864418019836156</v>
+        <v>0.85638937079708521</v>
       </c>
       <c r="AA50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AA$7))</f>
-        <v>0.66560530129808515</v>
+        <v>0.8385859234435511</v>
       </c>
       <c r="AB50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AB$7))</f>
-        <v>0.68115630371244595</v>
+        <v>0.82226262434374897</v>
       </c>
       <c r="AC50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AC$7))</f>
-        <v>0.69486911578562138</v>
+        <v>0.80786880412524564</v>
       </c>
       <c r="AD50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AD$7))</f>
-        <v>0.70655137261455836</v>
+        <v>0.79560638095158909</v>
       </c>
       <c r="AE50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AE$7))</f>
-        <v>0.71621506719842765</v>
+        <v>0.7854627662251219</v>
       </c>
       <c r="AF50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AF$7))</f>
-        <v>0.72401620653644971</v>
+        <v>0.77727420529890323</v>
       </c>
       <c r="AG50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AG$7))</f>
-        <v>0.73019060368743782</v>
+        <v>0.77079317412348058</v>
       </c>
       <c r="AH50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AH$7))</f>
-        <v>0.73500151828844118</v>
+        <v>0.76574333901424918</v>
       </c>
       <c r="AI50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AI$7))</f>
-        <v>0.73870449129526083</v>
+        <v>0.76185646829439169</v>
       </c>
       <c r="AJ50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AJ$7))</f>
-        <v>0.74152794348007822</v>
+        <v>0.75889279731815906</v>
       </c>
       <c r="AK50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AK$7))</f>
-        <v>0.74366534441353227</v>
+        <v>0.75664924839421643</v>
       </c>
       <c r="AL50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AL$7))</f>
-        <v>0.74527459736408264</v>
+        <v>0.75496007643351937</v>
       </c>
       <c r="AM50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AM$7))</f>
-        <v>0.74648124130533888</v>
+        <v>0.75369350792331824</v>
       </c>
       <c r="AN50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AN$7))</f>
-        <v>0.74738321937357521</v>
+        <v>0.75274673565764827</v>
       </c>
       <c r="AO50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AO$7))</f>
-        <v>0.74805590519823717</v>
+        <v>0.75204064278828997</v>
       </c>
       <c r="AP50" s="14">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AP$7))</f>
-        <v>0.74855672577200838</v>
+        <v>0.75151495037289606</v>
       </c>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.45">
@@ -62452,7 +62449,7 @@
       </c>
       <c r="D53" s="41">
         <f>'SYVbT-passenger'!E5/SUM('SYVbT-passenger'!B5:H5)</f>
-        <v>0.48817186585996641</v>
+        <v>0</v>
       </c>
       <c r="E53" s="14">
         <f>Assumptions!A28</f>
@@ -62465,139 +62462,139 @@
       <c r="H53" s="42"/>
       <c r="I53" s="41">
         <f t="shared" si="5"/>
-        <v>0.48817186585996641</v>
+        <v>0</v>
       </c>
       <c r="J53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,J$7))</f>
-        <v>0.49610605174299849</v>
+        <v>2.2727272727273373E-2</v>
       </c>
       <c r="K53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,K$7))</f>
-        <v>0.50404023762603245</v>
+        <v>4.5454545454546746E-2</v>
       </c>
       <c r="L53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,L$7))</f>
-        <v>0.51197442350906286</v>
+        <v>6.818181818182012E-2</v>
       </c>
       <c r="M53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,M$7))</f>
-        <v>0.51990860939209327</v>
+        <v>9.0909090909086387E-2</v>
       </c>
       <c r="N53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,N$7))</f>
-        <v>0.52784279527512368</v>
+        <v>0.11363636363635976</v>
       </c>
       <c r="O53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,O$7))</f>
-        <v>0.53577698115815764</v>
+        <v>0.13636363636363313</v>
       </c>
       <c r="P53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,P$7))</f>
-        <v>0.54371116704118805</v>
+        <v>0.15909090909090651</v>
       </c>
       <c r="Q53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,Q$7))</f>
-        <v>0.55164535292421846</v>
+        <v>0.18181818181817988</v>
       </c>
       <c r="R53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,R$7))</f>
-        <v>0.55957953880724887</v>
+        <v>0.20454545454545325</v>
       </c>
       <c r="S53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,S$7))</f>
-        <v>0.56751372469028283</v>
+        <v>0.22727272727272663</v>
       </c>
       <c r="T53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,T$7))</f>
-        <v>0.57544791057331324</v>
+        <v>0.25</v>
       </c>
       <c r="U53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,U$7))</f>
-        <v>0.58338209645634365</v>
+        <v>0.27272727272727337</v>
       </c>
       <c r="V53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,V$7))</f>
-        <v>0.59131628233937406</v>
+        <v>0.29545454545454675</v>
       </c>
       <c r="W53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,W$7))</f>
-        <v>0.59925046822240802</v>
+        <v>0.31818181818182012</v>
       </c>
       <c r="X53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,X$7))</f>
-        <v>0.60718465410543843</v>
+        <v>0.34090909090908639</v>
       </c>
       <c r="Y53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,Y$7))</f>
-        <v>0.61511883998846884</v>
+        <v>0.36363636363635976</v>
       </c>
       <c r="Z53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,Z$7))</f>
-        <v>0.62305302587149924</v>
+        <v>0.38636363636363313</v>
       </c>
       <c r="AA53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AA$7))</f>
-        <v>0.63098721175453321</v>
+        <v>0.40909090909090651</v>
       </c>
       <c r="AB53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AB$7))</f>
-        <v>0.63892139763756362</v>
+        <v>0.43181818181817988</v>
       </c>
       <c r="AC53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AC$7))</f>
-        <v>0.64685558352059402</v>
+        <v>0.45454545454545325</v>
       </c>
       <c r="AD53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AD$7))</f>
-        <v>0.65478976940362443</v>
+        <v>0.47727272727272663</v>
       </c>
       <c r="AE53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AE$7))</f>
-        <v>0.66272395528665839</v>
+        <v>0.5</v>
       </c>
       <c r="AF53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AF$7))</f>
-        <v>0.6706581411696888</v>
+        <v>0.52272727272727337</v>
       </c>
       <c r="AG53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AG$7))</f>
-        <v>0.67859232705271921</v>
+        <v>0.54545454545454675</v>
       </c>
       <c r="AH53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AH$7))</f>
-        <v>0.68652651293574962</v>
+        <v>0.56818181818182012</v>
       </c>
       <c r="AI53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AI$7))</f>
-        <v>0.69446069881878358</v>
+        <v>0.59090909090908639</v>
       </c>
       <c r="AJ53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AJ$7))</f>
-        <v>0.70239488470181399</v>
+        <v>0.61363636363635976</v>
       </c>
       <c r="AK53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AK$7))</f>
-        <v>0.7103290705848444</v>
+        <v>0.63636363636363313</v>
       </c>
       <c r="AL53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AL$7))</f>
-        <v>0.71826325646787481</v>
+        <v>0.65909090909090651</v>
       </c>
       <c r="AM53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AM$7))</f>
-        <v>0.72619744235090877</v>
+        <v>0.68181818181817988</v>
       </c>
       <c r="AN53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AN$7))</f>
-        <v>0.73413162823393918</v>
+        <v>0.70454545454545325</v>
       </c>
       <c r="AO53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AO$7))</f>
-        <v>0.74206581411696959</v>
+        <v>0.72727272727272663</v>
       </c>
       <c r="AP53" s="14">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AP$7))</f>
-        <v>0.75000000000000355</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.45">
@@ -64450,7 +64447,7 @@
       </c>
       <c r="D66" s="14">
         <f>'SYVbT-passenger'!D6/SUM('SYVbT-passenger'!B6:H6)</f>
-        <v>0.78794595848566396</v>
+        <v>0</v>
       </c>
       <c r="E66" s="14">
         <v>1</v>
@@ -64462,135 +64459,135 @@
       <c r="H66" s="42"/>
       <c r="I66" s="41">
         <f t="shared" si="5"/>
-        <v>0.78794595848566396</v>
+        <v>0</v>
       </c>
       <c r="J66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,J$7))</f>
-        <v>0.79437183853155346</v>
+        <v>3.0303030303031164E-2</v>
       </c>
       <c r="K66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,K$7))</f>
-        <v>0.8007977185774422</v>
+        <v>6.0606060606055223E-2</v>
       </c>
       <c r="L66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,L$7))</f>
-        <v>0.80722359862333093</v>
+        <v>9.0909090909086387E-2</v>
       </c>
       <c r="M66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,M$7))</f>
-        <v>0.81364947866921966</v>
+        <v>0.12121212121211755</v>
       </c>
       <c r="N66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,N$7))</f>
-        <v>0.82007535871511017</v>
+        <v>0.15151515151514872</v>
       </c>
       <c r="O66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,O$7))</f>
-        <v>0.8265012387609989</v>
+        <v>0.18181818181817988</v>
       </c>
       <c r="P66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,P$7))</f>
-        <v>0.83292711880688763</v>
+        <v>0.21212121212121104</v>
       </c>
       <c r="Q66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,Q$7))</f>
-        <v>0.83935299885277637</v>
+        <v>0.24242424242424221</v>
       </c>
       <c r="R66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,R$7))</f>
-        <v>0.8457788788986651</v>
+        <v>0.27272727272727337</v>
       </c>
       <c r="S66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,S$7))</f>
-        <v>0.85220475894455383</v>
+        <v>0.30303030303030454</v>
       </c>
       <c r="T66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,T$7))</f>
-        <v>0.85863063899044256</v>
+        <v>0.3333333333333286</v>
       </c>
       <c r="U66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,U$7))</f>
-        <v>0.8650565190363313</v>
+        <v>0.36363636363635976</v>
       </c>
       <c r="V66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,V$7))</f>
-        <v>0.8714823990822218</v>
+        <v>0.39393939393939092</v>
       </c>
       <c r="W66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,W$7))</f>
-        <v>0.87790827912811054</v>
+        <v>0.42424242424242209</v>
       </c>
       <c r="X66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,X$7))</f>
-        <v>0.88433415917399927</v>
+        <v>0.45454545454545325</v>
       </c>
       <c r="Y66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,Y$7))</f>
-        <v>0.890760039219888</v>
+        <v>0.48484848484848442</v>
       </c>
       <c r="Z66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,Z$7))</f>
-        <v>0.89718591926577673</v>
+        <v>0.51515151515151558</v>
       </c>
       <c r="AA66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AA$7))</f>
-        <v>0.90361179931166546</v>
+        <v>0.54545454545454675</v>
       </c>
       <c r="AB66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AB$7))</f>
-        <v>0.9100376793575542</v>
+        <v>0.57575757575757081</v>
       </c>
       <c r="AC66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AC$7))</f>
-        <v>0.91646355940344471</v>
+        <v>0.60606060606060197</v>
       </c>
       <c r="AD66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AD$7))</f>
-        <v>0.92288943944933344</v>
+        <v>0.63636363636363313</v>
       </c>
       <c r="AE66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AE$7))</f>
-        <v>0.92931531949522217</v>
+        <v>0.6666666666666643</v>
       </c>
       <c r="AF66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AF$7))</f>
-        <v>0.9357411995411109</v>
+        <v>0.69696969696969546</v>
       </c>
       <c r="AG66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AG$7))</f>
-        <v>0.94216707958699963</v>
+        <v>0.72727272727272663</v>
       </c>
       <c r="AH66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AH$7))</f>
-        <v>0.94859295963288837</v>
+        <v>0.75757575757575779</v>
       </c>
       <c r="AI66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AI$7))</f>
-        <v>0.9550188396787771</v>
+        <v>0.78787878787878896</v>
       </c>
       <c r="AJ66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AJ$7))</f>
-        <v>0.96144471972466583</v>
+        <v>0.81818181818181301</v>
       </c>
       <c r="AK66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AK$7))</f>
-        <v>0.96787059977055634</v>
+        <v>0.84848484848484418</v>
       </c>
       <c r="AL66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AL$7))</f>
-        <v>0.97429647981644507</v>
+        <v>0.87878787878787534</v>
       </c>
       <c r="AM66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AM$7))</f>
-        <v>0.9807223598623338</v>
+        <v>0.90909090909090651</v>
       </c>
       <c r="AN66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AN$7))</f>
-        <v>0.98714823990822254</v>
+        <v>0.93939393939393767</v>
       </c>
       <c r="AO66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AO$7))</f>
-        <v>0.99357411995411127</v>
+        <v>0.96969696969696884</v>
       </c>
       <c r="AP66" s="14">
         <f>IF($F66="s-curve",$D66+($E66-$D66)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D66:$E66,$D$7:$E$7,AP$7))</f>
@@ -64603,147 +64600,147 @@
       </c>
       <c r="D67" s="14">
         <f>'SYVbT-passenger'!E6/SUM('SYVbT-passenger'!B6:H6)</f>
-        <v>0.21205404151433599</v>
+        <v>1</v>
       </c>
       <c r="E67" s="14">
         <v>1</v>
       </c>
       <c r="F67" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="H67" s="42"/>
       <c r="I67" s="41">
         <f t="shared" si="5"/>
-        <v>0.21205404151433599</v>
+        <v>1</v>
       </c>
       <c r="J67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,J$7))</f>
-        <v>0.2359311917714777</v>
+        <v>1</v>
       </c>
       <c r="K67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,K$7))</f>
-        <v>0.25980834202861303</v>
+        <v>1</v>
       </c>
       <c r="L67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,L$7))</f>
-        <v>0.28368549228575546</v>
+        <v>1</v>
       </c>
       <c r="M67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,M$7))</f>
-        <v>0.30756264254289789</v>
+        <v>1</v>
       </c>
       <c r="N67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,N$7))</f>
-        <v>0.33143979280004032</v>
+        <v>1</v>
       </c>
       <c r="O67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,O$7))</f>
-        <v>0.35531694305718275</v>
+        <v>1</v>
       </c>
       <c r="P67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,P$7))</f>
-        <v>0.37919409331432519</v>
+        <v>1</v>
       </c>
       <c r="Q67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,Q$7))</f>
-        <v>0.40307124357146762</v>
+        <v>1</v>
       </c>
       <c r="R67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,R$7))</f>
-        <v>0.42694839382860295</v>
+        <v>1</v>
       </c>
       <c r="S67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,S$7))</f>
-        <v>0.45082554408574538</v>
+        <v>1</v>
       </c>
       <c r="T67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,T$7))</f>
-        <v>0.47470269434288781</v>
+        <v>1</v>
       </c>
       <c r="U67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,U$7))</f>
-        <v>0.49857984460003024</v>
+        <v>1</v>
       </c>
       <c r="V67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,V$7))</f>
-        <v>0.52245699485717267</v>
+        <v>1</v>
       </c>
       <c r="W67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,W$7))</f>
-        <v>0.54633414511431511</v>
+        <v>1</v>
       </c>
       <c r="X67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,X$7))</f>
-        <v>0.57021129537145043</v>
+        <v>1</v>
       </c>
       <c r="Y67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,Y$7))</f>
-        <v>0.59408844562859286</v>
+        <v>1</v>
       </c>
       <c r="Z67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,Z$7))</f>
-        <v>0.6179655958857353</v>
+        <v>1</v>
       </c>
       <c r="AA67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AA$7))</f>
-        <v>0.64184274614287773</v>
+        <v>1</v>
       </c>
       <c r="AB67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AB$7))</f>
-        <v>0.66571989640002016</v>
+        <v>1</v>
       </c>
       <c r="AC67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AC$7))</f>
-        <v>0.68959704665716259</v>
+        <v>1</v>
       </c>
       <c r="AD67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AD$7))</f>
-        <v>0.71347419691430503</v>
+        <v>1</v>
       </c>
       <c r="AE67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AE$7))</f>
-        <v>0.73735134717144035</v>
+        <v>1</v>
       </c>
       <c r="AF67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AF$7))</f>
-        <v>0.76122849742858278</v>
+        <v>1</v>
       </c>
       <c r="AG67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AG$7))</f>
-        <v>0.78510564768572522</v>
+        <v>1</v>
       </c>
       <c r="AH67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AH$7))</f>
-        <v>0.80898279794286765</v>
+        <v>1</v>
       </c>
       <c r="AI67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AI$7))</f>
-        <v>0.83285994820001008</v>
+        <v>1</v>
       </c>
       <c r="AJ67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AJ$7))</f>
-        <v>0.85673709845715251</v>
+        <v>1</v>
       </c>
       <c r="AK67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AK$7))</f>
-        <v>0.88061424871428784</v>
+        <v>1</v>
       </c>
       <c r="AL67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AL$7))</f>
-        <v>0.90449139897143027</v>
+        <v>1</v>
       </c>
       <c r="AM67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AM$7))</f>
-        <v>0.9283685492285727</v>
+        <v>1</v>
       </c>
       <c r="AN67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AN$7))</f>
-        <v>0.95224569948571514</v>
+        <v>1</v>
       </c>
       <c r="AO67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AO$7))</f>
-        <v>0.97612284974285757</v>
+        <v>1</v>
       </c>
       <c r="AP67" s="14">
         <f>IF($F67="s-curve",$D67+($E67-$D67)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D67:$E67,$D$7:$E$7,AP$7))</f>
@@ -66295,11 +66292,11 @@
         <v>0</v>
       </c>
       <c r="E78" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H78" s="42"/>
       <c r="I78" s="41">
@@ -66308,135 +66305,135 @@
       </c>
       <c r="J78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,J$7))</f>
-        <v>1.098694263059318E-2</v>
+        <v>0</v>
       </c>
       <c r="K78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,K$7))</f>
-        <v>1.4774031693273055E-2</v>
+        <v>0</v>
       </c>
       <c r="L78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,L$7))</f>
-        <v>1.984030573407751E-2</v>
+        <v>0</v>
       </c>
       <c r="M78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,M$7))</f>
-        <v>2.6596993576865863E-2</v>
+        <v>0</v>
       </c>
       <c r="N78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,N$7))</f>
-        <v>3.5571189272636181E-2</v>
+        <v>0</v>
       </c>
       <c r="O78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,O$7))</f>
-        <v>4.7425873177566781E-2</v>
+        <v>0</v>
       </c>
       <c r="P78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,P$7))</f>
-        <v>6.2973356056996513E-2</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,Q$7))</f>
-        <v>8.317269649392238E-2</v>
+        <v>0</v>
       </c>
       <c r="R78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,R$7))</f>
-        <v>0.10909682119561293</v>
+        <v>0</v>
       </c>
       <c r="S78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,S$7))</f>
-        <v>0.14185106490048782</v>
+        <v>0</v>
       </c>
       <c r="T78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,T$7))</f>
-        <v>0.18242552380635635</v>
+        <v>0</v>
       </c>
       <c r="U78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,U$7))</f>
-        <v>0.23147521650098238</v>
+        <v>0</v>
       </c>
       <c r="V78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,V$7))</f>
-        <v>0.28905049737499605</v>
+        <v>0</v>
       </c>
       <c r="W78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,W$7))</f>
-        <v>0.35434369377420455</v>
+        <v>0</v>
       </c>
       <c r="X78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,X$7))</f>
-        <v>0.42555748318834102</v>
+        <v>0</v>
       </c>
       <c r="Y78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,Y$7))</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,Z$7))</f>
-        <v>0.57444251681165903</v>
+        <v>0</v>
       </c>
       <c r="AA78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AA$7))</f>
-        <v>0.6456563062257954</v>
+        <v>0</v>
       </c>
       <c r="AB78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AB$7))</f>
-        <v>0.71094950262500389</v>
+        <v>0</v>
       </c>
       <c r="AC78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AC$7))</f>
-        <v>0.76852478349901754</v>
+        <v>0</v>
       </c>
       <c r="AD78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AD$7))</f>
-        <v>0.81757447619364365</v>
+        <v>0</v>
       </c>
       <c r="AE78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AE$7))</f>
-        <v>0.85814893509951229</v>
+        <v>0</v>
       </c>
       <c r="AF78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AF$7))</f>
-        <v>0.89090317880438707</v>
+        <v>0</v>
       </c>
       <c r="AG78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AG$7))</f>
-        <v>0.91682730350607766</v>
+        <v>0</v>
       </c>
       <c r="AH78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AH$7))</f>
-        <v>0.9370266439430035</v>
+        <v>0</v>
       </c>
       <c r="AI78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AI$7))</f>
-        <v>0.95257412682243336</v>
+        <v>0</v>
       </c>
       <c r="AJ78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AJ$7))</f>
-        <v>0.96442881072736386</v>
+        <v>0</v>
       </c>
       <c r="AK78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AK$7))</f>
-        <v>0.97340300642313404</v>
+        <v>0</v>
       </c>
       <c r="AL78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AL$7))</f>
-        <v>0.98015969426592253</v>
+        <v>0</v>
       </c>
       <c r="AM78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AM$7))</f>
-        <v>0.98522596830672693</v>
+        <v>0</v>
       </c>
       <c r="AN78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AN$7))</f>
-        <v>0.98901305736940681</v>
+        <v>0</v>
       </c>
       <c r="AO78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AO$7))</f>
-        <v>0.99183742884684012</v>
+        <v>0</v>
       </c>
       <c r="AP78" s="14">
         <f>IF($F78="s-curve",$D78+($E78-$D78)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D78:$E78,$D$7:$E$7,AP$7))</f>
-        <v>0.99394019850841575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:42" x14ac:dyDescent="0.45">
@@ -68755,147 +68752,147 @@
       </c>
       <c r="B3" s="57">
         <f t="shared" ref="B3:B8" si="0">D3</f>
-        <v>5.5794652063621928E-4</v>
+        <v>0</v>
       </c>
       <c r="C3" s="57">
         <f t="shared" ref="C3:C8" si="1">D3</f>
-        <v>5.5794652063621928E-4</v>
+        <v>0</v>
       </c>
       <c r="D3" s="14">
         <f>Data!I9</f>
-        <v>5.5794652063621928E-4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="14">
         <f>Data!J9</f>
-        <v>5.6577100098409926E-4</v>
+        <v>0</v>
       </c>
       <c r="F3" s="14">
         <f>Data!K9</f>
-        <v>5.6846802097800539E-4</v>
+        <v>0</v>
       </c>
       <c r="G3" s="14">
         <f>Data!L9</f>
-        <v>5.7207602759113438E-4</v>
+        <v>0</v>
       </c>
       <c r="H3" s="14">
         <f>Data!M9</f>
-        <v>5.7688788226446699E-4</v>
+        <v>0</v>
       </c>
       <c r="I3" s="14">
         <f>Data!N9</f>
-        <v>5.8327896122250763E-4</v>
+        <v>0</v>
       </c>
       <c r="J3" s="14">
         <f>Data!O9</f>
-        <v>5.9172141371936304E-4</v>
+        <v>0</v>
       </c>
       <c r="K3" s="14">
         <f>Data!P9</f>
-        <v>6.0279373641542963E-4</v>
+        <v>0</v>
       </c>
       <c r="L3" s="14">
         <f>Data!Q9</f>
-        <v>6.1717893415449618E-4</v>
+        <v>0</v>
       </c>
       <c r="M3" s="14">
         <f>Data!R9</f>
-        <v>6.3564110430359218E-4</v>
+        <v>0</v>
       </c>
       <c r="N3" s="14">
         <f>Data!S9</f>
-        <v>6.5896742399009335E-4</v>
+        <v>0</v>
       </c>
       <c r="O3" s="14">
         <f>Data!T9</f>
-        <v>6.8786300186002996E-4</v>
+        <v>0</v>
       </c>
       <c r="P3" s="14">
         <f>Data!U9</f>
-        <v>7.227943171005404E-4</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="14">
         <f>Data!V9</f>
-        <v>7.6379723018283675E-4</v>
+        <v>0</v>
       </c>
       <c r="R3" s="14">
         <f>Data!W9</f>
-        <v>8.1029654753189727E-4</v>
+        <v>0</v>
       </c>
       <c r="S3" s="14">
         <f>Data!X9</f>
-        <v>8.6101228479418322E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="14">
         <f>Data!Y9</f>
-        <v>9.140273982268909E-4</v>
+        <v>0</v>
       </c>
       <c r="U3" s="14">
         <f>Data!Z9</f>
-        <v>9.6704251165959868E-4</v>
+        <v>0</v>
       </c>
       <c r="V3" s="14">
         <f>Data!AA9</f>
-        <v>1.0177582489218845E-3</v>
+        <v>0</v>
       </c>
       <c r="W3" s="14">
         <f>Data!AB9</f>
-        <v>1.0642575662709452E-3</v>
+        <v>0</v>
       </c>
       <c r="X3" s="14">
         <f>Data!AC9</f>
-        <v>1.1052604793532414E-3</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="14">
         <f>Data!AD9</f>
-        <v>1.1401917945937519E-3</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="14">
         <f>Data!AE9</f>
-        <v>1.1690873724636887E-3</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="14">
         <f>Data!AF9</f>
-        <v>1.1924136921501898E-3</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="14">
         <f>Data!AG9</f>
-        <v>1.2108758622992857E-3</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="14">
         <f>Data!AH9</f>
-        <v>1.2252610600383524E-3</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="14">
         <f>Data!AI9</f>
-        <v>1.2363333827344189E-3</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="14">
         <f>Data!AJ9</f>
-        <v>1.2447758352312744E-3</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="14">
         <f>Data!AK9</f>
-        <v>1.2511669141893149E-3</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="14">
         <f>Data!AL9</f>
-        <v>1.2559787688626476E-3</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="14">
         <f>Data!AM9</f>
-        <v>1.2595867754757765E-3</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="14">
         <f>Data!AN9</f>
-        <v>1.2622837954696826E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="14">
         <f>Data!AO9</f>
-        <v>1.2642952048183358E-3</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="14">
         <f>Data!AP9</f>
-        <v>1.2657927169512655E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.45">
@@ -69053,147 +69050,147 @@
       </c>
       <c r="B5" s="57">
         <f t="shared" si="0"/>
-        <v>4.8592557721546335E-3</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="C5" s="57">
         <f t="shared" si="1"/>
-        <v>4.8592557721546335E-3</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="D5" s="14">
         <f>Data!I11</f>
-        <v>4.8592557721546335E-3</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="E5" s="14">
         <f>Data!J11</f>
-        <v>6.935033541304314E-3</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="F5" s="14">
         <f>Data!K11</f>
-        <v>9.0108113104552245E-3</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="G5" s="14">
         <f>Data!L11</f>
-        <v>1.1086589079606135E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="H5" s="14">
         <f>Data!M11</f>
-        <v>1.3162366848757046E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="I5" s="14">
         <f>Data!N11</f>
-        <v>1.5238144617907068E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="J5" s="14">
         <f>Data!O11</f>
-        <v>1.7313922387057978E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="K5" s="14">
         <f>Data!P11</f>
-        <v>1.9389700156208889E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="L5" s="14">
         <f>Data!Q11</f>
-        <v>2.1465477925359799E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="M5" s="14">
         <f>Data!R11</f>
-        <v>2.354125569451071E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="N5" s="14">
         <f>Data!S11</f>
-        <v>2.5617033463660732E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="O5" s="14">
         <f>Data!T11</f>
-        <v>2.7692811232811643E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="P5" s="14">
         <f>Data!U11</f>
-        <v>2.9768589001962553E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="Q5" s="14">
         <f>Data!V11</f>
-        <v>3.1844366771113464E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="R5" s="14">
         <f>Data!W11</f>
-        <v>3.3920144540264374E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="S5" s="14">
         <f>Data!X11</f>
-        <v>3.5995922309414397E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="T5" s="14">
         <f>Data!Y11</f>
-        <v>3.8071700078565307E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="U5" s="14">
         <f>Data!Z11</f>
-        <v>4.0147477847716218E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="V5" s="14">
         <f>Data!AA11</f>
-        <v>4.2223255616867128E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="W5" s="14">
         <f>Data!AB11</f>
-        <v>4.4299033386018039E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="X5" s="14">
         <f>Data!AC11</f>
-        <v>4.6374811155168061E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="Y5" s="14">
         <f>Data!AD11</f>
-        <v>4.8450588924318971E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="Z5" s="14">
         <f>Data!AE11</f>
-        <v>5.0526366693469882E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AA5" s="14">
         <f>Data!AF11</f>
-        <v>5.2602144462620792E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AB5" s="14">
         <f>Data!AG11</f>
-        <v>5.4677922231770815E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AC5" s="14">
         <f>Data!AH11</f>
-        <v>5.6753700000921725E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AD5" s="14">
         <f>Data!AI11</f>
-        <v>5.8829477770072636E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AE5" s="14">
         <f>Data!AJ11</f>
-        <v>6.0905255539223546E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AF5" s="14">
         <f>Data!AK11</f>
-        <v>6.2981033308374457E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AG5" s="14">
         <f>Data!AL11</f>
-        <v>6.5056811077524479E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AH5" s="14">
         <f>Data!AM11</f>
-        <v>6.713258884667539E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AI5" s="14">
         <f>Data!AN11</f>
-        <v>6.92083666158263E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AJ5" s="14">
         <f>Data!AO11</f>
-        <v>7.1284144384977211E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
       <c r="AK5" s="14">
         <f>Data!AP11</f>
-        <v>7.3359922154128121E-2</v>
+        <v>4.9584365801992401E-2</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.45">
@@ -69214,135 +69211,135 @@
       </c>
       <c r="E6" s="14">
         <f>Data!J12</f>
-        <v>2.4978407980884641E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="F6" s="14">
         <f>Data!K12</f>
-        <v>2.8729827765517297E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="G6" s="14">
         <f>Data!L12</f>
-        <v>3.3748384328746248E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="H6" s="14">
         <f>Data!M12</f>
-        <v>4.0441433272804259E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="I6" s="14">
         <f>Data!N12</f>
-        <v>4.9331104132684898E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="J6" s="14">
         <f>Data!O12</f>
-        <v>6.107413288259581E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="K6" s="14">
         <f>Data!P12</f>
-        <v>7.6475179414587664E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="L6" s="14">
         <f>Data!Q12</f>
-        <v>9.6484269271585182E-3</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="M6" s="14">
         <f>Data!R12</f>
-        <v>1.2216422363642575E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="N6" s="14">
         <f>Data!S12</f>
-        <v>1.5460996648309563E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="O6" s="14">
         <f>Data!T12</f>
-        <v>1.9480226863680561E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="P6" s="14">
         <f>Data!U12</f>
-        <v>2.4338997929248343E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Q6" s="14">
         <f>Data!V12</f>
-        <v>3.004229785702231E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="R6" s="14">
         <f>Data!W12</f>
-        <v>3.6510120100436014E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="S6" s="14">
         <f>Data!X12</f>
-        <v>4.3564425244181658E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="T6" s="14">
         <f>Data!Y12</f>
-        <v>5.0938562101356305E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="U6" s="14">
         <f>Data!Z12</f>
-        <v>5.8312698958530959E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="V6" s="14">
         <f>Data!AA12</f>
-        <v>6.5367004102276582E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="W6" s="14">
         <f>Data!AB12</f>
-        <v>7.1834826345690286E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="X6" s="14">
         <f>Data!AC12</f>
-        <v>7.753812627346425E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Y6" s="14">
         <f>Data!AD12</f>
-        <v>8.2396897339032035E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="Z6" s="14">
         <f>Data!AE12</f>
-        <v>8.6416127554403047E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AA6" s="14">
         <f>Data!AF12</f>
-        <v>8.9660701839070031E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AB6" s="14">
         <f>Data!AG12</f>
-        <v>9.2228697275554092E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AC6" s="14">
         <f>Data!AH12</f>
-        <v>9.4229606261253832E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AD6" s="14">
         <f>Data!AI12</f>
-        <v>9.5769710914453021E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AE6" s="14">
         <f>Data!AJ12</f>
-        <v>9.6944013789444117E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AF6" s="14">
         <f>Data!AK12</f>
-        <v>9.7832980875432171E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AG6" s="14">
         <f>Data!AL12</f>
-        <v>9.850228576983798E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AH6" s="14">
         <f>Data!AM12</f>
-        <v>9.9004141426160874E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AI6" s="14">
         <f>Data!AN12</f>
-        <v>9.9379283404624139E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AJ6" s="14">
         <f>Data!AO12</f>
-        <v>9.965906037485725E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
       <c r="AK6" s="14">
         <f>Data!AP12</f>
-        <v>9.9867356815220826E-2</v>
+        <v>1.4094947551288909E-3</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.45">

--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-brazil\InputData\trans\MPNVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-brazil\InputData\trans\MPNVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="21" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="MPNVbT-motorbikes-psgr" sheetId="17" r:id="rId19"/>
     <sheet name="MPNVbT-motorbikes-frgt" sheetId="18" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2574,7 +2574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
       <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
@@ -3566,147 +3566,147 @@
       </c>
       <c r="B4" s="33">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="14">
         <f>Data!I17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="14">
         <f>Data!J17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="14">
         <f>Data!K17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="14">
         <f>Data!L17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="14">
         <f>Data!M17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="14">
         <f>Data!N17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="14">
         <f>Data!O17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="14">
         <f>Data!P17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="14">
         <f>Data!Q17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="14">
         <f>Data!R17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="14">
         <f>Data!S17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="14">
         <f>Data!T17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="14">
         <f>Data!U17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="14">
         <f>Data!V17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="14">
         <f>Data!W17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="14">
         <f>Data!X17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="14">
         <f>Data!Y17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="14">
         <f>Data!Z17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="14">
         <f>Data!AA17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="14">
         <f>Data!AB17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="14">
         <f>Data!AC17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="14">
         <f>Data!AD17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="14">
         <f>Data!AE17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="14">
         <f>Data!AF17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="14">
         <f>Data!AG17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="14">
         <f>Data!AH17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="14">
         <f>Data!AI17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="14">
         <f>Data!AJ17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="14">
         <f>Data!AK17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="14">
         <f>Data!AL17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="14">
         <f>Data!AM17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="14">
         <f>Data!AN17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="14">
         <f>Data!AO17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="14">
         <f>Data!AP17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.45">
@@ -55278,8 +55278,8 @@
   </sheetPr>
   <dimension ref="A1:AP91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -56909,10 +56909,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="7" t="str">
         <f t="shared" si="1"/>
@@ -56921,139 +56921,139 @@
       <c r="H17" s="42"/>
       <c r="I17" s="41">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,J$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,K$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,L$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,M$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,N$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,O$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,P$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,Q$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,R$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,S$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,T$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,U$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,V$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,W$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,X$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,Y$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,Z$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AA$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AB$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AC$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AD$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AE$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AF$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AG$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AH$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AI$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AJ$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AK$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AL$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AM$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AN$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AO$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="14">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AP$7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.45">

--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645" tabRatio="871"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="21" r:id="rId1"/>
@@ -33,22 +33,12 @@
     <sheet name="MPNVbT-motorbikes-psgr" sheetId="17" r:id="rId19"/>
     <sheet name="MPNVbT-motorbikes-frgt" sheetId="18" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="617">
   <si>
     <t>MPNVbT Max Percent New Vehicles by Technology</t>
   </si>
@@ -1888,6 +1878,18 @@
   <si>
     <t>Once the base year for Brazilian case is 2015, we added two columns for the years 2015 and 2016 and set the values for these years as the same as the 2017 values</t>
   </si>
+  <si>
+    <t xml:space="preserve">The exception are: </t>
+  </si>
+  <si>
+    <t>LDV-frgt. For Brazil, gasoline vehicles sales are set as zero. Once the vast majority of vehicles in Brazil is powered by diesel.</t>
+  </si>
+  <si>
+    <t>Med &amp; Heavy freight trucks powered by natural gas are set as zero. Once it is not expected the introduction of this technology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDV-psgr, buses powered by gasoline and plug-in are set as zero also, following the same logic. </t>
+  </si>
 </sst>
 </file>
 
@@ -2572,10 +2574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3085,6 +3087,26 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
         <v>612</v>
       </c>
     </row>
@@ -3105,7 +3127,7 @@
   <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4319,7 +4341,7 @@
   <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4792,135 +4814,135 @@
       </c>
       <c r="E4" s="14">
         <f>Data!J24</f>
-        <v>6.117389182128008E-3</v>
+        <v>0</v>
       </c>
       <c r="F4" s="14">
         <f>Data!K24</f>
-        <v>1.2234778364256016E-2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="14">
         <f>Data!L24</f>
-        <v>1.8352167546384024E-2</v>
+        <v>0</v>
       </c>
       <c r="H4" s="14">
         <f>Data!M24</f>
-        <v>2.4469556728512032E-2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="14">
         <f>Data!N24</f>
-        <v>3.0586945910641816E-2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="14">
         <f>Data!O24</f>
-        <v>3.6704335092769824E-2</v>
+        <v>0</v>
       </c>
       <c r="K4" s="14">
         <f>Data!P24</f>
-        <v>4.2821724274897832E-2</v>
+        <v>0</v>
       </c>
       <c r="L4" s="14">
         <f>Data!Q24</f>
-        <v>4.893911345702584E-2</v>
+        <v>0</v>
       </c>
       <c r="M4" s="14">
         <f>Data!R24</f>
-        <v>5.5056502639153848E-2</v>
+        <v>0</v>
       </c>
       <c r="N4" s="14">
         <f>Data!S24</f>
-        <v>6.1173891821281856E-2</v>
+        <v>0</v>
       </c>
       <c r="O4" s="14">
         <f>Data!T24</f>
-        <v>6.7291281003409864E-2</v>
+        <v>0</v>
       </c>
       <c r="P4" s="14">
         <f>Data!U24</f>
-        <v>7.3408670185537872E-2</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="14">
         <f>Data!V24</f>
-        <v>7.952605936766588E-2</v>
+        <v>0</v>
       </c>
       <c r="R4" s="14">
         <f>Data!W24</f>
-        <v>8.5643448549793888E-2</v>
+        <v>0</v>
       </c>
       <c r="S4" s="14">
         <f>Data!X24</f>
-        <v>9.1760837731921896E-2</v>
+        <v>0</v>
       </c>
       <c r="T4" s="14">
         <f>Data!Y24</f>
-        <v>9.787822691405168E-2</v>
+        <v>0</v>
       </c>
       <c r="U4" s="14">
         <f>Data!Z24</f>
-        <v>0.10399561609617969</v>
+        <v>0</v>
       </c>
       <c r="V4" s="14">
         <f>Data!AA24</f>
-        <v>0.1101130052783077</v>
+        <v>0</v>
       </c>
       <c r="W4" s="14">
         <f>Data!AB24</f>
-        <v>0.1162303944604357</v>
+        <v>0</v>
       </c>
       <c r="X4" s="14">
         <f>Data!AC24</f>
-        <v>0.12234778364256371</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="14">
         <f>Data!AD24</f>
-        <v>0.12846517282469172</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="14">
         <f>Data!AE24</f>
-        <v>0.13458256200681973</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="14">
         <f>Data!AF24</f>
-        <v>0.14069995118894774</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="14">
         <f>Data!AG24</f>
-        <v>0.14681734037107574</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="14">
         <f>Data!AH24</f>
-        <v>0.15293472955320375</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="14">
         <f>Data!AI24</f>
-        <v>0.15905211873533354</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="14">
         <f>Data!AJ24</f>
-        <v>0.16516950791746154</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="14">
         <f>Data!AK24</f>
-        <v>0.17128689709958955</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="14">
         <f>Data!AL24</f>
-        <v>0.17740428628171756</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="14">
         <f>Data!AM24</f>
-        <v>0.18352167546384557</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="14">
         <f>Data!AN24</f>
-        <v>0.18963906464597358</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="14">
         <f>Data!AO24</f>
-        <v>0.19575645382810158</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="14">
         <f>Data!AP24</f>
-        <v>0.20187384301022959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.45">
@@ -5090,135 +5112,135 @@
       </c>
       <c r="E6" s="14">
         <f>Data!J26</f>
-        <v>4.2648579788926686E-4</v>
+        <v>0</v>
       </c>
       <c r="F6" s="14">
         <f>Data!K26</f>
-        <v>5.7349118008516366E-4</v>
+        <v>0</v>
       </c>
       <c r="G6" s="14">
         <f>Data!L26</f>
-        <v>7.7015134290440946E-4</v>
+        <v>0</v>
       </c>
       <c r="H6" s="14">
         <f>Data!M26</f>
-        <v>1.0324291669185613E-3</v>
+        <v>0</v>
       </c>
       <c r="I6" s="14">
         <f>Data!N26</f>
-        <v>1.3807851327600239E-3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="14">
         <f>Data!O26</f>
-        <v>1.8409544895965047E-3</v>
+        <v>0</v>
       </c>
       <c r="K6" s="14">
         <f>Data!P26</f>
-        <v>2.4444691218236604E-3</v>
+        <v>0</v>
       </c>
       <c r="L6" s="14">
         <f>Data!Q26</f>
-        <v>3.2285572992836495E-3</v>
+        <v>0</v>
       </c>
       <c r="M6" s="14">
         <f>Data!R26</f>
-        <v>4.2348673693112402E-3</v>
+        <v>0</v>
       </c>
       <c r="N6" s="14">
         <f>Data!S26</f>
-        <v>5.5063056784397258E-3</v>
+        <v>0</v>
       </c>
       <c r="O6" s="14">
         <f>Data!T26</f>
-        <v>7.0813052995545534E-3</v>
+        <v>0</v>
       </c>
       <c r="P6" s="14">
         <f>Data!U26</f>
-        <v>8.985292425767618E-3</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="14">
         <f>Data!V26</f>
-        <v>1.1220221689335336E-2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="14">
         <f>Data!W26</f>
-        <v>1.375474124580576E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="14">
         <f>Data!X26</f>
-        <v>1.6519083503718002E-2</v>
+        <v>0</v>
       </c>
       <c r="T6" s="14">
         <f>Data!Y26</f>
-        <v>1.9408756932147605E-2</v>
+        <v>0</v>
       </c>
       <c r="U6" s="14">
         <f>Data!Z26</f>
-        <v>2.2298430360577208E-2</v>
+        <v>0</v>
       </c>
       <c r="V6" s="14">
         <f>Data!AA26</f>
-        <v>2.5062772618489448E-2</v>
+        <v>0</v>
       </c>
       <c r="W6" s="14">
         <f>Data!AB26</f>
-        <v>2.7597292174959872E-2</v>
+        <v>0</v>
       </c>
       <c r="X6" s="14">
         <f>Data!AC26</f>
-        <v>2.9832221438527588E-2</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="14">
         <f>Data!AD26</f>
-        <v>3.1736208564740652E-2</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="14">
         <f>Data!AE26</f>
-        <v>3.3311208185855486E-2</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="14">
         <f>Data!AF26</f>
-        <v>3.4582646494983972E-2</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="14">
         <f>Data!AG26</f>
-        <v>3.5588956565011563E-2</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="14">
         <f>Data!AH26</f>
-        <v>3.637304474247155E-2</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="14">
         <f>Data!AI26</f>
-        <v>3.6976559374698709E-2</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="14">
         <f>Data!AJ26</f>
-        <v>3.7436728731535189E-2</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="14">
         <f>Data!AK26</f>
-        <v>3.7785084697376646E-2</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="14">
         <f>Data!AL26</f>
-        <v>3.80473625213908E-2</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="14">
         <f>Data!AM26</f>
-        <v>3.8244022684210045E-2</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="14">
         <f>Data!AN26</f>
-        <v>3.8391028066405944E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="14">
         <f>Data!AO26</f>
-        <v>3.8500663145389129E-2</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="14">
         <f>Data!AP26</f>
-        <v>3.8582287435880762E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.45">
@@ -5844,147 +5866,147 @@
       </c>
       <c r="B3" s="57">
         <f t="shared" ref="B3:B8" si="0">D3</f>
-        <v>6.75152925582846E-3</v>
+        <v>0</v>
       </c>
       <c r="C3" s="57">
         <f t="shared" ref="C3:C8" si="1">D3</f>
-        <v>6.75152925582846E-3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="14">
         <f>Data!I30</f>
-        <v>6.75152925582846E-3</v>
+        <v>0</v>
       </c>
       <c r="E3" s="14">
         <f>Data!J30</f>
-        <v>6.677350591225901E-3</v>
+        <v>0</v>
       </c>
       <c r="F3" s="14">
         <f>Data!K30</f>
-        <v>6.6517819486247905E-3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="14">
         <f>Data!L30</f>
-        <v>6.6175768512202549E-3</v>
+        <v>0</v>
       </c>
       <c r="H3" s="14">
         <f>Data!M30</f>
-        <v>6.5719588755771682E-3</v>
+        <v>0</v>
       </c>
       <c r="I3" s="14">
         <f>Data!N30</f>
-        <v>6.5113693307896452E-3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="14">
         <f>Data!O30</f>
-        <v>6.4313320855869079E-3</v>
+        <v>0</v>
       </c>
       <c r="K3" s="14">
         <f>Data!P30</f>
-        <v>6.3263628000719456E-3</v>
+        <v>0</v>
       </c>
       <c r="L3" s="14">
         <f>Data!Q30</f>
-        <v>6.1899863621636018E-3</v>
+        <v>0</v>
       </c>
       <c r="M3" s="14">
         <f>Data!R30</f>
-        <v>6.0149588758083928E-3</v>
+        <v>0</v>
       </c>
       <c r="N3" s="14">
         <f>Data!S30</f>
-        <v>5.7938176411823951E-3</v>
+        <v>0</v>
       </c>
       <c r="O3" s="14">
         <f>Data!T30</f>
-        <v>5.5198779948400136E-3</v>
+        <v>0</v>
       </c>
       <c r="P3" s="14">
         <f>Data!U30</f>
-        <v>5.1887175596228505E-3</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="14">
         <f>Data!V30</f>
-        <v>4.7999963663894066E-3</v>
+        <v>0</v>
       </c>
       <c r="R3" s="14">
         <f>Data!W30</f>
-        <v>4.3591674406935968E-3</v>
+        <v>0</v>
       </c>
       <c r="S3" s="14">
         <f>Data!X30</f>
-        <v>3.8783654580456478E-3</v>
+        <v>0</v>
       </c>
       <c r="T3" s="14">
         <f>Data!Y30</f>
-        <v>3.37576462791423E-3</v>
+        <v>0</v>
       </c>
       <c r="U3" s="14">
         <f>Data!Z30</f>
-        <v>2.8731637977828122E-3</v>
+        <v>0</v>
       </c>
       <c r="V3" s="14">
         <f>Data!AA30</f>
-        <v>2.3923618151348632E-3</v>
+        <v>0</v>
       </c>
       <c r="W3" s="14">
         <f>Data!AB30</f>
-        <v>1.9515328894390534E-3</v>
+        <v>0</v>
       </c>
       <c r="X3" s="14">
         <f>Data!AC30</f>
-        <v>1.5628116962056095E-3</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="14">
         <f>Data!AD30</f>
-        <v>1.2316512609884464E-3</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="14">
         <f>Data!AE30</f>
-        <v>9.5771161464606406E-4</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="14">
         <f>Data!AF30</f>
-        <v>7.3657038002006726E-4</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="14">
         <f>Data!AG30</f>
-        <v>5.615428936648582E-4</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="14">
         <f>Data!AH30</f>
-        <v>4.2516645575651352E-4</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="14">
         <f>Data!AI30</f>
-        <v>3.2019717024155212E-4</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="14">
         <f>Data!AJ30</f>
-        <v>2.4015992503881485E-4</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="14">
         <f>Data!AK30</f>
-        <v>1.7957038025129182E-4</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="14">
         <f>Data!AL30</f>
-        <v>1.3395240460820513E-4</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="14">
         <f>Data!AM30</f>
-        <v>9.9747307203669477E-5</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="14">
         <f>Data!AN30</f>
-        <v>7.4178664602558148E-5</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="14">
         <f>Data!AO30</f>
-        <v>5.5109837943340817E-5</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="14">
         <f>Data!AP30</f>
-        <v>4.0912927054943815E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.45">
@@ -5993,147 +6015,147 @@
       </c>
       <c r="B4" s="57">
         <f t="shared" si="0"/>
-        <v>0.16062618952794017</v>
+        <v>0</v>
       </c>
       <c r="C4" s="57">
         <f t="shared" si="1"/>
-        <v>0.16062618952794017</v>
+        <v>0</v>
       </c>
       <c r="D4" s="14">
         <f>Data!I31</f>
-        <v>0.16062618952794017</v>
+        <v>0</v>
       </c>
       <c r="E4" s="14">
         <f>Data!J31</f>
-        <v>0.16187611842134331</v>
+        <v>0</v>
       </c>
       <c r="F4" s="14">
         <f>Data!K31</f>
-        <v>0.163126047314746</v>
+        <v>0</v>
       </c>
       <c r="G4" s="14">
         <f>Data!L31</f>
-        <v>0.1643759762081487</v>
+        <v>0</v>
       </c>
       <c r="H4" s="14">
         <f>Data!M31</f>
-        <v>0.1656259051015514</v>
+        <v>0</v>
       </c>
       <c r="I4" s="14">
         <f>Data!N31</f>
-        <v>0.16687583399495409</v>
+        <v>0</v>
       </c>
       <c r="J4" s="14">
         <f>Data!O31</f>
-        <v>0.16812576288835679</v>
+        <v>0</v>
       </c>
       <c r="K4" s="14">
         <f>Data!P31</f>
-        <v>0.16937569178175949</v>
+        <v>0</v>
       </c>
       <c r="L4" s="14">
         <f>Data!Q31</f>
-        <v>0.17062562067516218</v>
+        <v>0</v>
       </c>
       <c r="M4" s="14">
         <f>Data!R31</f>
-        <v>0.17187554956856488</v>
+        <v>0</v>
       </c>
       <c r="N4" s="14">
         <f>Data!S31</f>
-        <v>0.17312547846196757</v>
+        <v>0</v>
       </c>
       <c r="O4" s="14">
         <f>Data!T31</f>
-        <v>0.17437540735537027</v>
+        <v>0</v>
       </c>
       <c r="P4" s="14">
         <f>Data!U31</f>
-        <v>0.17562533624877297</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="14">
         <f>Data!V31</f>
-        <v>0.17687526514217566</v>
+        <v>0</v>
       </c>
       <c r="R4" s="14">
         <f>Data!W31</f>
-        <v>0.17812519403557836</v>
+        <v>0</v>
       </c>
       <c r="S4" s="14">
         <f>Data!X31</f>
-        <v>0.17937512292898106</v>
+        <v>0</v>
       </c>
       <c r="T4" s="14">
         <f>Data!Y31</f>
-        <v>0.18062505182238375</v>
+        <v>0</v>
       </c>
       <c r="U4" s="14">
         <f>Data!Z31</f>
-        <v>0.18187498071578645</v>
+        <v>0</v>
       </c>
       <c r="V4" s="14">
         <f>Data!AA31</f>
-        <v>0.18312490960918915</v>
+        <v>0</v>
       </c>
       <c r="W4" s="14">
         <f>Data!AB31</f>
-        <v>0.18437483850259184</v>
+        <v>0</v>
       </c>
       <c r="X4" s="14">
         <f>Data!AC31</f>
-        <v>0.18562476739599454</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="14">
         <f>Data!AD31</f>
-        <v>0.18687469628939768</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="14">
         <f>Data!AE31</f>
-        <v>0.18812462518280038</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="14">
         <f>Data!AF31</f>
-        <v>0.18937455407620307</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="14">
         <f>Data!AG31</f>
-        <v>0.19062448296960577</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="14">
         <f>Data!AH31</f>
-        <v>0.19187441186300846</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="14">
         <f>Data!AI31</f>
-        <v>0.19312434075641116</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="14">
         <f>Data!AJ31</f>
-        <v>0.19437426964981386</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="14">
         <f>Data!AK31</f>
-        <v>0.19562419854321655</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="14">
         <f>Data!AL31</f>
-        <v>0.19687412743661925</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="14">
         <f>Data!AM31</f>
-        <v>0.19812405633002195</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="14">
         <f>Data!AN31</f>
-        <v>0.19937398522342464</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="14">
         <f>Data!AO31</f>
-        <v>0.20062391411682734</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="14">
         <f>Data!AP31</f>
-        <v>0.20187384301023004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.45">
@@ -55066,8 +55088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -55278,8 +55300,8 @@
   </sheetPr>
   <dimension ref="A1:AP91"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -57996,12 +58018,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="41">
-        <f>E31</f>
-        <v>0.20187384301022987</v>
+        <v>0</v>
       </c>
       <c r="F24" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="41">
@@ -58010,135 +58031,135 @@
       </c>
       <c r="J24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,J$7))</f>
-        <v>6.117389182128008E-3</v>
+        <v>0</v>
       </c>
       <c r="K24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,K$7))</f>
-        <v>1.2234778364256016E-2</v>
+        <v>0</v>
       </c>
       <c r="L24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,L$7))</f>
-        <v>1.8352167546384024E-2</v>
+        <v>0</v>
       </c>
       <c r="M24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,M$7))</f>
-        <v>2.4469556728512032E-2</v>
+        <v>0</v>
       </c>
       <c r="N24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,N$7))</f>
-        <v>3.0586945910641816E-2</v>
+        <v>0</v>
       </c>
       <c r="O24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,O$7))</f>
-        <v>3.6704335092769824E-2</v>
+        <v>0</v>
       </c>
       <c r="P24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,P$7))</f>
-        <v>4.2821724274897832E-2</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,Q$7))</f>
-        <v>4.893911345702584E-2</v>
+        <v>0</v>
       </c>
       <c r="R24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,R$7))</f>
-        <v>5.5056502639153848E-2</v>
+        <v>0</v>
       </c>
       <c r="S24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,S$7))</f>
-        <v>6.1173891821281856E-2</v>
+        <v>0</v>
       </c>
       <c r="T24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,T$7))</f>
-        <v>6.7291281003409864E-2</v>
+        <v>0</v>
       </c>
       <c r="U24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,U$7))</f>
-        <v>7.3408670185537872E-2</v>
+        <v>0</v>
       </c>
       <c r="V24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,V$7))</f>
-        <v>7.952605936766588E-2</v>
+        <v>0</v>
       </c>
       <c r="W24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,W$7))</f>
-        <v>8.5643448549793888E-2</v>
+        <v>0</v>
       </c>
       <c r="X24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,X$7))</f>
-        <v>9.1760837731921896E-2</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,Y$7))</f>
-        <v>9.787822691405168E-2</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,Z$7))</f>
-        <v>0.10399561609617969</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AA$7))</f>
-        <v>0.1101130052783077</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AB$7))</f>
-        <v>0.1162303944604357</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AC$7))</f>
-        <v>0.12234778364256371</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AD$7))</f>
-        <v>0.12846517282469172</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AE$7))</f>
-        <v>0.13458256200681973</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AF$7))</f>
-        <v>0.14069995118894774</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AG$7))</f>
-        <v>0.14681734037107574</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AH$7))</f>
-        <v>0.15293472955320375</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AI$7))</f>
-        <v>0.15905211873533354</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AJ$7))</f>
-        <v>0.16516950791746154</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AK$7))</f>
-        <v>0.17128689709958955</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AL$7))</f>
-        <v>0.17740428628171756</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AM$7))</f>
-        <v>0.18352167546384557</v>
+        <v>0</v>
       </c>
       <c r="AN24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AN$7))</f>
-        <v>0.18963906464597358</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AO$7))</f>
-        <v>0.19575645382810158</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="14">
         <f>IF($F24="s-curve",$D24+($E24-$D24)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D24:$E24,$D$7:$E$7,AP$7))</f>
-        <v>0.20187384301022959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.45">
@@ -58302,12 +58323,11 @@
         <v>0</v>
       </c>
       <c r="E26" s="41">
-        <f>E33</f>
-        <v>3.881751386429521E-2</v>
+        <v>0</v>
       </c>
       <c r="F26" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H26" s="42"/>
       <c r="I26" s="41">
@@ -58316,135 +58336,135 @@
       </c>
       <c r="J26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,J$7))</f>
-        <v>4.2648579788926686E-4</v>
+        <v>0</v>
       </c>
       <c r="K26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,K$7))</f>
-        <v>5.7349118008516366E-4</v>
+        <v>0</v>
       </c>
       <c r="L26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,L$7))</f>
-        <v>7.7015134290440946E-4</v>
+        <v>0</v>
       </c>
       <c r="M26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,M$7))</f>
-        <v>1.0324291669185613E-3</v>
+        <v>0</v>
       </c>
       <c r="N26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,N$7))</f>
-        <v>1.3807851327600239E-3</v>
+        <v>0</v>
       </c>
       <c r="O26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,O$7))</f>
-        <v>1.8409544895965047E-3</v>
+        <v>0</v>
       </c>
       <c r="P26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,P$7))</f>
-        <v>2.4444691218236604E-3</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,Q$7))</f>
-        <v>3.2285572992836495E-3</v>
+        <v>0</v>
       </c>
       <c r="R26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,R$7))</f>
-        <v>4.2348673693112402E-3</v>
+        <v>0</v>
       </c>
       <c r="S26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,S$7))</f>
-        <v>5.5063056784397258E-3</v>
+        <v>0</v>
       </c>
       <c r="T26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,T$7))</f>
-        <v>7.0813052995545534E-3</v>
+        <v>0</v>
       </c>
       <c r="U26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,U$7))</f>
-        <v>8.985292425767618E-3</v>
+        <v>0</v>
       </c>
       <c r="V26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,V$7))</f>
-        <v>1.1220221689335336E-2</v>
+        <v>0</v>
       </c>
       <c r="W26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,W$7))</f>
-        <v>1.375474124580576E-2</v>
+        <v>0</v>
       </c>
       <c r="X26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,X$7))</f>
-        <v>1.6519083503718002E-2</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,Y$7))</f>
-        <v>1.9408756932147605E-2</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,Z$7))</f>
-        <v>2.2298430360577208E-2</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AA$7))</f>
-        <v>2.5062772618489448E-2</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AB$7))</f>
-        <v>2.7597292174959872E-2</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AC$7))</f>
-        <v>2.9832221438527588E-2</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AD$7))</f>
-        <v>3.1736208564740652E-2</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AE$7))</f>
-        <v>3.3311208185855486E-2</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AF$7))</f>
-        <v>3.4582646494983972E-2</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AG$7))</f>
-        <v>3.5588956565011563E-2</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AH$7))</f>
-        <v>3.637304474247155E-2</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AI$7))</f>
-        <v>3.6976559374698709E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AJ$7))</f>
-        <v>3.7436728731535189E-2</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AK$7))</f>
-        <v>3.7785084697376646E-2</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AL$7))</f>
-        <v>3.80473625213908E-2</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AM$7))</f>
-        <v>3.8244022684210045E-2</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AN$7))</f>
-        <v>3.8391028066405944E-2</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AO$7))</f>
-        <v>3.8500663145389129E-2</v>
+        <v>0</v>
       </c>
       <c r="AP26" s="14">
         <f>IF($F26="s-curve",$D26+($E26-$D26)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D26:$E26,$D$7:$E$7,AP$7))</f>
-        <v>3.8582287435880762E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.45">
@@ -58918,152 +58938,151 @@
         <v>2</v>
       </c>
       <c r="D30" s="41">
-        <f>SUM(INDEX('AEO 50'!$214:$214,MATCH(D$7,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$225:$225,MATCH(D$7,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$236:$236,MATCH(D$7,'AEO 50'!$1:$1,0)))/INDEX('AEO 50'!$243:$243,MATCH(D$7,'AEO 50'!$1:$1,0))</f>
-        <v>6.75152925582846E-3</v>
+        <v>0</v>
       </c>
       <c r="E30" s="41">
         <v>0</v>
       </c>
       <c r="F30" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="41">
         <f t="shared" si="5"/>
-        <v>6.75152925582846E-3</v>
+        <v>0</v>
       </c>
       <c r="J30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,J$7))</f>
-        <v>6.677350591225901E-3</v>
+        <v>0</v>
       </c>
       <c r="K30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,K$7))</f>
-        <v>6.6517819486247905E-3</v>
+        <v>0</v>
       </c>
       <c r="L30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,L$7))</f>
-        <v>6.6175768512202549E-3</v>
+        <v>0</v>
       </c>
       <c r="M30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,M$7))</f>
-        <v>6.5719588755771682E-3</v>
+        <v>0</v>
       </c>
       <c r="N30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,N$7))</f>
-        <v>6.5113693307896452E-3</v>
+        <v>0</v>
       </c>
       <c r="O30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,O$7))</f>
-        <v>6.4313320855869079E-3</v>
+        <v>0</v>
       </c>
       <c r="P30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,P$7))</f>
-        <v>6.3263628000719456E-3</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,Q$7))</f>
-        <v>6.1899863621636018E-3</v>
+        <v>0</v>
       </c>
       <c r="R30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,R$7))</f>
-        <v>6.0149588758083928E-3</v>
+        <v>0</v>
       </c>
       <c r="S30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,S$7))</f>
-        <v>5.7938176411823951E-3</v>
+        <v>0</v>
       </c>
       <c r="T30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,T$7))</f>
-        <v>5.5198779948400136E-3</v>
+        <v>0</v>
       </c>
       <c r="U30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,U$7))</f>
-        <v>5.1887175596228505E-3</v>
+        <v>0</v>
       </c>
       <c r="V30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,V$7))</f>
-        <v>4.7999963663894066E-3</v>
+        <v>0</v>
       </c>
       <c r="W30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,W$7))</f>
-        <v>4.3591674406935968E-3</v>
+        <v>0</v>
       </c>
       <c r="X30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,X$7))</f>
-        <v>3.8783654580456478E-3</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,Y$7))</f>
-        <v>3.37576462791423E-3</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,Z$7))</f>
-        <v>2.8731637977828122E-3</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AA$7))</f>
-        <v>2.3923618151348632E-3</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AB$7))</f>
-        <v>1.9515328894390534E-3</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AC$7))</f>
-        <v>1.5628116962056095E-3</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AD$7))</f>
-        <v>1.2316512609884464E-3</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AE$7))</f>
-        <v>9.5771161464606406E-4</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AF$7))</f>
-        <v>7.3657038002006726E-4</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AG$7))</f>
-        <v>5.615428936648582E-4</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AH$7))</f>
-        <v>4.2516645575651352E-4</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AI$7))</f>
-        <v>3.2019717024155212E-4</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AJ$7))</f>
-        <v>2.4015992503881485E-4</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AK$7))</f>
-        <v>1.7957038025129182E-4</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AL$7))</f>
-        <v>1.3395240460820513E-4</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AM$7))</f>
-        <v>9.9747307203669477E-5</v>
+        <v>0</v>
       </c>
       <c r="AN30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AN$7))</f>
-        <v>7.4178664602558148E-5</v>
+        <v>0</v>
       </c>
       <c r="AO30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AO$7))</f>
-        <v>5.5109837943340817E-5</v>
+        <v>0</v>
       </c>
       <c r="AP30" s="14">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D30:$E30,$D$7:$E$7,AP$7))</f>
-        <v>4.0912927054943815E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.45">
@@ -59071,153 +59090,151 @@
         <v>3</v>
       </c>
       <c r="D31" s="41">
-        <f>SUM(INDEX('AEO 50'!$212:$212,MATCH(D$7,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$223:$223,MATCH(D$7,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$234:$234,MATCH(D$7,'AEO 50'!$1:$1,0)))/INDEX('AEO 50'!$243:$243,MATCH(D$7,'AEO 50'!$1:$1,0))</f>
-        <v>0.16062618952794017</v>
+        <v>0</v>
       </c>
       <c r="E31" s="41">
-        <f>SUM(INDEX('AEO 50'!$212:$212,MATCH(E$7,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$223:$223,MATCH(E$7,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$234:$234,MATCH(E$7,'AEO 50'!$1:$1,0)))/INDEX('AEO 50'!$243:$243,MATCH(E$7,'AEO 50'!$1:$1,0))</f>
-        <v>0.20187384301022987</v>
+        <v>0</v>
       </c>
       <c r="F31" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="41">
         <f t="shared" si="5"/>
-        <v>0.16062618952794017</v>
+        <v>0</v>
       </c>
       <c r="J31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,J$7))</f>
-        <v>0.16187611842134331</v>
+        <v>0</v>
       </c>
       <c r="K31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,K$7))</f>
-        <v>0.163126047314746</v>
+        <v>0</v>
       </c>
       <c r="L31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,L$7))</f>
-        <v>0.1643759762081487</v>
+        <v>0</v>
       </c>
       <c r="M31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,M$7))</f>
-        <v>0.1656259051015514</v>
+        <v>0</v>
       </c>
       <c r="N31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,N$7))</f>
-        <v>0.16687583399495409</v>
+        <v>0</v>
       </c>
       <c r="O31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,O$7))</f>
-        <v>0.16812576288835679</v>
+        <v>0</v>
       </c>
       <c r="P31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,P$7))</f>
-        <v>0.16937569178175949</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,Q$7))</f>
-        <v>0.17062562067516218</v>
+        <v>0</v>
       </c>
       <c r="R31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,R$7))</f>
-        <v>0.17187554956856488</v>
+        <v>0</v>
       </c>
       <c r="S31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,S$7))</f>
-        <v>0.17312547846196757</v>
+        <v>0</v>
       </c>
       <c r="T31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,T$7))</f>
-        <v>0.17437540735537027</v>
+        <v>0</v>
       </c>
       <c r="U31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,U$7))</f>
-        <v>0.17562533624877297</v>
+        <v>0</v>
       </c>
       <c r="V31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,V$7))</f>
-        <v>0.17687526514217566</v>
+        <v>0</v>
       </c>
       <c r="W31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,W$7))</f>
-        <v>0.17812519403557836</v>
+        <v>0</v>
       </c>
       <c r="X31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,X$7))</f>
-        <v>0.17937512292898106</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,Y$7))</f>
-        <v>0.18062505182238375</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,Z$7))</f>
-        <v>0.18187498071578645</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,AA$7))</f>
-        <v>0.18312490960918915</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,AB$7))</f>
-        <v>0.18437483850259184</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,AC$7))</f>
-        <v>0.18562476739599454</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,AD$7))</f>
-        <v>0.18687469628939768</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,AE$7))</f>
-        <v>0.18812462518280038</v>
+        <v>0</v>
       </c>
       <c r="AF31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,AF$7))</f>
-        <v>0.18937455407620307</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,AG$7))</f>
-        <v>0.19062448296960577</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,AH$7))</f>
-        <v>0.19187441186300846</v>
+        <v>0</v>
       </c>
       <c r="AI31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,AI$7))</f>
-        <v>0.19312434075641116</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,AJ$7))</f>
-        <v>0.19437426964981386</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,AK$7))</f>
-        <v>0.19562419854321655</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,AL$7))</f>
-        <v>0.19687412743661925</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,AM$7))</f>
-        <v>0.19812405633002195</v>
+        <v>0</v>
       </c>
       <c r="AN31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,AN$7))</f>
-        <v>0.19937398522342464</v>
+        <v>0</v>
       </c>
       <c r="AO31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,AO$7))</f>
-        <v>0.20062391411682734</v>
+        <v>0</v>
       </c>
       <c r="AP31" s="14">
         <f>IF($F31="s-curve",$D31+($E31-$D31)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D31:$E31,$D$7:$E$7,AP$7))</f>
-        <v>0.20187384301023004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.45">

--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -33,12 +33,12 @@
     <sheet name="MPNVbT-motorbikes-psgr" sheetId="17" r:id="rId19"/>
     <sheet name="MPNVbT-motorbikes-frgt" sheetId="18" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="624">
   <si>
     <t>MPNVbT Max Percent New Vehicles by Technology</t>
   </si>
@@ -1630,18 +1630,6 @@
     <t>LDVs (battery electric vehicles in the Last Year)</t>
   </si>
   <si>
-    <t>Bloomberg New Energy Finance</t>
-  </si>
-  <si>
-    <t>The Electric-Car Boom Is So Real Even Oil Companies Say It’s Coming</t>
-  </si>
-  <si>
-    <t>https://www.bloomberg.com/news/articles/2017-04-25/electric-car-boom-seen-triggering-peak-oil-demand-in-2030s</t>
-  </si>
-  <si>
-    <t>First figure</t>
-  </si>
-  <si>
     <t>freight HDVs, Last Year passenger HDVs</t>
   </si>
   <si>
@@ -1879,9 +1867,6 @@
     <t>Once the base year for Brazilian case is 2015, we added two columns for the years 2015 and 2016 and set the values for these years as the same as the 2017 values</t>
   </si>
   <si>
-    <t xml:space="preserve">The exception are: </t>
-  </si>
-  <si>
     <t>LDV-frgt. For Brazil, gasoline vehicles sales are set as zero. Once the vast majority of vehicles in Brazil is powered by diesel.</t>
   </si>
   <si>
@@ -1889,6 +1874,42 @@
   </si>
   <si>
     <t xml:space="preserve">HDV-psgr, buses powered by gasoline and plug-in are set as zero also, following the same logic. </t>
+  </si>
+  <si>
+    <t>Med &amp; Heavy freight trucks BEV's max sales are assumed as half of the US market, so does the plug-in technology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The exceptions are: </t>
+  </si>
+  <si>
+    <t>LDV-psgr - BEV's max sales in 2050 is assumed to be 30%, due to the importance of biofuels.</t>
+  </si>
+  <si>
+    <t>Max Percent New Passenger LDVs by Technology</t>
+  </si>
+  <si>
+    <t>We calibrate the value for passenger LDVs so that</t>
+  </si>
+  <si>
+    <t>the percentage of Evs in the fleet is within 5% of the</t>
+  </si>
+  <si>
+    <t>values modeled in the MCTIC report cited in the about</t>
+  </si>
+  <si>
+    <t>tab. This requires a cap of 25% EV sales in 2050.</t>
+  </si>
+  <si>
+    <t>Brazilian Ministry of Science, Technology, Innovation and Communication (MCTIC)</t>
+  </si>
+  <si>
+    <t>Report: "Greenhouse gas mitigation options in key sectors in Brazil"</t>
+  </si>
+  <si>
+    <t>Version: "Sector modeling of low carbon options for the transport sector"</t>
+  </si>
+  <si>
+    <t>https://www.mctic.gov.br/mctic/export/sites/institucional/ciencia/SEPED/clima/arquivos/projeto_opcoes_mitigacao/publicacoes/Setor-Transportes.pdf</t>
   </si>
 </sst>
 </file>
@@ -2250,7 +2271,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -2260,6 +2280,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2574,10 +2597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2630,7 +2653,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>530</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -2640,22 +2663,22 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>531</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B14" s="54" t="s">
-        <v>532</v>
+      <c r="B14" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>533</v>
+      <c r="B15" s="60" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="52" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
@@ -2680,27 +2703,27 @@
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="52" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B25" s="55" t="s">
-        <v>537</v>
+      <c r="B25" s="54" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" s="52" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.45">
@@ -2710,17 +2733,17 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -2730,27 +2753,27 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -2758,43 +2781,43 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="52" t="s">
-        <v>554</v>
-      </c>
-      <c r="B50" s="56"/>
+        <v>550</v>
+      </c>
+      <c r="B50" s="55"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B52" s="52" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -2802,287 +2825,287 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B65" s="52" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B83" s="52" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B86" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B100" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B112" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B114" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B115" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B116" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B117" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B118" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B120" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
@@ -3092,30 +3115,41 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>612</v>
+        <v>611</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>608</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId1" display="https://www.bloomberg.com/news/articles/2017-04-25/electric-car-boom-seen-triggering-peak-oil-demand-in-2030s"/>
+    <hyperlink ref="B15" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3141,10 +3175,10 @@
       <c r="A1" s="48" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="58">
+      <c r="B1" s="57">
         <v>2015</v>
       </c>
-      <c r="C1" s="58">
+      <c r="C1" s="57">
         <v>2016</v>
       </c>
       <c r="D1" s="14">
@@ -3288,11 +3322,11 @@
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="56">
         <f>D2</f>
         <v>1.4550689995755717E-3</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="56">
         <f>D2</f>
         <v>1.4550689995755717E-3</v>
       </c>
@@ -3302,146 +3336,146 @@
       </c>
       <c r="E2" s="14">
         <f>Data!J15</f>
-        <v>1.2426024870546861E-2</v>
+        <v>4.185817897601975E-3</v>
       </c>
       <c r="F2" s="14">
         <f>Data!K15</f>
-        <v>1.6207603457332999E-2</v>
+        <v>5.127079687378207E-3</v>
       </c>
       <c r="G2" s="14">
         <f>Data!L15</f>
-        <v>2.1266505719837323E-2</v>
+        <v>6.3862764192791919E-3</v>
       </c>
       <c r="H2" s="14">
         <f>Data!M15</f>
-        <v>2.8013362115605827E-2</v>
+        <v>8.0656169329564303E-3</v>
       </c>
       <c r="I2" s="14">
         <f>Data!N15</f>
-        <v>3.6974499737423103E-2</v>
+        <v>1.0296107782945969E-2</v>
       </c>
       <c r="J2" s="14">
         <f>Data!O15</f>
-        <v>4.8811934259303871E-2</v>
+        <v>1.3242529376128787E-2</v>
       </c>
       <c r="K2" s="14">
         <f>Data!P15</f>
-        <v>6.4336794478374301E-2</v>
+        <v>1.710677743562693E-2</v>
       </c>
       <c r="L2" s="14">
         <f>Data!Q15</f>
-        <v>8.4506743481218519E-2</v>
+        <v>2.2127221110776751E-2</v>
       </c>
       <c r="M2" s="14">
         <f>Data!R15</f>
-        <v>0.1103931467927145</v>
+        <v>2.8570530896004826E-2</v>
       </c>
       <c r="N2" s="14">
         <f>Data!S15</f>
-        <v>0.14309973081296989</v>
+        <v>3.6711432137604041E-2</v>
       </c>
       <c r="O2" s="14">
         <f>Data!T15</f>
-        <v>0.18361515108150994</v>
+        <v>4.6796008226742694E-2</v>
       </c>
       <c r="P2" s="14">
         <f>Data!U15</f>
-        <v>0.23259347308885731</v>
+        <v>5.8987060713120543E-2</v>
       </c>
       <c r="Q2" s="14">
         <f>Data!V15</f>
-        <v>0.29008497795652938</v>
+        <v>7.3297104925282325E-2</v>
       </c>
       <c r="R2" s="14">
         <f>Data!W15</f>
-        <v>0.35528316824977418</v>
+        <v>8.9525397919120758E-2</v>
       </c>
       <c r="S2" s="14">
         <f>Data!X15</f>
-        <v>0.42639333668659185</v>
+        <v>0.10722522429533606</v>
       </c>
       <c r="T2" s="14">
         <f>Data!Y15</f>
-        <v>0.5007275344997878</v>
+        <v>0.1257275344997878</v>
       </c>
       <c r="U2" s="14">
         <f>Data!Z15</f>
-        <v>0.57506173231298374</v>
+        <v>0.1442298447042395</v>
       </c>
       <c r="V2" s="14">
         <f>Data!AA15</f>
-        <v>0.64617190074980135</v>
+        <v>0.16192967108045481</v>
       </c>
       <c r="W2" s="14">
         <f>Data!AB15</f>
-        <v>0.71137009104304616</v>
+        <v>0.17815796407429324</v>
       </c>
       <c r="X2" s="14">
         <f>Data!AC15</f>
-        <v>0.76886159591071823</v>
+        <v>0.19246800828645502</v>
       </c>
       <c r="Y2" s="14">
         <f>Data!AD15</f>
-        <v>0.81783991791806554</v>
+        <v>0.20465906077283286</v>
       </c>
       <c r="Z2" s="14">
         <f>Data!AE15</f>
-        <v>0.85835533818660581</v>
+        <v>0.21474363686197154</v>
       </c>
       <c r="AA2" s="14">
         <f>Data!AF15</f>
-        <v>0.89106192220686109</v>
+        <v>0.22288453810357076</v>
       </c>
       <c r="AB2" s="14">
         <f>Data!AG15</f>
-        <v>0.91694832551835703</v>
+        <v>0.22932784788879884</v>
       </c>
       <c r="AC2" s="14">
         <f>Data!AH15</f>
-        <v>0.93711827452120133</v>
+        <v>0.23434829156394865</v>
       </c>
       <c r="AD2" s="14">
         <f>Data!AI15</f>
-        <v>0.95264313474027185</v>
+        <v>0.2382125396234468</v>
       </c>
       <c r="AE2" s="14">
         <f>Data!AJ15</f>
-        <v>0.96448056926215253</v>
+        <v>0.24115896121662961</v>
       </c>
       <c r="AF2" s="14">
         <f>Data!AK15</f>
-        <v>0.97344170688396969</v>
+        <v>0.24338945206661913</v>
       </c>
       <c r="AG2" s="14">
         <f>Data!AL15</f>
-        <v>0.98018856327973825</v>
+        <v>0.2450687925802964</v>
       </c>
       <c r="AH2" s="14">
         <f>Data!AM15</f>
-        <v>0.98524746554224263</v>
+        <v>0.24632798931219738</v>
       </c>
       <c r="AI2" s="14">
         <f>Data!AN15</f>
-        <v>0.9890290441290287</v>
+        <v>0.24726925110197362</v>
       </c>
       <c r="AJ2" s="14">
         <f>Data!AO15</f>
-        <v>0.99184930595108189</v>
+        <v>0.24797123431595183</v>
       </c>
       <c r="AK2" s="14">
         <f>Data!AP15</f>
-        <v>0.99394901593770979</v>
+        <v>0.24849386705639792</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="56">
         <f t="shared" ref="B3:B8" si="0">D3</f>
         <v>5.5794652063621928E-4</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="56">
         <f t="shared" ref="C3:C8" si="1">D3</f>
         <v>5.5794652063621928E-4</v>
       </c>
@@ -3735,11 +3769,11 @@
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="56">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3884,11 +3918,11 @@
       <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="56">
         <f t="shared" si="0"/>
         <v>1.4094947551288909E-3</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="56">
         <f t="shared" si="1"/>
         <v>1.4094947551288909E-3</v>
       </c>
@@ -4502,11 +4536,11 @@
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="56">
         <f>D2</f>
         <v>0</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="56">
         <f>D2</f>
         <v>0</v>
       </c>
@@ -4516,146 +4550,146 @@
       </c>
       <c r="E2" s="14">
         <f>Data!J22</f>
-        <v>1.098694263059318E-2</v>
+        <v>2.7467356576482949E-3</v>
       </c>
       <c r="F2" s="14">
         <f>Data!K22</f>
-        <v>1.4774031693273055E-2</v>
+        <v>3.6935079233182638E-3</v>
       </c>
       <c r="G2" s="14">
         <f>Data!L22</f>
-        <v>1.984030573407751E-2</v>
+        <v>4.9600764335193774E-3</v>
       </c>
       <c r="H2" s="14">
         <f>Data!M22</f>
-        <v>2.6596993576865863E-2</v>
+        <v>6.6492483942164659E-3</v>
       </c>
       <c r="I2" s="14">
         <f>Data!N22</f>
-        <v>3.5571189272636181E-2</v>
+        <v>8.8927973181590451E-3</v>
       </c>
       <c r="J2" s="14">
         <f>Data!O22</f>
-        <v>4.7425873177566781E-2</v>
+        <v>1.1856468294391695E-2</v>
       </c>
       <c r="K2" s="14">
         <f>Data!P22</f>
-        <v>6.2973356056996513E-2</v>
+        <v>1.5743339014249128E-2</v>
       </c>
       <c r="L2" s="14">
         <f>Data!Q22</f>
-        <v>8.317269649392238E-2</v>
+        <v>2.0793174123480595E-2</v>
       </c>
       <c r="M2" s="14">
         <f>Data!R22</f>
-        <v>0.10909682119561293</v>
+        <v>2.7274205298903231E-2</v>
       </c>
       <c r="N2" s="14">
         <f>Data!S22</f>
-        <v>0.14185106490048782</v>
+        <v>3.5462766225121956E-2</v>
       </c>
       <c r="O2" s="14">
         <f>Data!T22</f>
-        <v>0.18242552380635635</v>
+        <v>4.5606380951589087E-2</v>
       </c>
       <c r="P2" s="14">
         <f>Data!U22</f>
-        <v>0.23147521650098238</v>
+        <v>5.7868804125245595E-2</v>
       </c>
       <c r="Q2" s="14">
         <f>Data!V22</f>
-        <v>0.28905049737499605</v>
+        <v>7.2262624343749013E-2</v>
       </c>
       <c r="R2" s="14">
         <f>Data!W22</f>
-        <v>0.35434369377420455</v>
+        <v>8.8585923443551137E-2</v>
       </c>
       <c r="S2" s="14">
         <f>Data!X22</f>
-        <v>0.42555748318834102</v>
+        <v>0.10638937079708526</v>
       </c>
       <c r="T2" s="14">
         <f>Data!Y22</f>
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="U2" s="14">
         <f>Data!Z22</f>
-        <v>0.57444251681165903</v>
+        <v>0.14361062920291476</v>
       </c>
       <c r="V2" s="14">
         <f>Data!AA22</f>
-        <v>0.6456563062257954</v>
+        <v>0.16141407655644885</v>
       </c>
       <c r="W2" s="14">
         <f>Data!AB22</f>
-        <v>0.71094950262500389</v>
+        <v>0.17773737565625097</v>
       </c>
       <c r="X2" s="14">
         <f>Data!AC22</f>
-        <v>0.76852478349901754</v>
+        <v>0.19213119587475438</v>
       </c>
       <c r="Y2" s="14">
         <f>Data!AD22</f>
-        <v>0.81757447619364365</v>
+        <v>0.20439361904841091</v>
       </c>
       <c r="Z2" s="14">
         <f>Data!AE22</f>
-        <v>0.85814893509951229</v>
+        <v>0.21453723377487807</v>
       </c>
       <c r="AA2" s="14">
         <f>Data!AF22</f>
-        <v>0.89090317880438707</v>
+        <v>0.22272579470109677</v>
       </c>
       <c r="AB2" s="14">
         <f>Data!AG22</f>
-        <v>0.91682730350607766</v>
+        <v>0.22920682587651942</v>
       </c>
       <c r="AC2" s="14">
         <f>Data!AH22</f>
-        <v>0.9370266439430035</v>
+        <v>0.23425666098575088</v>
       </c>
       <c r="AD2" s="14">
         <f>Data!AI22</f>
-        <v>0.95257412682243336</v>
+        <v>0.23814353170560834</v>
       </c>
       <c r="AE2" s="14">
         <f>Data!AJ22</f>
-        <v>0.96442881072736386</v>
+        <v>0.24110720268184097</v>
       </c>
       <c r="AF2" s="14">
         <f>Data!AK22</f>
-        <v>0.97340300642313404</v>
+        <v>0.24335075160578351</v>
       </c>
       <c r="AG2" s="14">
         <f>Data!AL22</f>
-        <v>0.98015969426592253</v>
+        <v>0.24503992356648063</v>
       </c>
       <c r="AH2" s="14">
         <f>Data!AM22</f>
-        <v>0.98522596830672693</v>
+        <v>0.24630649207668173</v>
       </c>
       <c r="AI2" s="14">
         <f>Data!AN22</f>
-        <v>0.98901305736940681</v>
+        <v>0.2472532643423517</v>
       </c>
       <c r="AJ2" s="14">
         <f>Data!AO22</f>
-        <v>0.99183742884684012</v>
+        <v>0.24795935721171003</v>
       </c>
       <c r="AK2" s="14">
         <f>Data!AP22</f>
-        <v>0.99394019850841575</v>
+        <v>0.24848504962710394</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="56">
         <f t="shared" ref="B3:B8" si="0">D3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="56">
         <f t="shared" ref="C3:C8" si="1">D3</f>
         <v>0</v>
       </c>
@@ -4800,11 +4834,11 @@
       <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5247,11 +5281,11 @@
       <c r="A7" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5396,11 +5430,11 @@
       <c r="A8" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5554,7 +5588,7 @@
   <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5568,10 +5602,10 @@
       <c r="A1" s="48" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="58">
+      <c r="B1" s="57">
         <v>2015</v>
       </c>
-      <c r="C1" s="58">
+      <c r="C1" s="57">
         <v>2016</v>
       </c>
       <c r="D1" s="14">
@@ -5729,146 +5763,146 @@
       </c>
       <c r="E2" s="14">
         <f>Data!J29</f>
-        <v>7.1373790619423422E-4</v>
+        <v>3.5686895309711711E-4</v>
       </c>
       <c r="F2" s="14">
         <f>Data!K29</f>
-        <v>9.5975621256471949E-4</v>
+        <v>4.7987810628235975E-4</v>
       </c>
       <c r="G2" s="14">
         <f>Data!L29</f>
-        <v>1.2888734153815643E-3</v>
+        <v>6.4443670769078214E-4</v>
       </c>
       <c r="H2" s="14">
         <f>Data!M29</f>
-        <v>1.7278039164193614E-3</v>
+        <v>8.6390195820968069E-4</v>
       </c>
       <c r="I2" s="14">
         <f>Data!N29</f>
-        <v>2.3107889979870982E-3</v>
+        <v>1.1553944989935491E-3</v>
       </c>
       <c r="J2" s="14">
         <f>Data!O29</f>
-        <v>3.0808974397422769E-3</v>
+        <v>1.5404487198711384E-3</v>
       </c>
       <c r="K2" s="14">
         <f>Data!P29</f>
-        <v>4.090898879638369E-3</v>
+        <v>2.0454494398191845E-3</v>
       </c>
       <c r="L2" s="14">
         <f>Data!Q29</f>
-        <v>5.4030960426427257E-3</v>
+        <v>2.7015480213213629E-3</v>
       </c>
       <c r="M2" s="14">
         <f>Data!R29</f>
-        <v>7.0871887977082782E-3</v>
+        <v>3.5435943988541391E-3</v>
       </c>
       <c r="N2" s="14">
         <f>Data!S29</f>
-        <v>9.2149823165164242E-3</v>
+        <v>4.6074911582582121E-3</v>
       </c>
       <c r="O2" s="14">
         <f>Data!T29</f>
-        <v>1.1850795601260507E-2</v>
+        <v>5.9253978006302537E-3</v>
       </c>
       <c r="P2" s="14">
         <f>Data!U29</f>
-        <v>1.5037180216198912E-2</v>
+        <v>7.5185901080994559E-3</v>
       </c>
       <c r="Q2" s="14">
         <f>Data!V29</f>
-        <v>1.8777407302225376E-2</v>
+        <v>9.3887036511126881E-3</v>
       </c>
       <c r="R2" s="14">
         <f>Data!W29</f>
-        <v>2.3019008524109971E-2</v>
+        <v>1.1509504262054986E-2</v>
       </c>
       <c r="S2" s="14">
         <f>Data!X29</f>
-        <v>2.7645225539849379E-2</v>
+        <v>1.382261276992469E-2</v>
       </c>
       <c r="T2" s="14">
         <f>Data!Y29</f>
-        <v>3.2481188361120066E-2</v>
+        <v>1.6240594180560033E-2</v>
       </c>
       <c r="U2" s="14">
         <f>Data!Z29</f>
-        <v>3.7317151182390755E-2</v>
+        <v>1.8658575591195378E-2</v>
       </c>
       <c r="V2" s="14">
         <f>Data!AA29</f>
-        <v>4.194336819813016E-2</v>
+        <v>2.097168409906508E-2</v>
       </c>
       <c r="W2" s="14">
         <f>Data!AB29</f>
-        <v>4.6184969420014751E-2</v>
+        <v>2.3092484710007376E-2</v>
       </c>
       <c r="X2" s="14">
         <f>Data!AC29</f>
-        <v>4.9925196506041214E-2</v>
+        <v>2.4962598253020607E-2</v>
       </c>
       <c r="Y2" s="14">
         <f>Data!AD29</f>
-        <v>5.311158112097962E-2</v>
+        <v>2.655579056048981E-2</v>
       </c>
       <c r="Z2" s="14">
         <f>Data!AE29</f>
-        <v>5.574739440572371E-2</v>
+        <v>2.7873697202861855E-2</v>
       </c>
       <c r="AA2" s="14">
         <f>Data!AF29</f>
-        <v>5.7875187924531855E-2</v>
+        <v>2.8937593962265928E-2</v>
       </c>
       <c r="AB2" s="14">
         <f>Data!AG29</f>
-        <v>5.9559280679597405E-2</v>
+        <v>2.9779640339798703E-2</v>
       </c>
       <c r="AC2" s="14">
         <f>Data!AH29</f>
-        <v>6.0871477842601766E-2</v>
+        <v>3.0435738921300883E-2</v>
       </c>
       <c r="AD2" s="14">
         <f>Data!AI29</f>
-        <v>6.1881479282497862E-2</v>
+        <v>3.0940739641248931E-2</v>
       </c>
       <c r="AE2" s="14">
         <f>Data!AJ29</f>
-        <v>6.2651587724253041E-2</v>
+        <v>3.1325793862126521E-2</v>
       </c>
       <c r="AF2" s="14">
         <f>Data!AK29</f>
-        <v>6.323457280582076E-2</v>
+        <v>3.161728640291038E-2</v>
       </c>
       <c r="AG2" s="14">
         <f>Data!AL29</f>
-        <v>6.3673503306858573E-2</v>
+        <v>3.1836751653429286E-2</v>
       </c>
       <c r="AH2" s="14">
         <f>Data!AM29</f>
-        <v>6.4002620509675409E-2</v>
+        <v>3.2001310254837705E-2</v>
       </c>
       <c r="AI2" s="14">
         <f>Data!AN29</f>
-        <v>6.4248638816045894E-2</v>
+        <v>3.2124319408022947E-2</v>
       </c>
       <c r="AJ2" s="14">
         <f>Data!AO29</f>
-        <v>6.4432116699966471E-2</v>
+        <v>3.2216058349983236E-2</v>
       </c>
       <c r="AK2" s="14">
         <f>Data!AP29</f>
-        <v>6.4568717614881851E-2</v>
+        <v>3.2284358807440926E-2</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="56">
         <f t="shared" ref="B3:B8" si="0">D3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="56">
         <f t="shared" ref="C3:C8" si="1">D3</f>
         <v>0</v>
       </c>
@@ -6013,11 +6047,11 @@
       <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6325,146 +6359,146 @@
       </c>
       <c r="E6" s="14">
         <f>Data!J33</f>
-        <v>4.2648579788926686E-4</v>
+        <v>2.1324289894463343E-4</v>
       </c>
       <c r="F6" s="14">
         <f>Data!K33</f>
-        <v>5.7349118008516366E-4</v>
+        <v>2.8674559004258183E-4</v>
       </c>
       <c r="G6" s="14">
         <f>Data!L33</f>
-        <v>7.7015134290440946E-4</v>
+        <v>3.8507567145220473E-4</v>
       </c>
       <c r="H6" s="14">
         <f>Data!M33</f>
-        <v>1.0324291669185613E-3</v>
+        <v>5.1621458345928065E-4</v>
       </c>
       <c r="I6" s="14">
         <f>Data!N33</f>
-        <v>1.3807851327600239E-3</v>
+        <v>6.9039256638001197E-4</v>
       </c>
       <c r="J6" s="14">
         <f>Data!O33</f>
-        <v>1.8409544895965047E-3</v>
+        <v>9.2047724479825236E-4</v>
       </c>
       <c r="K6" s="14">
         <f>Data!P33</f>
-        <v>2.4444691218236604E-3</v>
+        <v>1.2222345609118302E-3</v>
       </c>
       <c r="L6" s="14">
         <f>Data!Q33</f>
-        <v>3.2285572992836495E-3</v>
+        <v>1.6142786496418247E-3</v>
       </c>
       <c r="M6" s="14">
         <f>Data!R33</f>
-        <v>4.2348673693112402E-3</v>
+        <v>2.1174336846556201E-3</v>
       </c>
       <c r="N6" s="14">
         <f>Data!S33</f>
-        <v>5.5063056784397258E-3</v>
+        <v>2.7531528392198629E-3</v>
       </c>
       <c r="O6" s="14">
         <f>Data!T33</f>
-        <v>7.0813052995545534E-3</v>
+        <v>3.5406526497772767E-3</v>
       </c>
       <c r="P6" s="14">
         <f>Data!U33</f>
-        <v>8.985292425767618E-3</v>
+        <v>4.492646212883809E-3</v>
       </c>
       <c r="Q6" s="14">
         <f>Data!V33</f>
-        <v>1.1220221689335336E-2</v>
+        <v>5.610110844667668E-3</v>
       </c>
       <c r="R6" s="14">
         <f>Data!W33</f>
-        <v>1.375474124580576E-2</v>
+        <v>6.8773706229028802E-3</v>
       </c>
       <c r="S6" s="14">
         <f>Data!X33</f>
-        <v>1.6519083503718002E-2</v>
+        <v>8.2595417518590009E-3</v>
       </c>
       <c r="T6" s="14">
         <f>Data!Y33</f>
-        <v>1.9408756932147605E-2</v>
+        <v>9.7043784660738024E-3</v>
       </c>
       <c r="U6" s="14">
         <f>Data!Z33</f>
-        <v>2.2298430360577208E-2</v>
+        <v>1.1149215180288604E-2</v>
       </c>
       <c r="V6" s="14">
         <f>Data!AA33</f>
-        <v>2.5062772618489448E-2</v>
+        <v>1.2531386309244724E-2</v>
       </c>
       <c r="W6" s="14">
         <f>Data!AB33</f>
-        <v>2.7597292174959872E-2</v>
+        <v>1.3798646087479936E-2</v>
       </c>
       <c r="X6" s="14">
         <f>Data!AC33</f>
-        <v>2.9832221438527588E-2</v>
+        <v>1.4916110719263794E-2</v>
       </c>
       <c r="Y6" s="14">
         <f>Data!AD33</f>
-        <v>3.1736208564740652E-2</v>
+        <v>1.5868104282370326E-2</v>
       </c>
       <c r="Z6" s="14">
         <f>Data!AE33</f>
-        <v>3.3311208185855486E-2</v>
+        <v>1.6655604092927743E-2</v>
       </c>
       <c r="AA6" s="14">
         <f>Data!AF33</f>
-        <v>3.4582646494983972E-2</v>
+        <v>1.7291323247491986E-2</v>
       </c>
       <c r="AB6" s="14">
         <f>Data!AG33</f>
-        <v>3.5588956565011563E-2</v>
+        <v>1.7794478282505782E-2</v>
       </c>
       <c r="AC6" s="14">
         <f>Data!AH33</f>
-        <v>3.637304474247155E-2</v>
+        <v>1.8186522371235775E-2</v>
       </c>
       <c r="AD6" s="14">
         <f>Data!AI33</f>
-        <v>3.6976559374698709E-2</v>
+        <v>1.8488279687349354E-2</v>
       </c>
       <c r="AE6" s="14">
         <f>Data!AJ33</f>
-        <v>3.7436728731535189E-2</v>
+        <v>1.8718364365767595E-2</v>
       </c>
       <c r="AF6" s="14">
         <f>Data!AK33</f>
-        <v>3.7785084697376646E-2</v>
+        <v>1.8892542348688323E-2</v>
       </c>
       <c r="AG6" s="14">
         <f>Data!AL33</f>
-        <v>3.80473625213908E-2</v>
+        <v>1.90236812606954E-2</v>
       </c>
       <c r="AH6" s="14">
         <f>Data!AM33</f>
-        <v>3.8244022684210045E-2</v>
+        <v>1.9122011342105023E-2</v>
       </c>
       <c r="AI6" s="14">
         <f>Data!AN33</f>
-        <v>3.8391028066405944E-2</v>
+        <v>1.9195514033202972E-2</v>
       </c>
       <c r="AJ6" s="14">
         <f>Data!AO33</f>
-        <v>3.8500663145389129E-2</v>
+        <v>1.9250331572694564E-2</v>
       </c>
       <c r="AK6" s="14">
         <f>Data!AP33</f>
-        <v>3.8582287435880762E-2</v>
+        <v>1.9291143717940381E-2</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6781,10 +6815,10 @@
       <c r="A1" s="48" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="58">
+      <c r="B1" s="57">
         <v>2015</v>
       </c>
-      <c r="C1" s="58">
+      <c r="C1" s="57">
         <v>2016</v>
       </c>
       <c r="D1" s="14">
@@ -7994,10 +8028,10 @@
       <c r="A1" s="48" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="58">
+      <c r="B1" s="57">
         <v>2015</v>
       </c>
-      <c r="C1" s="58">
+      <c r="C1" s="57">
         <v>2016</v>
       </c>
       <c r="D1" s="14">
@@ -9207,10 +9241,10 @@
       <c r="A1" s="48" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="58">
+      <c r="B1" s="57">
         <v>2015</v>
       </c>
-      <c r="C1" s="58">
+      <c r="C1" s="57">
         <v>2016</v>
       </c>
       <c r="D1" s="14">
@@ -9354,11 +9388,11 @@
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="56">
         <f>D2</f>
         <v>1</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="56">
         <f>D2</f>
         <v>1</v>
       </c>
@@ -9801,11 +9835,11 @@
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12078,11 +12112,11 @@
       <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12227,11 +12261,11 @@
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="56">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -12846,10 +12880,10 @@
       <c r="A1" s="48" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="58">
+      <c r="B1" s="57">
         <v>2015</v>
       </c>
-      <c r="C1" s="58">
+      <c r="C1" s="57">
         <v>2016</v>
       </c>
       <c r="D1" s="14">
@@ -14059,10 +14093,10 @@
       <c r="A1" s="48" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="58">
+      <c r="B1" s="57">
         <v>2015</v>
       </c>
-      <c r="C1" s="58">
+      <c r="C1" s="57">
         <v>2016</v>
       </c>
       <c r="D1" s="14">
@@ -23083,44 +23117,44 @@
       <c r="AM86" s="16"/>
     </row>
     <row r="87" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="60" t="s">
+      <c r="B87" s="59" t="s">
         <v>476</v>
       </c>
-      <c r="C87" s="60"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="60"/>
-      <c r="K87" s="60"/>
-      <c r="L87" s="60"/>
-      <c r="M87" s="60"/>
-      <c r="N87" s="60"/>
-      <c r="O87" s="60"/>
-      <c r="P87" s="60"/>
-      <c r="Q87" s="60"/>
-      <c r="R87" s="60"/>
-      <c r="S87" s="60"/>
-      <c r="T87" s="60"/>
-      <c r="U87" s="60"/>
-      <c r="V87" s="60"/>
-      <c r="W87" s="60"/>
-      <c r="X87" s="60"/>
-      <c r="Y87" s="60"/>
-      <c r="Z87" s="60"/>
-      <c r="AA87" s="60"/>
-      <c r="AB87" s="60"/>
-      <c r="AC87" s="60"/>
-      <c r="AD87" s="60"/>
-      <c r="AE87" s="60"/>
-      <c r="AF87" s="60"/>
-      <c r="AG87" s="60"/>
-      <c r="AH87" s="60"/>
-      <c r="AI87" s="60"/>
-      <c r="AJ87" s="60"/>
-      <c r="AK87" s="60"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="59"/>
+      <c r="H87" s="59"/>
+      <c r="I87" s="59"/>
+      <c r="J87" s="59"/>
+      <c r="K87" s="59"/>
+      <c r="L87" s="59"/>
+      <c r="M87" s="59"/>
+      <c r="N87" s="59"/>
+      <c r="O87" s="59"/>
+      <c r="P87" s="59"/>
+      <c r="Q87" s="59"/>
+      <c r="R87" s="59"/>
+      <c r="S87" s="59"/>
+      <c r="T87" s="59"/>
+      <c r="U87" s="59"/>
+      <c r="V87" s="59"/>
+      <c r="W87" s="59"/>
+      <c r="X87" s="59"/>
+      <c r="Y87" s="59"/>
+      <c r="Z87" s="59"/>
+      <c r="AA87" s="59"/>
+      <c r="AB87" s="59"/>
+      <c r="AC87" s="59"/>
+      <c r="AD87" s="59"/>
+      <c r="AE87" s="59"/>
+      <c r="AF87" s="59"/>
+      <c r="AG87" s="59"/>
+      <c r="AH87" s="59"/>
+      <c r="AI87" s="59"/>
+      <c r="AJ87" s="59"/>
+      <c r="AK87" s="59"/>
       <c r="AL87" s="16"/>
       <c r="AM87" s="16"/>
     </row>
@@ -23656,10 +23690,10 @@
       <c r="A1" s="48" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="58">
+      <c r="B1" s="57">
         <v>2015</v>
       </c>
-      <c r="C1" s="58">
+      <c r="C1" s="57">
         <v>2016</v>
       </c>
       <c r="D1" s="14">
@@ -29692,44 +29726,44 @@
     </row>
     <row r="66" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="60" t="s">
+      <c r="B67" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="60"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="60"/>
-      <c r="N67" s="60"/>
-      <c r="O67" s="60"/>
-      <c r="P67" s="60"/>
-      <c r="Q67" s="60"/>
-      <c r="R67" s="60"/>
-      <c r="S67" s="60"/>
-      <c r="T67" s="60"/>
-      <c r="U67" s="60"/>
-      <c r="V67" s="60"/>
-      <c r="W67" s="60"/>
-      <c r="X67" s="60"/>
-      <c r="Y67" s="60"/>
-      <c r="Z67" s="60"/>
-      <c r="AA67" s="60"/>
-      <c r="AB67" s="60"/>
-      <c r="AC67" s="60"/>
-      <c r="AD67" s="60"/>
-      <c r="AE67" s="60"/>
-      <c r="AF67" s="60"/>
-      <c r="AG67" s="60"/>
-      <c r="AH67" s="60"/>
-      <c r="AI67" s="60"/>
-      <c r="AJ67" s="60"/>
-      <c r="AK67" s="60"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
+      <c r="K67" s="59"/>
+      <c r="L67" s="59"/>
+      <c r="M67" s="59"/>
+      <c r="N67" s="59"/>
+      <c r="O67" s="59"/>
+      <c r="P67" s="59"/>
+      <c r="Q67" s="59"/>
+      <c r="R67" s="59"/>
+      <c r="S67" s="59"/>
+      <c r="T67" s="59"/>
+      <c r="U67" s="59"/>
+      <c r="V67" s="59"/>
+      <c r="W67" s="59"/>
+      <c r="X67" s="59"/>
+      <c r="Y67" s="59"/>
+      <c r="Z67" s="59"/>
+      <c r="AA67" s="59"/>
+      <c r="AB67" s="59"/>
+      <c r="AC67" s="59"/>
+      <c r="AD67" s="59"/>
+      <c r="AE67" s="59"/>
+      <c r="AF67" s="59"/>
+      <c r="AG67" s="59"/>
+      <c r="AH67" s="59"/>
+      <c r="AI67" s="59"/>
+      <c r="AJ67" s="59"/>
+      <c r="AK67" s="59"/>
     </row>
     <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="28" t="s">
@@ -54540,44 +54574,44 @@
     </row>
     <row r="274" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="275" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B275" s="60" t="s">
+      <c r="B275" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C275" s="60"/>
-      <c r="D275" s="60"/>
-      <c r="E275" s="60"/>
-      <c r="F275" s="60"/>
-      <c r="G275" s="60"/>
-      <c r="H275" s="60"/>
-      <c r="I275" s="60"/>
-      <c r="J275" s="60"/>
-      <c r="K275" s="60"/>
-      <c r="L275" s="60"/>
-      <c r="M275" s="60"/>
-      <c r="N275" s="60"/>
-      <c r="O275" s="60"/>
-      <c r="P275" s="60"/>
-      <c r="Q275" s="60"/>
-      <c r="R275" s="60"/>
-      <c r="S275" s="60"/>
-      <c r="T275" s="60"/>
-      <c r="U275" s="60"/>
-      <c r="V275" s="60"/>
-      <c r="W275" s="60"/>
-      <c r="X275" s="60"/>
-      <c r="Y275" s="60"/>
-      <c r="Z275" s="60"/>
-      <c r="AA275" s="60"/>
-      <c r="AB275" s="60"/>
-      <c r="AC275" s="60"/>
-      <c r="AD275" s="60"/>
-      <c r="AE275" s="60"/>
-      <c r="AF275" s="60"/>
-      <c r="AG275" s="60"/>
-      <c r="AH275" s="60"/>
-      <c r="AI275" s="60"/>
-      <c r="AJ275" s="60"/>
-      <c r="AK275" s="60"/>
+      <c r="C275" s="59"/>
+      <c r="D275" s="59"/>
+      <c r="E275" s="59"/>
+      <c r="F275" s="59"/>
+      <c r="G275" s="59"/>
+      <c r="H275" s="59"/>
+      <c r="I275" s="59"/>
+      <c r="J275" s="59"/>
+      <c r="K275" s="59"/>
+      <c r="L275" s="59"/>
+      <c r="M275" s="59"/>
+      <c r="N275" s="59"/>
+      <c r="O275" s="59"/>
+      <c r="P275" s="59"/>
+      <c r="Q275" s="59"/>
+      <c r="R275" s="59"/>
+      <c r="S275" s="59"/>
+      <c r="T275" s="59"/>
+      <c r="U275" s="59"/>
+      <c r="V275" s="59"/>
+      <c r="W275" s="59"/>
+      <c r="X275" s="59"/>
+      <c r="Y275" s="59"/>
+      <c r="Z275" s="59"/>
+      <c r="AA275" s="59"/>
+      <c r="AB275" s="59"/>
+      <c r="AC275" s="59"/>
+      <c r="AD275" s="59"/>
+      <c r="AE275" s="59"/>
+      <c r="AF275" s="59"/>
+      <c r="AG275" s="59"/>
+      <c r="AH275" s="59"/>
+      <c r="AI275" s="59"/>
+      <c r="AJ275" s="59"/>
+      <c r="AK275" s="59"/>
     </row>
     <row r="276" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B276" s="28" t="s">
@@ -55086,10 +55120,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -55204,86 +55238,111 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
-        <v>508</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" s="34">
-        <v>0.75</v>
+      <c r="A28" s="14" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="14" t="s">
-        <v>509</v>
+        <v>617</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="14" t="s">
-        <v>510</v>
+        <v>618</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="14" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A32" s="14" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" s="14" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" s="14" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" s="14" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" s="14" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" s="14" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" s="14" t="s">
-        <v>518</v>
+        <v>619</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" s="14" t="s">
-        <v>519</v>
+      <c r="A39" s="13" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" s="14" t="s">
-        <v>520</v>
+      <c r="A40" s="34">
+        <v>0.75</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="14" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="14" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" s="14" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" s="14" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" s="14" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" s="14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" s="14" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" s="14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" s="14" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" s="14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" s="14" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" s="14" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" s="14" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" s="14" t="s">
         <v>523</v>
       </c>
     </row>
@@ -55300,8 +55359,8 @@
   </sheetPr>
   <dimension ref="A1:AP91"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -55551,7 +55610,7 @@
         <v>1.4550689995755717E-3</v>
       </c>
       <c r="E8" s="14">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F8" s="7" t="str">
         <f>IF(D8=E8,"n/a",IF(OR(C8="battery electric vehicle",C8="natural gas vehicle",C8="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -55564,135 +55623,135 @@
       </c>
       <c r="J8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,J$7))</f>
-        <v>1.2426024870546861E-2</v>
+        <v>4.185817897601975E-3</v>
       </c>
       <c r="K8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,K$7))</f>
-        <v>1.6207603457332999E-2</v>
+        <v>5.127079687378207E-3</v>
       </c>
       <c r="L8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,L$7))</f>
-        <v>2.1266505719837323E-2</v>
+        <v>6.3862764192791919E-3</v>
       </c>
       <c r="M8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,M$7))</f>
-        <v>2.8013362115605827E-2</v>
+        <v>8.0656169329564303E-3</v>
       </c>
       <c r="N8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,N$7))</f>
-        <v>3.6974499737423103E-2</v>
+        <v>1.0296107782945969E-2</v>
       </c>
       <c r="O8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,O$7))</f>
-        <v>4.8811934259303871E-2</v>
+        <v>1.3242529376128787E-2</v>
       </c>
       <c r="P8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,P$7))</f>
-        <v>6.4336794478374301E-2</v>
+        <v>1.710677743562693E-2</v>
       </c>
       <c r="Q8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,Q$7))</f>
-        <v>8.4506743481218519E-2</v>
+        <v>2.2127221110776751E-2</v>
       </c>
       <c r="R8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,R$7))</f>
-        <v>0.1103931467927145</v>
+        <v>2.8570530896004826E-2</v>
       </c>
       <c r="S8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,S$7))</f>
-        <v>0.14309973081296989</v>
+        <v>3.6711432137604041E-2</v>
       </c>
       <c r="T8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,T$7))</f>
-        <v>0.18361515108150994</v>
+        <v>4.6796008226742694E-2</v>
       </c>
       <c r="U8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,U$7))</f>
-        <v>0.23259347308885731</v>
+        <v>5.8987060713120543E-2</v>
       </c>
       <c r="V8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,V$7))</f>
-        <v>0.29008497795652938</v>
+        <v>7.3297104925282325E-2</v>
       </c>
       <c r="W8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,W$7))</f>
-        <v>0.35528316824977418</v>
+        <v>8.9525397919120758E-2</v>
       </c>
       <c r="X8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,X$7))</f>
-        <v>0.42639333668659185</v>
+        <v>0.10722522429533606</v>
       </c>
       <c r="Y8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,Y$7))</f>
-        <v>0.5007275344997878</v>
+        <v>0.1257275344997878</v>
       </c>
       <c r="Z8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,Z$7))</f>
-        <v>0.57506173231298374</v>
+        <v>0.1442298447042395</v>
       </c>
       <c r="AA8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AA$7))</f>
-        <v>0.64617190074980135</v>
+        <v>0.16192967108045481</v>
       </c>
       <c r="AB8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AB$7))</f>
-        <v>0.71137009104304616</v>
+        <v>0.17815796407429324</v>
       </c>
       <c r="AC8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AC$7))</f>
-        <v>0.76886159591071823</v>
+        <v>0.19246800828645502</v>
       </c>
       <c r="AD8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AD$7))</f>
-        <v>0.81783991791806554</v>
+        <v>0.20465906077283286</v>
       </c>
       <c r="AE8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AE$7))</f>
-        <v>0.85835533818660581</v>
+        <v>0.21474363686197154</v>
       </c>
       <c r="AF8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AF$7))</f>
-        <v>0.89106192220686109</v>
+        <v>0.22288453810357076</v>
       </c>
       <c r="AG8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AG$7))</f>
-        <v>0.91694832551835703</v>
+        <v>0.22932784788879884</v>
       </c>
       <c r="AH8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AH$7))</f>
-        <v>0.93711827452120133</v>
+        <v>0.23434829156394865</v>
       </c>
       <c r="AI8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AI$7))</f>
-        <v>0.95264313474027185</v>
+        <v>0.2382125396234468</v>
       </c>
       <c r="AJ8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AJ$7))</f>
-        <v>0.96448056926215253</v>
+        <v>0.24115896121662961</v>
       </c>
       <c r="AK8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AK$7))</f>
-        <v>0.97344170688396969</v>
+        <v>0.24338945206661913</v>
       </c>
       <c r="AL8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AL$7))</f>
-        <v>0.98018856327973825</v>
+        <v>0.2450687925802964</v>
       </c>
       <c r="AM8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AM$7))</f>
-        <v>0.98524746554224263</v>
+        <v>0.24632798931219738</v>
       </c>
       <c r="AN8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AN$7))</f>
-        <v>0.9890290441290287</v>
+        <v>0.24726925110197362</v>
       </c>
       <c r="AO8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AO$7))</f>
-        <v>0.99184930595108189</v>
+        <v>0.24797123431595183</v>
       </c>
       <c r="AP8" s="14">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AP$7))</f>
-        <v>0.99394901593770979</v>
+        <v>0.24849386705639792</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.45">
@@ -56629,7 +56688,7 @@
       </c>
       <c r="E15" s="14">
         <f>E8</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F15" s="7" t="str">
         <f t="shared" si="1"/>
@@ -56642,135 +56701,135 @@
       </c>
       <c r="J15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,J$7))</f>
-        <v>1.2426024870546861E-2</v>
+        <v>4.185817897601975E-3</v>
       </c>
       <c r="K15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,K$7))</f>
-        <v>1.6207603457332999E-2</v>
+        <v>5.127079687378207E-3</v>
       </c>
       <c r="L15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,L$7))</f>
-        <v>2.1266505719837323E-2</v>
+        <v>6.3862764192791919E-3</v>
       </c>
       <c r="M15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,M$7))</f>
-        <v>2.8013362115605827E-2</v>
+        <v>8.0656169329564303E-3</v>
       </c>
       <c r="N15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,N$7))</f>
-        <v>3.6974499737423103E-2</v>
+        <v>1.0296107782945969E-2</v>
       </c>
       <c r="O15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,O$7))</f>
-        <v>4.8811934259303871E-2</v>
+        <v>1.3242529376128787E-2</v>
       </c>
       <c r="P15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,P$7))</f>
-        <v>6.4336794478374301E-2</v>
+        <v>1.710677743562693E-2</v>
       </c>
       <c r="Q15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,Q$7))</f>
-        <v>8.4506743481218519E-2</v>
+        <v>2.2127221110776751E-2</v>
       </c>
       <c r="R15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,R$7))</f>
-        <v>0.1103931467927145</v>
+        <v>2.8570530896004826E-2</v>
       </c>
       <c r="S15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,S$7))</f>
-        <v>0.14309973081296989</v>
+        <v>3.6711432137604041E-2</v>
       </c>
       <c r="T15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,T$7))</f>
-        <v>0.18361515108150994</v>
+        <v>4.6796008226742694E-2</v>
       </c>
       <c r="U15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,U$7))</f>
-        <v>0.23259347308885731</v>
+        <v>5.8987060713120543E-2</v>
       </c>
       <c r="V15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,V$7))</f>
-        <v>0.29008497795652938</v>
+        <v>7.3297104925282325E-2</v>
       </c>
       <c r="W15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,W$7))</f>
-        <v>0.35528316824977418</v>
+        <v>8.9525397919120758E-2</v>
       </c>
       <c r="X15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,X$7))</f>
-        <v>0.42639333668659185</v>
+        <v>0.10722522429533606</v>
       </c>
       <c r="Y15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,Y$7))</f>
-        <v>0.5007275344997878</v>
+        <v>0.1257275344997878</v>
       </c>
       <c r="Z15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,Z$7))</f>
-        <v>0.57506173231298374</v>
+        <v>0.1442298447042395</v>
       </c>
       <c r="AA15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AA$7))</f>
-        <v>0.64617190074980135</v>
+        <v>0.16192967108045481</v>
       </c>
       <c r="AB15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AB$7))</f>
-        <v>0.71137009104304616</v>
+        <v>0.17815796407429324</v>
       </c>
       <c r="AC15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AC$7))</f>
-        <v>0.76886159591071823</v>
+        <v>0.19246800828645502</v>
       </c>
       <c r="AD15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AD$7))</f>
-        <v>0.81783991791806554</v>
+        <v>0.20465906077283286</v>
       </c>
       <c r="AE15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AE$7))</f>
-        <v>0.85835533818660581</v>
+        <v>0.21474363686197154</v>
       </c>
       <c r="AF15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AF$7))</f>
-        <v>0.89106192220686109</v>
+        <v>0.22288453810357076</v>
       </c>
       <c r="AG15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AG$7))</f>
-        <v>0.91694832551835703</v>
+        <v>0.22932784788879884</v>
       </c>
       <c r="AH15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AH$7))</f>
-        <v>0.93711827452120133</v>
+        <v>0.23434829156394865</v>
       </c>
       <c r="AI15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AI$7))</f>
-        <v>0.95264313474027185</v>
+        <v>0.2382125396234468</v>
       </c>
       <c r="AJ15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AJ$7))</f>
-        <v>0.96448056926215253</v>
+        <v>0.24115896121662961</v>
       </c>
       <c r="AK15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AK$7))</f>
-        <v>0.97344170688396969</v>
+        <v>0.24338945206661913</v>
       </c>
       <c r="AL15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AL$7))</f>
-        <v>0.98018856327973825</v>
+        <v>0.2450687925802964</v>
       </c>
       <c r="AM15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AM$7))</f>
-        <v>0.98524746554224263</v>
+        <v>0.24632798931219738</v>
       </c>
       <c r="AN15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AN$7))</f>
-        <v>0.9890290441290287</v>
+        <v>0.24726925110197362</v>
       </c>
       <c r="AO15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AO$7))</f>
-        <v>0.99184930595108189</v>
+        <v>0.24797123431595183</v>
       </c>
       <c r="AP15" s="14">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AP$7))</f>
-        <v>0.99394901593770979</v>
+        <v>0.24849386705639792</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.45">
@@ -57711,7 +57770,7 @@
       </c>
       <c r="E22" s="33">
         <f>E8</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F22" s="7" t="str">
         <f t="shared" si="1"/>
@@ -57724,135 +57783,135 @@
       </c>
       <c r="J22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,J$7))</f>
-        <v>1.098694263059318E-2</v>
+        <v>2.7467356576482949E-3</v>
       </c>
       <c r="K22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,K$7))</f>
-        <v>1.4774031693273055E-2</v>
+        <v>3.6935079233182638E-3</v>
       </c>
       <c r="L22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,L$7))</f>
-        <v>1.984030573407751E-2</v>
+        <v>4.9600764335193774E-3</v>
       </c>
       <c r="M22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,M$7))</f>
-        <v>2.6596993576865863E-2</v>
+        <v>6.6492483942164659E-3</v>
       </c>
       <c r="N22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,N$7))</f>
-        <v>3.5571189272636181E-2</v>
+        <v>8.8927973181590451E-3</v>
       </c>
       <c r="O22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,O$7))</f>
-        <v>4.7425873177566781E-2</v>
+        <v>1.1856468294391695E-2</v>
       </c>
       <c r="P22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,P$7))</f>
-        <v>6.2973356056996513E-2</v>
+        <v>1.5743339014249128E-2</v>
       </c>
       <c r="Q22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,Q$7))</f>
-        <v>8.317269649392238E-2</v>
+        <v>2.0793174123480595E-2</v>
       </c>
       <c r="R22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,R$7))</f>
-        <v>0.10909682119561293</v>
+        <v>2.7274205298903231E-2</v>
       </c>
       <c r="S22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,S$7))</f>
-        <v>0.14185106490048782</v>
+        <v>3.5462766225121956E-2</v>
       </c>
       <c r="T22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,T$7))</f>
-        <v>0.18242552380635635</v>
+        <v>4.5606380951589087E-2</v>
       </c>
       <c r="U22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,U$7))</f>
-        <v>0.23147521650098238</v>
+        <v>5.7868804125245595E-2</v>
       </c>
       <c r="V22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,V$7))</f>
-        <v>0.28905049737499605</v>
+        <v>7.2262624343749013E-2</v>
       </c>
       <c r="W22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,W$7))</f>
-        <v>0.35434369377420455</v>
+        <v>8.8585923443551137E-2</v>
       </c>
       <c r="X22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,X$7))</f>
-        <v>0.42555748318834102</v>
+        <v>0.10638937079708526</v>
       </c>
       <c r="Y22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,Y$7))</f>
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="Z22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,Z$7))</f>
-        <v>0.57444251681165903</v>
+        <v>0.14361062920291476</v>
       </c>
       <c r="AA22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AA$7))</f>
-        <v>0.6456563062257954</v>
+        <v>0.16141407655644885</v>
       </c>
       <c r="AB22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AB$7))</f>
-        <v>0.71094950262500389</v>
+        <v>0.17773737565625097</v>
       </c>
       <c r="AC22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AC$7))</f>
-        <v>0.76852478349901754</v>
+        <v>0.19213119587475438</v>
       </c>
       <c r="AD22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AD$7))</f>
-        <v>0.81757447619364365</v>
+        <v>0.20439361904841091</v>
       </c>
       <c r="AE22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AE$7))</f>
-        <v>0.85814893509951229</v>
+        <v>0.21453723377487807</v>
       </c>
       <c r="AF22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AF$7))</f>
-        <v>0.89090317880438707</v>
+        <v>0.22272579470109677</v>
       </c>
       <c r="AG22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AG$7))</f>
-        <v>0.91682730350607766</v>
+        <v>0.22920682587651942</v>
       </c>
       <c r="AH22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AH$7))</f>
-        <v>0.9370266439430035</v>
+        <v>0.23425666098575088</v>
       </c>
       <c r="AI22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AI$7))</f>
-        <v>0.95257412682243336</v>
+        <v>0.23814353170560834</v>
       </c>
       <c r="AJ22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AJ$7))</f>
-        <v>0.96442881072736386</v>
+        <v>0.24110720268184097</v>
       </c>
       <c r="AK22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AK$7))</f>
-        <v>0.97340300642313404</v>
+        <v>0.24335075160578351</v>
       </c>
       <c r="AL22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AL$7))</f>
-        <v>0.98015969426592253</v>
+        <v>0.24503992356648063</v>
       </c>
       <c r="AM22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AM$7))</f>
-        <v>0.98522596830672693</v>
+        <v>0.24630649207668173</v>
       </c>
       <c r="AN22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AN$7))</f>
-        <v>0.98901305736940681</v>
+        <v>0.2472532643423517</v>
       </c>
       <c r="AO22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AO$7))</f>
-        <v>0.99183742884684012</v>
+        <v>0.24795935721171003</v>
       </c>
       <c r="AP22" s="14">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D22:$E22,$D$7:$E$7,AP$7))</f>
-        <v>0.99394019850841575</v>
+        <v>0.24848504962710394</v>
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.45">
@@ -58788,8 +58847,8 @@
         <v>0</v>
       </c>
       <c r="E29" s="41">
-        <f>SUM(INDEX('AEO 50'!$216:$216,MATCH(E$7,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$227:$227,MATCH(E$7,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$238:$238,MATCH(E$7,'AEO 50'!$1:$1,0)))*Assumptions!A2/INDEX('AEO 50'!$243:$243,MATCH(E$7,'AEO 50'!$1:$1,0))</f>
-        <v>6.4962376722240131E-2</v>
+        <f>SUM(INDEX('AEO 50'!$216:$216,MATCH(E$7,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$227:$227,MATCH(E$7,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$238:$238,MATCH(E$7,'AEO 50'!$1:$1,0)))*Assumptions!A2/INDEX('AEO 50'!$243:$243,MATCH(E$7,'AEO 50'!$1:$1,0))/2</f>
+        <v>3.2481188361120066E-2</v>
       </c>
       <c r="F29" s="7" t="str">
         <f t="shared" si="1"/>
@@ -58802,135 +58861,135 @@
       </c>
       <c r="J29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,J$7))</f>
-        <v>7.1373790619423422E-4</v>
+        <v>3.5686895309711711E-4</v>
       </c>
       <c r="K29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,K$7))</f>
-        <v>9.5975621256471949E-4</v>
+        <v>4.7987810628235975E-4</v>
       </c>
       <c r="L29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,L$7))</f>
-        <v>1.2888734153815643E-3</v>
+        <v>6.4443670769078214E-4</v>
       </c>
       <c r="M29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,M$7))</f>
-        <v>1.7278039164193614E-3</v>
+        <v>8.6390195820968069E-4</v>
       </c>
       <c r="N29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,N$7))</f>
-        <v>2.3107889979870982E-3</v>
+        <v>1.1553944989935491E-3</v>
       </c>
       <c r="O29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,O$7))</f>
-        <v>3.0808974397422769E-3</v>
+        <v>1.5404487198711384E-3</v>
       </c>
       <c r="P29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,P$7))</f>
-        <v>4.090898879638369E-3</v>
+        <v>2.0454494398191845E-3</v>
       </c>
       <c r="Q29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,Q$7))</f>
-        <v>5.4030960426427257E-3</v>
+        <v>2.7015480213213629E-3</v>
       </c>
       <c r="R29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,R$7))</f>
-        <v>7.0871887977082782E-3</v>
+        <v>3.5435943988541391E-3</v>
       </c>
       <c r="S29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,S$7))</f>
-        <v>9.2149823165164242E-3</v>
+        <v>4.6074911582582121E-3</v>
       </c>
       <c r="T29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,T$7))</f>
-        <v>1.1850795601260507E-2</v>
+        <v>5.9253978006302537E-3</v>
       </c>
       <c r="U29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,U$7))</f>
-        <v>1.5037180216198912E-2</v>
+        <v>7.5185901080994559E-3</v>
       </c>
       <c r="V29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,V$7))</f>
-        <v>1.8777407302225376E-2</v>
+        <v>9.3887036511126881E-3</v>
       </c>
       <c r="W29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,W$7))</f>
-        <v>2.3019008524109971E-2</v>
+        <v>1.1509504262054986E-2</v>
       </c>
       <c r="X29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,X$7))</f>
-        <v>2.7645225539849379E-2</v>
+        <v>1.382261276992469E-2</v>
       </c>
       <c r="Y29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,Y$7))</f>
-        <v>3.2481188361120066E-2</v>
+        <v>1.6240594180560033E-2</v>
       </c>
       <c r="Z29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,Z$7))</f>
-        <v>3.7317151182390755E-2</v>
+        <v>1.8658575591195378E-2</v>
       </c>
       <c r="AA29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AA$7))</f>
-        <v>4.194336819813016E-2</v>
+        <v>2.097168409906508E-2</v>
       </c>
       <c r="AB29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AB$7))</f>
-        <v>4.6184969420014751E-2</v>
+        <v>2.3092484710007376E-2</v>
       </c>
       <c r="AC29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AC$7))</f>
-        <v>4.9925196506041214E-2</v>
+        <v>2.4962598253020607E-2</v>
       </c>
       <c r="AD29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AD$7))</f>
-        <v>5.311158112097962E-2</v>
+        <v>2.655579056048981E-2</v>
       </c>
       <c r="AE29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AE$7))</f>
-        <v>5.574739440572371E-2</v>
+        <v>2.7873697202861855E-2</v>
       </c>
       <c r="AF29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AF$7))</f>
-        <v>5.7875187924531855E-2</v>
+        <v>2.8937593962265928E-2</v>
       </c>
       <c r="AG29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AG$7))</f>
-        <v>5.9559280679597405E-2</v>
+        <v>2.9779640339798703E-2</v>
       </c>
       <c r="AH29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AH$7))</f>
-        <v>6.0871477842601766E-2</v>
+        <v>3.0435738921300883E-2</v>
       </c>
       <c r="AI29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AI$7))</f>
-        <v>6.1881479282497862E-2</v>
+        <v>3.0940739641248931E-2</v>
       </c>
       <c r="AJ29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AJ$7))</f>
-        <v>6.2651587724253041E-2</v>
+        <v>3.1325793862126521E-2</v>
       </c>
       <c r="AK29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AK$7))</f>
-        <v>6.323457280582076E-2</v>
+        <v>3.161728640291038E-2</v>
       </c>
       <c r="AL29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AL$7))</f>
-        <v>6.3673503306858573E-2</v>
+        <v>3.1836751653429286E-2</v>
       </c>
       <c r="AM29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AM$7))</f>
-        <v>6.4002620509675409E-2</v>
+        <v>3.2001310254837705E-2</v>
       </c>
       <c r="AN29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AN$7))</f>
-        <v>6.4248638816045894E-2</v>
+        <v>3.2124319408022947E-2</v>
       </c>
       <c r="AO29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AO$7))</f>
-        <v>6.4432116699966471E-2</v>
+        <v>3.2216058349983236E-2</v>
       </c>
       <c r="AP29" s="14">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D29:$E29,$D$7:$E$7,AP$7))</f>
-        <v>6.4568717614881851E-2</v>
+        <v>3.2284358807440926E-2</v>
       </c>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.45">
@@ -59398,8 +59457,8 @@
         <v>0</v>
       </c>
       <c r="E33" s="41">
-        <f>SUM(INDEX('AEO 50'!$217:$218,0,MATCH(E$7,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$228:$229,0,MATCH(E$7,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$239:$240,0,MATCH(E$7,'AEO 50'!$1:$1,0)))*Assumptions!A2/INDEX('AEO 50'!$243:$243,MATCH(E$7,'AEO 50'!$1:$1,0))</f>
-        <v>3.881751386429521E-2</v>
+        <f>SUM(INDEX('AEO 50'!$217:$218,0,MATCH(E$7,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$228:$229,0,MATCH(E$7,'AEO 50'!$1:$1,0)),INDEX('AEO 50'!$239:$240,0,MATCH(E$7,'AEO 50'!$1:$1,0)))*Assumptions!A2/INDEX('AEO 50'!$243:$243,MATCH(E$7,'AEO 50'!$1:$1,0))/2</f>
+        <v>1.9408756932147605E-2</v>
       </c>
       <c r="F33" s="7" t="str">
         <f>IF(D33=E33,"n/a",IF(OR(C33="battery electric vehicle",C33="natural gas vehicle",C33="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -59412,135 +59471,135 @@
       </c>
       <c r="J33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,J$7))</f>
-        <v>4.2648579788926686E-4</v>
+        <v>2.1324289894463343E-4</v>
       </c>
       <c r="K33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,K$7))</f>
-        <v>5.7349118008516366E-4</v>
+        <v>2.8674559004258183E-4</v>
       </c>
       <c r="L33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,L$7))</f>
-        <v>7.7015134290440946E-4</v>
+        <v>3.8507567145220473E-4</v>
       </c>
       <c r="M33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,M$7))</f>
-        <v>1.0324291669185613E-3</v>
+        <v>5.1621458345928065E-4</v>
       </c>
       <c r="N33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,N$7))</f>
-        <v>1.3807851327600239E-3</v>
+        <v>6.9039256638001197E-4</v>
       </c>
       <c r="O33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,O$7))</f>
-        <v>1.8409544895965047E-3</v>
+        <v>9.2047724479825236E-4</v>
       </c>
       <c r="P33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,P$7))</f>
-        <v>2.4444691218236604E-3</v>
+        <v>1.2222345609118302E-3</v>
       </c>
       <c r="Q33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,Q$7))</f>
-        <v>3.2285572992836495E-3</v>
+        <v>1.6142786496418247E-3</v>
       </c>
       <c r="R33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,R$7))</f>
-        <v>4.2348673693112402E-3</v>
+        <v>2.1174336846556201E-3</v>
       </c>
       <c r="S33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,S$7))</f>
-        <v>5.5063056784397258E-3</v>
+        <v>2.7531528392198629E-3</v>
       </c>
       <c r="T33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,T$7))</f>
-        <v>7.0813052995545534E-3</v>
+        <v>3.5406526497772767E-3</v>
       </c>
       <c r="U33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,U$7))</f>
-        <v>8.985292425767618E-3</v>
+        <v>4.492646212883809E-3</v>
       </c>
       <c r="V33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,V$7))</f>
-        <v>1.1220221689335336E-2</v>
+        <v>5.610110844667668E-3</v>
       </c>
       <c r="W33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,W$7))</f>
-        <v>1.375474124580576E-2</v>
+        <v>6.8773706229028802E-3</v>
       </c>
       <c r="X33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,X$7))</f>
-        <v>1.6519083503718002E-2</v>
+        <v>8.2595417518590009E-3</v>
       </c>
       <c r="Y33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,Y$7))</f>
-        <v>1.9408756932147605E-2</v>
+        <v>9.7043784660738024E-3</v>
       </c>
       <c r="Z33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,Z$7))</f>
-        <v>2.2298430360577208E-2</v>
+        <v>1.1149215180288604E-2</v>
       </c>
       <c r="AA33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AA$7))</f>
-        <v>2.5062772618489448E-2</v>
+        <v>1.2531386309244724E-2</v>
       </c>
       <c r="AB33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AB$7))</f>
-        <v>2.7597292174959872E-2</v>
+        <v>1.3798646087479936E-2</v>
       </c>
       <c r="AC33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AC$7))</f>
-        <v>2.9832221438527588E-2</v>
+        <v>1.4916110719263794E-2</v>
       </c>
       <c r="AD33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AD$7))</f>
-        <v>3.1736208564740652E-2</v>
+        <v>1.5868104282370326E-2</v>
       </c>
       <c r="AE33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AE$7))</f>
-        <v>3.3311208185855486E-2</v>
+        <v>1.6655604092927743E-2</v>
       </c>
       <c r="AF33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AF$7))</f>
-        <v>3.4582646494983972E-2</v>
+        <v>1.7291323247491986E-2</v>
       </c>
       <c r="AG33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AG$7))</f>
-        <v>3.5588956565011563E-2</v>
+        <v>1.7794478282505782E-2</v>
       </c>
       <c r="AH33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AH$7))</f>
-        <v>3.637304474247155E-2</v>
+        <v>1.8186522371235775E-2</v>
       </c>
       <c r="AI33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AI$7))</f>
-        <v>3.6976559374698709E-2</v>
+        <v>1.8488279687349354E-2</v>
       </c>
       <c r="AJ33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AJ$7))</f>
-        <v>3.7436728731535189E-2</v>
+        <v>1.8718364365767595E-2</v>
       </c>
       <c r="AK33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AK$7))</f>
-        <v>3.7785084697376646E-2</v>
+        <v>1.8892542348688323E-2</v>
       </c>
       <c r="AL33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AL$7))</f>
-        <v>3.80473625213908E-2</v>
+        <v>1.90236812606954E-2</v>
       </c>
       <c r="AM33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AM$7))</f>
-        <v>3.8244022684210045E-2</v>
+        <v>1.9122011342105023E-2</v>
       </c>
       <c r="AN33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AN$7))</f>
-        <v>3.8391028066405944E-2</v>
+        <v>1.9195514033202972E-2</v>
       </c>
       <c r="AO33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AO$7))</f>
-        <v>3.8500663145389129E-2</v>
+        <v>1.9250331572694564E-2</v>
       </c>
       <c r="AP33" s="14">
         <f>IF($F33="s-curve",$D33+($E33-$D33)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D33:$E33,$D$7:$E$7,AP$7))</f>
-        <v>3.8582287435880762E-2</v>
+        <v>1.9291143717940381E-2</v>
       </c>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.45">
@@ -62011,7 +62070,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="14">
-        <f>Assumptions!A28</f>
+        <f>Assumptions!A40</f>
         <v>0.75</v>
       </c>
       <c r="F50" s="7" t="str">
@@ -62469,7 +62528,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="14">
-        <f>Assumptions!A28</f>
+        <f>Assumptions!A40</f>
         <v>0.75</v>
       </c>
       <c r="F53" s="7" t="str">
@@ -68456,8 +68515,8 @@
   </sheetPr>
   <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -68618,11 +68677,11 @@
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="56">
         <f>D2</f>
         <v>1.4550689995755717E-3</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="56">
         <f>D2</f>
         <v>1.4550689995755717E-3</v>
       </c>
@@ -68632,146 +68691,146 @@
       </c>
       <c r="E2" s="14">
         <f>Data!J8</f>
-        <v>1.2426024870546861E-2</v>
+        <v>4.185817897601975E-3</v>
       </c>
       <c r="F2" s="14">
         <f>Data!K8</f>
-        <v>1.6207603457332999E-2</v>
+        <v>5.127079687378207E-3</v>
       </c>
       <c r="G2" s="14">
         <f>Data!L8</f>
-        <v>2.1266505719837323E-2</v>
+        <v>6.3862764192791919E-3</v>
       </c>
       <c r="H2" s="14">
         <f>Data!M8</f>
-        <v>2.8013362115605827E-2</v>
+        <v>8.0656169329564303E-3</v>
       </c>
       <c r="I2" s="14">
         <f>Data!N8</f>
-        <v>3.6974499737423103E-2</v>
+        <v>1.0296107782945969E-2</v>
       </c>
       <c r="J2" s="14">
         <f>Data!O8</f>
-        <v>4.8811934259303871E-2</v>
+        <v>1.3242529376128787E-2</v>
       </c>
       <c r="K2" s="14">
         <f>Data!P8</f>
-        <v>6.4336794478374301E-2</v>
+        <v>1.710677743562693E-2</v>
       </c>
       <c r="L2" s="14">
         <f>Data!Q8</f>
-        <v>8.4506743481218519E-2</v>
+        <v>2.2127221110776751E-2</v>
       </c>
       <c r="M2" s="14">
         <f>Data!R8</f>
-        <v>0.1103931467927145</v>
+        <v>2.8570530896004826E-2</v>
       </c>
       <c r="N2" s="14">
         <f>Data!S8</f>
-        <v>0.14309973081296989</v>
+        <v>3.6711432137604041E-2</v>
       </c>
       <c r="O2" s="14">
         <f>Data!T8</f>
-        <v>0.18361515108150994</v>
+        <v>4.6796008226742694E-2</v>
       </c>
       <c r="P2" s="14">
         <f>Data!U8</f>
-        <v>0.23259347308885731</v>
+        <v>5.8987060713120543E-2</v>
       </c>
       <c r="Q2" s="14">
         <f>Data!V8</f>
-        <v>0.29008497795652938</v>
+        <v>7.3297104925282325E-2</v>
       </c>
       <c r="R2" s="14">
         <f>Data!W8</f>
-        <v>0.35528316824977418</v>
+        <v>8.9525397919120758E-2</v>
       </c>
       <c r="S2" s="14">
         <f>Data!X8</f>
-        <v>0.42639333668659185</v>
+        <v>0.10722522429533606</v>
       </c>
       <c r="T2" s="14">
         <f>Data!Y8</f>
-        <v>0.5007275344997878</v>
+        <v>0.1257275344997878</v>
       </c>
       <c r="U2" s="14">
         <f>Data!Z8</f>
-        <v>0.57506173231298374</v>
+        <v>0.1442298447042395</v>
       </c>
       <c r="V2" s="14">
         <f>Data!AA8</f>
-        <v>0.64617190074980135</v>
+        <v>0.16192967108045481</v>
       </c>
       <c r="W2" s="14">
         <f>Data!AB8</f>
-        <v>0.71137009104304616</v>
+        <v>0.17815796407429324</v>
       </c>
       <c r="X2" s="14">
         <f>Data!AC8</f>
-        <v>0.76886159591071823</v>
+        <v>0.19246800828645502</v>
       </c>
       <c r="Y2" s="14">
         <f>Data!AD8</f>
-        <v>0.81783991791806554</v>
+        <v>0.20465906077283286</v>
       </c>
       <c r="Z2" s="14">
         <f>Data!AE8</f>
-        <v>0.85835533818660581</v>
+        <v>0.21474363686197154</v>
       </c>
       <c r="AA2" s="14">
         <f>Data!AF8</f>
-        <v>0.89106192220686109</v>
+        <v>0.22288453810357076</v>
       </c>
       <c r="AB2" s="14">
         <f>Data!AG8</f>
-        <v>0.91694832551835703</v>
+        <v>0.22932784788879884</v>
       </c>
       <c r="AC2" s="14">
         <f>Data!AH8</f>
-        <v>0.93711827452120133</v>
+        <v>0.23434829156394865</v>
       </c>
       <c r="AD2" s="14">
         <f>Data!AI8</f>
-        <v>0.95264313474027185</v>
+        <v>0.2382125396234468</v>
       </c>
       <c r="AE2" s="14">
         <f>Data!AJ8</f>
-        <v>0.96448056926215253</v>
+        <v>0.24115896121662961</v>
       </c>
       <c r="AF2" s="14">
         <f>Data!AK8</f>
-        <v>0.97344170688396969</v>
+        <v>0.24338945206661913</v>
       </c>
       <c r="AG2" s="14">
         <f>Data!AL8</f>
-        <v>0.98018856327973825</v>
+        <v>0.2450687925802964</v>
       </c>
       <c r="AH2" s="14">
         <f>Data!AM8</f>
-        <v>0.98524746554224263</v>
+        <v>0.24632798931219738</v>
       </c>
       <c r="AI2" s="14">
         <f>Data!AN8</f>
-        <v>0.9890290441290287</v>
+        <v>0.24726925110197362</v>
       </c>
       <c r="AJ2" s="14">
         <f>Data!AO8</f>
-        <v>0.99184930595108189</v>
+        <v>0.24797123431595183</v>
       </c>
       <c r="AK2" s="14">
         <f>Data!AP8</f>
-        <v>0.99394901593770979</v>
+        <v>0.24849386705639792</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="56">
         <f t="shared" ref="B3:B8" si="0">D3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="56">
         <f t="shared" ref="C3:C8" si="1">D3</f>
         <v>0</v>
       </c>
@@ -69065,11 +69124,11 @@
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="56">
         <f t="shared" si="0"/>
         <v>4.9584365801992401E-2</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="56">
         <f t="shared" si="1"/>
         <v>4.9584365801992401E-2</v>
       </c>
@@ -69214,11 +69273,11 @@
       <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="56">
         <f t="shared" si="0"/>
         <v>1.4094947551288909E-3</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="56">
         <f t="shared" si="1"/>
         <v>1.4094947551288909E-3</v>
       </c>
@@ -69363,11 +69422,11 @@
       <c r="A7" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -69512,11 +69571,11 @@
       <c r="A8" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
